--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$177</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="131">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -176,19 +176,19 @@
   </si>
   <si>
     <t>https://xhbup.com/swksn/</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>丰胸</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>https://www.xhbup.com/jcqfws/</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>减肥</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>佛山市晳美化妆品有限公司</t>
@@ -204,7 +204,7 @@
   </si>
   <si>
     <t>https://xhbup.com/sgxcmy/</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>瓷装</t>
@@ -220,7 +220,7 @@
   </si>
   <si>
     <t>淘宝</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>肇庆市金麟信息服务有限公司</t>
@@ -230,7 +230,7 @@
   </si>
   <si>
     <t>小说</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>https://www.xhbup.com/danjiang/</t>
@@ -252,32 +252,204 @@
   </si>
   <si>
     <t>https://www.xhbup.com/muxian/</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>韶关市越冠贸易有限公司</t>
   </si>
   <si>
     <t>狐臭</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>https://www.xhbup.com/yueguan/</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>梅州市葆斯维姿化妆品有限公司</t>
   </si>
   <si>
     <t>https://www.xhbup.com/bswz/</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州正和药业连锁有限公司</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州正和药业连锁有限公司2</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhyy1/</t>
+  </si>
+  <si>
+    <t>珠海贝莉莱斯化妆品有限公司</t>
+  </si>
+  <si>
+    <t>丰胸</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/blls/</t>
+  </si>
+  <si>
+    <t>邓远坤</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市白云区茜妃化妆品厂6</t>
+  </si>
+  <si>
+    <t>杨鑫</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/qianfei2/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市白云区茜妃化妆品厂7</t>
+  </si>
+  <si>
+    <t>刘周锋</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰胸</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/ulaix/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>李圣</t>
+  </si>
+  <si>
+    <t>韶关雯斯特商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/wensite/</t>
+  </si>
+  <si>
+    <t>广东绿瘦电子商务有限公司</t>
+  </si>
+  <si>
+    <t>广州优铂优匠生物科技有限公司</t>
+  </si>
+  <si>
+    <t>除皱</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/ybyj3/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆丰市王一米贸易有限公司</t>
+  </si>
+  <si>
+    <t>姚芳</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/wangyim1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市鹏浮网络科技有限公司</t>
+  </si>
+  <si>
+    <t>广州铂思琳化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/gzbslhzp/</t>
+  </si>
+  <si>
+    <t>汕头市奈梨贸易有限公司</t>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱泽亮</t>
+  </si>
+  <si>
+    <t>九江致尚化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhishang2/</t>
+  </si>
+  <si>
+    <t>佛山市锦宸化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/jinchen/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/lvshou2/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/nlmy/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/qianfei3/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州龙聚网络科技有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/longju/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州多乐米科技有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/duolem/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>汕尾市城区鸿展商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/hongzhan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉哥</t>
+  </si>
+  <si>
+    <t>东莞市艾芙思护肤品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/aifus/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州优理氏生物科技有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/youlis/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛红</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,25 +486,6 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -373,12 +526,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Sans Unicode"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -424,6 +571,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -622,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -667,22 +822,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -691,13 +837,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,37 +855,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,7 +906,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -786,13 +941,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>1574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1122,13 +1277,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q180"/>
+  <dimension ref="B1:Q179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomRight" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1163,7 +1318,7 @@
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
-      <c r="K1" s="19"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="7"/>
       <c r="N1" s="35" t="s">
         <v>1</v>
@@ -1200,22 +1355,22 @@
       <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1247,20 +1402,20 @@
       <c r="J3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="30" t="s">
         <v>52</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="22">
+      <c r="N3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="19">
         <v>181</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="27">
+      <c r="P3" s="19"/>
+      <c r="Q3" s="24">
         <f>O3+P3</f>
         <v>181</v>
       </c>
@@ -1293,24 +1448,24 @@
       <c r="J4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="30" t="s">
         <v>54</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="20">
         <f>SUM(O3:O3)</f>
         <v>181</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="20">
         <f>SUM(P3:P3)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="20">
         <f>SUM(Q3:Q3)</f>
         <v>181</v>
       </c>
@@ -1448,7 +1603,7 @@
       <c r="J8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="30" t="s">
         <v>60</v>
       </c>
       <c r="L8" s="9" t="s">
@@ -2428,7 +2583,7 @@
       <c r="J36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="41" t="s">
+      <c r="K36" s="30" t="s">
         <v>75</v>
       </c>
       <c r="L36" s="9" t="s">
@@ -2463,7 +2618,7 @@
       <c r="J37" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="41" t="s">
+      <c r="K37" s="30" t="s">
         <v>78</v>
       </c>
       <c r="L37" s="9" t="s">
@@ -2498,7 +2653,7 @@
       <c r="J38" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="41" t="s">
+      <c r="K38" s="30" t="s">
         <v>80</v>
       </c>
       <c r="L38" s="9" t="s">
@@ -2506,1860 +2661,2347 @@
       </c>
     </row>
     <row r="39" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="9"/>
+      <c r="B39" s="9">
+        <v>25</v>
+      </c>
+      <c r="C39" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>51</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="40" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="9"/>
+      <c r="B40" s="9">
+        <v>26</v>
+      </c>
+      <c r="C40" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" t="s">
+        <v>83</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="41" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B41" s="12"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="9"/>
+      <c r="B41" s="9">
+        <v>27</v>
+      </c>
+      <c r="C41" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="42" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B42" s="12"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="9"/>
+      <c r="B42" s="9">
+        <v>28</v>
+      </c>
+      <c r="C42" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>89</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="43" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B43" s="12"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="9"/>
+      <c r="B43" s="9">
+        <v>29</v>
+      </c>
+      <c r="C43" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="44" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B44" s="12"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="9"/>
+      <c r="B44" s="9">
+        <v>24</v>
+      </c>
+      <c r="C44" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
+        <v>69</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="45" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B45" s="12"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="9"/>
+      <c r="B45" s="9">
+        <v>6</v>
+      </c>
+      <c r="C45" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="46" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B46" s="12"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="9"/>
+      <c r="B46" s="9">
+        <v>7</v>
+      </c>
+      <c r="C46" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" t="s">
+        <v>97</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="47" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B47" s="12"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="9"/>
+      <c r="B47" s="9">
+        <v>8</v>
+      </c>
+      <c r="C47" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="48" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B48" s="12"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="9"/>
-    </row>
-    <row r="49" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B49" s="12"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B50" s="12"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="9"/>
+      <c r="B48" s="9">
+        <v>9</v>
+      </c>
+      <c r="C48" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="B49" s="9">
+        <v>10</v>
+      </c>
+      <c r="C49" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="9">
+        <v>1</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="B50" s="9">
+        <v>11</v>
+      </c>
+      <c r="C50" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="9">
+        <v>1</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="51" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B51" s="12"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="9"/>
+      <c r="B51" s="9">
+        <v>25</v>
+      </c>
+      <c r="C51" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" t="s">
+        <v>51</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="52" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B52" s="12"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="9"/>
+      <c r="B52" s="9">
+        <v>6</v>
+      </c>
+      <c r="C52" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="53" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B53" s="12"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="9"/>
+      <c r="B53" s="9">
+        <v>7</v>
+      </c>
+      <c r="C53" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="54" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B54" s="12"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="9"/>
+      <c r="B54" s="9">
+        <v>8</v>
+      </c>
+      <c r="C54" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="9">
+        <v>1</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="55" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B55" s="12"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="9"/>
+      <c r="B55" s="9">
+        <v>9</v>
+      </c>
+      <c r="C55" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="9">
+        <v>1</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K55" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="56" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B56" s="12"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="9"/>
+      <c r="B56" s="9">
+        <v>28</v>
+      </c>
+      <c r="C56" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D56" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="57" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B57" s="12"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="9"/>
+      <c r="B57" s="9">
+        <v>29</v>
+      </c>
+      <c r="C57" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B58" s="12"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="16"/>
+      <c r="B58" s="9">
+        <v>30</v>
+      </c>
+      <c r="C58" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G58" s="9">
+        <v>1</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="32" t="s">
+        <v>122</v>
+      </c>
       <c r="L58" s="9"/>
     </row>
     <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B59" s="12"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="9"/>
-    </row>
-    <row r="60" spans="2:12" s="2" customFormat="1" ht="172.5" customHeight="1">
-      <c r="B60" s="12"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="9"/>
+      <c r="B59" s="9">
+        <v>31</v>
+      </c>
+      <c r="C59" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B60" s="9">
+        <v>32</v>
+      </c>
+      <c r="C60" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="9">
+        <v>1</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K60" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="61" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B61" s="12"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="9"/>
+      <c r="B61" s="9">
+        <v>33</v>
+      </c>
+      <c r="C61" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" s="9">
+        <v>1</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K61" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="62" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B62" s="12"/>
       <c r="C62" s="10"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="28"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="25"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
-      <c r="I62" s="16"/>
+      <c r="I62" s="13"/>
       <c r="J62" s="9"/>
-      <c r="K62" s="16"/>
+      <c r="K62" s="13"/>
       <c r="L62" s="9"/>
     </row>
     <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B63" s="12"/>
       <c r="C63" s="10"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="28"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="25"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
-      <c r="I63" s="16"/>
+      <c r="I63" s="27"/>
       <c r="J63" s="9"/>
-      <c r="K63" s="16"/>
+      <c r="K63" s="13"/>
       <c r="L63" s="9"/>
     </row>
     <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B64" s="12"/>
       <c r="C64" s="10"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="28"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="25"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
-      <c r="I64" s="31"/>
+      <c r="I64" s="27"/>
       <c r="J64" s="9"/>
-      <c r="K64" s="16"/>
+      <c r="K64" s="13"/>
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B65" s="12"/>
       <c r="C65" s="10"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="28"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="25"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="31"/>
+      <c r="I65" s="27"/>
       <c r="J65" s="9"/>
-      <c r="K65" s="16"/>
+      <c r="K65" s="13"/>
       <c r="L65" s="9"/>
     </row>
     <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B66" s="12"/>
       <c r="C66" s="10"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="28"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="25"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="31"/>
+      <c r="I66" s="27"/>
       <c r="J66" s="9"/>
-      <c r="K66" s="16"/>
+      <c r="K66" s="13"/>
       <c r="L66" s="9"/>
     </row>
     <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B67" s="12"/>
       <c r="C67" s="10"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="28"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="25"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="31"/>
+      <c r="I67" s="27"/>
       <c r="J67" s="9"/>
-      <c r="K67" s="16"/>
+      <c r="K67" s="13"/>
       <c r="L67" s="9"/>
     </row>
     <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B68" s="12"/>
       <c r="C68" s="10"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="28"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="25"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
-      <c r="I68" s="31"/>
+      <c r="I68" s="27"/>
       <c r="J68" s="9"/>
-      <c r="K68" s="16"/>
+      <c r="K68" s="13"/>
       <c r="L68" s="9"/>
     </row>
     <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B69" s="12"/>
       <c r="C69" s="10"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="28"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="25"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
-      <c r="I69" s="31"/>
+      <c r="I69" s="27"/>
       <c r="J69" s="9"/>
-      <c r="K69" s="16"/>
+      <c r="K69" s="13"/>
       <c r="L69" s="9"/>
     </row>
     <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B70" s="12"/>
       <c r="C70" s="10"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="28"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="25"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
-      <c r="I70" s="31"/>
+      <c r="I70" s="27"/>
       <c r="J70" s="9"/>
-      <c r="K70" s="16"/>
+      <c r="K70" s="13"/>
       <c r="L70" s="9"/>
     </row>
     <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B71" s="12"/>
       <c r="C71" s="10"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="28"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="25"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
-      <c r="I71" s="31"/>
+      <c r="I71" s="27"/>
       <c r="J71" s="9"/>
-      <c r="K71" s="16"/>
+      <c r="K71" s="13"/>
       <c r="L71" s="9"/>
     </row>
     <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B72" s="12"/>
       <c r="C72" s="10"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="28"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="25"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
-      <c r="I72" s="31"/>
+      <c r="I72" s="13"/>
       <c r="J72" s="9"/>
-      <c r="K72" s="16"/>
+      <c r="K72" s="13"/>
       <c r="L72" s="9"/>
     </row>
     <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B73" s="12"/>
       <c r="C73" s="10"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="28"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="25"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
-      <c r="I73" s="16"/>
+      <c r="I73" s="13"/>
       <c r="J73" s="9"/>
-      <c r="K73" s="16"/>
+      <c r="K73" s="13"/>
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B74" s="12"/>
       <c r="C74" s="10"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="28"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="25"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="16"/>
+      <c r="I74" s="13"/>
       <c r="J74" s="9"/>
-      <c r="K74" s="16"/>
+      <c r="K74" s="13"/>
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B75" s="12"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="28"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="25"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="16"/>
+      <c r="I75" s="13"/>
       <c r="J75" s="9"/>
-      <c r="K75" s="16"/>
+      <c r="K75" s="13"/>
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B76" s="12"/>
       <c r="C76" s="10"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="28"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="25"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
-      <c r="I76" s="16"/>
+      <c r="I76" s="13"/>
       <c r="J76" s="9"/>
-      <c r="K76" s="16"/>
+      <c r="K76" s="13"/>
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B77" s="12"/>
       <c r="C77" s="10"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="28"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="25"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
-      <c r="I77" s="16"/>
+      <c r="I77" s="13"/>
       <c r="J77" s="9"/>
-      <c r="K77" s="16"/>
+      <c r="K77" s="13"/>
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B78" s="12"/>
       <c r="C78" s="10"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="25"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
-      <c r="I78" s="16"/>
+      <c r="I78" s="28"/>
       <c r="J78" s="9"/>
-      <c r="K78" s="16"/>
+      <c r="K78" s="13"/>
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B79" s="12"/>
       <c r="C79" s="10"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="28"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="25"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
-      <c r="I79" s="32"/>
+      <c r="I79" s="13"/>
       <c r="J79" s="9"/>
-      <c r="K79" s="16"/>
+      <c r="K79" s="13"/>
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B80" s="12"/>
       <c r="C80" s="10"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="28"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="25"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
-      <c r="I80" s="16"/>
+      <c r="I80" s="13"/>
       <c r="J80" s="9"/>
-      <c r="K80" s="16"/>
+      <c r="K80" s="13"/>
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B81" s="12"/>
       <c r="C81" s="10"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="28"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="25"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
-      <c r="I81" s="16"/>
+      <c r="I81" s="13"/>
       <c r="J81" s="9"/>
-      <c r="K81" s="16"/>
+      <c r="K81" s="13"/>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B82" s="12"/>
       <c r="C82" s="10"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="28"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="25"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
-      <c r="I82" s="16"/>
+      <c r="I82" s="13"/>
       <c r="J82" s="9"/>
-      <c r="K82" s="16"/>
+      <c r="K82" s="13"/>
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B83" s="12"/>
       <c r="C83" s="10"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="28"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="25"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
-      <c r="I83" s="16"/>
+      <c r="I83" s="13"/>
       <c r="J83" s="9"/>
-      <c r="K83" s="16"/>
+      <c r="K83" s="13"/>
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B84" s="12"/>
       <c r="C84" s="10"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="28"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="25"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
-      <c r="I84" s="16"/>
+      <c r="I84" s="13"/>
       <c r="J84" s="9"/>
-      <c r="K84" s="16"/>
+      <c r="K84" s="13"/>
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B85" s="12"/>
       <c r="C85" s="10"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="28"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="25"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
-      <c r="I85" s="16"/>
+      <c r="I85" s="13"/>
       <c r="J85" s="9"/>
-      <c r="K85" s="16"/>
+      <c r="K85" s="13"/>
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B86" s="12"/>
       <c r="C86" s="10"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="28"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="25"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
-      <c r="I86" s="16"/>
+      <c r="I86" s="13"/>
       <c r="J86" s="9"/>
-      <c r="K86" s="16"/>
+      <c r="K86" s="13"/>
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B87" s="12"/>
       <c r="C87" s="10"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="28"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="25"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
-      <c r="I87" s="16"/>
+      <c r="I87" s="13"/>
       <c r="J87" s="9"/>
-      <c r="K87" s="16"/>
+      <c r="K87" s="13"/>
       <c r="L87" s="9"/>
     </row>
     <row r="88" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B88" s="12"/>
       <c r="C88" s="10"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="28"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="25"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
-      <c r="I88" s="16"/>
+      <c r="I88" s="13"/>
       <c r="J88" s="9"/>
-      <c r="K88" s="16"/>
+      <c r="K88" s="13"/>
       <c r="L88" s="9"/>
     </row>
     <row r="89" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B89" s="12"/>
       <c r="C89" s="10"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="28"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="25"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
-      <c r="I89" s="16"/>
+      <c r="I89" s="13"/>
       <c r="J89" s="9"/>
-      <c r="K89" s="16"/>
+      <c r="K89" s="13"/>
       <c r="L89" s="9"/>
     </row>
     <row r="90" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B90" s="12"/>
       <c r="C90" s="10"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="28"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="25"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
-      <c r="I90" s="16"/>
+      <c r="I90" s="13"/>
       <c r="J90" s="9"/>
-      <c r="K90" s="16"/>
+      <c r="K90" s="13"/>
       <c r="L90" s="9"/>
     </row>
     <row r="91" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B91" s="12"/>
       <c r="C91" s="10"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="28"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="25"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
-      <c r="I91" s="16"/>
+      <c r="I91" s="13"/>
       <c r="J91" s="9"/>
-      <c r="K91" s="16"/>
+      <c r="K91" s="13"/>
       <c r="L91" s="9"/>
     </row>
     <row r="92" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B92" s="12"/>
       <c r="C92" s="10"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="28"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="25"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
-      <c r="I92" s="16"/>
+      <c r="I92" s="13"/>
       <c r="J92" s="9"/>
-      <c r="K92" s="16"/>
+      <c r="K92" s="13"/>
       <c r="L92" s="9"/>
     </row>
     <row r="93" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B93" s="12"/>
       <c r="C93" s="10"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="28"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="25"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
-      <c r="I93" s="16"/>
+      <c r="I93" s="13"/>
       <c r="J93" s="9"/>
-      <c r="K93" s="16"/>
+      <c r="K93" s="13"/>
       <c r="L93" s="9"/>
     </row>
     <row r="94" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B94" s="12"/>
       <c r="C94" s="10"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="28"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="25"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
-      <c r="I94" s="16"/>
+      <c r="I94" s="13"/>
       <c r="J94" s="9"/>
-      <c r="K94" s="16"/>
+      <c r="K94" s="13"/>
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B95" s="12"/>
       <c r="C95" s="10"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="28"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="25"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
-      <c r="I95" s="16"/>
+      <c r="I95" s="13"/>
       <c r="J95" s="9"/>
-      <c r="K95" s="16"/>
+      <c r="K95" s="13"/>
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B96" s="12"/>
       <c r="C96" s="10"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="28"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="25"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
-      <c r="I96" s="16"/>
+      <c r="I96" s="27"/>
       <c r="J96" s="9"/>
-      <c r="K96" s="16"/>
+      <c r="K96" s="13"/>
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B97" s="12"/>
       <c r="C97" s="10"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="28"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="25"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
-      <c r="I97" s="31"/>
+      <c r="I97" s="27"/>
       <c r="J97" s="9"/>
-      <c r="K97" s="16"/>
+      <c r="K97" s="13"/>
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B98" s="12"/>
       <c r="C98" s="10"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="28"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="25"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
-      <c r="I98" s="31"/>
+      <c r="I98" s="27"/>
       <c r="J98" s="9"/>
-      <c r="K98" s="16"/>
+      <c r="K98" s="13"/>
       <c r="L98" s="9"/>
     </row>
     <row r="99" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B99" s="12"/>
       <c r="C99" s="10"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="28"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="25"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
-      <c r="I99" s="31"/>
+      <c r="I99" s="27"/>
       <c r="J99" s="9"/>
-      <c r="K99" s="16"/>
+      <c r="K99" s="13"/>
       <c r="L99" s="9"/>
     </row>
     <row r="100" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B100" s="12"/>
       <c r="C100" s="10"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="28"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="25"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
-      <c r="I100" s="31"/>
+      <c r="I100" s="13"/>
       <c r="J100" s="9"/>
-      <c r="K100" s="16"/>
+      <c r="K100" s="13"/>
       <c r="L100" s="9"/>
     </row>
     <row r="101" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B101" s="12"/>
       <c r="C101" s="10"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="28"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="25"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
-      <c r="I101" s="16"/>
+      <c r="I101" s="13"/>
       <c r="J101" s="9"/>
-      <c r="K101" s="16"/>
+      <c r="K101" s="13"/>
       <c r="L101" s="9"/>
     </row>
     <row r="102" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B102" s="12"/>
       <c r="C102" s="10"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="25"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
-      <c r="I102" s="16"/>
+      <c r="I102" s="13"/>
       <c r="J102" s="9"/>
-      <c r="K102" s="16"/>
+      <c r="K102" s="13"/>
       <c r="L102" s="9"/>
     </row>
     <row r="103" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B103" s="12"/>
       <c r="C103" s="10"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="25"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
-      <c r="I103" s="16"/>
+      <c r="I103" s="27"/>
       <c r="J103" s="9"/>
-      <c r="K103" s="16"/>
+      <c r="K103" s="13"/>
       <c r="L103" s="9"/>
     </row>
     <row r="104" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B104" s="12"/>
       <c r="C104" s="10"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="28"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="25"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
-      <c r="I104" s="31"/>
+      <c r="I104" s="27"/>
       <c r="J104" s="9"/>
-      <c r="K104" s="16"/>
+      <c r="K104" s="13"/>
       <c r="L104" s="9"/>
     </row>
     <row r="105" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B105" s="12"/>
       <c r="C105" s="10"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="28"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="25"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
-      <c r="I105" s="31"/>
+      <c r="I105" s="27"/>
       <c r="J105" s="9"/>
-      <c r="K105" s="16"/>
+      <c r="K105" s="13"/>
       <c r="L105" s="9"/>
     </row>
     <row r="106" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B106" s="12"/>
       <c r="C106" s="10"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="28"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="25"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
-      <c r="I106" s="31"/>
+      <c r="I106" s="27"/>
       <c r="J106" s="9"/>
-      <c r="K106" s="16"/>
+      <c r="K106" s="13"/>
       <c r="L106" s="9"/>
     </row>
     <row r="107" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B107" s="12"/>
       <c r="C107" s="10"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="28"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="25"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
-      <c r="I107" s="31"/>
+      <c r="I107" s="27"/>
       <c r="J107" s="9"/>
-      <c r="K107" s="16"/>
+      <c r="K107" s="13"/>
       <c r="L107" s="9"/>
     </row>
     <row r="108" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B108" s="12"/>
       <c r="C108" s="10"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="28"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="25"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
-      <c r="I108" s="31"/>
+      <c r="I108" s="13"/>
       <c r="J108" s="9"/>
-      <c r="K108" s="16"/>
+      <c r="K108" s="13"/>
       <c r="L108" s="9"/>
     </row>
     <row r="109" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B109" s="12"/>
       <c r="C109" s="10"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="28"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="25"/>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
-      <c r="I109" s="16"/>
+      <c r="I109" s="13"/>
       <c r="J109" s="9"/>
-      <c r="K109" s="16"/>
+      <c r="K109" s="13"/>
       <c r="L109" s="9"/>
     </row>
     <row r="110" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B110" s="12"/>
       <c r="C110" s="10"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="28"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="25"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
-      <c r="I110" s="16"/>
+      <c r="I110" s="13"/>
       <c r="J110" s="9"/>
-      <c r="K110" s="16"/>
+      <c r="K110" s="13"/>
       <c r="L110" s="9"/>
     </row>
     <row r="111" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B111" s="12"/>
       <c r="C111" s="10"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="28"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="25"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
-      <c r="I111" s="16"/>
+      <c r="I111" s="13"/>
       <c r="J111" s="9"/>
-      <c r="K111" s="16"/>
+      <c r="K111" s="13"/>
       <c r="L111" s="9"/>
     </row>
     <row r="112" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B112" s="12"/>
       <c r="C112" s="10"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="28"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="25"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
-      <c r="I112" s="16"/>
+      <c r="I112" s="13"/>
       <c r="J112" s="9"/>
-      <c r="K112" s="16"/>
+      <c r="K112" s="13"/>
       <c r="L112" s="9"/>
     </row>
     <row r="113" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B113" s="12"/>
       <c r="C113" s="10"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="28"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="25"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
-      <c r="I113" s="16"/>
+      <c r="I113" s="13"/>
       <c r="J113" s="9"/>
-      <c r="K113" s="16"/>
+      <c r="K113" s="13"/>
       <c r="L113" s="9"/>
     </row>
     <row r="114" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B114" s="12"/>
       <c r="C114" s="10"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="28"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="25"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
-      <c r="I114" s="16"/>
+      <c r="I114" s="13"/>
       <c r="J114" s="9"/>
-      <c r="K114" s="16"/>
+      <c r="K114" s="13"/>
       <c r="L114" s="9"/>
     </row>
     <row r="115" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B115" s="12"/>
       <c r="C115" s="10"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="28"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="25"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
-      <c r="I115" s="16"/>
+      <c r="I115" s="13"/>
       <c r="J115" s="9"/>
-      <c r="K115" s="16"/>
+      <c r="K115" s="13"/>
       <c r="L115" s="9"/>
     </row>
     <row r="116" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B116" s="12"/>
       <c r="C116" s="10"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="28"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="25"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
-      <c r="I116" s="16"/>
+      <c r="I116" s="13"/>
       <c r="J116" s="9"/>
-      <c r="K116" s="16"/>
+      <c r="K116" s="13"/>
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B117" s="12"/>
       <c r="C117" s="10"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="28"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="25"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
-      <c r="I117" s="16"/>
+      <c r="I117" s="13"/>
       <c r="J117" s="9"/>
-      <c r="K117" s="16"/>
+      <c r="K117" s="13"/>
       <c r="L117" s="9"/>
     </row>
     <row r="118" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B118" s="12"/>
       <c r="C118" s="10"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="28"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="25"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
-      <c r="I118" s="16"/>
+      <c r="I118" s="13"/>
       <c r="J118" s="9"/>
-      <c r="K118" s="16"/>
+      <c r="K118" s="13"/>
       <c r="L118" s="9"/>
     </row>
     <row r="119" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B119" s="12"/>
       <c r="C119" s="10"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="28"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="25"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
-      <c r="I119" s="16"/>
+      <c r="I119" s="13"/>
       <c r="J119" s="9"/>
-      <c r="K119" s="16"/>
+      <c r="K119" s="13"/>
       <c r="L119" s="9"/>
     </row>
     <row r="120" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B120" s="12"/>
       <c r="C120" s="10"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="28"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="25"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
-      <c r="I120" s="16"/>
+      <c r="I120" s="29"/>
       <c r="J120" s="9"/>
-      <c r="K120" s="16"/>
+      <c r="K120" s="13"/>
       <c r="L120" s="9"/>
     </row>
     <row r="121" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B121" s="12"/>
       <c r="C121" s="10"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="28"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="25"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
-      <c r="I121" s="33"/>
+      <c r="I121" s="27"/>
       <c r="J121" s="9"/>
-      <c r="K121" s="16"/>
+      <c r="K121" s="13"/>
       <c r="L121" s="9"/>
     </row>
     <row r="122" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B122" s="12"/>
       <c r="C122" s="10"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="28"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="25"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
-      <c r="I122" s="31"/>
+      <c r="I122" s="29"/>
       <c r="J122" s="9"/>
-      <c r="K122" s="16"/>
+      <c r="K122" s="13"/>
       <c r="L122" s="9"/>
     </row>
     <row r="123" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B123" s="12"/>
       <c r="C123" s="10"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="28"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="25"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
-      <c r="I123" s="33"/>
+      <c r="I123" s="27"/>
       <c r="J123" s="9"/>
-      <c r="K123" s="16"/>
+      <c r="K123" s="13"/>
       <c r="L123" s="9"/>
     </row>
     <row r="124" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B124" s="12"/>
       <c r="C124" s="10"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="31"/>
-      <c r="F124" s="28"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="25"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
-      <c r="I124" s="31"/>
+      <c r="I124" s="27"/>
       <c r="J124" s="9"/>
-      <c r="K124" s="16"/>
+      <c r="K124" s="13"/>
       <c r="L124" s="9"/>
     </row>
     <row r="125" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B125" s="12"/>
       <c r="C125" s="10"/>
-      <c r="D125" s="31"/>
-      <c r="E125" s="31"/>
-      <c r="F125" s="28"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="25"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
-      <c r="I125" s="31"/>
+      <c r="I125" s="13"/>
       <c r="J125" s="9"/>
-      <c r="K125" s="16"/>
+      <c r="K125" s="13"/>
       <c r="L125" s="9"/>
     </row>
     <row r="126" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B126" s="12"/>
       <c r="C126" s="10"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="28"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="25"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
-      <c r="I126" s="16"/>
+      <c r="I126" s="13"/>
       <c r="J126" s="9"/>
-      <c r="K126" s="16"/>
+      <c r="K126" s="13"/>
       <c r="L126" s="9"/>
     </row>
     <row r="127" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B127" s="12"/>
       <c r="C127" s="10"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="28"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="25"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
-      <c r="I127" s="16"/>
+      <c r="I127" s="13"/>
       <c r="J127" s="9"/>
-      <c r="K127" s="16"/>
+      <c r="K127" s="13"/>
       <c r="L127" s="9"/>
     </row>
     <row r="128" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B128" s="12"/>
       <c r="C128" s="10"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
-      <c r="F128" s="28"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="25"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
-      <c r="I128" s="16"/>
+      <c r="I128" s="13"/>
       <c r="J128" s="9"/>
-      <c r="K128" s="16"/>
+      <c r="K128" s="13"/>
       <c r="L128" s="9"/>
     </row>
-    <row r="129" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="129" spans="2:12" s="2" customFormat="1" ht="65.25" customHeight="1">
       <c r="B129" s="12"/>
       <c r="C129" s="10"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16"/>
-      <c r="F129" s="28"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="25"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
-      <c r="I129" s="16"/>
+      <c r="I129" s="13"/>
       <c r="J129" s="9"/>
-      <c r="K129" s="16"/>
+      <c r="K129" s="13"/>
       <c r="L129" s="9"/>
     </row>
-    <row r="130" spans="2:12" s="2" customFormat="1" ht="65.25" customHeight="1">
+    <row r="130" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B130" s="12"/>
       <c r="C130" s="10"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="28"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="25"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
-      <c r="I130" s="16"/>
+      <c r="I130" s="13"/>
       <c r="J130" s="9"/>
-      <c r="K130" s="16"/>
+      <c r="K130" s="13"/>
       <c r="L130" s="9"/>
     </row>
     <row r="131" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B131" s="12"/>
       <c r="C131" s="10"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16"/>
-      <c r="F131" s="28"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="25"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
-      <c r="I131" s="16"/>
+      <c r="I131" s="13"/>
       <c r="J131" s="9"/>
-      <c r="K131" s="16"/>
+      <c r="K131" s="13"/>
       <c r="L131" s="9"/>
     </row>
     <row r="132" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B132" s="12"/>
       <c r="C132" s="10"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="28"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="25"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
-      <c r="I132" s="16"/>
+      <c r="I132" s="13"/>
       <c r="J132" s="9"/>
-      <c r="K132" s="16"/>
+      <c r="K132" s="13"/>
       <c r="L132" s="9"/>
     </row>
     <row r="133" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B133" s="12"/>
       <c r="C133" s="10"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
-      <c r="F133" s="28"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="25"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
-      <c r="I133" s="16"/>
+      <c r="I133" s="13"/>
       <c r="J133" s="9"/>
-      <c r="K133" s="16"/>
+      <c r="K133" s="13"/>
       <c r="L133" s="9"/>
     </row>
     <row r="134" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B134" s="12"/>
       <c r="C134" s="10"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="28"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="25"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
-      <c r="I134" s="16"/>
+      <c r="I134" s="13"/>
       <c r="J134" s="9"/>
-      <c r="K134" s="16"/>
+      <c r="K134" s="13"/>
       <c r="L134" s="9"/>
     </row>
-    <row r="135" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="135" spans="2:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B135" s="12"/>
       <c r="C135" s="10"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="28"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="25"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
-      <c r="I135" s="16"/>
+      <c r="I135" s="13"/>
       <c r="J135" s="9"/>
-      <c r="K135" s="16"/>
+      <c r="K135" s="13"/>
       <c r="L135" s="9"/>
     </row>
-    <row r="136" spans="2:12" s="2" customFormat="1" ht="45" customHeight="1">
+    <row r="136" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B136" s="12"/>
       <c r="C136" s="10"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="28"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="25"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
-      <c r="I136" s="16"/>
+      <c r="I136" s="27"/>
       <c r="J136" s="9"/>
-      <c r="K136" s="16"/>
+      <c r="K136" s="13"/>
       <c r="L136" s="9"/>
     </row>
     <row r="137" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B137" s="12"/>
       <c r="C137" s="10"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="31"/>
-      <c r="F137" s="28"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="25"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
-      <c r="I137" s="31"/>
+      <c r="I137" s="13"/>
       <c r="J137" s="9"/>
-      <c r="K137" s="16"/>
+      <c r="K137" s="13"/>
       <c r="L137" s="9"/>
     </row>
     <row r="138" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B138" s="12"/>
       <c r="C138" s="10"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="28"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="25"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
-      <c r="I138" s="16"/>
+      <c r="I138" s="13"/>
       <c r="J138" s="9"/>
-      <c r="K138" s="16"/>
+      <c r="K138" s="13"/>
       <c r="L138" s="9"/>
     </row>
     <row r="139" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B139" s="12"/>
       <c r="C139" s="10"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="28"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="25"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
-      <c r="I139" s="16"/>
+      <c r="I139" s="13"/>
       <c r="J139" s="9"/>
-      <c r="K139" s="16"/>
+      <c r="K139" s="13"/>
       <c r="L139" s="9"/>
     </row>
     <row r="140" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B140" s="12"/>
       <c r="C140" s="10"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
-      <c r="F140" s="28"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="25"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
-      <c r="I140" s="16"/>
+      <c r="I140" s="13"/>
       <c r="J140" s="9"/>
-      <c r="K140" s="16"/>
+      <c r="K140" s="13"/>
       <c r="L140" s="9"/>
     </row>
     <row r="141" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B141" s="12"/>
       <c r="C141" s="10"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="28"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="25"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
-      <c r="I141" s="16"/>
+      <c r="I141" s="13"/>
       <c r="J141" s="9"/>
-      <c r="K141" s="16"/>
+      <c r="K141" s="13"/>
       <c r="L141" s="9"/>
     </row>
     <row r="142" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B142" s="12"/>
       <c r="C142" s="10"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="16"/>
-      <c r="F142" s="28"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="25"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
-      <c r="I142" s="16"/>
+      <c r="I142" s="13"/>
       <c r="J142" s="9"/>
-      <c r="K142" s="16"/>
+      <c r="K142" s="13"/>
       <c r="L142" s="9"/>
     </row>
     <row r="143" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B143" s="12"/>
       <c r="C143" s="10"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="28"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="25"/>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
-      <c r="I143" s="16"/>
+      <c r="I143" s="13"/>
       <c r="J143" s="9"/>
-      <c r="K143" s="16"/>
+      <c r="K143" s="13"/>
       <c r="L143" s="9"/>
     </row>
     <row r="144" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B144" s="12"/>
       <c r="C144" s="10"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="16"/>
-      <c r="F144" s="28"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="25"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
-      <c r="I144" s="16"/>
+      <c r="I144" s="13"/>
       <c r="J144" s="9"/>
-      <c r="K144" s="16"/>
+      <c r="K144" s="13"/>
       <c r="L144" s="9"/>
     </row>
     <row r="145" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B145" s="12"/>
       <c r="C145" s="10"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="28"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="25"/>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
-      <c r="I145" s="16"/>
+      <c r="I145" s="13"/>
       <c r="J145" s="9"/>
-      <c r="K145" s="16"/>
+      <c r="K145" s="13"/>
       <c r="L145" s="9"/>
     </row>
     <row r="146" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B146" s="12"/>
       <c r="C146" s="10"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="16"/>
-      <c r="F146" s="28"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="25"/>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
-      <c r="I146" s="16"/>
+      <c r="I146" s="13"/>
       <c r="J146" s="9"/>
-      <c r="K146" s="16"/>
+      <c r="K146" s="13"/>
       <c r="L146" s="9"/>
     </row>
     <row r="147" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B147" s="12"/>
       <c r="C147" s="10"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16"/>
-      <c r="F147" s="28"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="25"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
-      <c r="I147" s="16"/>
+      <c r="I147" s="13"/>
       <c r="J147" s="9"/>
-      <c r="K147" s="16"/>
+      <c r="K147" s="13"/>
       <c r="L147" s="9"/>
     </row>
     <row r="148" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B148" s="12"/>
       <c r="C148" s="10"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="28"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="25"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
-      <c r="I148" s="16"/>
+      <c r="I148" s="27"/>
       <c r="J148" s="9"/>
-      <c r="K148" s="16"/>
+      <c r="K148" s="13"/>
       <c r="L148" s="9"/>
     </row>
     <row r="149" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B149" s="12"/>
       <c r="C149" s="10"/>
-      <c r="D149" s="31"/>
-      <c r="E149" s="31"/>
-      <c r="F149" s="28"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="25"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
-      <c r="I149" s="31"/>
+      <c r="I149" s="13"/>
       <c r="J149" s="9"/>
-      <c r="K149" s="16"/>
+      <c r="K149" s="13"/>
       <c r="L149" s="9"/>
     </row>
     <row r="150" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B150" s="12"/>
       <c r="C150" s="10"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="16"/>
-      <c r="F150" s="28"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="25"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
-      <c r="I150" s="16"/>
+      <c r="I150" s="13"/>
       <c r="J150" s="9"/>
-      <c r="K150" s="16"/>
+      <c r="K150" s="13"/>
       <c r="L150" s="9"/>
     </row>
     <row r="151" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B151" s="12"/>
       <c r="C151" s="10"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="28"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="25"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
-      <c r="I151" s="16"/>
+      <c r="I151" s="13"/>
       <c r="J151" s="9"/>
-      <c r="K151" s="16"/>
+      <c r="K151" s="13"/>
       <c r="L151" s="9"/>
     </row>
     <row r="152" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B152" s="12"/>
       <c r="C152" s="10"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="16"/>
-      <c r="F152" s="28"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="25"/>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
-      <c r="I152" s="16"/>
+      <c r="I152" s="13"/>
       <c r="J152" s="9"/>
-      <c r="K152" s="16"/>
+      <c r="K152" s="13"/>
       <c r="L152" s="9"/>
     </row>
     <row r="153" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B153" s="12"/>
       <c r="C153" s="10"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="28"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="25"/>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
-      <c r="I153" s="16"/>
+      <c r="I153" s="13"/>
       <c r="J153" s="9"/>
-      <c r="K153" s="16"/>
+      <c r="K153" s="13"/>
       <c r="L153" s="9"/>
     </row>
-    <row r="154" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="154" spans="2:12" s="2" customFormat="1" ht="43.5" customHeight="1">
       <c r="B154" s="12"/>
       <c r="C154" s="10"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="28"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="25"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
-      <c r="I154" s="16"/>
+      <c r="I154" s="13"/>
       <c r="J154" s="9"/>
-      <c r="K154" s="16"/>
+      <c r="K154" s="13"/>
       <c r="L154" s="9"/>
     </row>
-    <row r="155" spans="2:12" s="2" customFormat="1" ht="43.5" customHeight="1">
+    <row r="155" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B155" s="12"/>
       <c r="C155" s="10"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="28"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="25"/>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
-      <c r="I155" s="16"/>
+      <c r="I155" s="13"/>
       <c r="J155" s="9"/>
-      <c r="K155" s="16"/>
+      <c r="K155" s="13"/>
       <c r="L155" s="9"/>
     </row>
     <row r="156" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B156" s="12"/>
       <c r="C156" s="10"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="16"/>
-      <c r="F156" s="28"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="25"/>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
-      <c r="I156" s="16"/>
+      <c r="I156" s="13"/>
       <c r="J156" s="9"/>
-      <c r="K156" s="16"/>
+      <c r="K156" s="13"/>
       <c r="L156" s="9"/>
     </row>
     <row r="157" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B157" s="12"/>
       <c r="C157" s="10"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="28"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="25"/>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
-      <c r="I157" s="16"/>
+      <c r="I157" s="13"/>
       <c r="J157" s="9"/>
-      <c r="K157" s="16"/>
+      <c r="K157" s="13"/>
       <c r="L157" s="9"/>
     </row>
     <row r="158" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B158" s="12"/>
       <c r="C158" s="10"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="16"/>
-      <c r="F158" s="28"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="25"/>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
-      <c r="I158" s="16"/>
+      <c r="I158" s="13"/>
       <c r="J158" s="9"/>
-      <c r="K158" s="16"/>
+      <c r="K158" s="13"/>
       <c r="L158" s="9"/>
     </row>
     <row r="159" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B159" s="12"/>
       <c r="C159" s="10"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="16"/>
-      <c r="F159" s="28"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="25"/>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
-      <c r="I159" s="16"/>
+      <c r="I159" s="13"/>
       <c r="J159" s="9"/>
-      <c r="K159" s="16"/>
+      <c r="K159" s="13"/>
       <c r="L159" s="9"/>
     </row>
     <row r="160" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B160" s="12"/>
       <c r="C160" s="10"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16"/>
-      <c r="F160" s="28"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="25"/>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
-      <c r="I160" s="16"/>
+      <c r="I160" s="13"/>
       <c r="J160" s="9"/>
-      <c r="K160" s="16"/>
+      <c r="K160" s="13"/>
       <c r="L160" s="9"/>
     </row>
     <row r="161" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B161" s="12"/>
       <c r="C161" s="10"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="28"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="25"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
-      <c r="I161" s="16"/>
+      <c r="I161" s="27"/>
       <c r="J161" s="9"/>
-      <c r="K161" s="16"/>
+      <c r="K161" s="13"/>
       <c r="L161" s="9"/>
     </row>
     <row r="162" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B162" s="12"/>
       <c r="C162" s="10"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="31"/>
-      <c r="F162" s="28"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="25"/>
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
-      <c r="I162" s="31"/>
+      <c r="I162" s="13"/>
       <c r="J162" s="9"/>
-      <c r="K162" s="16"/>
+      <c r="K162" s="13"/>
       <c r="L162" s="9"/>
     </row>
     <row r="163" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B163" s="12"/>
       <c r="C163" s="10"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="28"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="25"/>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
-      <c r="I163" s="16"/>
+      <c r="I163" s="13"/>
       <c r="J163" s="9"/>
-      <c r="K163" s="16"/>
+      <c r="K163" s="13"/>
       <c r="L163" s="9"/>
     </row>
     <row r="164" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B164" s="12"/>
       <c r="C164" s="10"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="16"/>
-      <c r="F164" s="28"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="25"/>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
-      <c r="I164" s="16"/>
+      <c r="I164" s="13"/>
       <c r="J164" s="9"/>
-      <c r="K164" s="16"/>
+      <c r="K164" s="13"/>
       <c r="L164" s="9"/>
     </row>
     <row r="165" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B165" s="12"/>
       <c r="C165" s="10"/>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16"/>
-      <c r="F165" s="28"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="25"/>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
-      <c r="I165" s="16"/>
+      <c r="I165" s="13"/>
       <c r="J165" s="9"/>
-      <c r="K165" s="16"/>
+      <c r="K165" s="13"/>
       <c r="L165" s="9"/>
     </row>
     <row r="166" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B166" s="12"/>
       <c r="C166" s="10"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="16"/>
-      <c r="F166" s="28"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="25"/>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
-      <c r="I166" s="16"/>
+      <c r="I166" s="13"/>
       <c r="J166" s="9"/>
-      <c r="K166" s="16"/>
+      <c r="K166" s="13"/>
       <c r="L166" s="9"/>
     </row>
     <row r="167" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B167" s="12"/>
       <c r="C167" s="10"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="16"/>
-      <c r="F167" s="28"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="25"/>
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
-      <c r="I167" s="16"/>
+      <c r="I167" s="13"/>
       <c r="J167" s="9"/>
-      <c r="K167" s="16"/>
+      <c r="K167" s="13"/>
       <c r="L167" s="9"/>
     </row>
     <row r="168" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B168" s="12"/>
       <c r="C168" s="10"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="16"/>
-      <c r="F168" s="28"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="25"/>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
-      <c r="I168" s="16"/>
+      <c r="I168" s="13"/>
       <c r="J168" s="9"/>
-      <c r="K168" s="16"/>
+      <c r="K168" s="13"/>
       <c r="L168" s="9"/>
     </row>
     <row r="169" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B169" s="12"/>
       <c r="C169" s="10"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="16"/>
-      <c r="F169" s="28"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="25"/>
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
-      <c r="I169" s="16"/>
+      <c r="I169" s="13"/>
       <c r="J169" s="9"/>
-      <c r="K169" s="16"/>
+      <c r="K169" s="13"/>
       <c r="L169" s="9"/>
     </row>
     <row r="170" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B170" s="12"/>
       <c r="C170" s="10"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="16"/>
-      <c r="F170" s="28"/>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="25"/>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
-      <c r="I170" s="16"/>
+      <c r="I170" s="27"/>
       <c r="J170" s="9"/>
-      <c r="K170" s="16"/>
+      <c r="K170" s="13"/>
       <c r="L170" s="9"/>
     </row>
     <row r="171" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B171" s="12"/>
       <c r="C171" s="10"/>
-      <c r="D171" s="31"/>
-      <c r="E171" s="31"/>
-      <c r="F171" s="28"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="25"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
-      <c r="I171" s="31"/>
+      <c r="I171" s="13"/>
       <c r="J171" s="9"/>
-      <c r="K171" s="16"/>
+      <c r="K171" s="13"/>
       <c r="L171" s="9"/>
     </row>
     <row r="172" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B172" s="12"/>
       <c r="C172" s="10"/>
-      <c r="D172" s="16"/>
-      <c r="E172" s="16"/>
-      <c r="F172" s="28"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="25"/>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
-      <c r="I172" s="16"/>
+      <c r="I172" s="13"/>
       <c r="J172" s="9"/>
-      <c r="K172" s="16"/>
+      <c r="K172" s="13"/>
       <c r="L172" s="9"/>
     </row>
     <row r="173" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B173" s="12"/>
       <c r="C173" s="10"/>
-      <c r="D173" s="16"/>
-      <c r="E173" s="16"/>
-      <c r="F173" s="28"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="25"/>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
-      <c r="I173" s="16"/>
+      <c r="I173" s="13"/>
       <c r="J173" s="9"/>
-      <c r="K173" s="16"/>
+      <c r="K173" s="13"/>
       <c r="L173" s="9"/>
     </row>
     <row r="174" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B174" s="12"/>
       <c r="C174" s="10"/>
-      <c r="D174" s="16"/>
-      <c r="E174" s="16"/>
-      <c r="F174" s="28"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="25"/>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
-      <c r="I174" s="16"/>
+      <c r="I174" s="13"/>
       <c r="J174" s="9"/>
-      <c r="K174" s="16"/>
+      <c r="K174" s="13"/>
       <c r="L174" s="9"/>
     </row>
     <row r="175" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B175" s="12"/>
       <c r="C175" s="10"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="16"/>
-      <c r="F175" s="28"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="25"/>
       <c r="G175" s="9"/>
       <c r="H175" s="9"/>
-      <c r="I175" s="16"/>
+      <c r="I175" s="13"/>
       <c r="J175" s="9"/>
-      <c r="K175" s="16"/>
+      <c r="K175" s="13"/>
       <c r="L175" s="9"/>
     </row>
     <row r="176" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B176" s="12"/>
       <c r="C176" s="10"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="16"/>
-      <c r="F176" s="28"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="25"/>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
-      <c r="I176" s="16"/>
+      <c r="I176" s="13"/>
       <c r="J176" s="9"/>
-      <c r="K176" s="16"/>
+      <c r="K176" s="13"/>
       <c r="L176" s="9"/>
     </row>
-    <row r="177" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B177" s="12"/>
-      <c r="C177" s="10"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="16"/>
-      <c r="F177" s="28"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="9"/>
-      <c r="I177" s="16"/>
+    <row r="177" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B177" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="37"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15">
+        <f>SUM(G3:G163)</f>
+        <v>59</v>
+      </c>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
       <c r="J177" s="9"/>
-      <c r="K177" s="16"/>
+      <c r="K177" s="21"/>
       <c r="L177" s="9"/>
     </row>
-    <row r="178" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B178" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C178" s="37"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="18"/>
-      <c r="G178" s="18">
-        <f>SUM(G3:G164)</f>
-        <v>36</v>
-      </c>
-      <c r="H178" s="18"/>
-      <c r="I178" s="18"/>
-      <c r="J178" s="9"/>
-      <c r="K178" s="24"/>
-      <c r="L178" s="9"/>
-    </row>
-    <row r="180" spans="2:12" ht="75" customHeight="1">
-      <c r="B180" s="38"/>
-      <c r="C180" s="39"/>
-      <c r="D180" s="39"/>
-      <c r="E180" s="39"/>
-      <c r="F180" s="39"/>
-      <c r="G180" s="39"/>
-      <c r="H180" s="39"/>
-      <c r="I180" s="39"/>
-      <c r="J180" s="40"/>
-      <c r="K180" s="25"/>
-      <c r="L180" s="26"/>
+    <row r="179" spans="2:12" ht="75" customHeight="1">
+      <c r="B179" s="38"/>
+      <c r="C179" s="39"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="39"/>
+      <c r="F179" s="39"/>
+      <c r="G179" s="39"/>
+      <c r="H179" s="39"/>
+      <c r="I179" s="39"/>
+      <c r="J179" s="40"/>
+      <c r="K179" s="22"/>
+      <c r="L179" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L178"/>
+  <autoFilter ref="C2:L177"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B180:J180"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B179:J179"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J178">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J177">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J177">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J176">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4370,9 +5012,22 @@
     <hyperlink ref="K36" r:id="rId4"/>
     <hyperlink ref="K37" r:id="rId5"/>
     <hyperlink ref="K38" r:id="rId6"/>
+    <hyperlink ref="K42" r:id="rId7"/>
+    <hyperlink ref="K43" r:id="rId8"/>
+    <hyperlink ref="K48" r:id="rId9"/>
+    <hyperlink ref="K49" r:id="rId10"/>
+    <hyperlink ref="K55" r:id="rId11"/>
+    <hyperlink ref="K47" r:id="rId12"/>
+    <hyperlink ref="K53" r:id="rId13"/>
+    <hyperlink ref="K56" r:id="rId14"/>
+    <hyperlink ref="K57" r:id="rId15"/>
+    <hyperlink ref="K58" r:id="rId16"/>
+    <hyperlink ref="K59" r:id="rId17"/>
+    <hyperlink ref="K60" r:id="rId18"/>
+    <hyperlink ref="K61" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId20"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="147">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -413,35 +413,91 @@
     <t>广州多乐米科技有限公司</t>
   </si>
   <si>
+    <t>汕尾市城区鸿展商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/hongzhan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉哥</t>
+  </si>
+  <si>
+    <t>东莞市艾芙思护肤品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/aifus/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州优理氏生物科技有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/youlis/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛红</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州正和药业连锁有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhyy1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>飓风</t>
+  </si>
+  <si>
+    <t>中山市麦米粒化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/maimil/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州天拓</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>台山市索达日用化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/suoda1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>https://xhbup.com/duolem/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>汕尾市城区鸿展商贸有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/hongzhan/</t>
+    <t>小夜灯</t>
+  </si>
+  <si>
+    <t>鹤山市新利电器实业有限公司</t>
+  </si>
+  <si>
+    <t>淘宝</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>辉哥</t>
-  </si>
-  <si>
-    <t>东莞市艾芙思护肤品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/aifus/</t>
+    <t>https://xhbup.com/xldq/</t>
+  </si>
+  <si>
+    <t>新客户</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>广州优理氏生物科技有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/youlis/</t>
+    <t>肇庆美家美贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/meijiam/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>祛红</t>
+    <t>https://xhbup.com/duolem1/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -885,6 +941,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -905,9 +964,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1280,10 +1336,10 @@
   <dimension ref="B1:Q179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K61" sqref="K61"/>
+      <selection pane="bottomRight" activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1308,24 +1364,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="16"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
+      <c r="N1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -3328,10 +3384,10 @@
       <c r="C58" s="10">
         <v>43590</v>
       </c>
-      <c r="D58" s="41" t="s">
+      <c r="D58" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="41" t="s">
+      <c r="E58" s="34" t="s">
         <v>121</v>
       </c>
       <c r="F58" s="9" t="s">
@@ -3343,16 +3399,18 @@
       <c r="H58" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="41" t="s">
+      <c r="I58" s="34" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K58" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="L58" s="9"/>
+      <c r="K58" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B59" s="9">
@@ -3362,10 +3420,10 @@
         <v>43590</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>53</v>
@@ -3376,14 +3434,14 @@
       <c r="H59" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="41" t="s">
+      <c r="I59" s="34" t="s">
         <v>24</v>
       </c>
       <c r="J59" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K59" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L59" s="9" t="s">
         <v>20</v>
@@ -3397,10 +3455,10 @@
         <v>43590</v>
       </c>
       <c r="D60" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>126</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>55</v>
@@ -3418,7 +3476,7 @@
         <v>28</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L60" s="9" t="s">
         <v>20</v>
@@ -3432,13 +3490,13 @@
         <v>43590</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G61" s="9">
         <v>1</v>
@@ -3453,193 +3511,501 @@
         <v>28</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L61" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="62" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B62" s="12"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="9"/>
+      <c r="B62" s="9">
+        <v>34</v>
+      </c>
+      <c r="C62" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D62" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G62" s="9">
+        <v>1</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B63" s="12"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="9"/>
+      <c r="B63" s="9">
+        <v>6</v>
+      </c>
+      <c r="C63" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D63" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" s="9">
+        <v>1</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" t="s">
+        <v>40</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B64" s="12"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="9"/>
+      <c r="B64" s="9">
+        <v>7</v>
+      </c>
+      <c r="C64" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" s="9">
+        <v>1</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K64" t="s">
+        <v>97</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B65" s="12"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="9"/>
+      <c r="B65" s="9">
+        <v>8</v>
+      </c>
+      <c r="C65" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" t="s">
+        <v>98</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" s="9">
+        <v>1</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B66" s="12"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="9"/>
+      <c r="B66" s="9">
+        <v>9</v>
+      </c>
+      <c r="C66" s="10">
+        <v>43591</v>
+      </c>
+      <c r="D66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" t="s">
+        <v>133</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G66" s="9">
+        <v>1</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K66" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B67" s="12"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="9"/>
+      <c r="B67" s="9">
+        <v>10</v>
+      </c>
+      <c r="C67" s="10">
+        <v>43591</v>
+      </c>
+      <c r="D67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G67" s="9">
+        <v>1</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B68" s="12"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="9"/>
+      <c r="B68" s="9">
+        <v>11</v>
+      </c>
+      <c r="C68" s="10">
+        <v>43591</v>
+      </c>
+      <c r="D68" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" t="s">
+        <v>140</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G68" s="9">
+        <v>1</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s">
+        <v>26</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" t="s">
+        <v>142</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B69" s="12"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="9"/>
+      <c r="B69" s="9">
+        <v>7</v>
+      </c>
+      <c r="C69" s="10">
+        <v>43591</v>
+      </c>
+      <c r="D69" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" t="s">
+        <v>97</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B70" s="12"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="9"/>
+      <c r="B70" s="9">
+        <v>24</v>
+      </c>
+      <c r="C70" s="10">
+        <v>43591</v>
+      </c>
+      <c r="D70" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" s="9">
+        <v>1</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K70" t="s">
+        <v>69</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B71" s="12"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="9"/>
+      <c r="B71" s="9">
+        <v>34</v>
+      </c>
+      <c r="C71" s="10">
+        <v>43591</v>
+      </c>
+      <c r="D71" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G71" s="9">
+        <v>1</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K71" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B72" s="12"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="9"/>
+      <c r="B72" s="9">
+        <v>35</v>
+      </c>
+      <c r="C72" s="10">
+        <v>43591</v>
+      </c>
+      <c r="D72" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" t="s">
+        <v>144</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" s="9">
+        <v>1</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B73" s="12"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="9"/>
+      <c r="B73" s="9">
+        <v>6</v>
+      </c>
+      <c r="C73" s="10">
+        <v>43591</v>
+      </c>
+      <c r="D73" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G73" s="9">
+        <v>1</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" t="s">
+        <v>27</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" t="s">
+        <v>40</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B74" s="12"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="9"/>
+      <c r="B74" s="9">
+        <v>30</v>
+      </c>
+      <c r="C74" s="10">
+        <v>43591</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G74" s="9">
+        <v>1</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B75" s="12"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="9"/>
+      <c r="B75" s="9">
+        <v>35</v>
+      </c>
+      <c r="C75" s="10">
+        <v>43591</v>
+      </c>
+      <c r="D75" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75" s="9">
+        <v>1</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K75" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="76" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B76" s="12"/>
@@ -4955,16 +5321,16 @@
       <c r="L176" s="9"/>
     </row>
     <row r="177" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B177" s="36" t="s">
+      <c r="B177" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C177" s="37"/>
+      <c r="C177" s="38"/>
       <c r="D177" s="14"/>
       <c r="E177" s="14"/>
       <c r="F177" s="15"/>
       <c r="G177" s="15">
         <f>SUM(G3:G163)</f>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
@@ -4973,15 +5339,15 @@
       <c r="L177" s="9"/>
     </row>
     <row r="179" spans="2:12" ht="75" customHeight="1">
-      <c r="B179" s="38"/>
-      <c r="C179" s="39"/>
-      <c r="D179" s="39"/>
-      <c r="E179" s="39"/>
-      <c r="F179" s="39"/>
-      <c r="G179" s="39"/>
-      <c r="H179" s="39"/>
-      <c r="I179" s="39"/>
-      <c r="J179" s="40"/>
+      <c r="B179" s="39"/>
+      <c r="C179" s="40"/>
+      <c r="D179" s="40"/>
+      <c r="E179" s="40"/>
+      <c r="F179" s="40"/>
+      <c r="G179" s="40"/>
+      <c r="H179" s="40"/>
+      <c r="I179" s="40"/>
+      <c r="J179" s="41"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
     </row>
@@ -5025,9 +5391,17 @@
     <hyperlink ref="K59" r:id="rId17"/>
     <hyperlink ref="K60" r:id="rId18"/>
     <hyperlink ref="K61" r:id="rId19"/>
+    <hyperlink ref="K62" r:id="rId20"/>
+    <hyperlink ref="K65" r:id="rId21"/>
+    <hyperlink ref="K66" r:id="rId22"/>
+    <hyperlink ref="K67" r:id="rId23"/>
+    <hyperlink ref="K71" r:id="rId24"/>
+    <hyperlink ref="K72" r:id="rId25"/>
+    <hyperlink ref="K74" r:id="rId26"/>
+    <hyperlink ref="K75" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId20"/>
-  <drawing r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId28"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="169">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -173,171 +173,328 @@
   </si>
   <si>
     <t>https://xhbup.com/swksn/</t>
+  </si>
+  <si>
+    <t>丰胸</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/jcqfws/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>减肥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市晳美化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/ximei/</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/lvshou/</t>
+  </si>
+  <si>
+    <t>瓷妆</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/sgxcmy/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷装</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/yiyan/</t>
+  </si>
+  <si>
+    <t>佛山市顺德区瑞强食品贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/ruiqiang/</t>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>肇庆市金麟信息服务有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/jinlin/</t>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/danjiang/</t>
+  </si>
+  <si>
+    <t>肇庆景熙信息科技有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/jingxi/</t>
+  </si>
+  <si>
+    <t>宋总</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/annas1/ </t>
+  </si>
+  <si>
+    <t>慕羡(广东)化妆品科技有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/muxian/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶关市越冠贸易有限公司</t>
+  </si>
+  <si>
+    <t>狐臭</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/yueguan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅州市葆斯维姿化妆品有限公司</t>
+  </si>
+  <si>
+    <t>广州正和药业连锁有限公司</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州正和药业连锁有限公司2</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhyy1/</t>
+  </si>
+  <si>
+    <t>珠海贝莉莱斯化妆品有限公司</t>
+  </si>
+  <si>
+    <t>丰胸</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/blls/</t>
+  </si>
+  <si>
+    <t>邓远坤</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市白云区茜妃化妆品厂6</t>
+  </si>
+  <si>
+    <t>杨鑫</t>
+  </si>
+  <si>
+    <t>广州市白云区茜妃化妆品厂7</t>
+  </si>
+  <si>
+    <t>刘周锋</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰胸</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>李圣</t>
+  </si>
+  <si>
+    <t>韶关雯斯特商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/wensite/</t>
+  </si>
+  <si>
+    <t>广东绿瘦电子商务有限公司</t>
+  </si>
+  <si>
+    <t>广州优铂优匠生物科技有限公司</t>
+  </si>
+  <si>
+    <t>除皱</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆丰市王一米贸易有限公司</t>
+  </si>
+  <si>
+    <t>姚芳</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/wangyim1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市鹏浮网络科技有限公司</t>
+  </si>
+  <si>
+    <t>广州铂思琳化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/gzbslhzp/</t>
+  </si>
+  <si>
+    <t>汕头市奈梨贸易有限公司</t>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱泽亮</t>
+  </si>
+  <si>
+    <t>九江致尚化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhishang2/</t>
+  </si>
+  <si>
+    <t>佛山市锦宸化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/nlmy/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/qianfei3/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州龙聚网络科技有限公司</t>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州多乐米科技有限公司</t>
+  </si>
+  <si>
+    <t>汕尾市城区鸿展商贸有限公司</t>
+  </si>
+  <si>
+    <t>辉哥</t>
+  </si>
+  <si>
+    <t>东莞市艾芙思护肤品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/aifus/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州优理氏生物科技有限公司</t>
+  </si>
+  <si>
+    <t>祛红</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州正和药业连锁有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhyy1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>飓风</t>
+  </si>
+  <si>
+    <t>中山市麦米粒化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/maimil/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州天拓</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>台山市索达日用化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/suoda1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/duolem/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小夜灯</t>
+  </si>
+  <si>
+    <t>鹤山市新利电器实业有限公司</t>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/xldq/</t>
+  </si>
+  <si>
+    <t>新客户</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>肇庆美家美贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/meijiam/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/duolem1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市瞳梦贸易有限公司</t>
+  </si>
+  <si>
+    <t>美瞳</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>飓风</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山市无限美化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/wuxianm/</t>
   </si>
   <si>
     <t>https://xhbup.com/swksn/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>丰胸</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/jcqfws/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>减肥</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山市晳美化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/ximei/</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/lvshou/</t>
-  </si>
-  <si>
-    <t>瓷妆</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/sgxcmy/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷装</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/yiyan/</t>
-  </si>
-  <si>
-    <t>佛山市顺德区瑞强食品贸易有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/ruiqiang/</t>
-  </si>
-  <si>
-    <t>淘宝</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>肇庆市金麟信息服务有限公司</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/jinlin/</t>
-  </si>
-  <si>
-    <t>小说</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/danjiang/</t>
-  </si>
-  <si>
-    <t>肇庆景熙信息科技有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/jingxi/</t>
-  </si>
-  <si>
-    <t>宋总</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/annas1/ </t>
-  </si>
-  <si>
-    <t>慕羡(广东)化妆品科技有限公司</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/muxian/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>韶关市越冠贸易有限公司</t>
-  </si>
-  <si>
-    <t>狐臭</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/yueguan/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅州市葆斯维姿化妆品有限公司</t>
-  </si>
-  <si>
     <t>https://www.xhbup.com/bswz/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>广州正和药业连锁有限公司</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州正和药业连锁有限公司2</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhyy1/</t>
-  </si>
-  <si>
-    <t>珠海贝莉莱斯化妆品有限公司</t>
-  </si>
-  <si>
-    <t>丰胸</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/blls/</t>
-  </si>
-  <si>
-    <t>邓远坤</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市白云区茜妃化妆品厂6</t>
-  </si>
-  <si>
-    <t>杨鑫</t>
-  </si>
-  <si>
     <t>https://www.xhbup.com/qianfei2/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>广州市白云区茜妃化妆品厂7</t>
-  </si>
-  <si>
-    <t>刘周锋</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰胸</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.xhbup.com/ulaix/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>李圣</t>
-  </si>
-  <si>
-    <t>韶关雯斯特商贸有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/wensite/</t>
-  </si>
-  <si>
-    <t>广东绿瘦电子商务有限公司</t>
-  </si>
-  <si>
-    <t>广州优铂优匠生物科技有限公司</t>
-  </si>
-  <si>
-    <t>除皱</t>
+    <t>https://www.xhbup.com/lvshou2/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -345,167 +502,86 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>陆丰市王一米贸易有限公司</t>
-  </si>
-  <si>
-    <t>姚芳</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/wangyim1/</t>
+    <t>https://xhbup.com/jinchen/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>广州市鹏浮网络科技有限公司</t>
-  </si>
-  <si>
-    <t>广州铂思琳化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/gzbslhzp/</t>
-  </si>
-  <si>
-    <t>汕头市奈梨贸易有限公司</t>
+    <t>https://xhbup.com/longju/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/hongzhan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/youlis/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/meitong2/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/longju1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏浮</t>
+  </si>
+  <si>
+    <t>江门市红妆印象文化传播有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/hzyx/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>高露洁棕榄（中国）有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/gljzl/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东郑明明化妆品科技有限公司</t>
   </si>
   <si>
     <t>祛斑</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>朱泽亮</t>
-  </si>
-  <si>
-    <t>九江致尚化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhishang2/</t>
-  </si>
-  <si>
-    <t>佛山市锦宸化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/jinchen/</t>
+    <t>https://xhbup.com/zhengmingm1/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.xhbup.com/lvshou2/</t>
+    <t>东莞市科宏化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/kehong1/</t>
+  </si>
+  <si>
+    <t>中白鸽</t>
+  </si>
+  <si>
+    <t>广州九合国际生物科技有限公司</t>
+  </si>
+  <si>
+    <t>创业</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>https://xhbup.com/nlmy/</t>
+    <t>https://www.xhbup.com/jiuhe6/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.xhbup.com/qianfei3/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州龙聚网络科技有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/longju/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州多乐米科技有限公司</t>
-  </si>
-  <si>
-    <t>汕尾市城区鸿展商贸有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/hongzhan/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>辉哥</t>
-  </si>
-  <si>
-    <t>东莞市艾芙思护肤品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/aifus/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州优理氏生物科技有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/youlis/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>祛红</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州正和药业连锁有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhyy1/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>飓风</t>
-  </si>
-  <si>
-    <t>中山市麦米粒化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/maimil/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州天拓</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>台山市索达日用化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/suoda1/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/duolem/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>小夜灯</t>
-  </si>
-  <si>
-    <t>鹤山市新利电器实业有限公司</t>
-  </si>
-  <si>
-    <t>淘宝</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/xldq/</t>
-  </si>
-  <si>
-    <t>新客户</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>肇庆美家美贸易有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/meijiam/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/duolem1/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>页面跳转修改</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,14 +703,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -838,7 +906,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,18 +1000,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,6 +1020,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1011,7 +1070,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1023,7 +1082,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1336,10 +1395,10 @@
   <dimension ref="B1:Q179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J75" sqref="J75"/>
+      <selection pane="bottomRight" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1364,24 +1423,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="16"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
+      <c r="N1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -1437,10 +1496,10 @@
       <c r="C3" s="10">
         <v>43586</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -1452,14 +1511,14 @@
       <c r="H3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="13" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="30" t="s">
-        <v>52</v>
+      <c r="K3" s="38" t="s">
+        <v>142</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>20</v>
@@ -1483,14 +1542,14 @@
       <c r="C4" s="10">
         <v>43586</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
@@ -1498,14 +1557,14 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="30" t="s">
-        <v>54</v>
+      <c r="K4" s="38" t="s">
+        <v>53</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>20</v>
@@ -1533,14 +1592,14 @@
       <c r="C5" s="10">
         <v>43586</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="9">
         <v>1</v>
@@ -1548,13 +1607,13 @@
       <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="38" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="9" t="s">
@@ -1568,14 +1627,14 @@
       <c r="C6" s="10">
         <v>43586</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
-        <v>56</v>
+      <c r="E6" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
@@ -1583,14 +1642,14 @@
       <c r="H6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K6" t="s">
-        <v>57</v>
+      <c r="K6" s="38" t="s">
+        <v>56</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>20</v>
@@ -1603,14 +1662,14 @@
       <c r="C7" s="10">
         <v>43586</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="9">
         <v>1</v>
@@ -1618,14 +1677,14 @@
       <c r="H7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K7" t="s">
-        <v>58</v>
+      <c r="K7" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>20</v>
@@ -1638,14 +1697,14 @@
       <c r="C8" s="10">
         <v>43586</v>
       </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
@@ -1653,14 +1712,14 @@
       <c r="H8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="30" t="s">
-        <v>60</v>
+      <c r="K8" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>20</v>
@@ -1673,14 +1732,14 @@
       <c r="C9" s="10">
         <v>43586</v>
       </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="9">
         <v>1</v>
@@ -1688,14 +1747,14 @@
       <c r="H9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K9" t="s">
-        <v>62</v>
+      <c r="K9" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>20</v>
@@ -1708,14 +1767,14 @@
       <c r="C10" s="10">
         <v>43586</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
@@ -1723,13 +1782,13 @@
       <c r="H10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="38" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="9" t="s">
@@ -1743,14 +1802,14 @@
       <c r="C11" s="10">
         <v>43586</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="9">
         <v>1</v>
@@ -1758,13 +1817,13 @@
       <c r="H11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="38" t="s">
         <v>48</v>
       </c>
       <c r="L11" s="9" t="s">
@@ -1778,14 +1837,14 @@
       <c r="C12" s="10">
         <v>43586</v>
       </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>63</v>
+      <c r="D12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
@@ -1793,14 +1852,14 @@
       <c r="H12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="13" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K12" t="s">
-        <v>64</v>
+      <c r="K12" s="38" t="s">
+        <v>63</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>20</v>
@@ -1813,14 +1872,14 @@
       <c r="C13" s="10">
         <v>43586</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" s="9">
         <v>1</v>
@@ -1828,13 +1887,13 @@
       <c r="H13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="38" t="s">
         <v>51</v>
       </c>
       <c r="L13" s="9" t="s">
@@ -1848,14 +1907,14 @@
       <c r="C14" s="10">
         <v>43587</v>
       </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
+      <c r="D14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="9">
         <v>1</v>
@@ -1863,14 +1922,14 @@
       <c r="H14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="13" t="s">
         <v>24</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K14" t="s">
-        <v>67</v>
+      <c r="K14" s="38" t="s">
+        <v>66</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>20</v>
@@ -1883,14 +1942,14 @@
       <c r="C15" s="10">
         <v>43587</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="9">
         <v>1</v>
@@ -1898,13 +1957,13 @@
       <c r="H15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="38" t="s">
         <v>51</v>
       </c>
       <c r="L15" s="9" t="s">
@@ -1918,14 +1977,14 @@
       <c r="C16" s="10">
         <v>43587</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="9">
         <v>1</v>
@@ -1933,14 +1992,14 @@
       <c r="H16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K16" t="s">
-        <v>69</v>
+      <c r="K16" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>20</v>
@@ -1953,14 +2012,14 @@
       <c r="C17" s="10">
         <v>43587</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="9">
         <v>1</v>
@@ -1968,13 +2027,13 @@
       <c r="H17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="38" t="s">
         <v>51</v>
       </c>
       <c r="L17" s="9" t="s">
@@ -1988,14 +2047,14 @@
       <c r="C18" s="10">
         <v>43587</v>
       </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
+      <c r="D18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="9">
         <v>1</v>
@@ -2003,14 +2062,14 @@
       <c r="H18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K18" t="s">
-        <v>71</v>
+      <c r="K18" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>20</v>
@@ -2023,14 +2082,14 @@
       <c r="C19" s="10">
         <v>43587</v>
       </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="9">
         <v>1</v>
@@ -2038,14 +2097,14 @@
       <c r="H19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K19" t="s">
-        <v>73</v>
+      <c r="K19" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>20</v>
@@ -2058,14 +2117,14 @@
       <c r="C20" s="10">
         <v>43587</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="9">
         <v>1</v>
@@ -2073,13 +2132,13 @@
       <c r="H20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="38" t="s">
         <v>51</v>
       </c>
       <c r="L20" s="9" t="s">
@@ -2093,14 +2152,14 @@
       <c r="C21" s="10">
         <v>43587</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="9">
         <v>1</v>
@@ -2108,14 +2167,14 @@
       <c r="H21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K21" t="s">
-        <v>69</v>
+      <c r="K21" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>20</v>
@@ -2128,14 +2187,14 @@
       <c r="C22" s="10">
         <v>43587</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" s="9">
         <v>1</v>
@@ -2143,13 +2202,13 @@
       <c r="H22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="38" t="s">
         <v>51</v>
       </c>
       <c r="L22" s="9" t="s">
@@ -2163,14 +2222,14 @@
       <c r="C23" s="10">
         <v>43588</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23" s="9">
         <v>1</v>
@@ -2178,13 +2237,13 @@
       <c r="H23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="38" t="s">
         <v>48</v>
       </c>
       <c r="L23" s="9" t="s">
@@ -2198,14 +2257,14 @@
       <c r="C24" s="10">
         <v>43588</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" s="9">
         <v>1</v>
@@ -2213,13 +2272,13 @@
       <c r="H24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="38" t="s">
         <v>51</v>
       </c>
       <c r="L24" s="9" t="s">
@@ -2233,14 +2292,14 @@
       <c r="C25" s="10">
         <v>43588</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25" s="9">
         <v>1</v>
@@ -2248,13 +2307,13 @@
       <c r="H25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="38" t="s">
         <v>50</v>
       </c>
       <c r="L25" s="9" t="s">
@@ -2268,14 +2327,14 @@
       <c r="C26" s="10">
         <v>43588</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G26" s="9">
         <v>1</v>
@@ -2283,13 +2342,13 @@
       <c r="H26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="38" t="s">
         <v>51</v>
       </c>
       <c r="L26" s="9" t="s">
@@ -2303,14 +2362,14 @@
       <c r="C27" s="10">
         <v>43588</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="9">
         <v>1</v>
@@ -2318,13 +2377,13 @@
       <c r="H27" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="38" t="s">
         <v>50</v>
       </c>
       <c r="L27" s="9" t="s">
@@ -2338,14 +2397,14 @@
       <c r="C28" s="10">
         <v>43588</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" s="9">
         <v>1</v>
@@ -2353,14 +2412,14 @@
       <c r="H28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K28" t="s">
-        <v>69</v>
+      <c r="K28" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="L28" s="9" t="s">
         <v>20</v>
@@ -2373,14 +2432,14 @@
       <c r="C29" s="10">
         <v>43588</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" s="9">
         <v>1</v>
@@ -2388,13 +2447,13 @@
       <c r="H29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="38" t="s">
         <v>51</v>
       </c>
       <c r="L29" s="9" t="s">
@@ -2408,14 +2467,14 @@
       <c r="C30" s="10">
         <v>43589</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="9">
         <v>1</v>
@@ -2423,13 +2482,13 @@
       <c r="H30" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="38" t="s">
         <v>42</v>
       </c>
       <c r="L30" s="9" t="s">
@@ -2443,14 +2502,14 @@
       <c r="C31" s="10">
         <v>43589</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" s="9">
         <v>1</v>
@@ -2458,13 +2517,13 @@
       <c r="H31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="38" t="s">
         <v>50</v>
       </c>
       <c r="L31" s="9" t="s">
@@ -2478,14 +2537,14 @@
       <c r="C32" s="10">
         <v>43589</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G32" s="9">
         <v>1</v>
@@ -2493,13 +2552,13 @@
       <c r="H32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="38" t="s">
         <v>51</v>
       </c>
       <c r="L32" s="9" t="s">
@@ -2513,14 +2572,14 @@
       <c r="C33" s="10">
         <v>43589</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G33" s="9">
         <v>1</v>
@@ -2528,13 +2587,13 @@
       <c r="H33" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="38" t="s">
         <v>50</v>
       </c>
       <c r="L33" s="9" t="s">
@@ -2548,14 +2607,14 @@
       <c r="C34" s="10">
         <v>43589</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34" s="9">
         <v>1</v>
@@ -2563,13 +2622,13 @@
       <c r="H34" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="38" t="s">
         <v>51</v>
       </c>
       <c r="L34" s="9" t="s">
@@ -2583,14 +2642,14 @@
       <c r="C35" s="10">
         <v>43589</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G35" s="9">
         <v>1</v>
@@ -2598,14 +2657,14 @@
       <c r="H35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K35" t="s">
-        <v>69</v>
+      <c r="K35" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="L35" s="9" t="s">
         <v>20</v>
@@ -2618,14 +2677,14 @@
       <c r="C36" s="10">
         <v>43590</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E36" t="s">
-        <v>74</v>
+      <c r="E36" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G36" s="9">
         <v>1</v>
@@ -2633,14 +2692,14 @@
       <c r="H36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="30" t="s">
-        <v>75</v>
+      <c r="K36" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="L36" s="9" t="s">
         <v>20</v>
@@ -2653,29 +2712,29 @@
       <c r="C37" s="10">
         <v>43590</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="G37" s="9">
         <v>1</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="30" t="s">
-        <v>78</v>
+      <c r="K37" s="38" t="s">
+        <v>77</v>
       </c>
       <c r="L37" s="9" t="s">
         <v>20</v>
@@ -2688,14 +2747,14 @@
       <c r="C38" s="10">
         <v>43590</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E38" t="s">
-        <v>79</v>
+      <c r="E38" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G38" s="9">
         <v>1</v>
@@ -2703,14 +2762,14 @@
       <c r="H38" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="30" t="s">
-        <v>80</v>
+      <c r="K38" s="38" t="s">
+        <v>143</v>
       </c>
       <c r="L38" s="9" t="s">
         <v>20</v>
@@ -2723,14 +2782,14 @@
       <c r="C39" s="10">
         <v>43590</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" s="9">
         <v>1</v>
@@ -2738,13 +2797,13 @@
       <c r="H39" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="38" t="s">
         <v>51</v>
       </c>
       <c r="L39" s="9" t="s">
@@ -2758,14 +2817,14 @@
       <c r="C40" s="10">
         <v>43590</v>
       </c>
-      <c r="D40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" t="s">
-        <v>82</v>
+      <c r="D40" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G40" s="9">
         <v>1</v>
@@ -2773,14 +2832,14 @@
       <c r="H40" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K40" t="s">
-        <v>83</v>
+      <c r="K40" s="38" t="s">
+        <v>81</v>
       </c>
       <c r="L40" s="9" t="s">
         <v>20</v>
@@ -2793,14 +2852,14 @@
       <c r="C41" s="10">
         <v>43590</v>
       </c>
-      <c r="D41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" t="s">
-        <v>84</v>
+      <c r="D41" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G41" s="9">
         <v>1</v>
@@ -2808,14 +2867,14 @@
       <c r="H41" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K41" t="s">
-        <v>86</v>
+      <c r="K41" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="L41" s="9" t="s">
         <v>20</v>
@@ -2828,29 +2887,29 @@
       <c r="C42" s="10">
         <v>43590</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="E42" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" s="9">
-        <v>1</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" t="s">
-        <v>89</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K42" s="30" t="s">
-        <v>90</v>
+      <c r="K42" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="L42" s="9" t="s">
         <v>20</v>
@@ -2863,10 +2922,10 @@
       <c r="C43" s="10">
         <v>43590</v>
       </c>
-      <c r="D43"/>
-      <c r="E43"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
       <c r="F43" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G43" s="9">
         <v>1</v>
@@ -2874,14 +2933,14 @@
       <c r="H43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I43" t="s">
-        <v>92</v>
+      <c r="I43" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="30" t="s">
-        <v>94</v>
+      <c r="K43" s="38" t="s">
+        <v>145</v>
       </c>
       <c r="L43" s="9" t="s">
         <v>20</v>
@@ -2894,14 +2953,14 @@
       <c r="C44" s="10">
         <v>43590</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G44" s="9">
         <v>1</v>
@@ -2909,14 +2968,14 @@
       <c r="H44" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K44" t="s">
-        <v>69</v>
+      <c r="K44" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>20</v>
@@ -2929,14 +2988,14 @@
       <c r="C45" s="10">
         <v>43590</v>
       </c>
-      <c r="D45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G45" s="9">
         <v>1</v>
@@ -2944,13 +3003,13 @@
       <c r="H45" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="38" t="s">
         <v>40</v>
       </c>
       <c r="L45" s="9" t="s">
@@ -2964,14 +3023,14 @@
       <c r="C46" s="10">
         <v>43590</v>
       </c>
-      <c r="D46" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" t="s">
-        <v>96</v>
+      <c r="D46" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G46" s="9">
         <v>1</v>
@@ -2979,14 +3038,14 @@
       <c r="H46" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J46" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K46" t="s">
-        <v>97</v>
+      <c r="K46" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="L46" s="9" t="s">
         <v>20</v>
@@ -2999,14 +3058,14 @@
       <c r="C47" s="10">
         <v>43590</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E47" t="s">
-        <v>98</v>
+      <c r="E47" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G47" s="9">
         <v>1</v>
@@ -3014,14 +3073,14 @@
       <c r="H47" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J47" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K47" s="32" t="s">
-        <v>115</v>
+      <c r="K47" s="38" t="s">
+        <v>146</v>
       </c>
       <c r="L47" s="9" t="s">
         <v>20</v>
@@ -3034,14 +3093,14 @@
       <c r="C48" s="10">
         <v>43590</v>
       </c>
-      <c r="D48" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" t="s">
-        <v>99</v>
+      <c r="D48" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G48" s="9">
         <v>1</v>
@@ -3049,14 +3108,14 @@
       <c r="H48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J48" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="30" t="s">
-        <v>101</v>
+      <c r="K48" s="38" t="s">
+        <v>147</v>
       </c>
       <c r="L48" s="9" t="s">
         <v>20</v>
@@ -3069,14 +3128,14 @@
       <c r="C49" s="10">
         <v>43590</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="31" t="s">
-        <v>102</v>
+      <c r="E49" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G49" s="9">
         <v>1</v>
@@ -3084,14 +3143,14 @@
       <c r="H49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="31" t="s">
-        <v>103</v>
+      <c r="I49" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K49" s="32" t="s">
-        <v>104</v>
+      <c r="K49" s="38" t="s">
+        <v>99</v>
       </c>
       <c r="L49" s="9" t="s">
         <v>20</v>
@@ -3104,14 +3163,14 @@
       <c r="C50" s="10">
         <v>43590</v>
       </c>
-      <c r="D50" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>106</v>
+      <c r="D50" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G50" s="9">
         <v>1</v>
@@ -3119,14 +3178,14 @@
       <c r="H50" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K50" s="33" t="s">
-        <v>107</v>
+      <c r="K50" s="38" t="s">
+        <v>102</v>
       </c>
       <c r="L50" s="9" t="s">
         <v>20</v>
@@ -3139,14 +3198,14 @@
       <c r="C51" s="10">
         <v>43590</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G51" s="9">
         <v>1</v>
@@ -3154,13 +3213,13 @@
       <c r="H51" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J51" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="38" t="s">
         <v>51</v>
       </c>
       <c r="L51" s="9" t="s">
@@ -3174,14 +3233,14 @@
       <c r="C52" s="10">
         <v>43590</v>
       </c>
-      <c r="D52" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G52" s="9">
         <v>1</v>
@@ -3189,13 +3248,13 @@
       <c r="H52" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="38" t="s">
         <v>40</v>
       </c>
       <c r="L52" s="9" t="s">
@@ -3209,14 +3268,14 @@
       <c r="C53" s="10">
         <v>43590</v>
       </c>
-      <c r="D53" s="33" t="s">
+      <c r="D53" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="33" t="s">
-        <v>108</v>
+      <c r="E53" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G53" s="9">
         <v>1</v>
@@ -3224,14 +3283,14 @@
       <c r="H53" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K53" s="32" t="s">
-        <v>116</v>
+      <c r="K53" s="38" t="s">
+        <v>109</v>
       </c>
       <c r="L53" s="9" t="s">
         <v>20</v>
@@ -3244,14 +3303,14 @@
       <c r="C54" s="10">
         <v>43590</v>
       </c>
-      <c r="D54" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>111</v>
+      <c r="D54" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G54" s="9">
         <v>1</v>
@@ -3259,14 +3318,14 @@
       <c r="H54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="33" t="s">
+      <c r="I54" s="27" t="s">
         <v>18</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K54" s="33" t="s">
-        <v>112</v>
+      <c r="K54" s="38" t="s">
+        <v>107</v>
       </c>
       <c r="L54" s="9" t="s">
         <v>20</v>
@@ -3279,14 +3338,14 @@
       <c r="C55" s="10">
         <v>43590</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E55" s="33" t="s">
-        <v>113</v>
+      <c r="E55" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G55" s="9">
         <v>1</v>
@@ -3294,14 +3353,14 @@
       <c r="H55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J55" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K55" s="32" t="s">
-        <v>114</v>
+      <c r="K55" s="38" t="s">
+        <v>148</v>
       </c>
       <c r="L55" s="9" t="s">
         <v>20</v>
@@ -3314,29 +3373,29 @@
       <c r="C56" s="10">
         <v>43590</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" s="9">
-        <v>1</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" t="s">
-        <v>89</v>
       </c>
       <c r="J56" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K56" s="30" t="s">
-        <v>117</v>
+      <c r="K56" s="38" t="s">
+        <v>110</v>
       </c>
       <c r="L56" s="9" t="s">
         <v>20</v>
@@ -3349,14 +3408,14 @@
       <c r="C57" s="10">
         <v>43590</v>
       </c>
-      <c r="D57" t="s">
-        <v>118</v>
-      </c>
-      <c r="E57" t="s">
-        <v>118</v>
+      <c r="D57" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G57" s="9">
         <v>1</v>
@@ -3364,14 +3423,14 @@
       <c r="H57" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J57" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K57" s="30" t="s">
-        <v>119</v>
+      <c r="K57" s="38" t="s">
+        <v>149</v>
       </c>
       <c r="L57" s="9" t="s">
         <v>20</v>
@@ -3384,14 +3443,14 @@
       <c r="C58" s="10">
         <v>43590</v>
       </c>
-      <c r="D58" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E58" s="34" t="s">
-        <v>121</v>
+      <c r="D58" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G58" s="9">
         <v>1</v>
@@ -3399,14 +3458,14 @@
       <c r="H58" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="34" t="s">
+      <c r="I58" s="28" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K58" s="30" t="s">
-        <v>138</v>
+      <c r="K58" s="38" t="s">
+        <v>128</v>
       </c>
       <c r="L58" s="9" t="s">
         <v>20</v>
@@ -3419,14 +3478,14 @@
       <c r="C59" s="10">
         <v>43590</v>
       </c>
-      <c r="D59" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>122</v>
+      <c r="D59" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G59" s="9">
         <v>1</v>
@@ -3434,14 +3493,14 @@
       <c r="H59" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="34" t="s">
+      <c r="I59" s="28" t="s">
         <v>24</v>
       </c>
       <c r="J59" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K59" s="32" t="s">
-        <v>123</v>
+      <c r="K59" s="38" t="s">
+        <v>150</v>
       </c>
       <c r="L59" s="9" t="s">
         <v>20</v>
@@ -3454,14 +3513,14 @@
       <c r="C60" s="10">
         <v>43590</v>
       </c>
-      <c r="D60" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>125</v>
+      <c r="D60" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G60" s="9">
         <v>1</v>
@@ -3469,14 +3528,14 @@
       <c r="H60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="33" t="s">
+      <c r="I60" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K60" s="32" t="s">
-        <v>126</v>
+      <c r="K60" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="L60" s="9" t="s">
         <v>20</v>
@@ -3489,14 +3548,14 @@
       <c r="C61" s="10">
         <v>43590</v>
       </c>
-      <c r="D61" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>127</v>
+      <c r="D61" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G61" s="9">
         <v>1</v>
@@ -3504,14 +3563,14 @@
       <c r="H61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I61" s="33" t="s">
+      <c r="I61" s="27" t="s">
         <v>29</v>
       </c>
       <c r="J61" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K61" s="32" t="s">
-        <v>128</v>
+      <c r="K61" s="38" t="s">
+        <v>151</v>
       </c>
       <c r="L61" s="9" t="s">
         <v>20</v>
@@ -3524,14 +3583,14 @@
       <c r="C62" s="10">
         <v>43590</v>
       </c>
-      <c r="D62" t="s">
-        <v>130</v>
-      </c>
-      <c r="E62" t="s">
-        <v>82</v>
+      <c r="D62" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G62" s="9">
         <v>1</v>
@@ -3539,14 +3598,14 @@
       <c r="H62" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J62" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K62" s="30" t="s">
-        <v>131</v>
+      <c r="K62" s="38" t="s">
+        <v>121</v>
       </c>
       <c r="L62" s="9" t="s">
         <v>20</v>
@@ -3559,14 +3618,14 @@
       <c r="C63" s="10">
         <v>43590</v>
       </c>
-      <c r="D63" t="s">
-        <v>95</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D63" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G63" s="9">
         <v>1</v>
@@ -3574,13 +3633,13 @@
       <c r="H63" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="38" t="s">
         <v>40</v>
       </c>
       <c r="L63" s="9" t="s">
@@ -3594,14 +3653,14 @@
       <c r="C64" s="10">
         <v>43590</v>
       </c>
-      <c r="D64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E64" t="s">
-        <v>96</v>
+      <c r="D64" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G64" s="9">
         <v>1</v>
@@ -3609,14 +3668,14 @@
       <c r="H64" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J64" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K64" t="s">
-        <v>97</v>
+      <c r="K64" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="L64" s="9" t="s">
         <v>20</v>
@@ -3629,14 +3688,14 @@
       <c r="C65" s="10">
         <v>43590</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E65" t="s">
-        <v>98</v>
+      <c r="E65" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G65" s="9">
         <v>1</v>
@@ -3644,14 +3703,14 @@
       <c r="H65" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J65" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K65" s="32" t="s">
-        <v>115</v>
+      <c r="K65" s="38" t="s">
+        <v>146</v>
       </c>
       <c r="L65" s="9" t="s">
         <v>20</v>
@@ -3664,14 +3723,14 @@
       <c r="C66" s="10">
         <v>43591</v>
       </c>
-      <c r="D66" t="s">
-        <v>132</v>
-      </c>
-      <c r="E66" t="s">
-        <v>133</v>
+      <c r="D66" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G66" s="9">
         <v>1</v>
@@ -3679,14 +3738,14 @@
       <c r="H66" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I66" t="s">
-        <v>89</v>
+      <c r="I66" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="J66" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K66" s="30" t="s">
-        <v>134</v>
+      <c r="K66" s="38" t="s">
+        <v>124</v>
       </c>
       <c r="L66" s="9" t="s">
         <v>20</v>
@@ -3699,14 +3758,14 @@
       <c r="C67" s="10">
         <v>43591</v>
       </c>
-      <c r="D67" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" t="s">
-        <v>136</v>
+      <c r="D67" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G67" s="9">
         <v>1</v>
@@ -3714,14 +3773,14 @@
       <c r="H67" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J67" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K67" s="30" t="s">
-        <v>137</v>
+      <c r="K67" s="38" t="s">
+        <v>127</v>
       </c>
       <c r="L67" s="9" t="s">
         <v>20</v>
@@ -3734,14 +3793,14 @@
       <c r="C68" s="10">
         <v>43591</v>
       </c>
-      <c r="D68" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68" t="s">
-        <v>140</v>
+      <c r="D68" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G68" s="9">
         <v>1</v>
@@ -3749,14 +3808,14 @@
       <c r="H68" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J68" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K68" t="s">
-        <v>142</v>
+      <c r="K68" s="38" t="s">
+        <v>132</v>
       </c>
       <c r="L68" s="9" t="s">
         <v>20</v>
@@ -3769,14 +3828,14 @@
       <c r="C69" s="10">
         <v>43591</v>
       </c>
-      <c r="D69" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" t="s">
-        <v>96</v>
+      <c r="D69" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G69" s="9">
         <v>1</v>
@@ -3784,14 +3843,14 @@
       <c r="H69" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K69" t="s">
-        <v>97</v>
+      <c r="K69" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="L69" s="9" t="s">
         <v>20</v>
@@ -3804,14 +3863,14 @@
       <c r="C70" s="10">
         <v>43591</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G70" s="9">
         <v>1</v>
@@ -3819,14 +3878,14 @@
       <c r="H70" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J70" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K70" t="s">
-        <v>69</v>
+      <c r="K70" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="L70" s="9" t="s">
         <v>20</v>
@@ -3839,14 +3898,14 @@
       <c r="C71" s="10">
         <v>43591</v>
       </c>
-      <c r="D71" t="s">
-        <v>130</v>
-      </c>
-      <c r="E71" t="s">
-        <v>82</v>
+      <c r="D71" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G71" s="9">
         <v>1</v>
@@ -3854,14 +3913,14 @@
       <c r="H71" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J71" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K71" s="30" t="s">
-        <v>131</v>
+      <c r="K71" s="38" t="s">
+        <v>121</v>
       </c>
       <c r="L71" s="9" t="s">
         <v>20</v>
@@ -3874,14 +3933,14 @@
       <c r="C72" s="10">
         <v>43591</v>
       </c>
-      <c r="D72" t="s">
-        <v>143</v>
-      </c>
-      <c r="E72" t="s">
-        <v>144</v>
+      <c r="D72" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G72" s="9">
         <v>1</v>
@@ -3889,14 +3948,14 @@
       <c r="H72" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J72" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K72" s="30" t="s">
-        <v>145</v>
+      <c r="K72" s="38" t="s">
+        <v>135</v>
       </c>
       <c r="L72" s="9" t="s">
         <v>20</v>
@@ -3909,14 +3968,14 @@
       <c r="C73" s="10">
         <v>43591</v>
       </c>
-      <c r="D73" t="s">
-        <v>95</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="D73" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G73" s="9">
         <v>1</v>
@@ -3924,13 +3983,13 @@
       <c r="H73" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" s="38" t="s">
         <v>40</v>
       </c>
       <c r="L73" s="9" t="s">
@@ -3944,14 +4003,14 @@
       <c r="C74" s="10">
         <v>43591</v>
       </c>
-      <c r="D74" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E74" s="34" t="s">
-        <v>121</v>
+      <c r="D74" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G74" s="9">
         <v>1</v>
@@ -3959,14 +4018,14 @@
       <c r="H74" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I74" s="34" t="s">
+      <c r="I74" s="28" t="s">
         <v>24</v>
       </c>
       <c r="J74" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K74" s="30" t="s">
-        <v>146</v>
+      <c r="K74" s="38" t="s">
+        <v>136</v>
       </c>
       <c r="L74" s="9" t="s">
         <v>20</v>
@@ -3979,14 +4038,14 @@
       <c r="C75" s="10">
         <v>43591</v>
       </c>
-      <c r="D75" t="s">
-        <v>143</v>
-      </c>
-      <c r="E75" t="s">
-        <v>144</v>
+      <c r="D75" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G75" s="9">
         <v>1</v>
@@ -3994,200 +4053,508 @@
       <c r="H75" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J75" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K75" s="30" t="s">
-        <v>145</v>
+      <c r="K75" s="38" t="s">
+        <v>135</v>
       </c>
       <c r="L75" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="76" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B76" s="12"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="9"/>
+      <c r="B76" s="9">
+        <v>36</v>
+      </c>
+      <c r="C76" s="10">
+        <v>43591</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G76" s="9">
+        <v>1</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K76" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="77" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B77" s="12"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="9"/>
+      <c r="B77" s="9">
+        <v>37</v>
+      </c>
+      <c r="C77" s="10">
+        <v>43591</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" s="9">
+        <v>1</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K77" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="78" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B78" s="12"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="9"/>
+      <c r="B78" s="9">
+        <v>24</v>
+      </c>
+      <c r="C78" s="10">
+        <v>43591</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G78" s="9">
+        <v>1</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K78" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="79" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B79" s="12"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="9"/>
+      <c r="B79" s="9">
+        <v>10</v>
+      </c>
+      <c r="C79" s="10">
+        <v>43591</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G79" s="9">
+        <v>1</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="80" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B80" s="12"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="9"/>
+      <c r="B80" s="9">
+        <v>11</v>
+      </c>
+      <c r="C80" s="10">
+        <v>43591</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G80" s="9">
+        <v>1</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K80" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="81" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B81" s="12"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="9"/>
+      <c r="B81" s="9">
+        <v>34</v>
+      </c>
+      <c r="C81" s="10">
+        <v>43592</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G81" s="9">
+        <v>1</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K81" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="82" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B82" s="12"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="9"/>
+      <c r="B82" s="9">
+        <v>35</v>
+      </c>
+      <c r="C82" s="10">
+        <v>43592</v>
+      </c>
+      <c r="D82" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" t="s">
+        <v>155</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G82" s="9">
+        <v>1</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s">
+        <v>23</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K82" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="83" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B83" s="12"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="9"/>
+      <c r="B83" s="9">
+        <v>36</v>
+      </c>
+      <c r="C83" s="10">
+        <v>43592</v>
+      </c>
+      <c r="D83" t="s">
+        <v>122</v>
+      </c>
+      <c r="E83" t="s">
+        <v>157</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G83" s="9">
+        <v>1</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" t="s">
+        <v>98</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K83" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="84" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B84" s="12"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="9"/>
+      <c r="B84" s="9">
+        <v>37</v>
+      </c>
+      <c r="C84" s="10">
+        <v>43592</v>
+      </c>
+      <c r="D84" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" t="s">
+        <v>159</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G84" s="9">
+        <v>1</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s">
+        <v>29</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K84" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="85" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B85" s="12"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="9"/>
+      <c r="B85" s="9">
+        <v>21</v>
+      </c>
+      <c r="C85" s="10">
+        <v>43592</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G85" s="9">
+        <v>1</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K85" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="86" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B86" s="12"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="9"/>
+      <c r="B86" s="9">
+        <v>22</v>
+      </c>
+      <c r="C86" s="10">
+        <v>43592</v>
+      </c>
+      <c r="D86" t="s">
+        <v>162</v>
+      </c>
+      <c r="E86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G86" s="9">
+        <v>1</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K86" t="s">
+        <v>163</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="87" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B87" s="12"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="9"/>
+      <c r="B87" s="9">
+        <v>23</v>
+      </c>
+      <c r="C87" s="10">
+        <v>43592</v>
+      </c>
+      <c r="D87" t="s">
+        <v>164</v>
+      </c>
+      <c r="E87" t="s">
+        <v>165</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G87" s="9">
+        <v>1</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K87" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="88" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B88" s="12"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="9"/>
+      <c r="B88" s="9">
+        <v>35</v>
+      </c>
+      <c r="C88" s="10">
+        <v>43592</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G88" s="9">
+        <v>1</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="K88" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="89" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B89" s="12"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="9"/>
+      <c r="B89" s="9">
+        <v>25</v>
+      </c>
+      <c r="C89" s="10">
+        <v>43592</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G89" s="9">
+        <v>1</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="90" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B90" s="12"/>
@@ -5321,16 +5688,16 @@
       <c r="L176" s="9"/>
     </row>
     <row r="177" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B177" s="37" t="s">
+      <c r="B177" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C177" s="38"/>
+      <c r="C177" s="34"/>
       <c r="D177" s="14"/>
       <c r="E177" s="14"/>
       <c r="F177" s="15"/>
       <c r="G177" s="15">
         <f>SUM(G3:G163)</f>
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
@@ -5339,15 +5706,15 @@
       <c r="L177" s="9"/>
     </row>
     <row r="179" spans="2:12" ht="75" customHeight="1">
-      <c r="B179" s="39"/>
-      <c r="C179" s="40"/>
-      <c r="D179" s="40"/>
-      <c r="E179" s="40"/>
-      <c r="F179" s="40"/>
-      <c r="G179" s="40"/>
-      <c r="H179" s="40"/>
-      <c r="I179" s="40"/>
-      <c r="J179" s="41"/>
+      <c r="B179" s="35"/>
+      <c r="C179" s="36"/>
+      <c r="D179" s="36"/>
+      <c r="E179" s="36"/>
+      <c r="F179" s="36"/>
+      <c r="G179" s="36"/>
+      <c r="H179" s="36"/>
+      <c r="I179" s="36"/>
+      <c r="J179" s="37"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
     </row>
@@ -5399,9 +5766,18 @@
     <hyperlink ref="K72" r:id="rId25"/>
     <hyperlink ref="K74" r:id="rId26"/>
     <hyperlink ref="K75" r:id="rId27"/>
+    <hyperlink ref="K76" r:id="rId28"/>
+    <hyperlink ref="K79" r:id="rId29"/>
+    <hyperlink ref="K80" r:id="rId30"/>
+    <hyperlink ref="K81" r:id="rId31"/>
+    <hyperlink ref="K82" r:id="rId32"/>
+    <hyperlink ref="K83" r:id="rId33"/>
+    <hyperlink ref="K84" r:id="rId34"/>
+    <hyperlink ref="K87" r:id="rId35"/>
+    <hyperlink ref="K88" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId28"/>
-  <drawing r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId37"/>
+  <drawing r:id="rId38"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="175">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -575,6 +575,27 @@
   </si>
   <si>
     <t>页面跳转修改</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/wangyim1/</t>
+  </si>
+  <si>
+    <t>广州市济德医药连锁有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/jdyy/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山瑾梦化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/jinmeng/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/annas2/ </t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1000,6 +1021,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,9 +1044,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1395,10 +1416,10 @@
   <dimension ref="B1:Q179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C89" sqref="C89"/>
+      <selection pane="bottomRight" activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1423,24 +1444,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
       <c r="K1" s="16"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="N1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -1517,7 +1538,7 @@
       <c r="J3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="31" t="s">
         <v>142</v>
       </c>
       <c r="L3" s="9" t="s">
@@ -1563,7 +1584,7 @@
       <c r="J4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="31" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -1613,7 +1634,7 @@
       <c r="J5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="31" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="9" t="s">
@@ -1648,7 +1669,7 @@
       <c r="J6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="31" t="s">
         <v>56</v>
       </c>
       <c r="L6" s="9" t="s">
@@ -1683,7 +1704,7 @@
       <c r="J7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="31" t="s">
         <v>57</v>
       </c>
       <c r="L7" s="9" t="s">
@@ -1718,7 +1739,7 @@
       <c r="J8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="31" t="s">
         <v>59</v>
       </c>
       <c r="L8" s="9" t="s">
@@ -1753,7 +1774,7 @@
       <c r="J9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="31" t="s">
         <v>61</v>
       </c>
       <c r="L9" s="9" t="s">
@@ -1788,7 +1809,7 @@
       <c r="J10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="9" t="s">
@@ -1823,7 +1844,7 @@
       <c r="J11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="31" t="s">
         <v>48</v>
       </c>
       <c r="L11" s="9" t="s">
@@ -1858,7 +1879,7 @@
       <c r="J12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="31" t="s">
         <v>63</v>
       </c>
       <c r="L12" s="9" t="s">
@@ -1893,7 +1914,7 @@
       <c r="J13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L13" s="9" t="s">
@@ -1928,7 +1949,7 @@
       <c r="J14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="31" t="s">
         <v>66</v>
       </c>
       <c r="L14" s="9" t="s">
@@ -1963,7 +1984,7 @@
       <c r="J15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L15" s="9" t="s">
@@ -1998,7 +2019,7 @@
       <c r="J16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="38" t="s">
+      <c r="K16" s="31" t="s">
         <v>68</v>
       </c>
       <c r="L16" s="9" t="s">
@@ -2033,7 +2054,7 @@
       <c r="J17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L17" s="9" t="s">
@@ -2068,7 +2089,7 @@
       <c r="J18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="31" t="s">
         <v>70</v>
       </c>
       <c r="L18" s="9" t="s">
@@ -2103,7 +2124,7 @@
       <c r="J19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="38" t="s">
+      <c r="K19" s="31" t="s">
         <v>72</v>
       </c>
       <c r="L19" s="9" t="s">
@@ -2138,7 +2159,7 @@
       <c r="J20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="38" t="s">
+      <c r="K20" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L20" s="9" t="s">
@@ -2173,7 +2194,7 @@
       <c r="J21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="38" t="s">
+      <c r="K21" s="31" t="s">
         <v>68</v>
       </c>
       <c r="L21" s="9" t="s">
@@ -2208,7 +2229,7 @@
       <c r="J22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L22" s="9" t="s">
@@ -2243,7 +2264,7 @@
       <c r="J23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="38" t="s">
+      <c r="K23" s="31" t="s">
         <v>48</v>
       </c>
       <c r="L23" s="9" t="s">
@@ -2278,7 +2299,7 @@
       <c r="J24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="38" t="s">
+      <c r="K24" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L24" s="9" t="s">
@@ -2313,7 +2334,7 @@
       <c r="J25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="38" t="s">
+      <c r="K25" s="31" t="s">
         <v>50</v>
       </c>
       <c r="L25" s="9" t="s">
@@ -2348,7 +2369,7 @@
       <c r="J26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="38" t="s">
+      <c r="K26" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L26" s="9" t="s">
@@ -2383,7 +2404,7 @@
       <c r="J27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="38" t="s">
+      <c r="K27" s="31" t="s">
         <v>50</v>
       </c>
       <c r="L27" s="9" t="s">
@@ -2418,7 +2439,7 @@
       <c r="J28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="38" t="s">
+      <c r="K28" s="31" t="s">
         <v>68</v>
       </c>
       <c r="L28" s="9" t="s">
@@ -2453,7 +2474,7 @@
       <c r="J29" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="38" t="s">
+      <c r="K29" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L29" s="9" t="s">
@@ -2488,7 +2509,7 @@
       <c r="J30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="38" t="s">
+      <c r="K30" s="31" t="s">
         <v>42</v>
       </c>
       <c r="L30" s="9" t="s">
@@ -2523,7 +2544,7 @@
       <c r="J31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="38" t="s">
+      <c r="K31" s="31" t="s">
         <v>50</v>
       </c>
       <c r="L31" s="9" t="s">
@@ -2558,7 +2579,7 @@
       <c r="J32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K32" s="38" t="s">
+      <c r="K32" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L32" s="9" t="s">
@@ -2593,7 +2614,7 @@
       <c r="J33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="38" t="s">
+      <c r="K33" s="31" t="s">
         <v>50</v>
       </c>
       <c r="L33" s="9" t="s">
@@ -2628,7 +2649,7 @@
       <c r="J34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="38" t="s">
+      <c r="K34" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L34" s="9" t="s">
@@ -2663,7 +2684,7 @@
       <c r="J35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K35" s="38" t="s">
+      <c r="K35" s="31" t="s">
         <v>68</v>
       </c>
       <c r="L35" s="9" t="s">
@@ -2698,7 +2719,7 @@
       <c r="J36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="38" t="s">
+      <c r="K36" s="31" t="s">
         <v>74</v>
       </c>
       <c r="L36" s="9" t="s">
@@ -2733,7 +2754,7 @@
       <c r="J37" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="38" t="s">
+      <c r="K37" s="31" t="s">
         <v>77</v>
       </c>
       <c r="L37" s="9" t="s">
@@ -2768,7 +2789,7 @@
       <c r="J38" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="38" t="s">
+      <c r="K38" s="31" t="s">
         <v>143</v>
       </c>
       <c r="L38" s="9" t="s">
@@ -2803,7 +2824,7 @@
       <c r="J39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="38" t="s">
+      <c r="K39" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L39" s="9" t="s">
@@ -2838,7 +2859,7 @@
       <c r="J40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K40" s="38" t="s">
+      <c r="K40" s="31" t="s">
         <v>81</v>
       </c>
       <c r="L40" s="9" t="s">
@@ -2873,7 +2894,7 @@
       <c r="J41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K41" s="38" t="s">
+      <c r="K41" s="31" t="s">
         <v>84</v>
       </c>
       <c r="L41" s="9" t="s">
@@ -2908,7 +2929,7 @@
       <c r="J42" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K42" s="38" t="s">
+      <c r="K42" s="31" t="s">
         <v>144</v>
       </c>
       <c r="L42" s="9" t="s">
@@ -2939,7 +2960,7 @@
       <c r="J43" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="38" t="s">
+      <c r="K43" s="31" t="s">
         <v>145</v>
       </c>
       <c r="L43" s="9" t="s">
@@ -2974,7 +2995,7 @@
       <c r="J44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K44" s="38" t="s">
+      <c r="K44" s="31" t="s">
         <v>68</v>
       </c>
       <c r="L44" s="9" t="s">
@@ -3009,7 +3030,7 @@
       <c r="J45" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K45" s="38" t="s">
+      <c r="K45" s="31" t="s">
         <v>40</v>
       </c>
       <c r="L45" s="9" t="s">
@@ -3044,7 +3065,7 @@
       <c r="J46" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K46" s="38" t="s">
+      <c r="K46" s="31" t="s">
         <v>93</v>
       </c>
       <c r="L46" s="9" t="s">
@@ -3079,7 +3100,7 @@
       <c r="J47" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K47" s="38" t="s">
+      <c r="K47" s="31" t="s">
         <v>146</v>
       </c>
       <c r="L47" s="9" t="s">
@@ -3114,7 +3135,7 @@
       <c r="J48" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="38" t="s">
+      <c r="K48" s="31" t="s">
         <v>147</v>
       </c>
       <c r="L48" s="9" t="s">
@@ -3149,7 +3170,7 @@
       <c r="J49" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K49" s="38" t="s">
+      <c r="K49" s="31" t="s">
         <v>99</v>
       </c>
       <c r="L49" s="9" t="s">
@@ -3184,7 +3205,7 @@
       <c r="J50" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K50" s="38" t="s">
+      <c r="K50" s="31" t="s">
         <v>102</v>
       </c>
       <c r="L50" s="9" t="s">
@@ -3219,7 +3240,7 @@
       <c r="J51" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="38" t="s">
+      <c r="K51" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L51" s="9" t="s">
@@ -3254,7 +3275,7 @@
       <c r="J52" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="38" t="s">
+      <c r="K52" s="31" t="s">
         <v>40</v>
       </c>
       <c r="L52" s="9" t="s">
@@ -3289,7 +3310,7 @@
       <c r="J53" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K53" s="38" t="s">
+      <c r="K53" s="31" t="s">
         <v>109</v>
       </c>
       <c r="L53" s="9" t="s">
@@ -3324,7 +3345,7 @@
       <c r="J54" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K54" s="38" t="s">
+      <c r="K54" s="31" t="s">
         <v>107</v>
       </c>
       <c r="L54" s="9" t="s">
@@ -3359,7 +3380,7 @@
       <c r="J55" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K55" s="38" t="s">
+      <c r="K55" s="31" t="s">
         <v>148</v>
       </c>
       <c r="L55" s="9" t="s">
@@ -3394,7 +3415,7 @@
       <c r="J56" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K56" s="38" t="s">
+      <c r="K56" s="31" t="s">
         <v>110</v>
       </c>
       <c r="L56" s="9" t="s">
@@ -3429,7 +3450,7 @@
       <c r="J57" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K57" s="38" t="s">
+      <c r="K57" s="31" t="s">
         <v>149</v>
       </c>
       <c r="L57" s="9" t="s">
@@ -3464,7 +3485,7 @@
       <c r="J58" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K58" s="38" t="s">
+      <c r="K58" s="31" t="s">
         <v>128</v>
       </c>
       <c r="L58" s="9" t="s">
@@ -3499,7 +3520,7 @@
       <c r="J59" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K59" s="38" t="s">
+      <c r="K59" s="31" t="s">
         <v>150</v>
       </c>
       <c r="L59" s="9" t="s">
@@ -3534,7 +3555,7 @@
       <c r="J60" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K60" s="38" t="s">
+      <c r="K60" s="31" t="s">
         <v>117</v>
       </c>
       <c r="L60" s="9" t="s">
@@ -3569,7 +3590,7 @@
       <c r="J61" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K61" s="38" t="s">
+      <c r="K61" s="31" t="s">
         <v>151</v>
       </c>
       <c r="L61" s="9" t="s">
@@ -3604,7 +3625,7 @@
       <c r="J62" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K62" s="38" t="s">
+      <c r="K62" s="31" t="s">
         <v>121</v>
       </c>
       <c r="L62" s="9" t="s">
@@ -3639,7 +3660,7 @@
       <c r="J63" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K63" s="38" t="s">
+      <c r="K63" s="31" t="s">
         <v>40</v>
       </c>
       <c r="L63" s="9" t="s">
@@ -3674,7 +3695,7 @@
       <c r="J64" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K64" s="38" t="s">
+      <c r="K64" s="31" t="s">
         <v>93</v>
       </c>
       <c r="L64" s="9" t="s">
@@ -3709,7 +3730,7 @@
       <c r="J65" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K65" s="38" t="s">
+      <c r="K65" s="31" t="s">
         <v>146</v>
       </c>
       <c r="L65" s="9" t="s">
@@ -3744,7 +3765,7 @@
       <c r="J66" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K66" s="38" t="s">
+      <c r="K66" s="31" t="s">
         <v>124</v>
       </c>
       <c r="L66" s="9" t="s">
@@ -3779,7 +3800,7 @@
       <c r="J67" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K67" s="38" t="s">
+      <c r="K67" s="31" t="s">
         <v>127</v>
       </c>
       <c r="L67" s="9" t="s">
@@ -3814,7 +3835,7 @@
       <c r="J68" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K68" s="38" t="s">
+      <c r="K68" s="31" t="s">
         <v>132</v>
       </c>
       <c r="L68" s="9" t="s">
@@ -3849,7 +3870,7 @@
       <c r="J69" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K69" s="38" t="s">
+      <c r="K69" s="31" t="s">
         <v>93</v>
       </c>
       <c r="L69" s="9" t="s">
@@ -3884,7 +3905,7 @@
       <c r="J70" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K70" s="38" t="s">
+      <c r="K70" s="31" t="s">
         <v>68</v>
       </c>
       <c r="L70" s="9" t="s">
@@ -3919,7 +3940,7 @@
       <c r="J71" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K71" s="38" t="s">
+      <c r="K71" s="31" t="s">
         <v>121</v>
       </c>
       <c r="L71" s="9" t="s">
@@ -3954,7 +3975,7 @@
       <c r="J72" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K72" s="38" t="s">
+      <c r="K72" s="31" t="s">
         <v>135</v>
       </c>
       <c r="L72" s="9" t="s">
@@ -3989,7 +4010,7 @@
       <c r="J73" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K73" s="38" t="s">
+      <c r="K73" s="31" t="s">
         <v>40</v>
       </c>
       <c r="L73" s="9" t="s">
@@ -4024,7 +4045,7 @@
       <c r="J74" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K74" s="38" t="s">
+      <c r="K74" s="31" t="s">
         <v>136</v>
       </c>
       <c r="L74" s="9" t="s">
@@ -4059,7 +4080,7 @@
       <c r="J75" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K75" s="38" t="s">
+      <c r="K75" s="31" t="s">
         <v>135</v>
       </c>
       <c r="L75" s="9" t="s">
@@ -4094,7 +4115,7 @@
       <c r="J76" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K76" s="38" t="s">
+      <c r="K76" s="31" t="s">
         <v>152</v>
       </c>
       <c r="L76" s="9" t="s">
@@ -4129,7 +4150,7 @@
       <c r="J77" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K77" s="38" t="s">
+      <c r="K77" s="31" t="s">
         <v>141</v>
       </c>
       <c r="L77" s="9" t="s">
@@ -4164,7 +4185,7 @@
       <c r="J78" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K78" s="38" t="s">
+      <c r="K78" s="31" t="s">
         <v>68</v>
       </c>
       <c r="L78" s="9" t="s">
@@ -4199,7 +4220,7 @@
       <c r="J79" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K79" s="38" t="s">
+      <c r="K79" s="31" t="s">
         <v>127</v>
       </c>
       <c r="L79" s="9" t="s">
@@ -4234,7 +4255,7 @@
       <c r="J80" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K80" s="38" t="s">
+      <c r="K80" s="31" t="s">
         <v>153</v>
       </c>
       <c r="L80" s="9" t="s">
@@ -4269,7 +4290,7 @@
       <c r="J81" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K81" s="38" t="s">
+      <c r="K81" s="31" t="s">
         <v>121</v>
       </c>
       <c r="L81" s="9" t="s">
@@ -4409,7 +4430,7 @@
       <c r="J85" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K85" s="38" t="s">
+      <c r="K85" s="31" t="s">
         <v>72</v>
       </c>
       <c r="L85" s="9" t="s">
@@ -4514,7 +4535,7 @@
       <c r="J88" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="K88" s="38" t="s">
+      <c r="K88" s="31" t="s">
         <v>135</v>
       </c>
       <c r="L88" s="9" t="s">
@@ -4549,7 +4570,7 @@
       <c r="J89" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K89" s="38" t="s">
+      <c r="K89" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L89" s="9" t="s">
@@ -4557,82 +4578,214 @@
       </c>
     </row>
     <row r="90" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B90" s="12"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="9"/>
+      <c r="B90" s="9">
+        <v>21</v>
+      </c>
+      <c r="C90" s="10">
+        <v>43592</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G90" s="9">
+        <v>1</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K90" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="L90" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="91" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B91" s="12"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="9"/>
+      <c r="B91" s="9">
+        <v>22</v>
+      </c>
+      <c r="C91" s="10">
+        <v>43592</v>
+      </c>
+      <c r="D91" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" t="s">
+        <v>97</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G91" s="9">
+        <v>1</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" t="s">
+        <v>98</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" t="s">
+        <v>169</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="92" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B92" s="12"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="9"/>
+      <c r="B92" s="9">
+        <v>23</v>
+      </c>
+      <c r="C92" s="10">
+        <v>43592</v>
+      </c>
+      <c r="D92" t="s">
+        <v>170</v>
+      </c>
+      <c r="E92" t="s">
+        <v>170</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G92" s="9">
+        <v>1</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K92" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="93" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B93" s="12"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="9"/>
+      <c r="B93" s="9">
+        <v>24</v>
+      </c>
+      <c r="C93" s="10">
+        <v>43592</v>
+      </c>
+      <c r="D93" t="s">
+        <v>122</v>
+      </c>
+      <c r="E93" t="s">
+        <v>172</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G93" s="9">
+        <v>1</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" t="s">
+        <v>27</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K93" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="94" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B94" s="12"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="13"/>
-      <c r="L94" s="9"/>
+      <c r="B94" s="9">
+        <v>7</v>
+      </c>
+      <c r="C94" s="10">
+        <v>43592</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G94" s="9">
+        <v>1</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K94" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="95" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B95" s="12"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="13"/>
-      <c r="L95" s="9"/>
+      <c r="B95" s="9">
+        <v>21</v>
+      </c>
+      <c r="C95" s="10">
+        <v>43592</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G95" s="9">
+        <v>1</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K95" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="96" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B96" s="12"/>
@@ -5688,16 +5841,16 @@
       <c r="L176" s="9"/>
     </row>
     <row r="177" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B177" s="33" t="s">
+      <c r="B177" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C177" s="34"/>
+      <c r="C177" s="35"/>
       <c r="D177" s="14"/>
       <c r="E177" s="14"/>
       <c r="F177" s="15"/>
       <c r="G177" s="15">
         <f>SUM(G3:G163)</f>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
@@ -5706,15 +5859,15 @@
       <c r="L177" s="9"/>
     </row>
     <row r="179" spans="2:12" ht="75" customHeight="1">
-      <c r="B179" s="35"/>
-      <c r="C179" s="36"/>
-      <c r="D179" s="36"/>
-      <c r="E179" s="36"/>
-      <c r="F179" s="36"/>
-      <c r="G179" s="36"/>
-      <c r="H179" s="36"/>
-      <c r="I179" s="36"/>
-      <c r="J179" s="37"/>
+      <c r="B179" s="36"/>
+      <c r="C179" s="37"/>
+      <c r="D179" s="37"/>
+      <c r="E179" s="37"/>
+      <c r="F179" s="37"/>
+      <c r="G179" s="37"/>
+      <c r="H179" s="37"/>
+      <c r="I179" s="37"/>
+      <c r="J179" s="38"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
     </row>
@@ -5775,9 +5928,12 @@
     <hyperlink ref="K84" r:id="rId34"/>
     <hyperlink ref="K87" r:id="rId35"/>
     <hyperlink ref="K88" r:id="rId36"/>
+    <hyperlink ref="K92" r:id="rId37"/>
+    <hyperlink ref="K93" r:id="rId38"/>
+    <hyperlink ref="K95" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId37"/>
-  <drawing r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId40"/>
+  <drawing r:id="rId41"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="184">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -595,6 +595,39 @@
   </si>
   <si>
     <t>https://xhbup.com/annas2/ </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州天创科技有限公司</t>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/blls/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市锦宸化妆品有限公司</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/tianchuang/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/jinhuan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉米</t>
+  </si>
+  <si>
+    <t>广州市白云区茜妃化妆品厂18</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/qianfei4/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +635,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -724,6 +757,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -927,7 +968,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1045,6 +1086,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1091,7 +1141,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,7 +1153,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1419,7 +1469,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="F81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K95" sqref="K95"/>
+      <selection pane="bottomRight" activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4788,56 +4838,144 @@
       </c>
     </row>
     <row r="96" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B96" s="12"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="13"/>
-      <c r="L96" s="9"/>
+      <c r="B96" s="9">
+        <v>22</v>
+      </c>
+      <c r="C96" s="10">
+        <v>43592</v>
+      </c>
+      <c r="D96" t="s">
+        <v>82</v>
+      </c>
+      <c r="E96" t="s">
+        <v>82</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G96" s="9">
+        <v>1</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="L96" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="97" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B97" s="12"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="9"/>
+      <c r="B97" s="9">
+        <v>23</v>
+      </c>
+      <c r="C97" s="10">
+        <v>43592</v>
+      </c>
+      <c r="D97" t="s">
+        <v>175</v>
+      </c>
+      <c r="E97" t="s">
+        <v>175</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G97" s="9">
+        <v>1</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" t="s">
+        <v>24</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K97" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="98" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B98" s="12"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="9"/>
+      <c r="B98" s="9">
+        <v>24</v>
+      </c>
+      <c r="C98" s="10">
+        <v>43593</v>
+      </c>
+      <c r="D98" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E98" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G98" s="9">
+        <v>1</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K98" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L98" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="99" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B99" s="12"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="13"/>
-      <c r="L99" s="9"/>
+      <c r="B99" s="9">
+        <v>25</v>
+      </c>
+      <c r="C99" s="10">
+        <v>43593</v>
+      </c>
+      <c r="D99" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="E99" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G99" s="9">
+        <v>1</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s">
+        <v>23</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K99" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="100" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B100" s="12"/>
@@ -5850,7 +5988,7 @@
       <c r="F177" s="15"/>
       <c r="G177" s="15">
         <f>SUM(G3:G163)</f>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
@@ -5931,9 +6069,13 @@
     <hyperlink ref="K92" r:id="rId37"/>
     <hyperlink ref="K93" r:id="rId38"/>
     <hyperlink ref="K95" r:id="rId39"/>
+    <hyperlink ref="K98" r:id="rId40"/>
+    <hyperlink ref="K96" r:id="rId41"/>
+    <hyperlink ref="K97" r:id="rId42"/>
+    <hyperlink ref="K99" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId40"/>
-  <drawing r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId44"/>
+  <drawing r:id="rId45"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="210">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -628,6 +628,98 @@
   </si>
   <si>
     <t>https://www.xhbup.com/qianfei4/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>揭阳市桦明贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/jy/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州佳多丽化妆品有限公司</t>
+  </si>
+  <si>
+    <t>祛痘</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jiaduol/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭总</t>
+  </si>
+  <si>
+    <t>陈晓玲</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/aolan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠州市素之源贸易有限公司</t>
+  </si>
+  <si>
+    <t>彩霞</t>
+  </si>
+  <si>
+    <t>韦生</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市吉乾堂健康科技有限公司</t>
+  </si>
+  <si>
+    <t>云浮市云城区热爱妆日用品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/reai/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/suzhiyuan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5页面制作</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>汕头市凯艺轩贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/kaiyix/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>河源市美妆礼遇悸美容服务有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/mzlyj/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山市沐妍化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/muyan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jiqiant/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州傲澜生物科技有限公司</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘霞</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/yueguan/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1047,9 +1139,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,6 +1152,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1086,13 +1184,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1141,7 +1233,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1153,7 +1245,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1466,10 +1558,10 @@
   <dimension ref="B1:Q179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K99" sqref="K99"/>
+      <selection pane="bottomRight" activeCell="L106" sqref="L106:L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1494,24 +1586,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="16"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
+      <c r="N1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -1588,7 +1680,7 @@
       <c r="J3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="30" t="s">
         <v>142</v>
       </c>
       <c r="L3" s="9" t="s">
@@ -1634,7 +1726,7 @@
       <c r="J4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="30" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -1684,7 +1776,7 @@
       <c r="J5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="30" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="9" t="s">
@@ -1719,7 +1811,7 @@
       <c r="J6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="30" t="s">
         <v>56</v>
       </c>
       <c r="L6" s="9" t="s">
@@ -1754,7 +1846,7 @@
       <c r="J7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="30" t="s">
         <v>57</v>
       </c>
       <c r="L7" s="9" t="s">
@@ -1789,7 +1881,7 @@
       <c r="J8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="30" t="s">
         <v>59</v>
       </c>
       <c r="L8" s="9" t="s">
@@ -1824,7 +1916,7 @@
       <c r="J9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="30" t="s">
         <v>61</v>
       </c>
       <c r="L9" s="9" t="s">
@@ -1859,7 +1951,7 @@
       <c r="J10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="9" t="s">
@@ -1894,7 +1986,7 @@
       <c r="J11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="30" t="s">
         <v>48</v>
       </c>
       <c r="L11" s="9" t="s">
@@ -1929,7 +2021,7 @@
       <c r="J12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="30" t="s">
         <v>63</v>
       </c>
       <c r="L12" s="9" t="s">
@@ -1964,7 +2056,7 @@
       <c r="J13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L13" s="9" t="s">
@@ -1999,7 +2091,7 @@
       <c r="J14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="30" t="s">
         <v>66</v>
       </c>
       <c r="L14" s="9" t="s">
@@ -2034,7 +2126,7 @@
       <c r="J15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L15" s="9" t="s">
@@ -2069,7 +2161,7 @@
       <c r="J16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="30" t="s">
         <v>68</v>
       </c>
       <c r="L16" s="9" t="s">
@@ -2104,7 +2196,7 @@
       <c r="J17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L17" s="9" t="s">
@@ -2139,7 +2231,7 @@
       <c r="J18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="30" t="s">
         <v>70</v>
       </c>
       <c r="L18" s="9" t="s">
@@ -2174,7 +2266,7 @@
       <c r="J19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="30" t="s">
         <v>72</v>
       </c>
       <c r="L19" s="9" t="s">
@@ -2209,7 +2301,7 @@
       <c r="J20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L20" s="9" t="s">
@@ -2244,7 +2336,7 @@
       <c r="J21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="30" t="s">
         <v>68</v>
       </c>
       <c r="L21" s="9" t="s">
@@ -2279,7 +2371,7 @@
       <c r="J22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="31" t="s">
+      <c r="K22" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L22" s="9" t="s">
@@ -2314,7 +2406,7 @@
       <c r="J23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="30" t="s">
         <v>48</v>
       </c>
       <c r="L23" s="9" t="s">
@@ -2349,7 +2441,7 @@
       <c r="J24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L24" s="9" t="s">
@@ -2384,7 +2476,7 @@
       <c r="J25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="31" t="s">
+      <c r="K25" s="30" t="s">
         <v>50</v>
       </c>
       <c r="L25" s="9" t="s">
@@ -2419,7 +2511,7 @@
       <c r="J26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="31" t="s">
+      <c r="K26" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L26" s="9" t="s">
@@ -2454,7 +2546,7 @@
       <c r="J27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="31" t="s">
+      <c r="K27" s="30" t="s">
         <v>50</v>
       </c>
       <c r="L27" s="9" t="s">
@@ -2489,7 +2581,7 @@
       <c r="J28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="31" t="s">
+      <c r="K28" s="30" t="s">
         <v>68</v>
       </c>
       <c r="L28" s="9" t="s">
@@ -2524,7 +2616,7 @@
       <c r="J29" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="K29" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L29" s="9" t="s">
@@ -2559,7 +2651,7 @@
       <c r="J30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="31" t="s">
+      <c r="K30" s="30" t="s">
         <v>42</v>
       </c>
       <c r="L30" s="9" t="s">
@@ -2594,7 +2686,7 @@
       <c r="J31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="30" t="s">
         <v>50</v>
       </c>
       <c r="L31" s="9" t="s">
@@ -2629,7 +2721,7 @@
       <c r="J32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K32" s="31" t="s">
+      <c r="K32" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L32" s="9" t="s">
@@ -2664,7 +2756,7 @@
       <c r="J33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="31" t="s">
+      <c r="K33" s="30" t="s">
         <v>50</v>
       </c>
       <c r="L33" s="9" t="s">
@@ -2699,7 +2791,7 @@
       <c r="J34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="31" t="s">
+      <c r="K34" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L34" s="9" t="s">
@@ -2734,7 +2826,7 @@
       <c r="J35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K35" s="31" t="s">
+      <c r="K35" s="30" t="s">
         <v>68</v>
       </c>
       <c r="L35" s="9" t="s">
@@ -2769,7 +2861,7 @@
       <c r="J36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="31" t="s">
+      <c r="K36" s="30" t="s">
         <v>74</v>
       </c>
       <c r="L36" s="9" t="s">
@@ -2804,7 +2896,7 @@
       <c r="J37" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="31" t="s">
+      <c r="K37" s="30" t="s">
         <v>77</v>
       </c>
       <c r="L37" s="9" t="s">
@@ -2839,7 +2931,7 @@
       <c r="J38" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="31" t="s">
+      <c r="K38" s="30" t="s">
         <v>143</v>
       </c>
       <c r="L38" s="9" t="s">
@@ -2874,7 +2966,7 @@
       <c r="J39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="31" t="s">
+      <c r="K39" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L39" s="9" t="s">
@@ -2909,7 +3001,7 @@
       <c r="J40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K40" s="31" t="s">
+      <c r="K40" s="30" t="s">
         <v>81</v>
       </c>
       <c r="L40" s="9" t="s">
@@ -2944,7 +3036,7 @@
       <c r="J41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K41" s="31" t="s">
+      <c r="K41" s="30" t="s">
         <v>84</v>
       </c>
       <c r="L41" s="9" t="s">
@@ -2979,7 +3071,7 @@
       <c r="J42" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K42" s="31" t="s">
+      <c r="K42" s="30" t="s">
         <v>144</v>
       </c>
       <c r="L42" s="9" t="s">
@@ -3010,7 +3102,7 @@
       <c r="J43" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="31" t="s">
+      <c r="K43" s="30" t="s">
         <v>145</v>
       </c>
       <c r="L43" s="9" t="s">
@@ -3045,7 +3137,7 @@
       <c r="J44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K44" s="31" t="s">
+      <c r="K44" s="30" t="s">
         <v>68</v>
       </c>
       <c r="L44" s="9" t="s">
@@ -3080,7 +3172,7 @@
       <c r="J45" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K45" s="31" t="s">
+      <c r="K45" s="30" t="s">
         <v>40</v>
       </c>
       <c r="L45" s="9" t="s">
@@ -3115,7 +3207,7 @@
       <c r="J46" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K46" s="31" t="s">
+      <c r="K46" s="30" t="s">
         <v>93</v>
       </c>
       <c r="L46" s="9" t="s">
@@ -3150,7 +3242,7 @@
       <c r="J47" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K47" s="31" t="s">
+      <c r="K47" s="30" t="s">
         <v>146</v>
       </c>
       <c r="L47" s="9" t="s">
@@ -3185,7 +3277,7 @@
       <c r="J48" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="31" t="s">
+      <c r="K48" s="30" t="s">
         <v>147</v>
       </c>
       <c r="L48" s="9" t="s">
@@ -3199,10 +3291,10 @@
       <c r="C49" s="10">
         <v>43590</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="28" t="s">
         <v>97</v>
       </c>
       <c r="F49" s="9" t="s">
@@ -3214,13 +3306,13 @@
       <c r="H49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="29" t="s">
+      <c r="I49" s="28" t="s">
         <v>98</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K49" s="31" t="s">
+      <c r="K49" s="30" t="s">
         <v>99</v>
       </c>
       <c r="L49" s="9" t="s">
@@ -3234,10 +3326,10 @@
       <c r="C50" s="10">
         <v>43590</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="26" t="s">
         <v>101</v>
       </c>
       <c r="F50" s="9" t="s">
@@ -3255,7 +3347,7 @@
       <c r="J50" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K50" s="31" t="s">
+      <c r="K50" s="30" t="s">
         <v>102</v>
       </c>
       <c r="L50" s="9" t="s">
@@ -3290,7 +3382,7 @@
       <c r="J51" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="31" t="s">
+      <c r="K51" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L51" s="9" t="s">
@@ -3325,7 +3417,7 @@
       <c r="J52" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="31" t="s">
+      <c r="K52" s="30" t="s">
         <v>40</v>
       </c>
       <c r="L52" s="9" t="s">
@@ -3339,10 +3431,10 @@
       <c r="C53" s="10">
         <v>43590</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E53" s="26" t="s">
         <v>103</v>
       </c>
       <c r="F53" s="25" t="s">
@@ -3360,7 +3452,7 @@
       <c r="J53" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K53" s="31" t="s">
+      <c r="K53" s="30" t="s">
         <v>109</v>
       </c>
       <c r="L53" s="9" t="s">
@@ -3374,10 +3466,10 @@
       <c r="C54" s="10">
         <v>43590</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="26" t="s">
         <v>106</v>
       </c>
       <c r="F54" s="9" t="s">
@@ -3389,13 +3481,13 @@
       <c r="H54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="27" t="s">
+      <c r="I54" s="26" t="s">
         <v>18</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K54" s="31" t="s">
+      <c r="K54" s="30" t="s">
         <v>107</v>
       </c>
       <c r="L54" s="9" t="s">
@@ -3409,10 +3501,10 @@
       <c r="C55" s="10">
         <v>43590</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="26" t="s">
         <v>108</v>
       </c>
       <c r="F55" s="9" t="s">
@@ -3430,7 +3522,7 @@
       <c r="J55" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K55" s="31" t="s">
+      <c r="K55" s="30" t="s">
         <v>148</v>
       </c>
       <c r="L55" s="9" t="s">
@@ -3447,7 +3539,7 @@
       <c r="D56" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="26" t="s">
         <v>88</v>
       </c>
       <c r="F56" s="9" t="s">
@@ -3465,7 +3557,7 @@
       <c r="J56" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K56" s="31" t="s">
+      <c r="K56" s="30" t="s">
         <v>110</v>
       </c>
       <c r="L56" s="9" t="s">
@@ -3500,7 +3592,7 @@
       <c r="J57" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K57" s="31" t="s">
+      <c r="K57" s="30" t="s">
         <v>149</v>
       </c>
       <c r="L57" s="9" t="s">
@@ -3514,10 +3606,10 @@
       <c r="C58" s="10">
         <v>43590</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="E58" s="27" t="s">
         <v>113</v>
       </c>
       <c r="F58" s="9" t="s">
@@ -3529,13 +3621,13 @@
       <c r="H58" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="28" t="s">
+      <c r="I58" s="27" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K58" s="31" t="s">
+      <c r="K58" s="30" t="s">
         <v>128</v>
       </c>
       <c r="L58" s="9" t="s">
@@ -3549,10 +3641,10 @@
       <c r="C59" s="10">
         <v>43590</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="26" t="s">
         <v>114</v>
       </c>
       <c r="F59" s="9" t="s">
@@ -3564,13 +3656,13 @@
       <c r="H59" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="28" t="s">
+      <c r="I59" s="27" t="s">
         <v>24</v>
       </c>
       <c r="J59" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K59" s="31" t="s">
+      <c r="K59" s="30" t="s">
         <v>150</v>
       </c>
       <c r="L59" s="9" t="s">
@@ -3584,10 +3676,10 @@
       <c r="C60" s="10">
         <v>43590</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E60" s="26" t="s">
         <v>116</v>
       </c>
       <c r="F60" s="9" t="s">
@@ -3599,13 +3691,13 @@
       <c r="H60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="27" t="s">
+      <c r="I60" s="26" t="s">
         <v>23</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K60" s="31" t="s">
+      <c r="K60" s="30" t="s">
         <v>117</v>
       </c>
       <c r="L60" s="9" t="s">
@@ -3619,10 +3711,10 @@
       <c r="C61" s="10">
         <v>43590</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="26" t="s">
         <v>118</v>
       </c>
       <c r="F61" s="25" t="s">
@@ -3634,13 +3726,13 @@
       <c r="H61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I61" s="27" t="s">
+      <c r="I61" s="26" t="s">
         <v>29</v>
       </c>
       <c r="J61" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K61" s="31" t="s">
+      <c r="K61" s="30" t="s">
         <v>151</v>
       </c>
       <c r="L61" s="9" t="s">
@@ -3675,7 +3767,7 @@
       <c r="J62" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K62" s="31" t="s">
+      <c r="K62" s="30" t="s">
         <v>121</v>
       </c>
       <c r="L62" s="9" t="s">
@@ -3710,7 +3802,7 @@
       <c r="J63" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K63" s="31" t="s">
+      <c r="K63" s="30" t="s">
         <v>40</v>
       </c>
       <c r="L63" s="9" t="s">
@@ -3745,7 +3837,7 @@
       <c r="J64" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K64" s="31" t="s">
+      <c r="K64" s="30" t="s">
         <v>93</v>
       </c>
       <c r="L64" s="9" t="s">
@@ -3780,7 +3872,7 @@
       <c r="J65" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K65" s="31" t="s">
+      <c r="K65" s="30" t="s">
         <v>146</v>
       </c>
       <c r="L65" s="9" t="s">
@@ -3815,7 +3907,7 @@
       <c r="J66" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K66" s="31" t="s">
+      <c r="K66" s="30" t="s">
         <v>124</v>
       </c>
       <c r="L66" s="9" t="s">
@@ -3850,7 +3942,7 @@
       <c r="J67" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K67" s="31" t="s">
+      <c r="K67" s="30" t="s">
         <v>127</v>
       </c>
       <c r="L67" s="9" t="s">
@@ -3885,7 +3977,7 @@
       <c r="J68" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K68" s="31" t="s">
+      <c r="K68" s="30" t="s">
         <v>132</v>
       </c>
       <c r="L68" s="9" t="s">
@@ -3920,7 +4012,7 @@
       <c r="J69" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K69" s="31" t="s">
+      <c r="K69" s="30" t="s">
         <v>93</v>
       </c>
       <c r="L69" s="9" t="s">
@@ -3955,7 +4047,7 @@
       <c r="J70" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K70" s="31" t="s">
+      <c r="K70" s="30" t="s">
         <v>68</v>
       </c>
       <c r="L70" s="9" t="s">
@@ -3990,7 +4082,7 @@
       <c r="J71" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K71" s="31" t="s">
+      <c r="K71" s="30" t="s">
         <v>121</v>
       </c>
       <c r="L71" s="9" t="s">
@@ -4025,7 +4117,7 @@
       <c r="J72" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K72" s="31" t="s">
+      <c r="K72" s="30" t="s">
         <v>135</v>
       </c>
       <c r="L72" s="9" t="s">
@@ -4060,7 +4152,7 @@
       <c r="J73" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K73" s="31" t="s">
+      <c r="K73" s="30" t="s">
         <v>40</v>
       </c>
       <c r="L73" s="9" t="s">
@@ -4074,10 +4166,10 @@
       <c r="C74" s="10">
         <v>43591</v>
       </c>
-      <c r="D74" s="28" t="s">
+      <c r="D74" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E74" s="28" t="s">
+      <c r="E74" s="27" t="s">
         <v>113</v>
       </c>
       <c r="F74" s="9" t="s">
@@ -4089,13 +4181,13 @@
       <c r="H74" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I74" s="28" t="s">
+      <c r="I74" s="27" t="s">
         <v>24</v>
       </c>
       <c r="J74" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K74" s="31" t="s">
+      <c r="K74" s="30" t="s">
         <v>136</v>
       </c>
       <c r="L74" s="9" t="s">
@@ -4130,7 +4222,7 @@
       <c r="J75" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K75" s="31" t="s">
+      <c r="K75" s="30" t="s">
         <v>135</v>
       </c>
       <c r="L75" s="9" t="s">
@@ -4165,7 +4257,7 @@
       <c r="J76" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K76" s="31" t="s">
+      <c r="K76" s="30" t="s">
         <v>152</v>
       </c>
       <c r="L76" s="9" t="s">
@@ -4200,7 +4292,7 @@
       <c r="J77" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K77" s="31" t="s">
+      <c r="K77" s="30" t="s">
         <v>141</v>
       </c>
       <c r="L77" s="9" t="s">
@@ -4235,7 +4327,7 @@
       <c r="J78" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K78" s="31" t="s">
+      <c r="K78" s="30" t="s">
         <v>68</v>
       </c>
       <c r="L78" s="9" t="s">
@@ -4270,7 +4362,7 @@
       <c r="J79" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K79" s="31" t="s">
+      <c r="K79" s="30" t="s">
         <v>127</v>
       </c>
       <c r="L79" s="9" t="s">
@@ -4305,7 +4397,7 @@
       <c r="J80" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K80" s="31" t="s">
+      <c r="K80" s="30" t="s">
         <v>153</v>
       </c>
       <c r="L80" s="9" t="s">
@@ -4340,7 +4432,7 @@
       <c r="J81" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K81" s="31" t="s">
+      <c r="K81" s="30" t="s">
         <v>121</v>
       </c>
       <c r="L81" s="9" t="s">
@@ -4375,7 +4467,7 @@
       <c r="J82" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K82" s="30" t="s">
+      <c r="K82" s="29" t="s">
         <v>156</v>
       </c>
       <c r="L82" s="9" t="s">
@@ -4410,7 +4502,7 @@
       <c r="J83" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K83" s="30" t="s">
+      <c r="K83" s="29" t="s">
         <v>158</v>
       </c>
       <c r="L83" s="9" t="s">
@@ -4445,7 +4537,7 @@
       <c r="J84" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K84" s="30" t="s">
+      <c r="K84" s="29" t="s">
         <v>161</v>
       </c>
       <c r="L84" s="9" t="s">
@@ -4480,7 +4572,7 @@
       <c r="J85" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K85" s="31" t="s">
+      <c r="K85" s="30" t="s">
         <v>72</v>
       </c>
       <c r="L85" s="9" t="s">
@@ -4550,7 +4642,7 @@
       <c r="J87" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K87" s="30" t="s">
+      <c r="K87" s="29" t="s">
         <v>167</v>
       </c>
       <c r="L87" s="9" t="s">
@@ -4585,7 +4677,7 @@
       <c r="J88" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="K88" s="31" t="s">
+      <c r="K88" s="30" t="s">
         <v>135</v>
       </c>
       <c r="L88" s="9" t="s">
@@ -4620,7 +4712,7 @@
       <c r="J89" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K89" s="31" t="s">
+      <c r="K89" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L89" s="9" t="s">
@@ -4655,7 +4747,7 @@
       <c r="J90" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K90" s="31" t="s">
+      <c r="K90" s="30" t="s">
         <v>72</v>
       </c>
       <c r="L90" s="9" t="s">
@@ -4725,7 +4817,7 @@
       <c r="J92" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K92" s="30" t="s">
+      <c r="K92" s="29" t="s">
         <v>171</v>
       </c>
       <c r="L92" s="9" t="s">
@@ -4760,7 +4852,7 @@
       <c r="J93" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K93" s="30" t="s">
+      <c r="K93" s="29" t="s">
         <v>173</v>
       </c>
       <c r="L93" s="9" t="s">
@@ -4795,7 +4887,7 @@
       <c r="J94" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K94" s="31" t="s">
+      <c r="K94" s="30" t="s">
         <v>93</v>
       </c>
       <c r="L94" s="9" t="s">
@@ -4830,7 +4922,7 @@
       <c r="J95" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K95" s="30" t="s">
+      <c r="K95" s="29" t="s">
         <v>174</v>
       </c>
       <c r="L95" s="9" t="s">
@@ -4865,7 +4957,7 @@
       <c r="J96" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K96" s="41" t="s">
+      <c r="K96" s="33" t="s">
         <v>177</v>
       </c>
       <c r="L96" s="9" t="s">
@@ -4900,7 +4992,7 @@
       <c r="J97" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K97" s="41" t="s">
+      <c r="K97" s="33" t="s">
         <v>179</v>
       </c>
       <c r="L97" s="9" t="s">
@@ -4914,10 +5006,10 @@
       <c r="C98" s="10">
         <v>43593</v>
       </c>
-      <c r="D98" s="39" t="s">
+      <c r="D98" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E98" s="39" t="s">
+      <c r="E98" s="31" t="s">
         <v>178</v>
       </c>
       <c r="F98" s="9" t="s">
@@ -4935,7 +5027,7 @@
       <c r="J98" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K98" s="41" t="s">
+      <c r="K98" s="33" t="s">
         <v>180</v>
       </c>
       <c r="L98" s="9" t="s">
@@ -4949,10 +5041,10 @@
       <c r="C99" s="10">
         <v>43593</v>
       </c>
-      <c r="D99" s="40" t="s">
+      <c r="D99" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="E99" s="40" t="s">
+      <c r="E99" s="32" t="s">
         <v>182</v>
       </c>
       <c r="F99" s="9" t="s">
@@ -4970,7 +5062,7 @@
       <c r="J99" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K99" s="41" t="s">
+      <c r="K99" s="33" t="s">
         <v>183</v>
       </c>
       <c r="L99" s="9" t="s">
@@ -4978,186 +5070,494 @@
       </c>
     </row>
     <row r="100" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B100" s="12"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="9"/>
+      <c r="B100" s="9">
+        <v>26</v>
+      </c>
+      <c r="C100" s="10">
+        <v>43593</v>
+      </c>
+      <c r="D100" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" t="s">
+        <v>184</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G100" s="9">
+        <v>1</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" t="s">
+        <v>29</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="L100" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="101" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B101" s="12"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="9"/>
+      <c r="B101" s="9">
+        <v>24</v>
+      </c>
+      <c r="C101" s="10">
+        <v>43593</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G101" s="9">
+        <v>1</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K101" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="102" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B102" s="12"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="9"/>
+      <c r="B102" s="9">
+        <v>9</v>
+      </c>
+      <c r="C102" s="10">
+        <v>43593</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G102" s="9">
+        <v>1</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K102" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="L102" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="103" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B103" s="12"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="13"/>
-      <c r="L103" s="9"/>
+      <c r="B103" s="9">
+        <v>7</v>
+      </c>
+      <c r="C103" s="10">
+        <v>43593</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G103" s="9">
+        <v>1</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K103" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="104" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B104" s="12"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="9"/>
+      <c r="B104" s="9">
+        <v>8</v>
+      </c>
+      <c r="C104" s="10">
+        <v>43593</v>
+      </c>
+      <c r="D104" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" t="s">
+        <v>186</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G104" s="9">
+        <v>1</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I104" t="s">
+        <v>87</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K104" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="105" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B105" s="12"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="9"/>
+      <c r="B105" s="9">
+        <v>9</v>
+      </c>
+      <c r="C105" s="10">
+        <v>43593</v>
+      </c>
+      <c r="D105" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="E105" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G105" s="9">
+        <v>1</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K105" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="106" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B106" s="12"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="9"/>
+      <c r="B106" s="9">
+        <v>10</v>
+      </c>
+      <c r="C106" s="10">
+        <v>43593</v>
+      </c>
+      <c r="D106" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E106" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G106" s="9">
+        <v>1</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K106" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="107" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B107" s="12"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="9"/>
+      <c r="B107" s="9">
+        <v>11</v>
+      </c>
+      <c r="C107" s="10">
+        <v>43593</v>
+      </c>
+      <c r="D107" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E107" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G107" s="9">
+        <v>1</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="J107" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="K107" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="108" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B108" s="12"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="9"/>
+      <c r="B108" s="9">
+        <v>12</v>
+      </c>
+      <c r="C108" s="10">
+        <v>43593</v>
+      </c>
+      <c r="D108" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E108" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G108" s="9">
+        <v>1</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I108" t="s">
+        <v>87</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K108" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="L108" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="109" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B109" s="12"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="13"/>
-      <c r="L109" s="9"/>
+      <c r="B109" s="9">
+        <v>13</v>
+      </c>
+      <c r="C109" s="10">
+        <v>43593</v>
+      </c>
+      <c r="D109" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G109" s="9">
+        <v>1</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I109" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K109" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="110" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B110" s="12"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="9"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="9"/>
+      <c r="B110" s="9">
+        <v>25</v>
+      </c>
+      <c r="C110" s="10">
+        <v>43593</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G110" s="9">
+        <v>1</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="111" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B111" s="12"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="13"/>
-      <c r="L111" s="9"/>
+      <c r="B111" s="9">
+        <v>15</v>
+      </c>
+      <c r="C111" s="10">
+        <v>43593</v>
+      </c>
+      <c r="D111" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G111" s="9">
+        <v>1</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I111" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K111" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="112" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B112" s="12"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="9"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="9"/>
+      <c r="B112" s="9">
+        <v>16</v>
+      </c>
+      <c r="C112" s="10">
+        <v>43593</v>
+      </c>
+      <c r="D112" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G112" s="9">
+        <v>1</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I112" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K112" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L112" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="113" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B113" s="12"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="9"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="9"/>
+      <c r="B113" s="9">
+        <v>26</v>
+      </c>
+      <c r="C113" s="10">
+        <v>43593</v>
+      </c>
+      <c r="D113" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G113" s="9">
+        <v>1</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K113" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="114" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B114" s="12"/>
@@ -5240,12 +5640,12 @@
     <row r="120" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B120" s="12"/>
       <c r="C120" s="10"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
       <c r="F120" s="25"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
-      <c r="I120" s="29"/>
+      <c r="I120" s="28"/>
       <c r="J120" s="9"/>
       <c r="K120" s="13"/>
       <c r="L120" s="9"/>
@@ -5253,12 +5653,12 @@
     <row r="121" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B121" s="12"/>
       <c r="C121" s="10"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
       <c r="F121" s="25"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
-      <c r="I121" s="27"/>
+      <c r="I121" s="26"/>
       <c r="J121" s="9"/>
       <c r="K121" s="13"/>
       <c r="L121" s="9"/>
@@ -5266,12 +5666,12 @@
     <row r="122" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B122" s="12"/>
       <c r="C122" s="10"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
       <c r="F122" s="25"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
-      <c r="I122" s="29"/>
+      <c r="I122" s="28"/>
       <c r="J122" s="9"/>
       <c r="K122" s="13"/>
       <c r="L122" s="9"/>
@@ -5279,12 +5679,12 @@
     <row r="123" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B123" s="12"/>
       <c r="C123" s="10"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
       <c r="F123" s="25"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
-      <c r="I123" s="27"/>
+      <c r="I123" s="26"/>
       <c r="J123" s="9"/>
       <c r="K123" s="13"/>
       <c r="L123" s="9"/>
@@ -5292,12 +5692,12 @@
     <row r="124" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B124" s="12"/>
       <c r="C124" s="10"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
       <c r="F124" s="25"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
-      <c r="I124" s="27"/>
+      <c r="I124" s="26"/>
       <c r="J124" s="9"/>
       <c r="K124" s="13"/>
       <c r="L124" s="9"/>
@@ -5448,12 +5848,12 @@
     <row r="136" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B136" s="12"/>
       <c r="C136" s="10"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
       <c r="F136" s="25"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
-      <c r="I136" s="27"/>
+      <c r="I136" s="26"/>
       <c r="J136" s="9"/>
       <c r="K136" s="13"/>
       <c r="L136" s="9"/>
@@ -5604,12 +6004,12 @@
     <row r="148" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B148" s="12"/>
       <c r="C148" s="10"/>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
       <c r="F148" s="25"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
-      <c r="I148" s="27"/>
+      <c r="I148" s="26"/>
       <c r="J148" s="9"/>
       <c r="K148" s="13"/>
       <c r="L148" s="9"/>
@@ -5774,11 +6174,11 @@
       <c r="B161" s="12"/>
       <c r="C161" s="10"/>
       <c r="D161" s="13"/>
-      <c r="E161" s="27"/>
+      <c r="E161" s="26"/>
       <c r="F161" s="25"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
-      <c r="I161" s="27"/>
+      <c r="I161" s="26"/>
       <c r="J161" s="9"/>
       <c r="K161" s="13"/>
       <c r="L161" s="9"/>
@@ -5890,12 +6290,12 @@
     <row r="170" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B170" s="12"/>
       <c r="C170" s="10"/>
-      <c r="D170" s="27"/>
-      <c r="E170" s="27"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
       <c r="F170" s="25"/>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
-      <c r="I170" s="27"/>
+      <c r="I170" s="26"/>
       <c r="J170" s="9"/>
       <c r="K170" s="13"/>
       <c r="L170" s="9"/>
@@ -5979,16 +6379,16 @@
       <c r="L176" s="9"/>
     </row>
     <row r="177" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B177" s="34" t="s">
+      <c r="B177" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C177" s="35"/>
+      <c r="C177" s="37"/>
       <c r="D177" s="14"/>
       <c r="E177" s="14"/>
       <c r="F177" s="15"/>
       <c r="G177" s="15">
         <f>SUM(G3:G163)</f>
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
@@ -5997,15 +6397,15 @@
       <c r="L177" s="9"/>
     </row>
     <row r="179" spans="2:12" ht="75" customHeight="1">
-      <c r="B179" s="36"/>
-      <c r="C179" s="37"/>
-      <c r="D179" s="37"/>
-      <c r="E179" s="37"/>
-      <c r="F179" s="37"/>
-      <c r="G179" s="37"/>
-      <c r="H179" s="37"/>
-      <c r="I179" s="37"/>
-      <c r="J179" s="38"/>
+      <c r="B179" s="38"/>
+      <c r="C179" s="39"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="39"/>
+      <c r="F179" s="39"/>
+      <c r="G179" s="39"/>
+      <c r="H179" s="39"/>
+      <c r="I179" s="39"/>
+      <c r="J179" s="40"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
     </row>
@@ -6073,9 +6473,20 @@
     <hyperlink ref="K96" r:id="rId41"/>
     <hyperlink ref="K97" r:id="rId42"/>
     <hyperlink ref="K99" r:id="rId43"/>
+    <hyperlink ref="K100" r:id="rId44"/>
+    <hyperlink ref="K102" r:id="rId45"/>
+    <hyperlink ref="K104" r:id="rId46"/>
+    <hyperlink ref="K105" r:id="rId47"/>
+    <hyperlink ref="K108" r:id="rId48"/>
+    <hyperlink ref="K106" r:id="rId49"/>
+    <hyperlink ref="K109" r:id="rId50"/>
+    <hyperlink ref="K111" r:id="rId51"/>
+    <hyperlink ref="K112" r:id="rId52"/>
+    <hyperlink ref="K107" r:id="rId53"/>
+    <hyperlink ref="K113" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId44"/>
-  <drawing r:id="rId45"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId55"/>
+  <drawing r:id="rId56"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="214">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -720,6 +720,20 @@
   </si>
   <si>
     <t>https://www.xhbup.com/yueguan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓少勇</t>
+  </si>
+  <si>
+    <t>易票联支付有限公司</t>
+  </si>
+  <si>
+    <t>pos机</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/ylzf4/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1163,6 +1177,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1183,9 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1233,7 +1247,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,7 +1259,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1558,10 +1572,10 @@
   <dimension ref="B1:Q179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L106" sqref="L106:L107"/>
+      <selection pane="bottomRight" activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1586,24 +1600,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="16"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
+      <c r="N1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -5251,10 +5265,10 @@
       <c r="C105" s="10">
         <v>43593</v>
       </c>
-      <c r="D105" s="41" t="s">
+      <c r="D105" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="E105" s="41" t="s">
+      <c r="E105" s="34" t="s">
         <v>207</v>
       </c>
       <c r="F105" s="9" t="s">
@@ -5266,7 +5280,7 @@
       <c r="H105" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I105" s="41" t="s">
+      <c r="I105" s="34" t="s">
         <v>190</v>
       </c>
       <c r="J105" s="9" t="s">
@@ -5560,30 +5574,74 @@
       </c>
     </row>
     <row r="114" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B114" s="12"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="13"/>
-      <c r="L114" s="9"/>
+      <c r="B114" s="9">
+        <v>25</v>
+      </c>
+      <c r="C114" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G114" s="9">
+        <v>1</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K114" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="L114" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="115" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B115" s="12"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="9"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="9"/>
+      <c r="B115" s="9">
+        <v>26</v>
+      </c>
+      <c r="C115" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D115" t="s">
+        <v>210</v>
+      </c>
+      <c r="E115" t="s">
+        <v>211</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G115" s="9">
+        <v>1</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K115" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="L115" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="116" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B116" s="12"/>
@@ -6379,16 +6437,16 @@
       <c r="L176" s="9"/>
     </row>
     <row r="177" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B177" s="36" t="s">
+      <c r="B177" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C177" s="37"/>
+      <c r="C177" s="38"/>
       <c r="D177" s="14"/>
       <c r="E177" s="14"/>
       <c r="F177" s="15"/>
       <c r="G177" s="15">
         <f>SUM(G3:G163)</f>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
@@ -6397,15 +6455,15 @@
       <c r="L177" s="9"/>
     </row>
     <row r="179" spans="2:12" ht="75" customHeight="1">
-      <c r="B179" s="38"/>
-      <c r="C179" s="39"/>
-      <c r="D179" s="39"/>
-      <c r="E179" s="39"/>
-      <c r="F179" s="39"/>
-      <c r="G179" s="39"/>
-      <c r="H179" s="39"/>
-      <c r="I179" s="39"/>
-      <c r="J179" s="40"/>
+      <c r="B179" s="39"/>
+      <c r="C179" s="40"/>
+      <c r="D179" s="40"/>
+      <c r="E179" s="40"/>
+      <c r="F179" s="40"/>
+      <c r="G179" s="40"/>
+      <c r="H179" s="40"/>
+      <c r="I179" s="40"/>
+      <c r="J179" s="41"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
     </row>
@@ -6484,9 +6542,10 @@
     <hyperlink ref="K112" r:id="rId52"/>
     <hyperlink ref="K107" r:id="rId53"/>
     <hyperlink ref="K113" r:id="rId54"/>
+    <hyperlink ref="K115" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId55"/>
-  <drawing r:id="rId56"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId56"/>
+  <drawing r:id="rId57"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="220">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -645,95 +645,118 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>谭总</t>
+  </si>
+  <si>
+    <t>陈晓玲</t>
+  </si>
+  <si>
+    <t>惠州市素之源贸易有限公司</t>
+  </si>
+  <si>
+    <t>彩霞</t>
+  </si>
+  <si>
+    <t>韦生</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市吉乾堂健康科技有限公司</t>
+  </si>
+  <si>
+    <t>云浮市云城区热爱妆日用品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/reai/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5页面制作</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>汕头市凯艺轩贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/kaiyix/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>河源市美妆礼遇悸美容服务有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/mzlyj/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山市沐妍化妆品有限公司</t>
+  </si>
+  <si>
+    <t>广州傲澜生物科技有限公司</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘霞</t>
+  </si>
+  <si>
+    <t>邓少勇</t>
+  </si>
+  <si>
+    <t>易票联支付有限公司</t>
+  </si>
+  <si>
+    <t>pos机</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/ylzf4/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>季豪化妆品(肇庆)有限公司</t>
+  </si>
+  <si>
+    <t>口红</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jihao/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5页面制作</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/muyan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jiqiant/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/yueguan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/suzhiyuan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/aolan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>https://xhbup.com/jiaduol/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭总</t>
-  </si>
-  <si>
-    <t>陈晓玲</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/aolan/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>惠州市素之源贸易有限公司</t>
-  </si>
-  <si>
-    <t>彩霞</t>
-  </si>
-  <si>
-    <t>韦生</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市吉乾堂健康科技有限公司</t>
-  </si>
-  <si>
-    <t>云浮市云城区热爱妆日用品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/reai/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/suzhiyuan/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>H5页面制作</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>汕头市凯艺轩贸易有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/kaiyix/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>河源市美妆礼遇悸美容服务有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/mzlyj/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>中山市沐妍化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/muyan/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/jiqiant/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州傲澜生物科技有限公司</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘霞</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/yueguan/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓少勇</t>
-  </si>
-  <si>
-    <t>易票联支付有限公司</t>
-  </si>
-  <si>
-    <t>pos机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/ylzf4/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1247,7 +1270,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1282,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1572,10 +1595,10 @@
   <dimension ref="B1:Q179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K115" sqref="K115"/>
+      <selection pane="bottomRight" activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5252,7 +5275,7 @@
         <v>19</v>
       </c>
       <c r="K104" s="29" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="L104" s="9" t="s">
         <v>20</v>
@@ -5266,28 +5289,28 @@
         <v>43593</v>
       </c>
       <c r="D105" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E105" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G105" s="9">
+        <v>1</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" s="34" t="s">
         <v>189</v>
-      </c>
-      <c r="E105" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G105" s="9">
-        <v>1</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I105" s="34" t="s">
-        <v>190</v>
       </c>
       <c r="J105" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K105" s="33" t="s">
-        <v>191</v>
+      <c r="K105" s="29" t="s">
+        <v>217</v>
       </c>
       <c r="L105" s="9" t="s">
         <v>20</v>
@@ -5304,10 +5327,10 @@
         <v>122</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="G106" s="9">
         <v>1</v>
@@ -5316,13 +5339,13 @@
         <v>17</v>
       </c>
       <c r="I106" s="32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J106" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K106" s="33" t="s">
-        <v>198</v>
+      <c r="K106" s="29" t="s">
+        <v>216</v>
       </c>
       <c r="L106" s="9" t="s">
         <v>20</v>
@@ -5336,13 +5359,13 @@
         <v>43593</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="G107" s="9">
         <v>1</v>
@@ -5351,13 +5374,13 @@
         <v>17</v>
       </c>
       <c r="I107" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J107" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="K107" s="33" t="s">
-        <v>206</v>
+        <v>196</v>
+      </c>
+      <c r="K107" s="29" t="s">
+        <v>213</v>
       </c>
       <c r="L107" s="9" t="s">
         <v>20</v>
@@ -5374,7 +5397,7 @@
         <v>122</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>104</v>
@@ -5392,7 +5415,7 @@
         <v>28</v>
       </c>
       <c r="K108" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L108" s="9" t="s">
         <v>20</v>
@@ -5409,10 +5432,10 @@
         <v>122</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="G109" s="9">
         <v>1</v>
@@ -5427,7 +5450,7 @@
         <v>28</v>
       </c>
       <c r="K109" s="33" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L109" s="9" t="s">
         <v>20</v>
@@ -5479,10 +5502,10 @@
         <v>122</v>
       </c>
       <c r="E111" s="32" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="G111" s="9">
         <v>1</v>
@@ -5497,7 +5520,7 @@
         <v>28</v>
       </c>
       <c r="K111" s="33" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L111" s="9" t="s">
         <v>20</v>
@@ -5511,13 +5534,13 @@
         <v>43593</v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E112" s="32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="G112" s="9">
         <v>1</v>
@@ -5529,10 +5552,10 @@
         <v>18</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K112" s="33" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+      <c r="K112" s="29" t="s">
+        <v>212</v>
       </c>
       <c r="L112" s="9" t="s">
         <v>20</v>
@@ -5546,7 +5569,7 @@
         <v>43593</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E113" s="13" t="s">
         <v>75</v>
@@ -5566,8 +5589,8 @@
       <c r="J113" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K113" s="33" t="s">
-        <v>209</v>
+      <c r="K113" s="29" t="s">
+        <v>215</v>
       </c>
       <c r="L113" s="9" t="s">
         <v>20</v>
@@ -5616,13 +5639,13 @@
         <v>43594</v>
       </c>
       <c r="D115" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E115" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G115" s="9">
         <v>1</v>
@@ -5637,50 +5660,116 @@
         <v>28</v>
       </c>
       <c r="K115" s="29" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L115" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="116" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B116" s="12"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="9"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="9"/>
+      <c r="B116" s="9">
+        <v>24</v>
+      </c>
+      <c r="C116" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G116" s="9">
+        <v>1</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I116" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K116" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="117" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B117" s="12"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="9"/>
-      <c r="K117" s="13"/>
-      <c r="L117" s="9"/>
+      <c r="B117" s="9">
+        <v>26</v>
+      </c>
+      <c r="C117" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D117" t="s">
+        <v>39</v>
+      </c>
+      <c r="E117" t="s">
+        <v>184</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G117" s="9">
+        <v>1</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I117" t="s">
+        <v>29</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K117" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="118" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B118" s="12"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="13"/>
-      <c r="L118" s="9"/>
+      <c r="B118" s="9">
+        <v>27</v>
+      </c>
+      <c r="C118" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D118" t="s">
+        <v>30</v>
+      </c>
+      <c r="E118" t="s">
+        <v>208</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G118" s="9">
+        <v>1</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I118" t="s">
+        <v>29</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K118" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="L118" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="119" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B119" s="12"/>
@@ -6446,7 +6535,7 @@
       <c r="F177" s="15"/>
       <c r="G177" s="15">
         <f>SUM(G3:G163)</f>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
@@ -6543,9 +6632,11 @@
     <hyperlink ref="K107" r:id="rId53"/>
     <hyperlink ref="K113" r:id="rId54"/>
     <hyperlink ref="K115" r:id="rId55"/>
+    <hyperlink ref="K117" r:id="rId56"/>
+    <hyperlink ref="K118" r:id="rId57"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId56"/>
-  <drawing r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId58"/>
+  <drawing r:id="rId59"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="236">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -758,6 +758,61 @@
   <si>
     <t>https://xhbup.com/jiaduol/</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>执象</t>
+  </si>
+  <si>
+    <t>广州市白云区茜妃化妆品厂22</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/hongzhan1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市白云区茜妃化妆品厂23</t>
+  </si>
+  <si>
+    <t>广州市白云区茜妃化妆品厂24</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/qianfei22/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/qianfei23/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/qianfei24/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市网商小额贷款有限责任公司</t>
+  </si>
+  <si>
+    <t>贷款</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/wangshang/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小白鸽</t>
+  </si>
+  <si>
+    <t>江门市蓬江区竹田美容管理有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhutian</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宝</t>
+  </si>
+  <si>
+    <t>广州雪暴电子科技有限公司</t>
   </si>
 </sst>
 </file>
@@ -1595,10 +1650,10 @@
   <dimension ref="B1:Q179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K104" sqref="K104"/>
+      <selection pane="bottomRight" activeCell="C126" sqref="A126:XFD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5772,108 +5827,284 @@
       </c>
     </row>
     <row r="119" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B119" s="12"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="13"/>
-      <c r="J119" s="9"/>
-      <c r="K119" s="13"/>
-      <c r="L119" s="9"/>
+      <c r="B119" s="9">
+        <v>28</v>
+      </c>
+      <c r="C119" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D119" t="s">
+        <v>114</v>
+      </c>
+      <c r="E119" t="s">
+        <v>114</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G119" s="9">
+        <v>1</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I119" t="s">
+        <v>24</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K119" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="120" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B120" s="12"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="28"/>
-      <c r="J120" s="9"/>
-      <c r="K120" s="13"/>
-      <c r="L120" s="9"/>
+      <c r="B120" s="9">
+        <v>29</v>
+      </c>
+      <c r="C120" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D120" t="s">
+        <v>220</v>
+      </c>
+      <c r="E120" t="s">
+        <v>221</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G120" s="9">
+        <v>1</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I120" t="s">
+        <v>29</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K120" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="121" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B121" s="12"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="26"/>
-      <c r="J121" s="9"/>
-      <c r="K121" s="13"/>
-      <c r="L121" s="9"/>
+      <c r="B121" s="9">
+        <v>30</v>
+      </c>
+      <c r="C121" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D121" t="s">
+        <v>220</v>
+      </c>
+      <c r="E121" t="s">
+        <v>223</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G121" s="9">
+        <v>1</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I121" t="s">
+        <v>29</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K121" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="122" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B122" s="12"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="28"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="13"/>
-      <c r="L122" s="9"/>
+      <c r="B122" s="9">
+        <v>31</v>
+      </c>
+      <c r="C122" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D122" t="s">
+        <v>220</v>
+      </c>
+      <c r="E122" t="s">
+        <v>224</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G122" s="9">
+        <v>1</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I122" t="s">
+        <v>29</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K122" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="L122" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="123" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B123" s="12"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="26"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="13"/>
-      <c r="L123" s="9"/>
+      <c r="B123" s="9">
+        <v>32</v>
+      </c>
+      <c r="C123" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D123" t="s">
+        <v>122</v>
+      </c>
+      <c r="E123" t="s">
+        <v>228</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G123" s="9">
+        <v>1</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I123" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K123" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="L123" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="124" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B124" s="12"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="26"/>
-      <c r="E124" s="26"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="26"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="9"/>
+      <c r="B124" s="9">
+        <v>33</v>
+      </c>
+      <c r="C124" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D124" t="s">
+        <v>231</v>
+      </c>
+      <c r="E124" t="s">
+        <v>232</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G124" s="9">
+        <v>1</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I124" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K124" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="L124" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="125" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B125" s="12"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="13"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="13"/>
-      <c r="L125" s="9"/>
+      <c r="B125" s="9">
+        <v>34</v>
+      </c>
+      <c r="C125" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D125" t="s">
+        <v>234</v>
+      </c>
+      <c r="E125" t="s">
+        <v>235</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G125" s="9">
+        <v>1</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I125" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K125" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="L125" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="126" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B126" s="12"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="13"/>
-      <c r="L126" s="9"/>
+      <c r="B126" s="9">
+        <v>24</v>
+      </c>
+      <c r="C126" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G126" s="9">
+        <v>1</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K126" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="L126" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="127" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B127" s="12"/>
@@ -6535,7 +6766,7 @@
       <c r="F177" s="15"/>
       <c r="G177" s="15">
         <f>SUM(G3:G163)</f>
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
@@ -6634,9 +6865,17 @@
     <hyperlink ref="K115" r:id="rId55"/>
     <hyperlink ref="K117" r:id="rId56"/>
     <hyperlink ref="K118" r:id="rId57"/>
+    <hyperlink ref="K119" r:id="rId58"/>
+    <hyperlink ref="K120" r:id="rId59"/>
+    <hyperlink ref="K121:K122" r:id="rId60" display="https://xhbup.com/qianfei22/"/>
+    <hyperlink ref="K121" r:id="rId61"/>
+    <hyperlink ref="K122" r:id="rId62"/>
+    <hyperlink ref="K123" r:id="rId63"/>
+    <hyperlink ref="K124" r:id="rId64"/>
+    <hyperlink ref="K125" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId58"/>
-  <drawing r:id="rId59"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId66"/>
+  <drawing r:id="rId67"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="250">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -813,6 +813,54 @@
   </si>
   <si>
     <t>广州雪暴电子科技有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/xuebao1/</t>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/longju2/</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/xldq1/</t>
+  </si>
+  <si>
+    <t>清远市清新区太和镇萌芸希美容店</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/mengyunx/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯优化妆品(肇庆)有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/chunyou/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶关市天顿贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/tiandun/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘圣彬</t>
+  </si>
+  <si>
+    <t>韶关市外搜互联网上网服务有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/waisou/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1325,7 +1373,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,7 +1385,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1650,10 +1698,10 @@
   <dimension ref="B1:Q179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C126" sqref="A126:XFD126"/>
+      <selection pane="bottomRight" activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6064,8 +6112,8 @@
       <c r="J125" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K125" s="29" t="s">
-        <v>233</v>
+      <c r="K125" t="s">
+        <v>236</v>
       </c>
       <c r="L125" s="9" t="s">
         <v>20</v>
@@ -6107,121 +6155,319 @@
       </c>
     </row>
     <row r="127" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B127" s="12"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="13"/>
-      <c r="J127" s="9"/>
-      <c r="K127" s="13"/>
-      <c r="L127" s="9"/>
+      <c r="B127" s="9">
+        <v>25</v>
+      </c>
+      <c r="C127" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D127" t="s">
+        <v>31</v>
+      </c>
+      <c r="E127" t="s">
+        <v>49</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G127" s="9">
+        <v>1</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I127" t="s">
+        <v>29</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K127" t="s">
+        <v>50</v>
+      </c>
+      <c r="L127" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="128" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B128" s="12"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="25"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="13"/>
-      <c r="J128" s="9"/>
-      <c r="K128" s="13"/>
-      <c r="L128" s="9"/>
-    </row>
-    <row r="129" spans="2:12" s="2" customFormat="1" ht="65.25" customHeight="1">
-      <c r="B129" s="12"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="9"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="9"/>
+      <c r="B128" s="9">
+        <v>26</v>
+      </c>
+      <c r="C128" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D128" t="s">
+        <v>31</v>
+      </c>
+      <c r="E128" t="s">
+        <v>49</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G128" s="9">
+        <v>2</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I128" t="s">
+        <v>29</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K128" t="s">
+        <v>50</v>
+      </c>
+      <c r="L128" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B129" s="9">
+        <v>33</v>
+      </c>
+      <c r="C129" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D129" t="s">
+        <v>231</v>
+      </c>
+      <c r="E129" t="s">
+        <v>232</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G129" s="9">
+        <v>1</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I129" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K129" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="L129" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="130" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B130" s="12"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="25"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="13"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="13"/>
-      <c r="L130" s="9"/>
+      <c r="B130" s="9">
+        <v>34</v>
+      </c>
+      <c r="C130" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D130" t="s">
+        <v>111</v>
+      </c>
+      <c r="E130" t="s">
+        <v>111</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G130" s="9">
+        <v>1</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I130" t="s">
+        <v>18</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K130" t="s">
+        <v>238</v>
+      </c>
+      <c r="L130" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="131" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B131" s="12"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="25"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="13"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="13"/>
-      <c r="L131" s="9"/>
+      <c r="B131" s="9">
+        <v>35</v>
+      </c>
+      <c r="C131" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D131" t="s">
+        <v>129</v>
+      </c>
+      <c r="E131" t="s">
+        <v>130</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G131" s="9">
+        <v>1</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I131" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K131" t="s">
+        <v>239</v>
+      </c>
+      <c r="L131" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="132" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B132" s="12"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="25"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="13"/>
-      <c r="L132" s="9"/>
+      <c r="B132" s="9">
+        <v>36</v>
+      </c>
+      <c r="C132" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D132" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E132" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G132" s="9">
+        <v>1</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I132" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K132" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="L132" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="133" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B133" s="12"/>
-      <c r="C133" s="10"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="25"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="9"/>
-      <c r="K133" s="13"/>
-      <c r="L133" s="9"/>
+      <c r="B133" s="9">
+        <v>37</v>
+      </c>
+      <c r="C133" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D133" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="E133" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G133" s="9">
+        <v>1</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K133" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="134" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B134" s="12"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="25"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="13"/>
-      <c r="J134" s="9"/>
-      <c r="K134" s="13"/>
-      <c r="L134" s="9"/>
-    </row>
-    <row r="135" spans="2:12" s="2" customFormat="1" ht="45" customHeight="1">
-      <c r="B135" s="12"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="25"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="13"/>
-      <c r="J135" s="9"/>
-      <c r="K135" s="13"/>
-      <c r="L135" s="9"/>
+      <c r="B134" s="9">
+        <v>38</v>
+      </c>
+      <c r="C134" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D134" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="E134" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G134" s="9">
+        <v>1</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K134" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="L134" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B135" s="9">
+        <v>39</v>
+      </c>
+      <c r="C135" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D135" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="E135" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="F135" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="G135" s="9">
+        <v>1</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I135" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K135" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="L135" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="136" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B136" s="12"/>
@@ -6766,7 +7012,7 @@
       <c r="F177" s="15"/>
       <c r="G177" s="15">
         <f>SUM(G3:G163)</f>
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
@@ -6872,10 +7118,14 @@
     <hyperlink ref="K122" r:id="rId62"/>
     <hyperlink ref="K123" r:id="rId63"/>
     <hyperlink ref="K124" r:id="rId64"/>
-    <hyperlink ref="K125" r:id="rId65"/>
+    <hyperlink ref="K129" r:id="rId65"/>
+    <hyperlink ref="K132" r:id="rId66"/>
+    <hyperlink ref="K133" r:id="rId67"/>
+    <hyperlink ref="K134" r:id="rId68"/>
+    <hyperlink ref="K135" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId66"/>
-  <drawing r:id="rId67"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId70"/>
+  <drawing r:id="rId71"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="290">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -518,78 +518,266 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>鹏浮</t>
+  </si>
+  <si>
+    <t>江门市红妆印象文化传播有限公司</t>
+  </si>
+  <si>
+    <t>高露洁棕榄（中国）有限公司</t>
+  </si>
+  <si>
+    <t>广东郑明明化妆品科技有限公司</t>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞市科宏化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/kehong1/</t>
+  </si>
+  <si>
+    <t>中白鸽</t>
+  </si>
+  <si>
+    <t>广州九合国际生物科技有限公司</t>
+  </si>
+  <si>
+    <t>创业</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面跳转修改</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/wangyim1/</t>
+  </si>
+  <si>
+    <t>广州市济德医药连锁有限公司</t>
+  </si>
+  <si>
+    <t>佛山瑾梦化妆品有限公司</t>
+  </si>
+  <si>
+    <t>广州天创科技有限公司</t>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市锦宸化妆品有限公司</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉米</t>
+  </si>
+  <si>
+    <t>广州市白云区茜妃化妆品厂18</t>
+  </si>
+  <si>
+    <t>揭阳市桦明贸易有限公司</t>
+  </si>
+  <si>
+    <t>广州佳多丽化妆品有限公司</t>
+  </si>
+  <si>
+    <t>祛痘</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭总</t>
+  </si>
+  <si>
+    <t>陈晓玲</t>
+  </si>
+  <si>
+    <t>惠州市素之源贸易有限公司</t>
+  </si>
+  <si>
+    <t>彩霞</t>
+  </si>
+  <si>
+    <t>韦生</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市吉乾堂健康科技有限公司</t>
+  </si>
+  <si>
+    <t>云浮市云城区热爱妆日用品有限公司</t>
+  </si>
+  <si>
+    <t>H5页面制作</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>汕头市凯艺轩贸易有限公司</t>
+  </si>
+  <si>
+    <t>河源市美妆礼遇悸美容服务有限公司</t>
+  </si>
+  <si>
+    <t>中山市沐妍化妆品有限公司</t>
+  </si>
+  <si>
+    <t>广州傲澜生物科技有限公司</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘霞</t>
+  </si>
+  <si>
+    <t>邓少勇</t>
+  </si>
+  <si>
+    <t>易票联支付有限公司</t>
+  </si>
+  <si>
+    <t>pos机</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>季豪化妆品(肇庆)有限公司</t>
+  </si>
+  <si>
+    <t>口红</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jihao/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5页面制作</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>执象</t>
+  </si>
+  <si>
+    <t>广州市白云区茜妃化妆品厂22</t>
+  </si>
+  <si>
+    <t>广州市白云区茜妃化妆品厂23</t>
+  </si>
+  <si>
+    <t>广州市白云区茜妃化妆品厂24</t>
+  </si>
+  <si>
+    <t>广州市网商小额贷款有限责任公司</t>
+  </si>
+  <si>
+    <t>贷款</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小白鸽</t>
+  </si>
+  <si>
+    <t>江门市蓬江区竹田美容管理有限公司</t>
+  </si>
+  <si>
+    <t>大宝</t>
+  </si>
+  <si>
+    <t>广州雪暴电子科技有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/xuebao1/</t>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/longju2/</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/xldq1/</t>
+  </si>
+  <si>
+    <t>清远市清新区太和镇萌芸希美容店</t>
+  </si>
+  <si>
+    <t>纯优化妆品(肇庆)有限公司</t>
+  </si>
+  <si>
+    <t>韶关市天顿贸易有限公司</t>
+  </si>
+  <si>
+    <t>刘圣彬</t>
+  </si>
+  <si>
+    <t>韶关市外搜互联网上网服务有限公司</t>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶关好多多商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/haoduod/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>过敏</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/meijiam/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>https://xhbup.com/meitong2/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.xhbup.com/suoda1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.xhbup.com/longju1/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>鹏浮</t>
-  </si>
-  <si>
-    <t>江门市红妆印象文化传播有限公司</t>
+    <t>https://xhbup.com/zhyy1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>https://xhbup.com/hzyx/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>高露洁棕榄（中国）有限公司</t>
-  </si>
-  <si>
     <t>https://xhbup.com/gljzl/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>广东郑明明化妆品科技有限公司</t>
-  </si>
-  <si>
-    <t>祛斑</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>https://xhbup.com/zhengmingm1/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>东莞市科宏化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/kehong1/</t>
-  </si>
-  <si>
-    <t>中白鸽</t>
-  </si>
-  <si>
-    <t>广州九合国际生物科技有限公司</t>
-  </si>
-  <si>
-    <t>创业</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.xhbup.com/jiuhe6/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>页面跳转修改</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/wangyim1/</t>
-  </si>
-  <si>
-    <t>广州市济德医药连锁有限公司</t>
-  </si>
-  <si>
     <t>https://www.xhbup.com/jdyy/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>佛山瑾梦化妆品有限公司</t>
-  </si>
-  <si>
     <t>https://www.xhbup.com/jinmeng/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -598,268 +786,230 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>广州天创科技有限公司</t>
+    <t>https://www.xhbup.com/blls/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/tianchuang/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/jinhuan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/qianfei4/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jy/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/sgxcmy/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jiaduol/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/aolan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/suzhiyuan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jiqiant/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/reai/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/kaiyix/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/mzlyj/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/muyan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/yueguan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/ylzf4/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jihao/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/hongzhan1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/qianfei22/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/qianfei23/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/qianfei24/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/wangshang/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhutian</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/mengyunx/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/chunyou/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/tiandun/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/waisou/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州吉米化妆品科技有限公司8</t>
+  </si>
+  <si>
+    <t>茜妃</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/qianfei5/</t>
+  </si>
+  <si>
+    <t>九江致尚化妆品有限公司 </t>
+  </si>
+  <si>
+    <t>深圳恒实琥珀珠宝有限公司</t>
+  </si>
+  <si>
+    <t>佛山云合珠宝有限公司</t>
+  </si>
+  <si>
+    <t>黄毓宁</t>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pp</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>江门市月光曲文化旅游发展有限公司</t>
+  </si>
+  <si>
+    <t>旅游</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/jimi4/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhishang1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/yunhe1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/yueguangq/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠州语轩美容服务有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/yxmrfw/</t>
+  </si>
+  <si>
+    <t>第二周</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹华海 </t>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/longju3/</t>
+  </si>
+  <si>
+    <t>叶氏</t>
+  </si>
+  <si>
+    <t>肇庆市高要区先知贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/xianzhi/</t>
+  </si>
+  <si>
+    <t>北京卓泰</t>
+  </si>
+  <si>
+    <t>广东南方直播传媒有限公司</t>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/nfzb/</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/waisou/</t>
   </si>
   <si>
     <t>小说</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.xhbup.com/blls/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山市锦宸化妆品有限公司</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/tianchuang/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/jinhuan/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉米</t>
-  </si>
-  <si>
-    <t>广州市白云区茜妃化妆品厂18</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/qianfei4/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>揭阳市桦明贸易有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/jy/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州佳多丽化妆品有限公司</t>
-  </si>
-  <si>
-    <t>祛痘</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭总</t>
-  </si>
-  <si>
-    <t>陈晓玲</t>
-  </si>
-  <si>
-    <t>惠州市素之源贸易有限公司</t>
-  </si>
-  <si>
-    <t>彩霞</t>
-  </si>
-  <si>
-    <t>韦生</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市吉乾堂健康科技有限公司</t>
-  </si>
-  <si>
-    <t>云浮市云城区热爱妆日用品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/reai/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>H5页面制作</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>汕头市凯艺轩贸易有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/kaiyix/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>河源市美妆礼遇悸美容服务有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/mzlyj/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>中山市沐妍化妆品有限公司</t>
-  </si>
-  <si>
-    <t>广州傲澜生物科技有限公司</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘霞</t>
-  </si>
-  <si>
-    <t>邓少勇</t>
-  </si>
-  <si>
-    <t>易票联支付有限公司</t>
-  </si>
-  <si>
-    <t>pos机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/ylzf4/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>季豪化妆品(肇庆)有限公司</t>
-  </si>
-  <si>
-    <t>口红</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/jihao/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>H5页面制作</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/muyan/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/jiqiant/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/yueguan/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/suzhiyuan/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/aolan/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>创业</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/jiaduol/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>执象</t>
-  </si>
-  <si>
-    <t>广州市白云区茜妃化妆品厂22</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/hongzhan1/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市白云区茜妃化妆品厂23</t>
-  </si>
-  <si>
-    <t>广州市白云区茜妃化妆品厂24</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/qianfei22/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/qianfei23/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/qianfei24/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市网商小额贷款有限责任公司</t>
-  </si>
-  <si>
-    <t>贷款</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/wangshang/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小白鸽</t>
-  </si>
-  <si>
-    <t>江门市蓬江区竹田美容管理有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhutian</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>大宝</t>
-  </si>
-  <si>
-    <t>广州雪暴电子科技有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/xuebao1/</t>
-  </si>
-  <si>
-    <t>淘宝</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/longju2/</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/xldq1/</t>
-  </si>
-  <si>
-    <t>清远市清新区太和镇萌芸希美容店</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/mengyunx/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯优化妆品(肇庆)有限公司</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/chunyou/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>韶关市天顿贸易有限公司</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/tiandun/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘圣彬</t>
-  </si>
-  <si>
-    <t>韶关市外搜互联网上网服务有限公司</t>
-  </si>
-  <si>
-    <t>https://www.xhbup.com/waisou/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>小说</t>
+    <t>小王</t>
+  </si>
+  <si>
+    <t>罗定市贰壹生物科技有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/eryi/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -867,7 +1017,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,14 +1139,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1200,7 +1342,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1288,23 +1430,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1326,6 +1456,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1373,7 +1506,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1385,7 +1518,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1698,10 +1831,10 @@
   <dimension ref="B1:Q179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K135" sqref="K135"/>
+      <selection pane="bottomRight" activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1726,24 +1859,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="16"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
+      <c r="N1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -1820,7 +1953,7 @@
       <c r="J3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="29" t="s">
         <v>142</v>
       </c>
       <c r="L3" s="9" t="s">
@@ -1830,12 +1963,14 @@
         <v>17</v>
       </c>
       <c r="O3" s="19">
-        <v>181</v>
-      </c>
-      <c r="P3" s="19"/>
+        <v>144</v>
+      </c>
+      <c r="P3" s="19">
+        <v>8</v>
+      </c>
       <c r="Q3" s="24">
         <f>O3+P3</f>
-        <v>181</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
@@ -1866,7 +2001,7 @@
       <c r="J4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="29" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -1877,15 +2012,15 @@
       </c>
       <c r="O4" s="20">
         <f>SUM(O3:O3)</f>
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="P4" s="20">
         <f>SUM(P3:P3)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="20">
         <f>SUM(Q3:Q3)</f>
-        <v>181</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
@@ -1916,7 +2051,7 @@
       <c r="J5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="29" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="9" t="s">
@@ -1951,7 +2086,7 @@
       <c r="J6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="29" t="s">
         <v>56</v>
       </c>
       <c r="L6" s="9" t="s">
@@ -1986,7 +2121,7 @@
       <c r="J7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="29" t="s">
         <v>57</v>
       </c>
       <c r="L7" s="9" t="s">
@@ -2021,7 +2156,7 @@
       <c r="J8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="29" t="s">
         <v>59</v>
       </c>
       <c r="L8" s="9" t="s">
@@ -2056,7 +2191,7 @@
       <c r="J9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="29" t="s">
         <v>61</v>
       </c>
       <c r="L9" s="9" t="s">
@@ -2091,7 +2226,7 @@
       <c r="J10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="9" t="s">
@@ -2126,7 +2261,7 @@
       <c r="J11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="29" t="s">
         <v>48</v>
       </c>
       <c r="L11" s="9" t="s">
@@ -2161,7 +2296,7 @@
       <c r="J12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="29" t="s">
         <v>63</v>
       </c>
       <c r="L12" s="9" t="s">
@@ -2196,7 +2331,7 @@
       <c r="J13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L13" s="9" t="s">
@@ -2231,7 +2366,7 @@
       <c r="J14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="29" t="s">
         <v>66</v>
       </c>
       <c r="L14" s="9" t="s">
@@ -2266,7 +2401,7 @@
       <c r="J15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L15" s="9" t="s">
@@ -2301,7 +2436,7 @@
       <c r="J16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="29" t="s">
         <v>68</v>
       </c>
       <c r="L16" s="9" t="s">
@@ -2336,7 +2471,7 @@
       <c r="J17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L17" s="9" t="s">
@@ -2371,7 +2506,7 @@
       <c r="J18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="29" t="s">
         <v>70</v>
       </c>
       <c r="L18" s="9" t="s">
@@ -2406,7 +2541,7 @@
       <c r="J19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="30" t="s">
+      <c r="K19" s="29" t="s">
         <v>72</v>
       </c>
       <c r="L19" s="9" t="s">
@@ -2441,7 +2576,7 @@
       <c r="J20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L20" s="9" t="s">
@@ -2476,7 +2611,7 @@
       <c r="J21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="29" t="s">
         <v>68</v>
       </c>
       <c r="L21" s="9" t="s">
@@ -2511,7 +2646,7 @@
       <c r="J22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L22" s="9" t="s">
@@ -2546,7 +2681,7 @@
       <c r="J23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="29" t="s">
         <v>48</v>
       </c>
       <c r="L23" s="9" t="s">
@@ -2581,7 +2716,7 @@
       <c r="J24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="30" t="s">
+      <c r="K24" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L24" s="9" t="s">
@@ -2616,7 +2751,7 @@
       <c r="J25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="30" t="s">
+      <c r="K25" s="29" t="s">
         <v>50</v>
       </c>
       <c r="L25" s="9" t="s">
@@ -2651,7 +2786,7 @@
       <c r="J26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="30" t="s">
+      <c r="K26" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L26" s="9" t="s">
@@ -2686,7 +2821,7 @@
       <c r="J27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="30" t="s">
+      <c r="K27" s="29" t="s">
         <v>50</v>
       </c>
       <c r="L27" s="9" t="s">
@@ -2721,7 +2856,7 @@
       <c r="J28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="30" t="s">
+      <c r="K28" s="29" t="s">
         <v>68</v>
       </c>
       <c r="L28" s="9" t="s">
@@ -2756,7 +2891,7 @@
       <c r="J29" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="K29" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L29" s="9" t="s">
@@ -2791,7 +2926,7 @@
       <c r="J30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="30" t="s">
+      <c r="K30" s="29" t="s">
         <v>42</v>
       </c>
       <c r="L30" s="9" t="s">
@@ -2826,7 +2961,7 @@
       <c r="J31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="30" t="s">
+      <c r="K31" s="29" t="s">
         <v>50</v>
       </c>
       <c r="L31" s="9" t="s">
@@ -2861,7 +2996,7 @@
       <c r="J32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K32" s="30" t="s">
+      <c r="K32" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L32" s="9" t="s">
@@ -2896,7 +3031,7 @@
       <c r="J33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="30" t="s">
+      <c r="K33" s="29" t="s">
         <v>50</v>
       </c>
       <c r="L33" s="9" t="s">
@@ -2931,7 +3066,7 @@
       <c r="J34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="30" t="s">
+      <c r="K34" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L34" s="9" t="s">
@@ -2966,7 +3101,7 @@
       <c r="J35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K35" s="30" t="s">
+      <c r="K35" s="29" t="s">
         <v>68</v>
       </c>
       <c r="L35" s="9" t="s">
@@ -3001,7 +3136,7 @@
       <c r="J36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="30" t="s">
+      <c r="K36" s="29" t="s">
         <v>74</v>
       </c>
       <c r="L36" s="9" t="s">
@@ -3036,7 +3171,7 @@
       <c r="J37" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="30" t="s">
+      <c r="K37" s="29" t="s">
         <v>77</v>
       </c>
       <c r="L37" s="9" t="s">
@@ -3071,7 +3206,7 @@
       <c r="J38" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="30" t="s">
+      <c r="K38" s="29" t="s">
         <v>143</v>
       </c>
       <c r="L38" s="9" t="s">
@@ -3106,7 +3241,7 @@
       <c r="J39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="30" t="s">
+      <c r="K39" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L39" s="9" t="s">
@@ -3141,7 +3276,7 @@
       <c r="J40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K40" s="30" t="s">
+      <c r="K40" s="29" t="s">
         <v>81</v>
       </c>
       <c r="L40" s="9" t="s">
@@ -3176,7 +3311,7 @@
       <c r="J41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K41" s="30" t="s">
+      <c r="K41" s="29" t="s">
         <v>84</v>
       </c>
       <c r="L41" s="9" t="s">
@@ -3211,7 +3346,7 @@
       <c r="J42" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K42" s="30" t="s">
+      <c r="K42" s="29" t="s">
         <v>144</v>
       </c>
       <c r="L42" s="9" t="s">
@@ -3242,7 +3377,7 @@
       <c r="J43" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="30" t="s">
+      <c r="K43" s="29" t="s">
         <v>145</v>
       </c>
       <c r="L43" s="9" t="s">
@@ -3277,7 +3412,7 @@
       <c r="J44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K44" s="30" t="s">
+      <c r="K44" s="29" t="s">
         <v>68</v>
       </c>
       <c r="L44" s="9" t="s">
@@ -3312,7 +3447,7 @@
       <c r="J45" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K45" s="30" t="s">
+      <c r="K45" s="29" t="s">
         <v>40</v>
       </c>
       <c r="L45" s="9" t="s">
@@ -3347,7 +3482,7 @@
       <c r="J46" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K46" s="30" t="s">
+      <c r="K46" s="29" t="s">
         <v>93</v>
       </c>
       <c r="L46" s="9" t="s">
@@ -3382,7 +3517,7 @@
       <c r="J47" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K47" s="30" t="s">
+      <c r="K47" s="29" t="s">
         <v>146</v>
       </c>
       <c r="L47" s="9" t="s">
@@ -3417,7 +3552,7 @@
       <c r="J48" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="30" t="s">
+      <c r="K48" s="29" t="s">
         <v>147</v>
       </c>
       <c r="L48" s="9" t="s">
@@ -3452,7 +3587,7 @@
       <c r="J49" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K49" s="30" t="s">
+      <c r="K49" s="29" t="s">
         <v>99</v>
       </c>
       <c r="L49" s="9" t="s">
@@ -3487,7 +3622,7 @@
       <c r="J50" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K50" s="30" t="s">
+      <c r="K50" s="29" t="s">
         <v>102</v>
       </c>
       <c r="L50" s="9" t="s">
@@ -3522,7 +3657,7 @@
       <c r="J51" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="30" t="s">
+      <c r="K51" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L51" s="9" t="s">
@@ -3557,7 +3692,7 @@
       <c r="J52" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="30" t="s">
+      <c r="K52" s="29" t="s">
         <v>40</v>
       </c>
       <c r="L52" s="9" t="s">
@@ -3592,7 +3727,7 @@
       <c r="J53" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K53" s="30" t="s">
+      <c r="K53" s="29" t="s">
         <v>109</v>
       </c>
       <c r="L53" s="9" t="s">
@@ -3627,7 +3762,7 @@
       <c r="J54" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K54" s="30" t="s">
+      <c r="K54" s="29" t="s">
         <v>107</v>
       </c>
       <c r="L54" s="9" t="s">
@@ -3662,7 +3797,7 @@
       <c r="J55" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K55" s="30" t="s">
+      <c r="K55" s="29" t="s">
         <v>148</v>
       </c>
       <c r="L55" s="9" t="s">
@@ -3697,7 +3832,7 @@
       <c r="J56" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K56" s="30" t="s">
+      <c r="K56" s="29" t="s">
         <v>110</v>
       </c>
       <c r="L56" s="9" t="s">
@@ -3732,7 +3867,7 @@
       <c r="J57" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K57" s="30" t="s">
+      <c r="K57" s="29" t="s">
         <v>149</v>
       </c>
       <c r="L57" s="9" t="s">
@@ -3767,7 +3902,7 @@
       <c r="J58" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K58" s="30" t="s">
+      <c r="K58" s="29" t="s">
         <v>128</v>
       </c>
       <c r="L58" s="9" t="s">
@@ -3802,7 +3937,7 @@
       <c r="J59" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K59" s="30" t="s">
+      <c r="K59" s="29" t="s">
         <v>150</v>
       </c>
       <c r="L59" s="9" t="s">
@@ -3837,7 +3972,7 @@
       <c r="J60" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K60" s="30" t="s">
+      <c r="K60" s="29" t="s">
         <v>117</v>
       </c>
       <c r="L60" s="9" t="s">
@@ -3872,7 +4007,7 @@
       <c r="J61" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K61" s="30" t="s">
+      <c r="K61" s="29" t="s">
         <v>151</v>
       </c>
       <c r="L61" s="9" t="s">
@@ -3907,7 +4042,7 @@
       <c r="J62" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K62" s="30" t="s">
+      <c r="K62" s="29" t="s">
         <v>121</v>
       </c>
       <c r="L62" s="9" t="s">
@@ -3942,7 +4077,7 @@
       <c r="J63" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K63" s="30" t="s">
+      <c r="K63" s="29" t="s">
         <v>40</v>
       </c>
       <c r="L63" s="9" t="s">
@@ -3977,7 +4112,7 @@
       <c r="J64" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K64" s="30" t="s">
+      <c r="K64" s="29" t="s">
         <v>93</v>
       </c>
       <c r="L64" s="9" t="s">
@@ -4012,7 +4147,7 @@
       <c r="J65" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K65" s="30" t="s">
+      <c r="K65" s="29" t="s">
         <v>146</v>
       </c>
       <c r="L65" s="9" t="s">
@@ -4047,7 +4182,7 @@
       <c r="J66" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K66" s="30" t="s">
+      <c r="K66" s="29" t="s">
         <v>124</v>
       </c>
       <c r="L66" s="9" t="s">
@@ -4082,7 +4217,7 @@
       <c r="J67" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K67" s="30" t="s">
+      <c r="K67" s="29" t="s">
         <v>127</v>
       </c>
       <c r="L67" s="9" t="s">
@@ -4117,7 +4252,7 @@
       <c r="J68" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K68" s="30" t="s">
+      <c r="K68" s="29" t="s">
         <v>132</v>
       </c>
       <c r="L68" s="9" t="s">
@@ -4152,7 +4287,7 @@
       <c r="J69" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K69" s="30" t="s">
+      <c r="K69" s="29" t="s">
         <v>93</v>
       </c>
       <c r="L69" s="9" t="s">
@@ -4187,7 +4322,7 @@
       <c r="J70" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K70" s="30" t="s">
+      <c r="K70" s="29" t="s">
         <v>68</v>
       </c>
       <c r="L70" s="9" t="s">
@@ -4222,7 +4357,7 @@
       <c r="J71" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K71" s="30" t="s">
+      <c r="K71" s="29" t="s">
         <v>121</v>
       </c>
       <c r="L71" s="9" t="s">
@@ -4257,7 +4392,7 @@
       <c r="J72" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K72" s="30" t="s">
+      <c r="K72" s="29" t="s">
         <v>135</v>
       </c>
       <c r="L72" s="9" t="s">
@@ -4292,7 +4427,7 @@
       <c r="J73" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K73" s="30" t="s">
+      <c r="K73" s="29" t="s">
         <v>40</v>
       </c>
       <c r="L73" s="9" t="s">
@@ -4327,7 +4462,7 @@
       <c r="J74" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K74" s="30" t="s">
+      <c r="K74" s="29" t="s">
         <v>136</v>
       </c>
       <c r="L74" s="9" t="s">
@@ -4362,8 +4497,8 @@
       <c r="J75" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K75" s="30" t="s">
-        <v>135</v>
+      <c r="K75" t="s">
+        <v>219</v>
       </c>
       <c r="L75" s="9" t="s">
         <v>20</v>
@@ -4397,8 +4532,8 @@
       <c r="J76" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K76" s="30" t="s">
-        <v>152</v>
+      <c r="K76" t="s">
+        <v>220</v>
       </c>
       <c r="L76" s="9" t="s">
         <v>20</v>
@@ -4432,7 +4567,7 @@
       <c r="J77" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K77" s="30" t="s">
+      <c r="K77" t="s">
         <v>141</v>
       </c>
       <c r="L77" s="9" t="s">
@@ -4467,7 +4602,7 @@
       <c r="J78" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K78" s="30" t="s">
+      <c r="K78" t="s">
         <v>68</v>
       </c>
       <c r="L78" s="9" t="s">
@@ -4502,8 +4637,8 @@
       <c r="J79" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K79" s="30" t="s">
-        <v>127</v>
+      <c r="K79" t="s">
+        <v>221</v>
       </c>
       <c r="L79" s="9" t="s">
         <v>20</v>
@@ -4537,8 +4672,8 @@
       <c r="J80" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K80" s="30" t="s">
-        <v>153</v>
+      <c r="K80" t="s">
+        <v>222</v>
       </c>
       <c r="L80" s="9" t="s">
         <v>20</v>
@@ -4572,8 +4707,8 @@
       <c r="J81" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K81" s="30" t="s">
-        <v>121</v>
+      <c r="K81" t="s">
+        <v>223</v>
       </c>
       <c r="L81" s="9" t="s">
         <v>20</v>
@@ -4586,11 +4721,11 @@
       <c r="C82" s="10">
         <v>43592</v>
       </c>
-      <c r="D82" t="s">
-        <v>154</v>
-      </c>
-      <c r="E82" t="s">
-        <v>155</v>
+      <c r="D82" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>52</v>
@@ -4601,14 +4736,14 @@
       <c r="H82" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J82" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K82" s="29" t="s">
-        <v>156</v>
+      <c r="K82" t="s">
+        <v>224</v>
       </c>
       <c r="L82" s="9" t="s">
         <v>20</v>
@@ -4621,11 +4756,11 @@
       <c r="C83" s="10">
         <v>43592</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E83" t="s">
-        <v>157</v>
+      <c r="E83" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="F83" s="9" t="s">
         <v>52</v>
@@ -4636,14 +4771,14 @@
       <c r="H83" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="13" t="s">
         <v>98</v>
       </c>
       <c r="J83" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K83" s="29" t="s">
-        <v>158</v>
+      <c r="K83" t="s">
+        <v>225</v>
       </c>
       <c r="L83" s="9" t="s">
         <v>20</v>
@@ -4656,14 +4791,14 @@
       <c r="C84" s="10">
         <v>43592</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E84" t="s">
-        <v>159</v>
+      <c r="E84" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G84" s="9">
         <v>1</v>
@@ -4671,14 +4806,14 @@
       <c r="H84" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J84" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K84" s="29" t="s">
-        <v>161</v>
+      <c r="K84" t="s">
+        <v>226</v>
       </c>
       <c r="L84" s="9" t="s">
         <v>20</v>
@@ -4712,7 +4847,7 @@
       <c r="J85" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K85" s="30" t="s">
+      <c r="K85" t="s">
         <v>72</v>
       </c>
       <c r="L85" s="9" t="s">
@@ -4726,14 +4861,14 @@
       <c r="C86" s="10">
         <v>43592</v>
       </c>
-      <c r="D86" t="s">
-        <v>162</v>
-      </c>
-      <c r="E86" t="s">
-        <v>162</v>
+      <c r="D86" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G86" s="9">
         <v>1</v>
@@ -4741,14 +4876,14 @@
       <c r="H86" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J86" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K86" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L86" s="9" t="s">
         <v>20</v>
@@ -4761,14 +4896,14 @@
       <c r="C87" s="10">
         <v>43592</v>
       </c>
-      <c r="D87" t="s">
-        <v>164</v>
-      </c>
-      <c r="E87" t="s">
-        <v>165</v>
+      <c r="D87" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G87" s="9">
         <v>1</v>
@@ -4782,8 +4917,8 @@
       <c r="J87" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K87" s="29" t="s">
-        <v>167</v>
+      <c r="K87" t="s">
+        <v>227</v>
       </c>
       <c r="L87" s="9" t="s">
         <v>20</v>
@@ -4815,10 +4950,10 @@
         <v>26</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="K88" s="30" t="s">
-        <v>135</v>
+        <v>162</v>
+      </c>
+      <c r="K88" t="s">
+        <v>219</v>
       </c>
       <c r="L88" s="9" t="s">
         <v>20</v>
@@ -4852,7 +4987,7 @@
       <c r="J89" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K89" s="30" t="s">
+      <c r="K89" t="s">
         <v>51</v>
       </c>
       <c r="L89" s="9" t="s">
@@ -4887,7 +5022,7 @@
       <c r="J90" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K90" s="30" t="s">
+      <c r="K90" t="s">
         <v>72</v>
       </c>
       <c r="L90" s="9" t="s">
@@ -4901,10 +5036,10 @@
       <c r="C91" s="10">
         <v>43592</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="13" t="s">
         <v>97</v>
       </c>
       <c r="F91" s="9" t="s">
@@ -4916,14 +5051,14 @@
       <c r="H91" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="13" t="s">
         <v>98</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K91" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L91" s="9" t="s">
         <v>20</v>
@@ -4936,11 +5071,11 @@
       <c r="C92" s="10">
         <v>43592</v>
       </c>
-      <c r="D92" t="s">
-        <v>170</v>
-      </c>
-      <c r="E92" t="s">
-        <v>170</v>
+      <c r="D92" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>54</v>
@@ -4951,14 +5086,14 @@
       <c r="H92" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K92" s="29" t="s">
-        <v>171</v>
+      <c r="K92" t="s">
+        <v>228</v>
       </c>
       <c r="L92" s="9" t="s">
         <v>20</v>
@@ -4971,11 +5106,11 @@
       <c r="C93" s="10">
         <v>43592</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E93" t="s">
-        <v>172</v>
+      <c r="E93" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>104</v>
@@ -4986,14 +5121,14 @@
       <c r="H93" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K93" s="29" t="s">
-        <v>173</v>
+      <c r="K93" t="s">
+        <v>229</v>
       </c>
       <c r="L93" s="9" t="s">
         <v>20</v>
@@ -5027,7 +5162,7 @@
       <c r="J94" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K94" s="30" t="s">
+      <c r="K94" t="s">
         <v>93</v>
       </c>
       <c r="L94" s="9" t="s">
@@ -5062,8 +5197,8 @@
       <c r="J95" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K95" s="29" t="s">
-        <v>174</v>
+      <c r="K95" t="s">
+        <v>230</v>
       </c>
       <c r="L95" s="9" t="s">
         <v>20</v>
@@ -5076,10 +5211,10 @@
       <c r="C96" s="10">
         <v>43592</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="13" t="s">
         <v>82</v>
       </c>
       <c r="F96" s="9" t="s">
@@ -5091,14 +5226,14 @@
       <c r="H96" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J96" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K96" s="33" t="s">
-        <v>177</v>
+      <c r="K96" t="s">
+        <v>231</v>
       </c>
       <c r="L96" s="9" t="s">
         <v>20</v>
@@ -5111,14 +5246,14 @@
       <c r="C97" s="10">
         <v>43592</v>
       </c>
-      <c r="D97" t="s">
-        <v>175</v>
-      </c>
-      <c r="E97" t="s">
-        <v>175</v>
+      <c r="D97" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G97" s="9">
         <v>1</v>
@@ -5126,14 +5261,14 @@
       <c r="H97" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="13" t="s">
         <v>24</v>
       </c>
       <c r="J97" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K97" s="33" t="s">
-        <v>179</v>
+      <c r="K97" t="s">
+        <v>232</v>
       </c>
       <c r="L97" s="9" t="s">
         <v>20</v>
@@ -5146,11 +5281,11 @@
       <c r="C98" s="10">
         <v>43593</v>
       </c>
-      <c r="D98" s="31" t="s">
+      <c r="D98" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E98" s="31" t="s">
-        <v>178</v>
+      <c r="E98" s="27" t="s">
+        <v>168</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>52</v>
@@ -5167,8 +5302,8 @@
       <c r="J98" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K98" s="33" t="s">
-        <v>180</v>
+      <c r="K98" t="s">
+        <v>233</v>
       </c>
       <c r="L98" s="9" t="s">
         <v>20</v>
@@ -5181,11 +5316,11 @@
       <c r="C99" s="10">
         <v>43593</v>
       </c>
-      <c r="D99" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="E99" s="32" t="s">
-        <v>182</v>
+      <c r="D99" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="F99" s="9" t="s">
         <v>104</v>
@@ -5196,14 +5331,14 @@
       <c r="H99" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K99" s="33" t="s">
-        <v>183</v>
+      <c r="K99" t="s">
+        <v>234</v>
       </c>
       <c r="L99" s="9" t="s">
         <v>20</v>
@@ -5216,11 +5351,11 @@
       <c r="C100" s="10">
         <v>43593</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E100" t="s">
-        <v>184</v>
+      <c r="E100" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>52</v>
@@ -5231,14 +5366,14 @@
       <c r="H100" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J100" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K100" s="29" t="s">
-        <v>185</v>
+      <c r="K100" t="s">
+        <v>235</v>
       </c>
       <c r="L100" s="9" t="s">
         <v>20</v>
@@ -5272,7 +5407,7 @@
       <c r="J101" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K101" s="30" t="s">
+      <c r="K101" t="s">
         <v>68</v>
       </c>
       <c r="L101" s="9" t="s">
@@ -5307,8 +5442,8 @@
       <c r="J102" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K102" s="30" t="s">
-        <v>59</v>
+      <c r="K102" t="s">
+        <v>236</v>
       </c>
       <c r="L102" s="9" t="s">
         <v>20</v>
@@ -5342,7 +5477,7 @@
       <c r="J103" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K103" s="30" t="s">
+      <c r="K103" t="s">
         <v>56</v>
       </c>
       <c r="L103" s="9" t="s">
@@ -5356,14 +5491,14 @@
       <c r="C104" s="10">
         <v>43593</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E104" t="s">
-        <v>186</v>
+      <c r="E104" s="13" t="s">
+        <v>172</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G104" s="9">
         <v>1</v>
@@ -5371,14 +5506,14 @@
       <c r="H104" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="13" t="s">
         <v>87</v>
       </c>
       <c r="J104" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K104" s="29" t="s">
-        <v>219</v>
+      <c r="K104" t="s">
+        <v>237</v>
       </c>
       <c r="L104" s="9" t="s">
         <v>20</v>
@@ -5391,14 +5526,14 @@
       <c r="C105" s="10">
         <v>43593</v>
       </c>
-      <c r="D105" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="E105" s="34" t="s">
-        <v>202</v>
+      <c r="D105" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="G105" s="9">
         <v>1</v>
@@ -5406,14 +5541,14 @@
       <c r="H105" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I105" s="34" t="s">
-        <v>189</v>
+      <c r="I105" s="30" t="s">
+        <v>175</v>
       </c>
       <c r="J105" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K105" s="29" t="s">
-        <v>217</v>
+      <c r="K105" t="s">
+        <v>238</v>
       </c>
       <c r="L105" s="9" t="s">
         <v>20</v>
@@ -5426,11 +5561,11 @@
       <c r="C106" s="10">
         <v>43593</v>
       </c>
-      <c r="D106" s="32" t="s">
+      <c r="D106" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E106" s="32" t="s">
-        <v>190</v>
+      <c r="E106" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>52</v>
@@ -5441,14 +5576,14 @@
       <c r="H106" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I106" s="32" t="s">
-        <v>191</v>
+      <c r="I106" s="26" t="s">
+        <v>177</v>
       </c>
       <c r="J106" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K106" s="29" t="s">
-        <v>216</v>
+      <c r="K106" t="s">
+        <v>239</v>
       </c>
       <c r="L106" s="9" t="s">
         <v>20</v>
@@ -5461,14 +5596,14 @@
       <c r="C107" s="10">
         <v>43593</v>
       </c>
-      <c r="D107" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="E107" s="32" t="s">
-        <v>193</v>
+      <c r="D107" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G107" s="9">
         <v>1</v>
@@ -5476,14 +5611,14 @@
       <c r="H107" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I107" s="32" t="s">
-        <v>189</v>
+      <c r="I107" s="26" t="s">
+        <v>175</v>
       </c>
       <c r="J107" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="K107" s="29" t="s">
-        <v>213</v>
+        <v>181</v>
+      </c>
+      <c r="K107" t="s">
+        <v>240</v>
       </c>
       <c r="L107" s="9" t="s">
         <v>20</v>
@@ -5496,11 +5631,11 @@
       <c r="C108" s="10">
         <v>43593</v>
       </c>
-      <c r="D108" s="32" t="s">
+      <c r="D108" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E108" s="32" t="s">
-        <v>194</v>
+      <c r="E108" s="26" t="s">
+        <v>180</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>104</v>
@@ -5511,14 +5646,14 @@
       <c r="H108" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="13" t="s">
         <v>87</v>
       </c>
       <c r="J108" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K108" s="33" t="s">
-        <v>195</v>
+      <c r="K108" t="s">
+        <v>241</v>
       </c>
       <c r="L108" s="9" t="s">
         <v>20</v>
@@ -5531,11 +5666,11 @@
       <c r="C109" s="10">
         <v>43593</v>
       </c>
-      <c r="D109" s="32" t="s">
+      <c r="D109" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E109" s="32" t="s">
-        <v>197</v>
+      <c r="E109" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="F109" s="9" t="s">
         <v>52</v>
@@ -5546,14 +5681,14 @@
       <c r="H109" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I109" s="32" t="s">
+      <c r="I109" s="26" t="s">
         <v>87</v>
       </c>
       <c r="J109" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K109" s="33" t="s">
-        <v>198</v>
+      <c r="K109" t="s">
+        <v>242</v>
       </c>
       <c r="L109" s="9" t="s">
         <v>20</v>
@@ -5587,7 +5722,7 @@
       <c r="J110" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K110" s="30" t="s">
+      <c r="K110" t="s">
         <v>51</v>
       </c>
       <c r="L110" s="9" t="s">
@@ -5601,11 +5736,11 @@
       <c r="C111" s="10">
         <v>43593</v>
       </c>
-      <c r="D111" s="32" t="s">
+      <c r="D111" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E111" s="32" t="s">
-        <v>199</v>
+      <c r="E111" s="26" t="s">
+        <v>183</v>
       </c>
       <c r="F111" s="9" t="s">
         <v>104</v>
@@ -5616,14 +5751,14 @@
       <c r="H111" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I111" s="32" t="s">
+      <c r="I111" s="26" t="s">
         <v>23</v>
       </c>
       <c r="J111" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K111" s="33" t="s">
-        <v>200</v>
+      <c r="K111" t="s">
+        <v>243</v>
       </c>
       <c r="L111" s="9" t="s">
         <v>20</v>
@@ -5636,11 +5771,11 @@
       <c r="C112" s="10">
         <v>43593</v>
       </c>
-      <c r="D112" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="E112" s="32" t="s">
-        <v>201</v>
+      <c r="D112" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>184</v>
       </c>
       <c r="F112" s="9" t="s">
         <v>76</v>
@@ -5651,14 +5786,14 @@
       <c r="H112" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I112" s="32" t="s">
+      <c r="I112" s="26" t="s">
         <v>18</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="K112" s="29" t="s">
-        <v>212</v>
+        <v>193</v>
+      </c>
+      <c r="K112" t="s">
+        <v>244</v>
       </c>
       <c r="L112" s="9" t="s">
         <v>20</v>
@@ -5671,8 +5806,8 @@
       <c r="C113" s="10">
         <v>43593</v>
       </c>
-      <c r="D113" s="32" t="s">
-        <v>203</v>
+      <c r="D113" s="26" t="s">
+        <v>186</v>
       </c>
       <c r="E113" s="13" t="s">
         <v>75</v>
@@ -5692,8 +5827,8 @@
       <c r="J113" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K113" s="29" t="s">
-        <v>215</v>
+      <c r="K113" t="s">
+        <v>245</v>
       </c>
       <c r="L113" s="9" t="s">
         <v>20</v>
@@ -5727,7 +5862,7 @@
       <c r="J114" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K114" s="30" t="s">
+      <c r="K114" t="s">
         <v>51</v>
       </c>
       <c r="L114" s="9" t="s">
@@ -5741,14 +5876,14 @@
       <c r="C115" s="10">
         <v>43594</v>
       </c>
-      <c r="D115" t="s">
-        <v>204</v>
-      </c>
-      <c r="E115" t="s">
-        <v>205</v>
+      <c r="D115" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="G115" s="9">
         <v>1</v>
@@ -5762,8 +5897,8 @@
       <c r="J115" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K115" s="29" t="s">
-        <v>207</v>
+      <c r="K115" t="s">
+        <v>246</v>
       </c>
       <c r="L115" s="9" t="s">
         <v>20</v>
@@ -5797,7 +5932,7 @@
       <c r="J116" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K116" s="30" t="s">
+      <c r="K116" t="s">
         <v>68</v>
       </c>
       <c r="L116" s="9" t="s">
@@ -5811,11 +5946,11 @@
       <c r="C117" s="10">
         <v>43594</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E117" t="s">
-        <v>184</v>
+      <c r="E117" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>52</v>
@@ -5826,14 +5961,14 @@
       <c r="H117" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J117" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K117" s="29" t="s">
-        <v>185</v>
+      <c r="K117" t="s">
+        <v>235</v>
       </c>
       <c r="L117" s="9" t="s">
         <v>20</v>
@@ -5846,14 +5981,14 @@
       <c r="C118" s="10">
         <v>43594</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E118" t="s">
-        <v>208</v>
+      <c r="E118" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G118" s="9">
         <v>1</v>
@@ -5861,14 +5996,14 @@
       <c r="H118" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J118" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K118" s="29" t="s">
-        <v>210</v>
+      <c r="K118" t="s">
+        <v>247</v>
       </c>
       <c r="L118" s="9" t="s">
         <v>20</v>
@@ -5881,10 +6016,10 @@
       <c r="C119" s="10">
         <v>43594</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="13" t="s">
         <v>114</v>
       </c>
       <c r="F119" s="9" t="s">
@@ -5896,14 +6031,14 @@
       <c r="H119" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="13" t="s">
         <v>24</v>
       </c>
       <c r="J119" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K119" s="29" t="s">
-        <v>222</v>
+      <c r="K119" t="s">
+        <v>248</v>
       </c>
       <c r="L119" s="9" t="s">
         <v>20</v>
@@ -5916,11 +6051,11 @@
       <c r="C120" s="10">
         <v>43594</v>
       </c>
-      <c r="D120" t="s">
-        <v>220</v>
-      </c>
-      <c r="E120" t="s">
-        <v>221</v>
+      <c r="D120" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>52</v>
@@ -5931,14 +6066,14 @@
       <c r="H120" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J120" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K120" s="29" t="s">
-        <v>225</v>
+      <c r="K120" t="s">
+        <v>249</v>
       </c>
       <c r="L120" s="9" t="s">
         <v>20</v>
@@ -5951,11 +6086,11 @@
       <c r="C121" s="10">
         <v>43594</v>
       </c>
-      <c r="D121" t="s">
-        <v>220</v>
-      </c>
-      <c r="E121" t="s">
-        <v>223</v>
+      <c r="D121" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>52</v>
@@ -5966,14 +6101,14 @@
       <c r="H121" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J121" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K121" s="29" t="s">
-        <v>226</v>
+      <c r="K121" t="s">
+        <v>250</v>
       </c>
       <c r="L121" s="9" t="s">
         <v>20</v>
@@ -5986,11 +6121,11 @@
       <c r="C122" s="10">
         <v>43594</v>
       </c>
-      <c r="D122" t="s">
-        <v>220</v>
-      </c>
-      <c r="E122" t="s">
-        <v>224</v>
+      <c r="D122" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="F122" s="9" t="s">
         <v>52</v>
@@ -6001,14 +6136,14 @@
       <c r="H122" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J122" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K122" s="29" t="s">
-        <v>227</v>
+      <c r="K122" t="s">
+        <v>251</v>
       </c>
       <c r="L122" s="9" t="s">
         <v>20</v>
@@ -6021,14 +6156,14 @@
       <c r="C123" s="10">
         <v>43594</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E123" t="s">
-        <v>228</v>
+      <c r="E123" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="G123" s="9">
         <v>1</v>
@@ -6036,14 +6171,14 @@
       <c r="H123" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I123" s="32" t="s">
+      <c r="I123" s="26" t="s">
         <v>87</v>
       </c>
       <c r="J123" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K123" s="29" t="s">
-        <v>230</v>
+      <c r="K123" t="s">
+        <v>252</v>
       </c>
       <c r="L123" s="9" t="s">
         <v>20</v>
@@ -6056,11 +6191,11 @@
       <c r="C124" s="10">
         <v>43594</v>
       </c>
-      <c r="D124" t="s">
-        <v>231</v>
-      </c>
-      <c r="E124" t="s">
-        <v>232</v>
+      <c r="D124" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>52</v>
@@ -6077,8 +6212,8 @@
       <c r="J124" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K124" s="29" t="s">
-        <v>233</v>
+      <c r="K124" t="s">
+        <v>253</v>
       </c>
       <c r="L124" s="9" t="s">
         <v>20</v>
@@ -6091,11 +6226,11 @@
       <c r="C125" s="10">
         <v>43594</v>
       </c>
-      <c r="D125" t="s">
-        <v>234</v>
-      </c>
-      <c r="E125" t="s">
-        <v>235</v>
+      <c r="D125" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>52</v>
@@ -6113,7 +6248,7 @@
         <v>19</v>
       </c>
       <c r="K125" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="L125" s="9" t="s">
         <v>20</v>
@@ -6147,7 +6282,7 @@
       <c r="J126" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K126" s="30" t="s">
+      <c r="K126" t="s">
         <v>68</v>
       </c>
       <c r="L126" s="9" t="s">
@@ -6161,10 +6296,10 @@
       <c r="C127" s="10">
         <v>43594</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F127" s="9" t="s">
@@ -6176,7 +6311,7 @@
       <c r="H127" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J127" s="9" t="s">
@@ -6196,10 +6331,10 @@
       <c r="C128" s="10">
         <v>43594</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F128" s="9" t="s">
@@ -6211,13 +6346,13 @@
       <c r="H128" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J128" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K128" t="s">
+      <c r="K128" s="13" t="s">
         <v>50</v>
       </c>
       <c r="L128" s="9" t="s">
@@ -6231,11 +6366,11 @@
       <c r="C129" s="10">
         <v>43594</v>
       </c>
-      <c r="D129" t="s">
-        <v>231</v>
-      </c>
-      <c r="E129" t="s">
-        <v>232</v>
+      <c r="D129" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>52</v>
@@ -6252,8 +6387,8 @@
       <c r="J129" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K129" s="29" t="s">
-        <v>233</v>
+      <c r="K129" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="L129" s="9" t="s">
         <v>20</v>
@@ -6266,14 +6401,14 @@
       <c r="C130" s="10">
         <v>43595</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="13" t="s">
         <v>111</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="G130" s="9">
         <v>1</v>
@@ -6281,14 +6416,14 @@
       <c r="H130" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J130" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K130" t="s">
-        <v>238</v>
+      <c r="K130" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="L130" s="9" t="s">
         <v>20</v>
@@ -6301,14 +6436,14 @@
       <c r="C131" s="10">
         <v>43595</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="13" t="s">
         <v>130</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="G131" s="9">
         <v>1</v>
@@ -6322,8 +6457,8 @@
       <c r="J131" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K131" t="s">
-        <v>239</v>
+      <c r="K131" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="L131" s="9" t="s">
         <v>20</v>
@@ -6336,11 +6471,11 @@
       <c r="C132" s="10">
         <v>43595</v>
       </c>
-      <c r="D132" s="31" t="s">
+      <c r="D132" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E132" s="31" t="s">
-        <v>240</v>
+      <c r="E132" s="27" t="s">
+        <v>210</v>
       </c>
       <c r="F132" s="9" t="s">
         <v>104</v>
@@ -6351,14 +6486,14 @@
       <c r="H132" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I132" s="31" t="s">
+      <c r="I132" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J132" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K132" s="33" t="s">
-        <v>241</v>
+      <c r="K132" s="13" t="s">
+        <v>254</v>
       </c>
       <c r="L132" s="9" t="s">
         <v>20</v>
@@ -6371,11 +6506,11 @@
       <c r="C133" s="10">
         <v>43595</v>
       </c>
-      <c r="D133" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="E133" s="32" t="s">
-        <v>242</v>
+      <c r="D133" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>211</v>
       </c>
       <c r="F133" s="9" t="s">
         <v>52</v>
@@ -6386,14 +6521,14 @@
       <c r="H133" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I133" s="32" t="s">
+      <c r="I133" s="26" t="s">
         <v>18</v>
       </c>
       <c r="J133" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K133" s="33" t="s">
-        <v>243</v>
+      <c r="K133" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="L133" s="9" t="s">
         <v>20</v>
@@ -6406,11 +6541,11 @@
       <c r="C134" s="10">
         <v>43595</v>
       </c>
-      <c r="D134" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="E134" s="32" t="s">
-        <v>244</v>
+      <c r="D134" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="F134" s="9" t="s">
         <v>52</v>
@@ -6421,14 +6556,14 @@
       <c r="H134" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I134" s="32" t="s">
+      <c r="I134" s="26" t="s">
         <v>18</v>
       </c>
       <c r="J134" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K134" s="33" t="s">
-        <v>245</v>
+      <c r="K134" s="13" t="s">
+        <v>256</v>
       </c>
       <c r="L134" s="9" t="s">
         <v>20</v>
@@ -6441,14 +6576,14 @@
       <c r="C135" s="10">
         <v>43595</v>
       </c>
-      <c r="D135" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="E135" s="32" t="s">
-        <v>247</v>
+      <c r="D135" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>214</v>
       </c>
       <c r="F135" s="25" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="G135" s="9">
         <v>1</v>
@@ -6456,165 +6591,409 @@
       <c r="H135" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I135" s="32" t="s">
+      <c r="I135" s="26" t="s">
         <v>98</v>
       </c>
       <c r="J135" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K135" s="33" t="s">
-        <v>248</v>
+      <c r="K135" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="L135" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="136" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B136" s="12"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="26"/>
-      <c r="E136" s="26"/>
-      <c r="F136" s="25"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="26"/>
-      <c r="J136" s="9"/>
-      <c r="K136" s="13"/>
-      <c r="L136" s="9"/>
+      <c r="B136" s="9">
+        <v>40</v>
+      </c>
+      <c r="C136" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D136" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E136" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G136" s="9">
+        <v>1</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I136" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K136" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="L136" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="137" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B137" s="12"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="25"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="9"/>
-      <c r="K137" s="13"/>
-      <c r="L137" s="9"/>
+      <c r="B137" s="9">
+        <v>25</v>
+      </c>
+      <c r="C137" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G137" s="9">
+        <v>1</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K137" t="s">
+        <v>51</v>
+      </c>
+      <c r="L137" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="138" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B138" s="12"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="25"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="9"/>
-      <c r="K138" s="13"/>
-      <c r="L138" s="9"/>
+      <c r="B138" s="9">
+        <v>26</v>
+      </c>
+      <c r="C138" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D138" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G138" s="9">
+        <v>1</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I138" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K138" t="s">
+        <v>268</v>
+      </c>
+      <c r="L138" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="139" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B139" s="12"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="25"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="13"/>
-      <c r="J139" s="9"/>
-      <c r="K139" s="13"/>
-      <c r="L139" s="9"/>
+      <c r="B139" s="9">
+        <v>27</v>
+      </c>
+      <c r="C139" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D139" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E139" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G139" s="9">
+        <v>1</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I139" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K139" t="s">
+        <v>260</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="140" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B140" s="12"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="25"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="13"/>
-      <c r="J140" s="9"/>
-      <c r="K140" s="13"/>
-      <c r="L140" s="9"/>
+      <c r="B140" s="9">
+        <v>10</v>
+      </c>
+      <c r="C140" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G140" s="9">
+        <v>1</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K140" t="s">
+        <v>61</v>
+      </c>
+      <c r="L140" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="141" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B141" s="12"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="25"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="13"/>
-      <c r="J141" s="9"/>
-      <c r="K141" s="13"/>
-      <c r="L141" s="9"/>
+      <c r="B141" s="9">
+        <v>8</v>
+      </c>
+      <c r="C141" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G141" s="9">
+        <v>1</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K141" t="s">
+        <v>269</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="142" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B142" s="12"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="25"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="13"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="13"/>
-      <c r="L142" s="9"/>
+      <c r="B142" s="9">
+        <v>9</v>
+      </c>
+      <c r="C142" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D142" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="E142" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="G142" s="9">
+        <v>1</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K142" t="s">
+        <v>270</v>
+      </c>
+      <c r="L142" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="143" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B143" s="12"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="25"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="13"/>
-      <c r="J143" s="9"/>
-      <c r="K143" s="13"/>
-      <c r="L143" s="9"/>
+      <c r="B143" s="9">
+        <v>10</v>
+      </c>
+      <c r="C143" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D143" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="E143" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="F143" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="G143" s="9">
+        <v>1</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I143" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K143" t="s">
+        <v>271</v>
+      </c>
+      <c r="L143" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="144" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B144" s="12"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="25"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="13"/>
-      <c r="J144" s="9"/>
-      <c r="K144" s="13"/>
-      <c r="L144" s="9"/>
+      <c r="B144" s="9">
+        <v>7</v>
+      </c>
+      <c r="C144" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G144" s="9">
+        <v>1</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I144" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K144" t="s">
+        <v>93</v>
+      </c>
+      <c r="L144" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="145" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B145" s="12"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="25"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="13"/>
-      <c r="J145" s="9"/>
-      <c r="K145" s="13"/>
-      <c r="L145" s="9"/>
+      <c r="B145" s="9">
+        <v>27</v>
+      </c>
+      <c r="C145" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G145" s="9">
+        <v>1</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I145" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K145" t="s">
+        <v>192</v>
+      </c>
+      <c r="L145" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="146" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B146" s="12"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="25"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="13"/>
-      <c r="J146" s="9"/>
-      <c r="K146" s="13"/>
-      <c r="L146" s="9"/>
+      <c r="B146" s="9">
+        <v>28</v>
+      </c>
+      <c r="C146" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G146" s="9">
+        <v>1</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K146" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="L146" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="147" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B147" s="12"/>
-      <c r="C147" s="10"/>
+      <c r="C147" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="D147" s="13"/>
       <c r="E147" s="13"/>
       <c r="F147" s="25"/>
@@ -6626,186 +7005,494 @@
       <c r="L147" s="9"/>
     </row>
     <row r="148" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B148" s="12"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="26"/>
-      <c r="E148" s="26"/>
-      <c r="F148" s="25"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
-      <c r="I148" s="26"/>
-      <c r="J148" s="9"/>
-      <c r="K148" s="13"/>
-      <c r="L148" s="9"/>
+      <c r="B148" s="9">
+        <v>28</v>
+      </c>
+      <c r="C148" s="10">
+        <v>43596</v>
+      </c>
+      <c r="D148" t="s">
+        <v>261</v>
+      </c>
+      <c r="E148" t="s">
+        <v>261</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G148" s="9">
+        <v>1</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I148" t="s">
+        <v>275</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K148" t="s">
+        <v>107</v>
+      </c>
+      <c r="L148" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="149" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B149" s="12"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
-      <c r="I149" s="13"/>
-      <c r="J149" s="9"/>
-      <c r="K149" s="13"/>
-      <c r="L149" s="9"/>
+      <c r="B149" s="9">
+        <v>29</v>
+      </c>
+      <c r="C149" s="10">
+        <v>43596</v>
+      </c>
+      <c r="D149" t="s">
+        <v>152</v>
+      </c>
+      <c r="E149" t="s">
+        <v>272</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G149" s="9">
+        <v>1</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K149" t="s">
+        <v>273</v>
+      </c>
+      <c r="L149" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="150" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B150" s="12"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="25"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
-      <c r="I150" s="13"/>
-      <c r="J150" s="9"/>
-      <c r="K150" s="13"/>
-      <c r="L150" s="9"/>
+      <c r="B150" s="9">
+        <v>25</v>
+      </c>
+      <c r="C150" s="10">
+        <v>43596</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G150" s="9">
+        <v>1</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I150" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K150" t="s">
+        <v>51</v>
+      </c>
+      <c r="L150" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="151" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B151" s="12"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="25"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
-      <c r="I151" s="13"/>
-      <c r="J151" s="9"/>
-      <c r="K151" s="13"/>
-      <c r="L151" s="9"/>
+      <c r="B151" s="9">
+        <v>6</v>
+      </c>
+      <c r="C151" s="10">
+        <v>43597</v>
+      </c>
+      <c r="D151" t="s">
+        <v>122</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G151" s="9">
+        <v>1</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I151" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K151" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L151" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="152" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B152" s="12"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="25"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="9"/>
-      <c r="I152" s="13"/>
-      <c r="J152" s="9"/>
-      <c r="K152" s="13"/>
-      <c r="L152" s="9"/>
+      <c r="B152" s="9">
+        <v>7</v>
+      </c>
+      <c r="C152" s="10">
+        <v>43597</v>
+      </c>
+      <c r="D152" t="s">
+        <v>111</v>
+      </c>
+      <c r="E152" t="s">
+        <v>111</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G152" s="9">
+        <v>1</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I152" t="s">
+        <v>18</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K152" t="s">
+        <v>277</v>
+      </c>
+      <c r="L152" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="153" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B153" s="12"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="25"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
-      <c r="I153" s="13"/>
-      <c r="J153" s="9"/>
-      <c r="K153" s="13"/>
-      <c r="L153" s="9"/>
-    </row>
-    <row r="154" spans="2:12" s="2" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B154" s="12"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="25"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="13"/>
-      <c r="J154" s="9"/>
-      <c r="K154" s="13"/>
-      <c r="L154" s="9"/>
+      <c r="B153" s="9">
+        <v>25</v>
+      </c>
+      <c r="C153" s="10">
+        <v>43597</v>
+      </c>
+      <c r="D153" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G153" s="9">
+        <v>1</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I153" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J153" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K153" t="s">
+        <v>51</v>
+      </c>
+      <c r="L153" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B154" s="9">
+        <v>10</v>
+      </c>
+      <c r="C154" s="10">
+        <v>43597</v>
+      </c>
+      <c r="D154" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G154" s="9">
+        <v>1</v>
+      </c>
+      <c r="H154" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I154" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J154" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K154" t="s">
+        <v>61</v>
+      </c>
+      <c r="L154" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="155" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B155" s="12"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="25"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
-      <c r="I155" s="13"/>
-      <c r="J155" s="9"/>
-      <c r="K155" s="13"/>
-      <c r="L155" s="9"/>
+      <c r="B155" s="9">
+        <v>11</v>
+      </c>
+      <c r="C155" s="10">
+        <v>43597</v>
+      </c>
+      <c r="D155" t="s">
+        <v>278</v>
+      </c>
+      <c r="E155" t="s">
+        <v>279</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G155" s="9">
+        <v>1</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I155" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J155" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K155" t="s">
+        <v>280</v>
+      </c>
+      <c r="L155" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="156" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B156" s="12"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="25"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
-      <c r="I156" s="13"/>
-      <c r="J156" s="9"/>
-      <c r="K156" s="13"/>
-      <c r="L156" s="9"/>
+      <c r="B156" s="9">
+        <v>12</v>
+      </c>
+      <c r="C156" s="10">
+        <v>43597</v>
+      </c>
+      <c r="D156" t="s">
+        <v>281</v>
+      </c>
+      <c r="E156" t="s">
+        <v>282</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="G156" s="9">
+        <v>1</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I156" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J156" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K156" t="s">
+        <v>284</v>
+      </c>
+      <c r="L156" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="157" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B157" s="12"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="25"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
-      <c r="I157" s="13"/>
-      <c r="J157" s="9"/>
-      <c r="K157" s="13"/>
-      <c r="L157" s="9"/>
+      <c r="B157" s="9">
+        <v>13</v>
+      </c>
+      <c r="C157" s="10">
+        <v>43597</v>
+      </c>
+      <c r="D157" t="s">
+        <v>47</v>
+      </c>
+      <c r="E157" t="s">
+        <v>101</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G157" s="9">
+        <v>1</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I157" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K157" t="s">
+        <v>102</v>
+      </c>
+      <c r="L157" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="158" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B158" s="12"/>
-      <c r="C158" s="10"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="25"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9"/>
-      <c r="I158" s="13"/>
-      <c r="J158" s="9"/>
-      <c r="K158" s="13"/>
-      <c r="L158" s="9"/>
+      <c r="B158" s="9">
+        <v>14</v>
+      </c>
+      <c r="C158" s="10">
+        <v>43598</v>
+      </c>
+      <c r="D158" t="s">
+        <v>213</v>
+      </c>
+      <c r="E158" t="s">
+        <v>214</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G158" s="9">
+        <v>1</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" t="s">
+        <v>98</v>
+      </c>
+      <c r="J158" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K158" t="s">
+        <v>285</v>
+      </c>
+      <c r="L158" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="159" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B159" s="12"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="25"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="9"/>
-      <c r="I159" s="13"/>
-      <c r="J159" s="9"/>
-      <c r="K159" s="13"/>
-      <c r="L159" s="9"/>
+      <c r="B159" s="9">
+        <v>11</v>
+      </c>
+      <c r="C159" s="10">
+        <v>43598</v>
+      </c>
+      <c r="D159" t="s">
+        <v>278</v>
+      </c>
+      <c r="E159" t="s">
+        <v>279</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G159" s="9">
+        <v>1</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I159" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J159" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K159" t="s">
+        <v>280</v>
+      </c>
+      <c r="L159" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="160" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B160" s="12"/>
-      <c r="C160" s="10"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="25"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="13"/>
-      <c r="J160" s="9"/>
-      <c r="K160" s="13"/>
-      <c r="L160" s="9"/>
+      <c r="B160" s="9">
+        <v>12</v>
+      </c>
+      <c r="C160" s="10">
+        <v>43598</v>
+      </c>
+      <c r="D160" t="s">
+        <v>287</v>
+      </c>
+      <c r="E160" t="s">
+        <v>288</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G160" s="9">
+        <v>1</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I160" t="s">
+        <v>175</v>
+      </c>
+      <c r="J160" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K160" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="L160" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="161" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B161" s="12"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="26"/>
-      <c r="F161" s="25"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="26"/>
-      <c r="J161" s="9"/>
-      <c r="K161" s="13"/>
-      <c r="L161" s="9"/>
+      <c r="B161" s="9">
+        <v>25</v>
+      </c>
+      <c r="C161" s="10">
+        <v>43598</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G161" s="9">
+        <v>1</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I161" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K161" t="s">
+        <v>51</v>
+      </c>
+      <c r="L161" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="162" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B162" s="12"/>
@@ -7003,16 +7690,16 @@
       <c r="L176" s="9"/>
     </row>
     <row r="177" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B177" s="37" t="s">
+      <c r="B177" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C177" s="38"/>
+      <c r="C177" s="34"/>
       <c r="D177" s="14"/>
       <c r="E177" s="14"/>
       <c r="F177" s="15"/>
       <c r="G177" s="15">
-        <f>SUM(G3:G163)</f>
-        <v>134</v>
+        <f>SUM(G3:G176)</f>
+        <v>159</v>
       </c>
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
@@ -7021,15 +7708,15 @@
       <c r="L177" s="9"/>
     </row>
     <row r="179" spans="2:12" ht="75" customHeight="1">
-      <c r="B179" s="39"/>
-      <c r="C179" s="40"/>
-      <c r="D179" s="40"/>
-      <c r="E179" s="40"/>
-      <c r="F179" s="40"/>
-      <c r="G179" s="40"/>
-      <c r="H179" s="40"/>
-      <c r="I179" s="40"/>
-      <c r="J179" s="41"/>
+      <c r="B179" s="35"/>
+      <c r="C179" s="36"/>
+      <c r="D179" s="36"/>
+      <c r="E179" s="36"/>
+      <c r="F179" s="36"/>
+      <c r="G179" s="36"/>
+      <c r="H179" s="36"/>
+      <c r="I179" s="36"/>
+      <c r="J179" s="37"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
     </row>
@@ -7123,9 +7810,17 @@
     <hyperlink ref="K133" r:id="rId67"/>
     <hyperlink ref="K134" r:id="rId68"/>
     <hyperlink ref="K135" r:id="rId69"/>
+    <hyperlink ref="K136" r:id="rId70"/>
+    <hyperlink ref="K139" r:id="rId71"/>
+    <hyperlink ref="K138" r:id="rId72"/>
+    <hyperlink ref="K141" r:id="rId73"/>
+    <hyperlink ref="K142" r:id="rId74"/>
+    <hyperlink ref="K143" r:id="rId75"/>
+    <hyperlink ref="K145" r:id="rId76"/>
+    <hyperlink ref="K160" r:id="rId77"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId70"/>
-  <drawing r:id="rId71"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId78"/>
+  <drawing r:id="rId79"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="298">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1010,6 +1010,33 @@
   </si>
   <si>
     <t>https://xhbup.com/eryi/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小艾</t>
+  </si>
+  <si>
+    <t>清远市艾米时尚美容美发有限公司</t>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/aimi1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘周锋</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/fx/</t>
+  </si>
+  <si>
+    <t>珠海市昊雅丽化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/haoyal/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1436,6 +1463,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1456,9 +1486,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1831,10 +1858,10 @@
   <dimension ref="B1:Q179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F144" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C161" sqref="C161"/>
+      <selection pane="bottomRight" activeCell="K166" sqref="K166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1859,24 +1886,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
       <c r="K1" s="16"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="N1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -7452,7 +7479,7 @@
       <c r="J160" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K160" s="38" t="s">
+      <c r="K160" s="31" t="s">
         <v>289</v>
       </c>
       <c r="L160" s="9" t="s">
@@ -7495,69 +7522,175 @@
       </c>
     </row>
     <row r="162" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B162" s="12"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="25"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
-      <c r="I162" s="13"/>
-      <c r="J162" s="9"/>
-      <c r="K162" s="13"/>
-      <c r="L162" s="9"/>
+      <c r="B162" s="9">
+        <v>26</v>
+      </c>
+      <c r="C162" s="10">
+        <v>43598</v>
+      </c>
+      <c r="D162" t="s">
+        <v>290</v>
+      </c>
+      <c r="E162" t="s">
+        <v>291</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G162" s="9">
+        <v>1</v>
+      </c>
+      <c r="H162" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I162" t="s">
+        <v>26</v>
+      </c>
+      <c r="J162" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K162" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="L162" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="163" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B163" s="12"/>
-      <c r="C163" s="10"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="25"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
-      <c r="I163" s="13"/>
-      <c r="J163" s="9"/>
-      <c r="K163" s="13"/>
-      <c r="L163" s="9"/>
+      <c r="B163" s="9">
+        <v>35</v>
+      </c>
+      <c r="C163" s="10">
+        <v>43598</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E163" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G163" s="9">
+        <v>1</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I163" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K163" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="L163" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="164" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B164" s="12"/>
-      <c r="C164" s="10"/>
-      <c r="D164" s="13"/>
+      <c r="B164" s="9">
+        <v>36</v>
+      </c>
+      <c r="C164" s="10">
+        <v>43598</v>
+      </c>
+      <c r="D164"/>
       <c r="E164" s="13"/>
-      <c r="F164" s="25"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="9"/>
-      <c r="I164" s="13"/>
-      <c r="J164" s="9"/>
-      <c r="K164" s="13"/>
-      <c r="L164" s="9"/>
+      <c r="F164" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G164" s="9">
+        <v>1</v>
+      </c>
+      <c r="H164" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I164" t="s">
+        <v>294</v>
+      </c>
+      <c r="J164" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K164" t="s">
+        <v>295</v>
+      </c>
+      <c r="L164" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="165" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B165" s="12"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="25"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="9"/>
-      <c r="I165" s="13"/>
-      <c r="J165" s="9"/>
-      <c r="K165" s="13"/>
-      <c r="L165" s="9"/>
+      <c r="B165" s="9">
+        <v>26</v>
+      </c>
+      <c r="C165" s="10">
+        <v>43590</v>
+      </c>
+      <c r="D165" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E165" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G165" s="9">
+        <v>1</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I165" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K165" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="L165" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="166" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B166" s="12"/>
-      <c r="C166" s="10"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="25"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="9"/>
-      <c r="I166" s="13"/>
-      <c r="J166" s="9"/>
-      <c r="K166" s="13"/>
-      <c r="L166" s="9"/>
+      <c r="B166" s="9">
+        <v>27</v>
+      </c>
+      <c r="C166" s="10">
+        <v>43591</v>
+      </c>
+      <c r="D166" t="s">
+        <v>30</v>
+      </c>
+      <c r="E166" t="s">
+        <v>296</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G166" s="9">
+        <v>1</v>
+      </c>
+      <c r="H166" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I166" t="s">
+        <v>98</v>
+      </c>
+      <c r="J166" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K166" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="L166" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="167" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B167" s="12"/>
@@ -7690,16 +7823,16 @@
       <c r="L176" s="9"/>
     </row>
     <row r="177" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B177" s="33" t="s">
+      <c r="B177" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C177" s="34"/>
+      <c r="C177" s="35"/>
       <c r="D177" s="14"/>
       <c r="E177" s="14"/>
       <c r="F177" s="15"/>
       <c r="G177" s="15">
         <f>SUM(G3:G176)</f>
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
@@ -7708,15 +7841,15 @@
       <c r="L177" s="9"/>
     </row>
     <row r="179" spans="2:12" ht="75" customHeight="1">
-      <c r="B179" s="35"/>
-      <c r="C179" s="36"/>
-      <c r="D179" s="36"/>
-      <c r="E179" s="36"/>
-      <c r="F179" s="36"/>
-      <c r="G179" s="36"/>
-      <c r="H179" s="36"/>
-      <c r="I179" s="36"/>
-      <c r="J179" s="37"/>
+      <c r="B179" s="36"/>
+      <c r="C179" s="37"/>
+      <c r="D179" s="37"/>
+      <c r="E179" s="37"/>
+      <c r="F179" s="37"/>
+      <c r="G179" s="37"/>
+      <c r="H179" s="37"/>
+      <c r="I179" s="37"/>
+      <c r="J179" s="38"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
     </row>
@@ -7818,9 +7951,12 @@
     <hyperlink ref="K143" r:id="rId75"/>
     <hyperlink ref="K145" r:id="rId76"/>
     <hyperlink ref="K160" r:id="rId77"/>
+    <hyperlink ref="K162" r:id="rId78"/>
+    <hyperlink ref="K163" r:id="rId79"/>
+    <hyperlink ref="K166" r:id="rId80"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId78"/>
-  <drawing r:id="rId79"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId81"/>
+  <drawing r:id="rId82"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="300">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1037,6 +1037,13 @@
   </si>
   <si>
     <t>https://xhbup.com/haoyal/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海市潮发商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/chaofa/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1533,7 +1540,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1545,7 +1552,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1861,7 +1868,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="F157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K166" sqref="K166"/>
+      <selection pane="bottomRight" activeCell="K167" sqref="K167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7627,7 +7634,7 @@
         <v>26</v>
       </c>
       <c r="C165" s="10">
-        <v>43590</v>
+        <v>43598</v>
       </c>
       <c r="D165" s="13" t="s">
         <v>79</v>
@@ -7662,7 +7669,7 @@
         <v>27</v>
       </c>
       <c r="C166" s="10">
-        <v>43591</v>
+        <v>43598</v>
       </c>
       <c r="D166" t="s">
         <v>30</v>
@@ -7693,17 +7700,39 @@
       </c>
     </row>
     <row r="167" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B167" s="12"/>
-      <c r="C167" s="10"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="25"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="9"/>
-      <c r="I167" s="13"/>
-      <c r="J167" s="9"/>
-      <c r="K167" s="13"/>
-      <c r="L167" s="9"/>
+      <c r="B167" s="9">
+        <v>28</v>
+      </c>
+      <c r="C167" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D167" t="s">
+        <v>30</v>
+      </c>
+      <c r="E167" t="s">
+        <v>298</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G167" s="9">
+        <v>1</v>
+      </c>
+      <c r="H167" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I167" t="s">
+        <v>98</v>
+      </c>
+      <c r="J167" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K167" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="L167" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="168" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B168" s="12"/>
@@ -7832,7 +7861,7 @@
       <c r="F177" s="15"/>
       <c r="G177" s="15">
         <f>SUM(G3:G176)</f>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
@@ -7954,9 +7983,10 @@
     <hyperlink ref="K162" r:id="rId78"/>
     <hyperlink ref="K163" r:id="rId79"/>
     <hyperlink ref="K166" r:id="rId80"/>
+    <hyperlink ref="K167" r:id="rId81"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId81"/>
-  <drawing r:id="rId82"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId82"/>
+  <drawing r:id="rId83"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="300">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1540,7 +1540,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1552,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1868,7 +1868,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="F157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K167" sqref="K167"/>
+      <selection pane="bottomRight" activeCell="C168" sqref="A168:XFD168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7735,17 +7735,39 @@
       </c>
     </row>
     <row r="168" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B168" s="12"/>
-      <c r="C168" s="10"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="25"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="9"/>
-      <c r="I168" s="13"/>
-      <c r="J168" s="9"/>
-      <c r="K168" s="13"/>
-      <c r="L168" s="9"/>
+      <c r="B168" s="9">
+        <v>33</v>
+      </c>
+      <c r="C168" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D168" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G168" s="9">
+        <v>1</v>
+      </c>
+      <c r="H168" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I168" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J168" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K168" t="s">
+        <v>253</v>
+      </c>
+      <c r="L168" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="169" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B169" s="12"/>
@@ -7861,7 +7883,7 @@
       <c r="F177" s="15"/>
       <c r="G177" s="15">
         <f>SUM(G3:G176)</f>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
@@ -7984,9 +8006,10 @@
     <hyperlink ref="K163" r:id="rId79"/>
     <hyperlink ref="K166" r:id="rId80"/>
     <hyperlink ref="K167" r:id="rId81"/>
+    <hyperlink ref="K168" r:id="rId82"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId82"/>
-  <drawing r:id="rId83"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId83"/>
+  <drawing r:id="rId84"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$212</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="310">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1044,6 +1044,39 @@
   </si>
   <si>
     <t>https://xhbup.com/chaofa/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白鸽</t>
+  </si>
+  <si>
+    <t>惠州市雅洁化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/yajie/</t>
+  </si>
+  <si>
+    <t>河源市正润商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhengrun/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠来县皇琪商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/huangqi/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹利兵滨</t>
+  </si>
+  <si>
+    <t>清远市缤纷时代商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/bfsd1/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1526,13 +1559,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>1574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1862,13 +1895,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q179"/>
+  <dimension ref="B1:Q214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C168" sqref="A168:XFD168"/>
+      <selection pane="bottomRight" activeCell="K175" sqref="K175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7704,7 +7737,7 @@
         <v>28</v>
       </c>
       <c r="C167" s="10">
-        <v>43599</v>
+        <v>43598</v>
       </c>
       <c r="D167" t="s">
         <v>30</v>
@@ -7739,7 +7772,7 @@
         <v>33</v>
       </c>
       <c r="C168" s="10">
-        <v>43594</v>
+        <v>43598</v>
       </c>
       <c r="D168" s="13" t="s">
         <v>202</v>
@@ -7770,157 +7803,766 @@
       </c>
     </row>
     <row r="169" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B169" s="12"/>
-      <c r="C169" s="10"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="25"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="9"/>
-      <c r="I169" s="13"/>
-      <c r="J169" s="9"/>
-      <c r="K169" s="13"/>
-      <c r="L169" s="9"/>
+      <c r="B169" s="9">
+        <v>34</v>
+      </c>
+      <c r="C169" s="10">
+        <v>43598</v>
+      </c>
+      <c r="D169" t="s">
+        <v>300</v>
+      </c>
+      <c r="E169" t="s">
+        <v>301</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G169" s="9">
+        <v>1</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I169" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K169" t="s">
+        <v>302</v>
+      </c>
+      <c r="L169" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="170" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B170" s="12"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26"/>
-      <c r="F170" s="25"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="9"/>
-      <c r="I170" s="26"/>
-      <c r="J170" s="9"/>
-      <c r="K170" s="13"/>
-      <c r="L170" s="9"/>
+      <c r="B170" s="9">
+        <v>8</v>
+      </c>
+      <c r="C170" s="10">
+        <v>43598</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E170" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G170" s="9">
+        <v>1</v>
+      </c>
+      <c r="H170" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I170" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J170" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K170" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="L170" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="171" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B171" s="12"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="25"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="9"/>
-      <c r="I171" s="13"/>
-      <c r="J171" s="9"/>
-      <c r="K171" s="13"/>
-      <c r="L171" s="9"/>
+      <c r="B171" s="9">
+        <v>25</v>
+      </c>
+      <c r="C171" s="10">
+        <v>43598</v>
+      </c>
+      <c r="D171" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E171" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G171" s="9">
+        <v>1</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I171" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K171" t="s">
+        <v>51</v>
+      </c>
+      <c r="L171" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="172" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B172" s="12"/>
-      <c r="C172" s="10"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="13"/>
-      <c r="F172" s="25"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="9"/>
-      <c r="I172" s="13"/>
-      <c r="J172" s="9"/>
-      <c r="K172" s="13"/>
-      <c r="L172" s="9"/>
+      <c r="B172" s="9">
+        <v>25</v>
+      </c>
+      <c r="C172" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D172" t="s">
+        <v>30</v>
+      </c>
+      <c r="E172" t="s">
+        <v>303</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G172" s="9">
+        <v>1</v>
+      </c>
+      <c r="H172" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I172" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J172" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K172" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="L172" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="173" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B173" s="12"/>
-      <c r="C173" s="10"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="25"/>
-      <c r="G173" s="9"/>
-      <c r="H173" s="9"/>
-      <c r="I173" s="13"/>
-      <c r="J173" s="9"/>
-      <c r="K173" s="13"/>
-      <c r="L173" s="9"/>
+      <c r="B173" s="9">
+        <v>25</v>
+      </c>
+      <c r="C173" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D173" t="s">
+        <v>30</v>
+      </c>
+      <c r="E173" t="s">
+        <v>305</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G173" s="9">
+        <v>1</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I173" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J173" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K173" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="L173" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="174" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B174" s="12"/>
-      <c r="C174" s="10"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="25"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="9"/>
-      <c r="I174" s="13"/>
-      <c r="J174" s="9"/>
-      <c r="K174" s="13"/>
-      <c r="L174" s="9"/>
+      <c r="B174" s="9">
+        <v>26</v>
+      </c>
+      <c r="C174" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E174" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G174" s="9">
+        <v>1</v>
+      </c>
+      <c r="H174" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I174" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J174" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K174" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L174" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="175" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B175" s="12"/>
-      <c r="C175" s="10"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="13"/>
-      <c r="F175" s="25"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="9"/>
-      <c r="I175" s="13"/>
-      <c r="J175" s="9"/>
-      <c r="K175" s="13"/>
-      <c r="L175" s="9"/>
+      <c r="B175" s="9">
+        <v>26</v>
+      </c>
+      <c r="C175" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D175" t="s">
+        <v>307</v>
+      </c>
+      <c r="E175" t="s">
+        <v>308</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G175" s="9">
+        <v>1</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I175" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J175" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K175" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="L175" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="176" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B176" s="12"/>
       <c r="C176" s="10"/>
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
-      <c r="F176" s="25"/>
+      <c r="F176" s="9"/>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
       <c r="I176" s="13"/>
       <c r="J176" s="9"/>
-      <c r="K176" s="13"/>
+      <c r="K176"/>
       <c r="L176" s="9"/>
     </row>
-    <row r="177" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B177" s="34" t="s">
+    <row r="177" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B177" s="12"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="13"/>
+      <c r="J177" s="9"/>
+      <c r="K177"/>
+      <c r="L177" s="9"/>
+    </row>
+    <row r="178" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B178" s="12"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="13"/>
+      <c r="J178" s="9"/>
+      <c r="K178"/>
+      <c r="L178" s="9"/>
+    </row>
+    <row r="179" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B179" s="12"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="13"/>
+      <c r="J179" s="9"/>
+      <c r="K179"/>
+      <c r="L179" s="9"/>
+    </row>
+    <row r="180" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B180" s="12"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="9"/>
+      <c r="K180"/>
+      <c r="L180" s="9"/>
+    </row>
+    <row r="181" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B181" s="12"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="13"/>
+      <c r="J181" s="9"/>
+      <c r="K181"/>
+      <c r="L181" s="9"/>
+    </row>
+    <row r="182" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B182" s="12"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="13"/>
+      <c r="J182" s="9"/>
+      <c r="K182"/>
+      <c r="L182" s="9"/>
+    </row>
+    <row r="183" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B183" s="12"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="13"/>
+      <c r="J183" s="9"/>
+      <c r="K183"/>
+      <c r="L183" s="9"/>
+    </row>
+    <row r="184" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B184" s="12"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="13"/>
+      <c r="J184" s="9"/>
+      <c r="K184"/>
+      <c r="L184" s="9"/>
+    </row>
+    <row r="185" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B185" s="12"/>
+      <c r="C185" s="10"/>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
+      <c r="I185" s="13"/>
+      <c r="J185" s="9"/>
+      <c r="K185"/>
+      <c r="L185" s="9"/>
+    </row>
+    <row r="186" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B186" s="12"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
+      <c r="I186" s="13"/>
+      <c r="J186" s="9"/>
+      <c r="K186"/>
+      <c r="L186" s="9"/>
+    </row>
+    <row r="187" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B187" s="12"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="13"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="13"/>
+      <c r="J187" s="9"/>
+      <c r="K187"/>
+      <c r="L187" s="9"/>
+    </row>
+    <row r="188" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B188" s="12"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
+      <c r="I188" s="13"/>
+      <c r="J188" s="9"/>
+      <c r="K188"/>
+      <c r="L188" s="9"/>
+    </row>
+    <row r="189" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B189" s="12"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
+      <c r="I189" s="13"/>
+      <c r="J189" s="9"/>
+      <c r="K189"/>
+      <c r="L189" s="9"/>
+    </row>
+    <row r="190" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B190" s="12"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
+      <c r="I190" s="13"/>
+      <c r="J190" s="9"/>
+      <c r="K190"/>
+      <c r="L190" s="9"/>
+    </row>
+    <row r="191" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B191" s="12"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
+      <c r="I191" s="13"/>
+      <c r="J191" s="9"/>
+      <c r="K191"/>
+      <c r="L191" s="9"/>
+    </row>
+    <row r="192" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B192" s="12"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
+      <c r="I192" s="13"/>
+      <c r="J192" s="9"/>
+      <c r="K192"/>
+      <c r="L192" s="9"/>
+    </row>
+    <row r="193" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B193" s="12"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="9"/>
+      <c r="I193" s="13"/>
+      <c r="J193" s="9"/>
+      <c r="K193"/>
+      <c r="L193" s="9"/>
+    </row>
+    <row r="194" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B194" s="12"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
+      <c r="I194" s="13"/>
+      <c r="J194" s="9"/>
+      <c r="K194"/>
+      <c r="L194" s="9"/>
+    </row>
+    <row r="195" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B195" s="12"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="9"/>
+      <c r="I195" s="13"/>
+      <c r="J195" s="9"/>
+      <c r="K195"/>
+      <c r="L195" s="9"/>
+    </row>
+    <row r="196" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B196" s="12"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="13"/>
+      <c r="J196" s="9"/>
+      <c r="K196"/>
+      <c r="L196" s="9"/>
+    </row>
+    <row r="197" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B197" s="12"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="13"/>
+      <c r="J197" s="9"/>
+      <c r="K197"/>
+      <c r="L197" s="9"/>
+    </row>
+    <row r="198" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B198" s="12"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
+      <c r="I198" s="13"/>
+      <c r="J198" s="9"/>
+      <c r="K198"/>
+      <c r="L198" s="9"/>
+    </row>
+    <row r="199" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B199" s="12"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="9"/>
+      <c r="I199" s="13"/>
+      <c r="J199" s="9"/>
+      <c r="K199"/>
+      <c r="L199" s="9"/>
+    </row>
+    <row r="200" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B200" s="12"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
+      <c r="I200" s="13"/>
+      <c r="J200" s="9"/>
+      <c r="K200"/>
+      <c r="L200" s="9"/>
+    </row>
+    <row r="201" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B201" s="12"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="13"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="9"/>
+      <c r="H201" s="9"/>
+      <c r="I201" s="13"/>
+      <c r="J201" s="9"/>
+      <c r="K201"/>
+      <c r="L201" s="9"/>
+    </row>
+    <row r="202" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B202" s="12"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="9"/>
+      <c r="I202" s="13"/>
+      <c r="J202" s="9"/>
+      <c r="K202"/>
+      <c r="L202" s="9"/>
+    </row>
+    <row r="203" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B203" s="12"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="13"/>
+      <c r="E203" s="13"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="9"/>
+      <c r="I203" s="13"/>
+      <c r="J203" s="9"/>
+      <c r="K203"/>
+      <c r="L203" s="9"/>
+    </row>
+    <row r="204" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B204" s="12"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="13"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="9"/>
+      <c r="I204" s="13"/>
+      <c r="J204" s="9"/>
+      <c r="K204"/>
+      <c r="L204" s="9"/>
+    </row>
+    <row r="205" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B205" s="12"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="13"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="9"/>
+      <c r="H205" s="9"/>
+      <c r="I205" s="13"/>
+      <c r="J205" s="9"/>
+      <c r="K205"/>
+      <c r="L205" s="9"/>
+    </row>
+    <row r="206" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B206" s="12"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="13"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="9"/>
+      <c r="I206" s="13"/>
+      <c r="J206" s="9"/>
+      <c r="K206"/>
+      <c r="L206" s="9"/>
+    </row>
+    <row r="207" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B207" s="12"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="13"/>
+      <c r="E207" s="13"/>
+      <c r="F207" s="25"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="9"/>
+      <c r="I207" s="13"/>
+      <c r="J207" s="9"/>
+      <c r="K207" s="13"/>
+      <c r="L207" s="9"/>
+    </row>
+    <row r="208" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B208" s="12"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="13"/>
+      <c r="F208" s="25"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9"/>
+      <c r="I208" s="13"/>
+      <c r="J208" s="9"/>
+      <c r="K208" s="13"/>
+      <c r="L208" s="9"/>
+    </row>
+    <row r="209" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B209" s="12"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="13"/>
+      <c r="F209" s="25"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="9"/>
+      <c r="I209" s="13"/>
+      <c r="J209" s="9"/>
+      <c r="K209" s="13"/>
+      <c r="L209" s="9"/>
+    </row>
+    <row r="210" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B210" s="12"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
+      <c r="F210" s="25"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="9"/>
+      <c r="I210" s="13"/>
+      <c r="J210" s="9"/>
+      <c r="K210" s="13"/>
+      <c r="L210" s="9"/>
+    </row>
+    <row r="211" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B211" s="12"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="13"/>
+      <c r="E211" s="13"/>
+      <c r="F211" s="25"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="9"/>
+      <c r="I211" s="13"/>
+      <c r="J211" s="9"/>
+      <c r="K211" s="13"/>
+      <c r="L211" s="9"/>
+    </row>
+    <row r="212" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B212" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C177" s="35"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="15">
-        <f>SUM(G3:G176)</f>
-        <v>166</v>
-      </c>
-      <c r="H177" s="15"/>
-      <c r="I177" s="15"/>
-      <c r="J177" s="9"/>
-      <c r="K177" s="21"/>
-      <c r="L177" s="9"/>
-    </row>
-    <row r="179" spans="2:12" ht="75" customHeight="1">
-      <c r="B179" s="36"/>
-      <c r="C179" s="37"/>
-      <c r="D179" s="37"/>
-      <c r="E179" s="37"/>
-      <c r="F179" s="37"/>
-      <c r="G179" s="37"/>
-      <c r="H179" s="37"/>
-      <c r="I179" s="37"/>
-      <c r="J179" s="38"/>
-      <c r="K179" s="22"/>
-      <c r="L179" s="23"/>
+      <c r="C212" s="35"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="14"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="15">
+        <f>SUM(G3:G211)</f>
+        <v>173</v>
+      </c>
+      <c r="H212" s="15"/>
+      <c r="I212" s="15"/>
+      <c r="J212" s="9"/>
+      <c r="K212" s="21"/>
+      <c r="L212" s="9"/>
+    </row>
+    <row r="214" spans="2:12" ht="75" customHeight="1">
+      <c r="B214" s="36"/>
+      <c r="C214" s="37"/>
+      <c r="D214" s="37"/>
+      <c r="E214" s="37"/>
+      <c r="F214" s="37"/>
+      <c r="G214" s="37"/>
+      <c r="H214" s="37"/>
+      <c r="I214" s="37"/>
+      <c r="J214" s="38"/>
+      <c r="K214" s="22"/>
+      <c r="L214" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L177"/>
+  <autoFilter ref="C2:L212"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B179:J179"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B214:J214"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J177">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J212">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J176">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J211">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8007,9 +8649,14 @@
     <hyperlink ref="K166" r:id="rId80"/>
     <hyperlink ref="K167" r:id="rId81"/>
     <hyperlink ref="K168" r:id="rId82"/>
+    <hyperlink ref="K170" r:id="rId83"/>
+    <hyperlink ref="K172" r:id="rId84"/>
+    <hyperlink ref="K173" r:id="rId85"/>
+    <hyperlink ref="K174" r:id="rId86"/>
+    <hyperlink ref="K175" r:id="rId87"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId83"/>
-  <drawing r:id="rId84"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId88"/>
+  <drawing r:id="rId89"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="314">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1077,6 +1077,19 @@
   </si>
   <si>
     <t>https://www.xhbup.com/bfsd1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>老户</t>
+  </si>
+  <si>
+    <t>匡企小额贷款（珠海）有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/kqdk/</t>
+  </si>
+  <si>
+    <t>贷款</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1573,7 +1586,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1585,7 +1598,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1901,7 +1914,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="F172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K175" sqref="K175"/>
+      <selection pane="bottomRight" activeCell="F176" sqref="F176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8048,17 +8061,39 @@
       </c>
     </row>
     <row r="176" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B176" s="12"/>
-      <c r="C176" s="10"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="13"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="9"/>
-      <c r="I176" s="13"/>
-      <c r="J176" s="9"/>
-      <c r="K176"/>
-      <c r="L176" s="9"/>
+      <c r="B176" s="9">
+        <v>26</v>
+      </c>
+      <c r="C176" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D176" t="s">
+        <v>310</v>
+      </c>
+      <c r="E176" t="s">
+        <v>311</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="G176" s="9">
+        <v>1</v>
+      </c>
+      <c r="H176" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I176" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J176" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K176" t="s">
+        <v>312</v>
+      </c>
+      <c r="L176" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="177" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B177" s="12"/>
@@ -8525,7 +8560,7 @@
       <c r="F212" s="15"/>
       <c r="G212" s="15">
         <f>SUM(G3:G211)</f>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H212" s="15"/>
       <c r="I212" s="15"/>

--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="331">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1090,6 +1090,66 @@
   </si>
   <si>
     <t>贷款</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>汕头市佩雅格丝化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/pygs/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/chaofa1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖暖</t>
+  </si>
+  <si>
+    <t>化州市君阅贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/junyue/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽颜肌</t>
+  </si>
+  <si>
+    <t>广州市颜肌生物科技有限公司</t>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/yanji/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海横琴易伟仕贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/hqyws/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市弘昊商贸有限公司啊</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/honghao/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>江门市弘道文化图书有限公司</t>
+  </si>
+  <si>
+    <t>影视</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/hdwh/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1911,10 +1971,10 @@
   <dimension ref="B1:Q214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F172" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F176" sqref="F176"/>
+      <selection pane="bottomRight" activeCell="K186" sqref="K186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8096,134 +8156,354 @@
       </c>
     </row>
     <row r="177" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B177" s="12"/>
-      <c r="C177" s="10"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="9"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="9"/>
-      <c r="I177" s="13"/>
-      <c r="J177" s="9"/>
-      <c r="K177"/>
-      <c r="L177" s="9"/>
+      <c r="B177" s="9">
+        <v>26</v>
+      </c>
+      <c r="C177" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D177" t="s">
+        <v>30</v>
+      </c>
+      <c r="E177" t="s">
+        <v>314</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G177" s="9">
+        <v>1</v>
+      </c>
+      <c r="H177" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I177" t="s">
+        <v>98</v>
+      </c>
+      <c r="J177" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K177" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="L177" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="178" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B178" s="12"/>
-      <c r="C178" s="10"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9"/>
-      <c r="I178" s="13"/>
-      <c r="J178" s="9"/>
-      <c r="K178"/>
-      <c r="L178" s="9"/>
+      <c r="B178" s="9">
+        <v>26</v>
+      </c>
+      <c r="C178" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D178" t="s">
+        <v>30</v>
+      </c>
+      <c r="E178" t="s">
+        <v>298</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G178" s="9">
+        <v>1</v>
+      </c>
+      <c r="H178" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I178" t="s">
+        <v>98</v>
+      </c>
+      <c r="J178" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K178" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="L178" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="179" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B179" s="12"/>
-      <c r="C179" s="10"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="9"/>
-      <c r="G179" s="9"/>
-      <c r="H179" s="9"/>
-      <c r="I179" s="13"/>
-      <c r="J179" s="9"/>
-      <c r="K179"/>
-      <c r="L179" s="9"/>
+      <c r="B179" s="9">
+        <v>26</v>
+      </c>
+      <c r="C179" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D179" t="s">
+        <v>317</v>
+      </c>
+      <c r="E179" t="s">
+        <v>318</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G179" s="9">
+        <v>1</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I179" t="s">
+        <v>26</v>
+      </c>
+      <c r="J179" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K179" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="L179" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="180" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B180" s="12"/>
-      <c r="C180" s="10"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="13"/>
-      <c r="F180" s="9"/>
-      <c r="G180" s="9"/>
-      <c r="H180" s="9"/>
-      <c r="I180" s="13"/>
-      <c r="J180" s="9"/>
-      <c r="K180"/>
-      <c r="L180" s="9"/>
+      <c r="B180" s="9">
+        <v>26</v>
+      </c>
+      <c r="C180" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D180" t="s">
+        <v>320</v>
+      </c>
+      <c r="E180" t="s">
+        <v>321</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G180" s="9">
+        <v>1</v>
+      </c>
+      <c r="H180" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I180" t="s">
+        <v>87</v>
+      </c>
+      <c r="J180" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K180" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="L180" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="181" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B181" s="12"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
-      <c r="F181" s="9"/>
-      <c r="G181" s="9"/>
-      <c r="H181" s="9"/>
-      <c r="I181" s="13"/>
-      <c r="J181" s="9"/>
-      <c r="K181"/>
-      <c r="L181" s="9"/>
+      <c r="B181" s="9">
+        <v>26</v>
+      </c>
+      <c r="C181" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D181" t="s">
+        <v>317</v>
+      </c>
+      <c r="E181" t="s">
+        <v>324</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G181" s="9">
+        <v>1</v>
+      </c>
+      <c r="H181" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I181" t="s">
+        <v>26</v>
+      </c>
+      <c r="J181" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K181" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="L181" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="182" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B182" s="12"/>
-      <c r="C182" s="10"/>
-      <c r="D182" s="13"/>
-      <c r="E182" s="13"/>
-      <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
-      <c r="H182" s="9"/>
-      <c r="I182" s="13"/>
-      <c r="J182" s="9"/>
-      <c r="K182"/>
-      <c r="L182" s="9"/>
+      <c r="B182" s="9">
+        <v>10</v>
+      </c>
+      <c r="C182" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E182" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G182" s="9">
+        <v>1</v>
+      </c>
+      <c r="H182" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I182" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J182" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K182" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L182" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="183" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B183" s="12"/>
-      <c r="C183" s="10"/>
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="9"/>
-      <c r="G183" s="9"/>
-      <c r="H183" s="9"/>
-      <c r="I183" s="13"/>
-      <c r="J183" s="9"/>
-      <c r="K183"/>
-      <c r="L183" s="9"/>
+      <c r="B183" s="9">
+        <v>25</v>
+      </c>
+      <c r="C183" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E183" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G183" s="9">
+        <v>1</v>
+      </c>
+      <c r="H183" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I183" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J183" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K183" t="s">
+        <v>51</v>
+      </c>
+      <c r="L183" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="184" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B184" s="12"/>
-      <c r="C184" s="10"/>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="9"/>
-      <c r="G184" s="9"/>
-      <c r="H184" s="9"/>
-      <c r="I184" s="13"/>
-      <c r="J184" s="9"/>
-      <c r="K184"/>
-      <c r="L184" s="9"/>
+      <c r="B184" s="9">
+        <v>25</v>
+      </c>
+      <c r="C184" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D184" t="s">
+        <v>122</v>
+      </c>
+      <c r="E184" t="s">
+        <v>326</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G184" s="9">
+        <v>1</v>
+      </c>
+      <c r="H184" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I184" t="s">
+        <v>87</v>
+      </c>
+      <c r="J184" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K184" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="L184" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="185" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B185" s="12"/>
-      <c r="C185" s="10"/>
-      <c r="D185" s="13"/>
-      <c r="E185" s="13"/>
-      <c r="F185" s="9"/>
-      <c r="G185" s="9"/>
-      <c r="H185" s="9"/>
-      <c r="I185" s="13"/>
-      <c r="J185" s="9"/>
-      <c r="K185"/>
-      <c r="L185" s="9"/>
+      <c r="B185" s="9">
+        <v>7</v>
+      </c>
+      <c r="C185" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D185" t="s">
+        <v>122</v>
+      </c>
+      <c r="E185" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G185" s="9">
+        <v>1</v>
+      </c>
+      <c r="H185" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I185" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J185" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K185" t="s">
+        <v>93</v>
+      </c>
+      <c r="L185" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="186" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B186" s="12"/>
-      <c r="C186" s="10"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="13"/>
-      <c r="F186" s="9"/>
-      <c r="G186" s="9"/>
-      <c r="H186" s="9"/>
-      <c r="I186" s="13"/>
-      <c r="J186" s="9"/>
-      <c r="K186"/>
-      <c r="L186" s="9"/>
+      <c r="B186" s="9">
+        <v>8</v>
+      </c>
+      <c r="C186" s="10">
+        <v>43596</v>
+      </c>
+      <c r="D186" t="s">
+        <v>328</v>
+      </c>
+      <c r="E186" t="s">
+        <v>328</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="G186" s="9">
+        <v>1</v>
+      </c>
+      <c r="H186" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I186" t="s">
+        <v>18</v>
+      </c>
+      <c r="J186" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K186" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="L186" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="187" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B187" s="12"/>
@@ -8560,7 +8840,7 @@
       <c r="F212" s="15"/>
       <c r="G212" s="15">
         <f>SUM(G3:G211)</f>
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="H212" s="15"/>
       <c r="I212" s="15"/>
@@ -8689,9 +8969,16 @@
     <hyperlink ref="K173" r:id="rId85"/>
     <hyperlink ref="K174" r:id="rId86"/>
     <hyperlink ref="K175" r:id="rId87"/>
+    <hyperlink ref="K177" r:id="rId88"/>
+    <hyperlink ref="K178" r:id="rId89"/>
+    <hyperlink ref="K179" r:id="rId90"/>
+    <hyperlink ref="K180" r:id="rId91"/>
+    <hyperlink ref="K181" r:id="rId92"/>
+    <hyperlink ref="K184" r:id="rId93"/>
+    <hyperlink ref="K186" r:id="rId94"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId88"/>
-  <drawing r:id="rId89"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId95"/>
+  <drawing r:id="rId96"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="349">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1150,6 +1150,66 @@
   </si>
   <si>
     <t>https://xhbup.com/hdwh/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山市海伦美化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/hailunm/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山辰星化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/chenxing/</t>
+  </si>
+  <si>
+    <t>佛山市澳迅利亚贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/axly/</t>
+  </si>
+  <si>
+    <t>余大超</t>
+  </si>
+  <si>
+    <t>广东省遇见化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/yujian/</t>
+  </si>
+  <si>
+    <t>广州摩羯护肤品有限责任公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/mojie/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱肌肤(广州)护肤品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/aijifu/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>揭阳市雅颜化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/yayanh/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/haoyal1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴川市家有宝贝日用品有限公司 </t>
+  </si>
+  <si>
+    <t>https://xhbup.com/youbaob/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1971,10 +2031,10 @@
   <dimension ref="B1:Q214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F174" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K186" sqref="K186"/>
+      <selection pane="bottomRight" activeCell="K198" sqref="K198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8440,7 +8500,7 @@
         <v>7</v>
       </c>
       <c r="C185" s="10">
-        <v>43595</v>
+        <v>43599</v>
       </c>
       <c r="D185" t="s">
         <v>122</v>
@@ -8475,7 +8535,7 @@
         <v>8</v>
       </c>
       <c r="C186" s="10">
-        <v>43596</v>
+        <v>43599</v>
       </c>
       <c r="D186" t="s">
         <v>328</v>
@@ -8506,160 +8566,424 @@
       </c>
     </row>
     <row r="187" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B187" s="12"/>
-      <c r="C187" s="10"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="13"/>
-      <c r="F187" s="9"/>
-      <c r="G187" s="9"/>
-      <c r="H187" s="9"/>
-      <c r="I187" s="13"/>
-      <c r="J187" s="9"/>
-      <c r="K187"/>
-      <c r="L187" s="9"/>
+      <c r="B187" s="9">
+        <v>8</v>
+      </c>
+      <c r="C187" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D187" t="s">
+        <v>30</v>
+      </c>
+      <c r="E187" t="s">
+        <v>331</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G187" s="9">
+        <v>1</v>
+      </c>
+      <c r="H187" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I187" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J187" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K187" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="L187" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="188" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B188" s="12"/>
-      <c r="C188" s="10"/>
-      <c r="D188" s="13"/>
-      <c r="E188" s="13"/>
-      <c r="F188" s="9"/>
-      <c r="G188" s="9"/>
-      <c r="H188" s="9"/>
-      <c r="I188" s="13"/>
-      <c r="J188" s="9"/>
-      <c r="K188"/>
-      <c r="L188" s="9"/>
+      <c r="B188" s="9">
+        <v>9</v>
+      </c>
+      <c r="C188" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D188" t="s">
+        <v>30</v>
+      </c>
+      <c r="E188" t="s">
+        <v>333</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G188" s="9">
+        <v>1</v>
+      </c>
+      <c r="H188" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I188" t="s">
+        <v>87</v>
+      </c>
+      <c r="J188" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K188" t="s">
+        <v>334</v>
+      </c>
+      <c r="L188" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="189" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B189" s="12"/>
-      <c r="C189" s="10"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="13"/>
-      <c r="F189" s="9"/>
-      <c r="G189" s="9"/>
-      <c r="H189" s="9"/>
-      <c r="I189" s="13"/>
-      <c r="J189" s="9"/>
-      <c r="K189"/>
-      <c r="L189" s="9"/>
+      <c r="B189" s="9">
+        <v>11</v>
+      </c>
+      <c r="C189" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D189" t="s">
+        <v>278</v>
+      </c>
+      <c r="E189" t="s">
+        <v>279</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G189" s="9">
+        <v>1</v>
+      </c>
+      <c r="H189" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I189" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J189" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K189" t="s">
+        <v>280</v>
+      </c>
+      <c r="L189" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="190" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B190" s="12"/>
-      <c r="C190" s="10"/>
-      <c r="D190" s="13"/>
-      <c r="E190" s="13"/>
-      <c r="F190" s="9"/>
-      <c r="G190" s="9"/>
-      <c r="H190" s="9"/>
-      <c r="I190" s="13"/>
-      <c r="J190" s="9"/>
-      <c r="K190"/>
-      <c r="L190" s="9"/>
+      <c r="B190" s="9">
+        <v>11</v>
+      </c>
+      <c r="C190" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D190" t="s">
+        <v>278</v>
+      </c>
+      <c r="E190" t="s">
+        <v>335</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G190" s="9">
+        <v>1</v>
+      </c>
+      <c r="H190" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I190" t="s">
+        <v>23</v>
+      </c>
+      <c r="J190" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K190" t="s">
+        <v>336</v>
+      </c>
+      <c r="L190" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="191" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B191" s="12"/>
-      <c r="C191" s="10"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="13"/>
-      <c r="F191" s="9"/>
-      <c r="G191" s="9"/>
-      <c r="H191" s="9"/>
-      <c r="I191" s="13"/>
-      <c r="J191" s="9"/>
-      <c r="K191"/>
-      <c r="L191" s="9"/>
+      <c r="B191" s="9">
+        <v>12</v>
+      </c>
+      <c r="C191" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D191" t="s">
+        <v>337</v>
+      </c>
+      <c r="E191" t="s">
+        <v>338</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G191" s="9">
+        <v>1</v>
+      </c>
+      <c r="H191" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I191" t="s">
+        <v>23</v>
+      </c>
+      <c r="J191" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K191" t="s">
+        <v>339</v>
+      </c>
+      <c r="L191" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="192" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B192" s="12"/>
-      <c r="C192" s="10"/>
-      <c r="D192" s="13"/>
-      <c r="E192" s="13"/>
-      <c r="F192" s="9"/>
-      <c r="G192" s="9"/>
-      <c r="H192" s="9"/>
-      <c r="I192" s="13"/>
-      <c r="J192" s="9"/>
-      <c r="K192"/>
-      <c r="L192" s="9"/>
+      <c r="B192" s="9">
+        <v>13</v>
+      </c>
+      <c r="C192" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D192" t="s">
+        <v>30</v>
+      </c>
+      <c r="E192" t="s">
+        <v>340</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G192" s="9">
+        <v>1</v>
+      </c>
+      <c r="H192" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I192" t="s">
+        <v>23</v>
+      </c>
+      <c r="J192" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K192" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="L192" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="193" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B193" s="12"/>
-      <c r="C193" s="10"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="9"/>
-      <c r="G193" s="9"/>
-      <c r="H193" s="9"/>
-      <c r="I193" s="13"/>
-      <c r="J193" s="9"/>
-      <c r="K193"/>
-      <c r="L193" s="9"/>
+      <c r="B193" s="9">
+        <v>14</v>
+      </c>
+      <c r="C193" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D193" t="s">
+        <v>30</v>
+      </c>
+      <c r="E193" t="s">
+        <v>342</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G193" s="9">
+        <v>1</v>
+      </c>
+      <c r="H193" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I193" t="s">
+        <v>23</v>
+      </c>
+      <c r="J193" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K193" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="L193" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="194" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B194" s="12"/>
-      <c r="C194" s="10"/>
-      <c r="D194" s="13"/>
-      <c r="E194" s="13"/>
-      <c r="F194" s="9"/>
-      <c r="G194" s="9"/>
-      <c r="H194" s="9"/>
-      <c r="I194" s="13"/>
-      <c r="J194" s="9"/>
-      <c r="K194"/>
-      <c r="L194" s="9"/>
+      <c r="B194" s="9">
+        <v>26</v>
+      </c>
+      <c r="C194" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D194" t="s">
+        <v>317</v>
+      </c>
+      <c r="E194" t="s">
+        <v>318</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G194" s="9">
+        <v>1</v>
+      </c>
+      <c r="H194" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I194" t="s">
+        <v>26</v>
+      </c>
+      <c r="J194" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K194" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="L194" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="195" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B195" s="12"/>
-      <c r="C195" s="10"/>
-      <c r="D195" s="13"/>
-      <c r="E195" s="13"/>
-      <c r="F195" s="9"/>
-      <c r="G195" s="9"/>
-      <c r="H195" s="9"/>
-      <c r="I195" s="13"/>
-      <c r="J195" s="9"/>
-      <c r="K195"/>
-      <c r="L195" s="9"/>
+      <c r="B195" s="9">
+        <v>26</v>
+      </c>
+      <c r="C195" s="10">
+        <v>43593</v>
+      </c>
+      <c r="D195" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E195" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G195" s="9">
+        <v>1</v>
+      </c>
+      <c r="H195" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I195" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J195" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K195" t="s">
+        <v>235</v>
+      </c>
+      <c r="L195" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="196" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B196" s="12"/>
-      <c r="C196" s="10"/>
-      <c r="D196" s="13"/>
-      <c r="E196" s="13"/>
-      <c r="F196" s="9"/>
-      <c r="G196" s="9"/>
-      <c r="H196" s="9"/>
-      <c r="I196" s="13"/>
-      <c r="J196" s="9"/>
-      <c r="K196"/>
-      <c r="L196" s="9"/>
+      <c r="B196" s="9">
+        <v>27</v>
+      </c>
+      <c r="C196" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D196" t="s">
+        <v>344</v>
+      </c>
+      <c r="E196" t="s">
+        <v>344</v>
+      </c>
+      <c r="F196" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G196" s="9">
+        <v>1</v>
+      </c>
+      <c r="H196" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I196" t="s">
+        <v>18</v>
+      </c>
+      <c r="J196" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K196" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="L196" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="197" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B197" s="12"/>
-      <c r="C197" s="10"/>
-      <c r="D197" s="13"/>
-      <c r="E197" s="13"/>
-      <c r="F197" s="9"/>
-      <c r="G197" s="9"/>
-      <c r="H197" s="9"/>
-      <c r="I197" s="13"/>
-      <c r="J197" s="9"/>
-      <c r="K197"/>
-      <c r="L197" s="9"/>
+      <c r="B197" s="9">
+        <v>28</v>
+      </c>
+      <c r="C197" s="10">
+        <v>43595</v>
+      </c>
+      <c r="D197" t="s">
+        <v>30</v>
+      </c>
+      <c r="E197" t="s">
+        <v>296</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G197" s="9">
+        <v>1</v>
+      </c>
+      <c r="H197" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I197" t="s">
+        <v>98</v>
+      </c>
+      <c r="J197" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K197" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="L197" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="198" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B198" s="12"/>
-      <c r="C198" s="10"/>
-      <c r="D198" s="13"/>
-      <c r="E198" s="13"/>
-      <c r="F198" s="9"/>
-      <c r="G198" s="9"/>
-      <c r="H198" s="9"/>
-      <c r="I198" s="13"/>
-      <c r="J198" s="9"/>
-      <c r="K198"/>
-      <c r="L198" s="9"/>
+      <c r="B198" s="9">
+        <v>29</v>
+      </c>
+      <c r="C198" s="10">
+        <v>43596</v>
+      </c>
+      <c r="D198" t="s">
+        <v>30</v>
+      </c>
+      <c r="E198" t="s">
+        <v>347</v>
+      </c>
+      <c r="F198" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G198" s="9">
+        <v>1</v>
+      </c>
+      <c r="H198" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I198" t="s">
+        <v>87</v>
+      </c>
+      <c r="J198" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K198" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="L198" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="199" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B199" s="12"/>
@@ -8840,7 +9164,7 @@
       <c r="F212" s="15"/>
       <c r="G212" s="15">
         <f>SUM(G3:G211)</f>
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H212" s="15"/>
       <c r="I212" s="15"/>
@@ -8976,9 +9300,17 @@
     <hyperlink ref="K181" r:id="rId92"/>
     <hyperlink ref="K184" r:id="rId93"/>
     <hyperlink ref="K186" r:id="rId94"/>
+    <hyperlink ref="K187" r:id="rId95"/>
+    <hyperlink ref="K192" r:id="rId96"/>
+    <hyperlink ref="K193" r:id="rId97"/>
+    <hyperlink ref="K194" r:id="rId98"/>
+    <hyperlink ref="K195" r:id="rId99"/>
+    <hyperlink ref="K196" r:id="rId100"/>
+    <hyperlink ref="K197" r:id="rId101"/>
+    <hyperlink ref="K198" r:id="rId102"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId95"/>
-  <drawing r:id="rId96"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId103"/>
+  <drawing r:id="rId104"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$255</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="365">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1210,6 +1210,65 @@
   </si>
   <si>
     <t>https://xhbup.com/youbaob/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>台山市尚云科技有限公司 </t>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/shangyun/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市瀚嘉魅化妆品商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/hanjiam/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海市帕斯婕化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/pasij/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>传媒</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/pasij1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市齐悦文化传播有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/qywh/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/aimi2/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海臻玉化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhenyu/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1692,13 +1751,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>257</xdr:row>
       <xdr:rowOff>1574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2028,13 +2087,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q214"/>
+  <dimension ref="B1:Q257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K198" sqref="K198"/>
+      <selection pane="bottomRight" activeCell="C210" sqref="A210:XFD210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8850,7 +8909,7 @@
         <v>26</v>
       </c>
       <c r="C195" s="10">
-        <v>43593</v>
+        <v>43599</v>
       </c>
       <c r="D195" s="13" t="s">
         <v>39</v>
@@ -8885,7 +8944,7 @@
         <v>27</v>
       </c>
       <c r="C196" s="10">
-        <v>43594</v>
+        <v>43599</v>
       </c>
       <c r="D196" t="s">
         <v>344</v>
@@ -8920,7 +8979,7 @@
         <v>28</v>
       </c>
       <c r="C197" s="10">
-        <v>43595</v>
+        <v>43599</v>
       </c>
       <c r="D197" t="s">
         <v>30</v>
@@ -8955,7 +9014,7 @@
         <v>29</v>
       </c>
       <c r="C198" s="10">
-        <v>43596</v>
+        <v>43599</v>
       </c>
       <c r="D198" t="s">
         <v>30</v>
@@ -8986,222 +9045,1045 @@
       </c>
     </row>
     <row r="199" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B199" s="12"/>
-      <c r="C199" s="10"/>
-      <c r="D199" s="13"/>
-      <c r="E199" s="13"/>
-      <c r="F199" s="9"/>
-      <c r="G199" s="9"/>
-      <c r="H199" s="9"/>
-      <c r="I199" s="13"/>
-      <c r="J199" s="9"/>
-      <c r="K199"/>
-      <c r="L199" s="9"/>
+      <c r="B199" s="9">
+        <v>29</v>
+      </c>
+      <c r="C199" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D199" t="s">
+        <v>30</v>
+      </c>
+      <c r="E199" t="s">
+        <v>349</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="G199" s="9">
+        <v>1</v>
+      </c>
+      <c r="H199" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I199" t="s">
+        <v>26</v>
+      </c>
+      <c r="J199" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K199" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="L199" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="200" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B200" s="12"/>
-      <c r="C200" s="10"/>
-      <c r="D200" s="13"/>
-      <c r="E200" s="13"/>
-      <c r="F200" s="9"/>
-      <c r="G200" s="9"/>
-      <c r="H200" s="9"/>
-      <c r="I200" s="13"/>
-      <c r="J200" s="9"/>
-      <c r="K200"/>
-      <c r="L200" s="9"/>
+      <c r="B200" s="9">
+        <v>26</v>
+      </c>
+      <c r="C200" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D200" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E200" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F200" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G200" s="9">
+        <v>1</v>
+      </c>
+      <c r="H200" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I200" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J200" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K200" t="s">
+        <v>235</v>
+      </c>
+      <c r="L200" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="201" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B201" s="12"/>
-      <c r="C201" s="10"/>
-      <c r="D201" s="13"/>
-      <c r="E201" s="13"/>
-      <c r="F201" s="9"/>
-      <c r="G201" s="9"/>
-      <c r="H201" s="9"/>
-      <c r="I201" s="13"/>
-      <c r="J201" s="9"/>
-      <c r="K201"/>
-      <c r="L201" s="9"/>
+      <c r="B201" s="9">
+        <v>6</v>
+      </c>
+      <c r="C201" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D201" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E201" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G201" s="9">
+        <v>1</v>
+      </c>
+      <c r="H201" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I201" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J201" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K201" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L201" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="202" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B202" s="12"/>
-      <c r="C202" s="10"/>
-      <c r="D202" s="13"/>
-      <c r="E202" s="13"/>
-      <c r="F202" s="9"/>
-      <c r="G202" s="9"/>
-      <c r="H202" s="9"/>
-      <c r="I202" s="13"/>
-      <c r="J202" s="9"/>
-      <c r="K202"/>
-      <c r="L202" s="9"/>
+      <c r="B202" s="9">
+        <v>6</v>
+      </c>
+      <c r="C202" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D202" t="s">
+        <v>30</v>
+      </c>
+      <c r="E202" t="s">
+        <v>352</v>
+      </c>
+      <c r="F202" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G202" s="9">
+        <v>1</v>
+      </c>
+      <c r="H202" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I202" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J202" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K202" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="L202" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="203" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B203" s="12"/>
-      <c r="C203" s="10"/>
-      <c r="D203" s="13"/>
-      <c r="E203" s="13"/>
-      <c r="F203" s="9"/>
-      <c r="G203" s="9"/>
-      <c r="H203" s="9"/>
-      <c r="I203" s="13"/>
-      <c r="J203" s="9"/>
-      <c r="K203"/>
-      <c r="L203" s="9"/>
+      <c r="B203" s="9">
+        <v>6</v>
+      </c>
+      <c r="C203" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D203" t="s">
+        <v>30</v>
+      </c>
+      <c r="E203" t="s">
+        <v>354</v>
+      </c>
+      <c r="F203" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G203" s="9">
+        <v>1</v>
+      </c>
+      <c r="H203" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I203" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J203" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K203" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="L203" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="204" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B204" s="12"/>
-      <c r="C204" s="10"/>
-      <c r="D204" s="13"/>
-      <c r="E204" s="13"/>
-      <c r="F204" s="9"/>
-      <c r="G204" s="9"/>
-      <c r="H204" s="9"/>
-      <c r="I204" s="13"/>
-      <c r="J204" s="9"/>
-      <c r="K204"/>
-      <c r="L204" s="9"/>
+      <c r="B204" s="9">
+        <v>6</v>
+      </c>
+      <c r="C204" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D204" t="s">
+        <v>30</v>
+      </c>
+      <c r="E204" t="s">
+        <v>354</v>
+      </c>
+      <c r="F204" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="G204" s="9">
+        <v>1</v>
+      </c>
+      <c r="H204" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I204" t="s">
+        <v>98</v>
+      </c>
+      <c r="J204" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K204" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="L204" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="205" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B205" s="12"/>
-      <c r="C205" s="10"/>
-      <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
-      <c r="F205" s="9"/>
-      <c r="G205" s="9"/>
-      <c r="H205" s="9"/>
-      <c r="I205" s="13"/>
-      <c r="J205" s="9"/>
-      <c r="K205"/>
-      <c r="L205" s="9"/>
+      <c r="B205" s="9">
+        <v>8</v>
+      </c>
+      <c r="C205" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D205" t="s">
+        <v>30</v>
+      </c>
+      <c r="E205" t="s">
+        <v>331</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G205" s="9">
+        <v>1</v>
+      </c>
+      <c r="H205" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I205" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J205" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K205" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="L205" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="206" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B206" s="12"/>
-      <c r="C206" s="10"/>
-      <c r="D206" s="13"/>
-      <c r="E206" s="13"/>
-      <c r="F206" s="9"/>
-      <c r="G206" s="9"/>
-      <c r="H206" s="9"/>
-      <c r="I206" s="13"/>
-      <c r="J206" s="9"/>
-      <c r="K206"/>
-      <c r="L206" s="9"/>
+      <c r="B206" s="9">
+        <v>8</v>
+      </c>
+      <c r="C206" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D206" t="s">
+        <v>30</v>
+      </c>
+      <c r="E206" t="s">
+        <v>358</v>
+      </c>
+      <c r="F206" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G206" s="9">
+        <v>1</v>
+      </c>
+      <c r="H206" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I206" t="s">
+        <v>23</v>
+      </c>
+      <c r="J206" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K206" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="L206" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="207" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B207" s="12"/>
-      <c r="C207" s="10"/>
-      <c r="D207" s="13"/>
-      <c r="E207" s="13"/>
-      <c r="F207" s="25"/>
-      <c r="G207" s="9"/>
-      <c r="H207" s="9"/>
-      <c r="I207" s="13"/>
-      <c r="J207" s="9"/>
-      <c r="K207" s="13"/>
-      <c r="L207" s="9"/>
+      <c r="B207" s="9">
+        <v>8</v>
+      </c>
+      <c r="C207" s="10">
+        <v>43599</v>
+      </c>
+      <c r="D207" t="s">
+        <v>290</v>
+      </c>
+      <c r="E207" t="s">
+        <v>291</v>
+      </c>
+      <c r="F207" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G207" s="9">
+        <v>1</v>
+      </c>
+      <c r="H207" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I207" t="s">
+        <v>26</v>
+      </c>
+      <c r="J207" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K207" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="L207" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="208" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B208" s="12"/>
-      <c r="C208" s="10"/>
-      <c r="D208" s="13"/>
-      <c r="E208" s="13"/>
-      <c r="F208" s="25"/>
-      <c r="G208" s="9"/>
-      <c r="H208" s="9"/>
-      <c r="I208" s="13"/>
-      <c r="J208" s="9"/>
-      <c r="K208" s="13"/>
-      <c r="L208" s="9"/>
+      <c r="B208" s="9">
+        <v>27</v>
+      </c>
+      <c r="C208" s="10">
+        <v>43598</v>
+      </c>
+      <c r="D208" t="s">
+        <v>30</v>
+      </c>
+      <c r="E208" t="s">
+        <v>296</v>
+      </c>
+      <c r="F208" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G208" s="9">
+        <v>1</v>
+      </c>
+      <c r="H208" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I208" t="s">
+        <v>98</v>
+      </c>
+      <c r="J208" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K208" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="L208" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="209" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B209" s="12"/>
-      <c r="C209" s="10"/>
-      <c r="D209" s="13"/>
-      <c r="E209" s="13"/>
-      <c r="F209" s="25"/>
-      <c r="G209" s="9"/>
-      <c r="H209" s="9"/>
-      <c r="I209" s="13"/>
-      <c r="J209" s="9"/>
-      <c r="K209" s="13"/>
-      <c r="L209" s="9"/>
+      <c r="B209" s="9">
+        <v>27</v>
+      </c>
+      <c r="C209" s="10">
+        <v>43598</v>
+      </c>
+      <c r="D209" t="s">
+        <v>30</v>
+      </c>
+      <c r="E209" t="s">
+        <v>363</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G209" s="9">
+        <v>1</v>
+      </c>
+      <c r="H209" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I209" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J209" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K209" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="L209" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="210" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B210" s="12"/>
-      <c r="C210" s="10"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="25"/>
-      <c r="G210" s="9"/>
-      <c r="H210" s="9"/>
-      <c r="I210" s="13"/>
-      <c r="J210" s="9"/>
-      <c r="K210" s="13"/>
-      <c r="L210" s="9"/>
+      <c r="B210" s="9">
+        <v>27</v>
+      </c>
+      <c r="C210" s="10">
+        <v>43594</v>
+      </c>
+      <c r="D210" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E210" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F210" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G210" s="9">
+        <v>1</v>
+      </c>
+      <c r="H210" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I210" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J210" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K210" t="s">
+        <v>192</v>
+      </c>
+      <c r="L210" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="211" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B211" s="12"/>
       <c r="C211" s="10"/>
-      <c r="D211" s="13"/>
-      <c r="E211" s="13"/>
-      <c r="F211" s="25"/>
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211" s="9"/>
       <c r="G211" s="9"/>
       <c r="H211" s="9"/>
-      <c r="I211" s="13"/>
+      <c r="I211"/>
       <c r="J211" s="9"/>
-      <c r="K211" s="13"/>
+      <c r="K211" s="31"/>
       <c r="L211" s="9"/>
     </row>
-    <row r="212" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B212" s="34" t="s">
+    <row r="212" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B212" s="12"/>
+      <c r="C212" s="10"/>
+      <c r="D212"/>
+      <c r="E212"/>
+      <c r="F212" s="9"/>
+      <c r="G212" s="9"/>
+      <c r="H212" s="9"/>
+      <c r="I212"/>
+      <c r="J212" s="9"/>
+      <c r="K212" s="31"/>
+      <c r="L212" s="9"/>
+    </row>
+    <row r="213" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B213" s="12"/>
+      <c r="C213" s="10"/>
+      <c r="D213"/>
+      <c r="E213"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="9"/>
+      <c r="I213"/>
+      <c r="J213" s="9"/>
+      <c r="K213" s="31"/>
+      <c r="L213" s="9"/>
+    </row>
+    <row r="214" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B214" s="12"/>
+      <c r="C214" s="10"/>
+      <c r="D214"/>
+      <c r="E214"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
+      <c r="I214"/>
+      <c r="J214" s="9"/>
+      <c r="K214" s="31"/>
+      <c r="L214" s="9"/>
+    </row>
+    <row r="215" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B215" s="12"/>
+      <c r="C215" s="10"/>
+      <c r="D215"/>
+      <c r="E215"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="9"/>
+      <c r="I215"/>
+      <c r="J215" s="9"/>
+      <c r="K215" s="31"/>
+      <c r="L215" s="9"/>
+    </row>
+    <row r="216" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B216" s="12"/>
+      <c r="C216" s="10"/>
+      <c r="D216"/>
+      <c r="E216"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="9"/>
+      <c r="I216"/>
+      <c r="J216" s="9"/>
+      <c r="K216" s="31"/>
+      <c r="L216" s="9"/>
+    </row>
+    <row r="217" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B217" s="12"/>
+      <c r="C217" s="10"/>
+      <c r="D217"/>
+      <c r="E217"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
+      <c r="H217" s="9"/>
+      <c r="I217"/>
+      <c r="J217" s="9"/>
+      <c r="K217" s="31"/>
+      <c r="L217" s="9"/>
+    </row>
+    <row r="218" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B218" s="12"/>
+      <c r="C218" s="10"/>
+      <c r="D218"/>
+      <c r="E218"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
+      <c r="I218"/>
+      <c r="J218" s="9"/>
+      <c r="K218" s="31"/>
+      <c r="L218" s="9"/>
+    </row>
+    <row r="219" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B219" s="12"/>
+      <c r="C219" s="10"/>
+      <c r="D219"/>
+      <c r="E219"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
+      <c r="H219" s="9"/>
+      <c r="I219"/>
+      <c r="J219" s="9"/>
+      <c r="K219" s="31"/>
+      <c r="L219" s="9"/>
+    </row>
+    <row r="220" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B220" s="12"/>
+      <c r="C220" s="10"/>
+      <c r="D220"/>
+      <c r="E220"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="9"/>
+      <c r="H220" s="9"/>
+      <c r="I220"/>
+      <c r="J220" s="9"/>
+      <c r="K220" s="31"/>
+      <c r="L220" s="9"/>
+    </row>
+    <row r="221" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B221" s="12"/>
+      <c r="C221" s="10"/>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="9"/>
+      <c r="I221"/>
+      <c r="J221" s="9"/>
+      <c r="K221" s="31"/>
+      <c r="L221" s="9"/>
+    </row>
+    <row r="222" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B222" s="12"/>
+      <c r="C222" s="10"/>
+      <c r="D222"/>
+      <c r="E222"/>
+      <c r="F222" s="9"/>
+      <c r="G222" s="9"/>
+      <c r="H222" s="9"/>
+      <c r="I222"/>
+      <c r="J222" s="9"/>
+      <c r="K222" s="31"/>
+      <c r="L222" s="9"/>
+    </row>
+    <row r="223" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B223" s="12"/>
+      <c r="C223" s="10"/>
+      <c r="D223"/>
+      <c r="E223"/>
+      <c r="F223" s="9"/>
+      <c r="G223" s="9"/>
+      <c r="H223" s="9"/>
+      <c r="I223"/>
+      <c r="J223" s="9"/>
+      <c r="K223" s="31"/>
+      <c r="L223" s="9"/>
+    </row>
+    <row r="224" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B224" s="12"/>
+      <c r="C224" s="10"/>
+      <c r="D224"/>
+      <c r="E224"/>
+      <c r="F224" s="9"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="9"/>
+      <c r="I224"/>
+      <c r="J224" s="9"/>
+      <c r="K224" s="31"/>
+      <c r="L224" s="9"/>
+    </row>
+    <row r="225" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B225" s="12"/>
+      <c r="C225" s="10"/>
+      <c r="D225"/>
+      <c r="E225"/>
+      <c r="F225" s="9"/>
+      <c r="G225" s="9"/>
+      <c r="H225" s="9"/>
+      <c r="I225"/>
+      <c r="J225" s="9"/>
+      <c r="K225" s="31"/>
+      <c r="L225" s="9"/>
+    </row>
+    <row r="226" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B226" s="12"/>
+      <c r="C226" s="10"/>
+      <c r="D226"/>
+      <c r="E226"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9"/>
+      <c r="H226" s="9"/>
+      <c r="I226"/>
+      <c r="J226" s="9"/>
+      <c r="K226" s="31"/>
+      <c r="L226" s="9"/>
+    </row>
+    <row r="227" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B227" s="12"/>
+      <c r="C227" s="10"/>
+      <c r="D227"/>
+      <c r="E227"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9"/>
+      <c r="H227" s="9"/>
+      <c r="I227"/>
+      <c r="J227" s="9"/>
+      <c r="K227" s="31"/>
+      <c r="L227" s="9"/>
+    </row>
+    <row r="228" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B228" s="12"/>
+      <c r="C228" s="10"/>
+      <c r="D228"/>
+      <c r="E228"/>
+      <c r="F228" s="9"/>
+      <c r="G228" s="9"/>
+      <c r="H228" s="9"/>
+      <c r="I228"/>
+      <c r="J228" s="9"/>
+      <c r="K228" s="31"/>
+      <c r="L228" s="9"/>
+    </row>
+    <row r="229" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B229" s="12"/>
+      <c r="C229" s="10"/>
+      <c r="D229"/>
+      <c r="E229"/>
+      <c r="F229" s="9"/>
+      <c r="G229" s="9"/>
+      <c r="H229" s="9"/>
+      <c r="I229"/>
+      <c r="J229" s="9"/>
+      <c r="K229" s="31"/>
+      <c r="L229" s="9"/>
+    </row>
+    <row r="230" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B230" s="12"/>
+      <c r="C230" s="10"/>
+      <c r="D230"/>
+      <c r="E230"/>
+      <c r="F230" s="9"/>
+      <c r="G230" s="9"/>
+      <c r="H230" s="9"/>
+      <c r="I230"/>
+      <c r="J230" s="9"/>
+      <c r="K230" s="31"/>
+      <c r="L230" s="9"/>
+    </row>
+    <row r="231" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B231" s="12"/>
+      <c r="C231" s="10"/>
+      <c r="D231"/>
+      <c r="E231"/>
+      <c r="F231" s="9"/>
+      <c r="G231" s="9"/>
+      <c r="H231" s="9"/>
+      <c r="I231"/>
+      <c r="J231" s="9"/>
+      <c r="K231" s="31"/>
+      <c r="L231" s="9"/>
+    </row>
+    <row r="232" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B232" s="12"/>
+      <c r="C232" s="10"/>
+      <c r="D232"/>
+      <c r="E232"/>
+      <c r="F232" s="9"/>
+      <c r="G232" s="9"/>
+      <c r="H232" s="9"/>
+      <c r="I232"/>
+      <c r="J232" s="9"/>
+      <c r="K232" s="31"/>
+      <c r="L232" s="9"/>
+    </row>
+    <row r="233" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B233" s="12"/>
+      <c r="C233" s="10"/>
+      <c r="D233"/>
+      <c r="E233"/>
+      <c r="F233" s="9"/>
+      <c r="G233" s="9"/>
+      <c r="H233" s="9"/>
+      <c r="I233"/>
+      <c r="J233" s="9"/>
+      <c r="K233" s="31"/>
+      <c r="L233" s="9"/>
+    </row>
+    <row r="234" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B234" s="12"/>
+      <c r="C234" s="10"/>
+      <c r="D234"/>
+      <c r="E234"/>
+      <c r="F234" s="9"/>
+      <c r="G234" s="9"/>
+      <c r="H234" s="9"/>
+      <c r="I234"/>
+      <c r="J234" s="9"/>
+      <c r="K234" s="31"/>
+      <c r="L234" s="9"/>
+    </row>
+    <row r="235" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B235" s="12"/>
+      <c r="C235" s="10"/>
+      <c r="D235"/>
+      <c r="E235"/>
+      <c r="F235" s="9"/>
+      <c r="G235" s="9"/>
+      <c r="H235" s="9"/>
+      <c r="I235"/>
+      <c r="J235" s="9"/>
+      <c r="K235" s="31"/>
+      <c r="L235" s="9"/>
+    </row>
+    <row r="236" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B236" s="12"/>
+      <c r="C236" s="10"/>
+      <c r="D236"/>
+      <c r="E236"/>
+      <c r="F236" s="9"/>
+      <c r="G236" s="9"/>
+      <c r="H236" s="9"/>
+      <c r="I236"/>
+      <c r="J236" s="9"/>
+      <c r="K236" s="31"/>
+      <c r="L236" s="9"/>
+    </row>
+    <row r="237" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B237" s="12"/>
+      <c r="C237" s="10"/>
+      <c r="D237"/>
+      <c r="E237"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="9"/>
+      <c r="I237"/>
+      <c r="J237" s="9"/>
+      <c r="K237" s="31"/>
+      <c r="L237" s="9"/>
+    </row>
+    <row r="238" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B238" s="12"/>
+      <c r="C238" s="10"/>
+      <c r="D238"/>
+      <c r="E238"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="9"/>
+      <c r="I238"/>
+      <c r="J238" s="9"/>
+      <c r="K238" s="31"/>
+      <c r="L238" s="9"/>
+    </row>
+    <row r="239" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B239" s="12"/>
+      <c r="C239" s="10"/>
+      <c r="D239"/>
+      <c r="E239"/>
+      <c r="F239" s="9"/>
+      <c r="G239" s="9"/>
+      <c r="H239" s="9"/>
+      <c r="I239"/>
+      <c r="J239" s="9"/>
+      <c r="K239" s="31"/>
+      <c r="L239" s="9"/>
+    </row>
+    <row r="240" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B240" s="12"/>
+      <c r="C240" s="10"/>
+      <c r="D240"/>
+      <c r="E240"/>
+      <c r="F240" s="9"/>
+      <c r="G240" s="9"/>
+      <c r="H240" s="9"/>
+      <c r="I240"/>
+      <c r="J240" s="9"/>
+      <c r="K240" s="31"/>
+      <c r="L240" s="9"/>
+    </row>
+    <row r="241" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B241" s="12"/>
+      <c r="C241" s="10"/>
+      <c r="D241"/>
+      <c r="E241"/>
+      <c r="F241" s="9"/>
+      <c r="G241" s="9"/>
+      <c r="H241" s="9"/>
+      <c r="I241"/>
+      <c r="J241" s="9"/>
+      <c r="K241" s="31"/>
+      <c r="L241" s="9"/>
+    </row>
+    <row r="242" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B242" s="12"/>
+      <c r="C242" s="10"/>
+      <c r="D242"/>
+      <c r="E242"/>
+      <c r="F242" s="9"/>
+      <c r="G242" s="9"/>
+      <c r="H242" s="9"/>
+      <c r="I242"/>
+      <c r="J242" s="9"/>
+      <c r="K242" s="31"/>
+      <c r="L242" s="9"/>
+    </row>
+    <row r="243" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B243" s="12"/>
+      <c r="C243" s="10"/>
+      <c r="D243"/>
+      <c r="E243"/>
+      <c r="F243" s="9"/>
+      <c r="G243" s="9"/>
+      <c r="H243" s="9"/>
+      <c r="I243"/>
+      <c r="J243" s="9"/>
+      <c r="K243" s="31"/>
+      <c r="L243" s="9"/>
+    </row>
+    <row r="244" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B244" s="12"/>
+      <c r="C244" s="10"/>
+      <c r="D244"/>
+      <c r="E244"/>
+      <c r="F244" s="9"/>
+      <c r="G244" s="9"/>
+      <c r="H244" s="9"/>
+      <c r="I244"/>
+      <c r="J244" s="9"/>
+      <c r="K244" s="31"/>
+      <c r="L244" s="9"/>
+    </row>
+    <row r="245" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B245" s="12"/>
+      <c r="C245" s="10"/>
+      <c r="D245"/>
+      <c r="E245"/>
+      <c r="F245" s="9"/>
+      <c r="G245" s="9"/>
+      <c r="H245" s="9"/>
+      <c r="I245"/>
+      <c r="J245" s="9"/>
+      <c r="K245" s="31"/>
+      <c r="L245" s="9"/>
+    </row>
+    <row r="246" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B246" s="12"/>
+      <c r="C246" s="10"/>
+      <c r="D246"/>
+      <c r="E246"/>
+      <c r="F246" s="9"/>
+      <c r="G246" s="9"/>
+      <c r="H246" s="9"/>
+      <c r="I246"/>
+      <c r="J246" s="9"/>
+      <c r="K246" s="31"/>
+      <c r="L246" s="9"/>
+    </row>
+    <row r="247" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B247" s="12"/>
+      <c r="C247" s="10"/>
+      <c r="D247"/>
+      <c r="E247"/>
+      <c r="F247" s="9"/>
+      <c r="G247" s="9"/>
+      <c r="H247" s="9"/>
+      <c r="I247"/>
+      <c r="J247" s="9"/>
+      <c r="K247" s="31"/>
+      <c r="L247" s="9"/>
+    </row>
+    <row r="248" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B248" s="12"/>
+      <c r="C248" s="10"/>
+      <c r="D248"/>
+      <c r="E248"/>
+      <c r="F248" s="9"/>
+      <c r="G248" s="9"/>
+      <c r="H248" s="9"/>
+      <c r="I248"/>
+      <c r="J248" s="9"/>
+      <c r="K248" s="31"/>
+      <c r="L248" s="9"/>
+    </row>
+    <row r="249" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B249" s="12"/>
+      <c r="C249" s="10"/>
+      <c r="D249"/>
+      <c r="E249"/>
+      <c r="F249" s="9"/>
+      <c r="G249" s="9"/>
+      <c r="H249" s="9"/>
+      <c r="I249"/>
+      <c r="J249" s="9"/>
+      <c r="K249" s="31"/>
+      <c r="L249" s="9"/>
+    </row>
+    <row r="250" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B250" s="12"/>
+      <c r="C250" s="10"/>
+      <c r="D250"/>
+      <c r="E250"/>
+      <c r="F250" s="9"/>
+      <c r="G250" s="9"/>
+      <c r="H250" s="9"/>
+      <c r="I250"/>
+      <c r="J250" s="9"/>
+      <c r="K250" s="31"/>
+      <c r="L250" s="9"/>
+    </row>
+    <row r="251" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B251" s="12"/>
+      <c r="C251" s="10"/>
+      <c r="D251"/>
+      <c r="E251"/>
+      <c r="F251" s="9"/>
+      <c r="G251" s="9"/>
+      <c r="H251" s="9"/>
+      <c r="I251"/>
+      <c r="J251" s="9"/>
+      <c r="K251" s="31"/>
+      <c r="L251" s="9"/>
+    </row>
+    <row r="252" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B252" s="12"/>
+      <c r="C252" s="10"/>
+      <c r="D252" s="13"/>
+      <c r="E252" s="13"/>
+      <c r="F252" s="25"/>
+      <c r="G252" s="9"/>
+      <c r="H252" s="9"/>
+      <c r="I252" s="13"/>
+      <c r="J252" s="9"/>
+      <c r="K252" s="13"/>
+      <c r="L252" s="9"/>
+    </row>
+    <row r="253" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B253" s="12"/>
+      <c r="C253" s="10"/>
+      <c r="D253" s="13"/>
+      <c r="E253" s="13"/>
+      <c r="F253" s="25"/>
+      <c r="G253" s="9"/>
+      <c r="H253" s="9"/>
+      <c r="I253" s="13"/>
+      <c r="J253" s="9"/>
+      <c r="K253" s="13"/>
+      <c r="L253" s="9"/>
+    </row>
+    <row r="254" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B254" s="12"/>
+      <c r="C254" s="10"/>
+      <c r="D254" s="13"/>
+      <c r="E254" s="13"/>
+      <c r="F254" s="25"/>
+      <c r="G254" s="9"/>
+      <c r="H254" s="9"/>
+      <c r="I254" s="13"/>
+      <c r="J254" s="9"/>
+      <c r="K254" s="13"/>
+      <c r="L254" s="9"/>
+    </row>
+    <row r="255" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B255" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C212" s="35"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="14"/>
-      <c r="F212" s="15"/>
-      <c r="G212" s="15">
-        <f>SUM(G3:G211)</f>
-        <v>196</v>
-      </c>
-      <c r="H212" s="15"/>
-      <c r="I212" s="15"/>
-      <c r="J212" s="9"/>
-      <c r="K212" s="21"/>
-      <c r="L212" s="9"/>
-    </row>
-    <row r="214" spans="2:12" ht="75" customHeight="1">
-      <c r="B214" s="36"/>
-      <c r="C214" s="37"/>
-      <c r="D214" s="37"/>
-      <c r="E214" s="37"/>
-      <c r="F214" s="37"/>
-      <c r="G214" s="37"/>
-      <c r="H214" s="37"/>
-      <c r="I214" s="37"/>
-      <c r="J214" s="38"/>
-      <c r="K214" s="22"/>
-      <c r="L214" s="23"/>
+      <c r="C255" s="35"/>
+      <c r="D255" s="14"/>
+      <c r="E255" s="14"/>
+      <c r="F255" s="15"/>
+      <c r="G255" s="15">
+        <f>SUM(G3:G254)</f>
+        <v>208</v>
+      </c>
+      <c r="H255" s="15"/>
+      <c r="I255" s="15"/>
+      <c r="J255" s="9"/>
+      <c r="K255" s="21"/>
+      <c r="L255" s="9"/>
+    </row>
+    <row r="257" spans="2:12" ht="75" customHeight="1">
+      <c r="B257" s="36"/>
+      <c r="C257" s="37"/>
+      <c r="D257" s="37"/>
+      <c r="E257" s="37"/>
+      <c r="F257" s="37"/>
+      <c r="G257" s="37"/>
+      <c r="H257" s="37"/>
+      <c r="I257" s="37"/>
+      <c r="J257" s="38"/>
+      <c r="K257" s="22"/>
+      <c r="L257" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L212"/>
+  <autoFilter ref="C2:L255"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B214:J214"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="B257:J257"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J212">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J255">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J211">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J254">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9308,9 +10190,20 @@
     <hyperlink ref="K196" r:id="rId100"/>
     <hyperlink ref="K197" r:id="rId101"/>
     <hyperlink ref="K198" r:id="rId102"/>
+    <hyperlink ref="K199" r:id="rId103"/>
+    <hyperlink ref="K200" r:id="rId104"/>
+    <hyperlink ref="K202" r:id="rId105"/>
+    <hyperlink ref="K203" r:id="rId106"/>
+    <hyperlink ref="K204" r:id="rId107"/>
+    <hyperlink ref="K205" r:id="rId108"/>
+    <hyperlink ref="K206" r:id="rId109"/>
+    <hyperlink ref="K207" r:id="rId110"/>
+    <hyperlink ref="K208" r:id="rId111"/>
+    <hyperlink ref="K209" r:id="rId112"/>
+    <hyperlink ref="K210" r:id="rId113"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId103"/>
-  <drawing r:id="rId104"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId114"/>
+  <drawing r:id="rId115"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$255</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$289</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="410">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1269,6 +1269,164 @@
   </si>
   <si>
     <t>https://xhbup.com/zhenyu/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>茂名市臻云互联网科技有限公司</t>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhenyun/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>汕头市隆禧贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/lxmy/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>张总</t>
+  </si>
+  <si>
+    <t>易联支付有限公司</t>
+  </si>
+  <si>
+    <t>pos机</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/ylzf5/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>高州市杰品百货有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/jiepin/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海烈焰化妆品有限公司</t>
+  </si>
+  <si>
+    <t>张瑞明</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/reyan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东四季君美美容有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/sjjm/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海市佳晶洁化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/jiajingj/</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/swksn/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>大排档</t>
+  </si>
+  <si>
+    <t>珠海市宝丽金化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/baolij/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三周</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/baolij/</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/kehong2/</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/jiajingj1/</t>
+  </si>
+  <si>
+    <t>云浮市乐锋化妆品经营有限公司</t>
+  </si>
+  <si>
+    <t>丰胸</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/lefeng1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳春市每天惠电子商务有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/meitianh2/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/hailunm1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/swksn/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/lieyan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅州市丝雨贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/siyu/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶关市武江区吉康福贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/jikangf/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>口红</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州名妆化妆品制造有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/mingzhuang/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/kehong2/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>因吹斯艇（广州）科技有限公司</t>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/ycst/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1601,7 +1759,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1698,6 +1856,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1734,14 +1907,6 @@
       <color rgb="FFA7E2FF"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1751,13 +1916,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>1574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2087,13 +2252,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q257"/>
+  <dimension ref="B1:T291"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F199" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F254" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C210" sqref="A210:XFD210"/>
+      <selection pane="bottomRight" activeCell="K263" sqref="K263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2118,24 +2283,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="16"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
+      <c r="N1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -8909,7 +9074,7 @@
         <v>26</v>
       </c>
       <c r="C195" s="10">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="D195" s="13" t="s">
         <v>39</v>
@@ -8944,7 +9109,7 @@
         <v>27</v>
       </c>
       <c r="C196" s="10">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="D196" t="s">
         <v>344</v>
@@ -8979,7 +9144,7 @@
         <v>28</v>
       </c>
       <c r="C197" s="10">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="D197" t="s">
         <v>30</v>
@@ -9014,7 +9179,7 @@
         <v>29</v>
       </c>
       <c r="C198" s="10">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="D198" t="s">
         <v>30</v>
@@ -9049,7 +9214,7 @@
         <v>29</v>
       </c>
       <c r="C199" s="10">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="D199" t="s">
         <v>30</v>
@@ -9084,7 +9249,7 @@
         <v>26</v>
       </c>
       <c r="C200" s="10">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="D200" s="13" t="s">
         <v>39</v>
@@ -9119,7 +9284,7 @@
         <v>6</v>
       </c>
       <c r="C201" s="10">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="D201" s="13" t="s">
         <v>47</v>
@@ -9154,7 +9319,7 @@
         <v>6</v>
       </c>
       <c r="C202" s="10">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="D202" t="s">
         <v>30</v>
@@ -9189,7 +9354,7 @@
         <v>6</v>
       </c>
       <c r="C203" s="10">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="D203" t="s">
         <v>30</v>
@@ -9224,7 +9389,7 @@
         <v>6</v>
       </c>
       <c r="C204" s="10">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="D204" t="s">
         <v>30</v>
@@ -9259,7 +9424,7 @@
         <v>8</v>
       </c>
       <c r="C205" s="10">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="D205" t="s">
         <v>30</v>
@@ -9294,7 +9459,7 @@
         <v>8</v>
       </c>
       <c r="C206" s="10">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="D206" t="s">
         <v>30</v>
@@ -9329,7 +9494,7 @@
         <v>8</v>
       </c>
       <c r="C207" s="10">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="D207" t="s">
         <v>290</v>
@@ -9364,7 +9529,7 @@
         <v>27</v>
       </c>
       <c r="C208" s="10">
-        <v>43598</v>
+        <v>43600</v>
       </c>
       <c r="D208" t="s">
         <v>30</v>
@@ -9399,7 +9564,7 @@
         <v>27</v>
       </c>
       <c r="C209" s="10">
-        <v>43598</v>
+        <v>43600</v>
       </c>
       <c r="D209" t="s">
         <v>30</v>
@@ -9434,7 +9599,7 @@
         <v>27</v>
       </c>
       <c r="C210" s="10">
-        <v>43594</v>
+        <v>43600</v>
       </c>
       <c r="D210" s="13" t="s">
         <v>30</v>
@@ -9465,385 +9630,1025 @@
       </c>
     </row>
     <row r="211" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B211" s="12"/>
-      <c r="C211" s="10"/>
-      <c r="D211"/>
-      <c r="E211"/>
-      <c r="F211" s="9"/>
-      <c r="G211" s="9"/>
-      <c r="H211" s="9"/>
-      <c r="I211"/>
-      <c r="J211" s="9"/>
-      <c r="K211" s="31"/>
-      <c r="L211" s="9"/>
+      <c r="B211" s="9">
+        <v>5</v>
+      </c>
+      <c r="C211" s="10">
+        <v>43600</v>
+      </c>
+      <c r="D211" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E211" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F211" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G211" s="9">
+        <v>1</v>
+      </c>
+      <c r="H211" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I211" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J211" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K211" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L211" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="212" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B212" s="12"/>
-      <c r="C212" s="10"/>
-      <c r="D212"/>
-      <c r="E212"/>
-      <c r="F212" s="9"/>
-      <c r="G212" s="9"/>
-      <c r="H212" s="9"/>
-      <c r="I212"/>
-      <c r="J212" s="9"/>
-      <c r="K212" s="31"/>
-      <c r="L212" s="9"/>
+      <c r="B212" s="9">
+        <v>10</v>
+      </c>
+      <c r="C212" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D212" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E212" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F212" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G212" s="9">
+        <v>1</v>
+      </c>
+      <c r="H212" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I212" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J212" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K212" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L212" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="213" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B213" s="12"/>
-      <c r="C213" s="10"/>
-      <c r="D213"/>
-      <c r="E213"/>
-      <c r="F213" s="9"/>
-      <c r="G213" s="9"/>
-      <c r="H213" s="9"/>
-      <c r="I213"/>
-      <c r="J213" s="9"/>
-      <c r="K213" s="31"/>
-      <c r="L213" s="9"/>
+      <c r="B213" s="9">
+        <v>11</v>
+      </c>
+      <c r="C213" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D213" t="s">
+        <v>365</v>
+      </c>
+      <c r="E213" t="s">
+        <v>365</v>
+      </c>
+      <c r="F213" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="G213" s="9">
+        <v>1</v>
+      </c>
+      <c r="H213" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I213" t="s">
+        <v>18</v>
+      </c>
+      <c r="J213" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K213" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="L213" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="214" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B214" s="12"/>
-      <c r="C214" s="10"/>
-      <c r="D214"/>
-      <c r="E214"/>
-      <c r="F214" s="9"/>
-      <c r="G214" s="9"/>
-      <c r="H214" s="9"/>
-      <c r="I214"/>
-      <c r="J214" s="9"/>
-      <c r="K214" s="31"/>
-      <c r="L214" s="9"/>
+      <c r="B214" s="9">
+        <v>25</v>
+      </c>
+      <c r="C214" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D214" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E214" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F214" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G214" s="9">
+        <v>1</v>
+      </c>
+      <c r="H214" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I214" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J214" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K214" t="s">
+        <v>51</v>
+      </c>
+      <c r="L214" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="215" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B215" s="12"/>
-      <c r="C215" s="10"/>
-      <c r="D215"/>
-      <c r="E215"/>
-      <c r="F215" s="9"/>
-      <c r="G215" s="9"/>
-      <c r="H215" s="9"/>
-      <c r="I215"/>
-      <c r="J215" s="9"/>
-      <c r="K215" s="31"/>
-      <c r="L215" s="9"/>
+      <c r="B215" s="9">
+        <v>26</v>
+      </c>
+      <c r="C215" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D215" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E215" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F215" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G215" s="9">
+        <v>1</v>
+      </c>
+      <c r="H215" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I215" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J215" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K215" t="s">
+        <v>235</v>
+      </c>
+      <c r="L215" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="216" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B216" s="12"/>
-      <c r="C216" s="10"/>
-      <c r="D216"/>
-      <c r="E216"/>
-      <c r="F216" s="9"/>
-      <c r="G216" s="9"/>
-      <c r="H216" s="9"/>
-      <c r="I216"/>
-      <c r="J216" s="9"/>
-      <c r="K216" s="31"/>
-      <c r="L216" s="9"/>
+      <c r="B216" s="9">
+        <v>26</v>
+      </c>
+      <c r="C216" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D216" t="s">
+        <v>317</v>
+      </c>
+      <c r="E216" t="s">
+        <v>324</v>
+      </c>
+      <c r="F216" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G216" s="9">
+        <v>1</v>
+      </c>
+      <c r="H216" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I216" t="s">
+        <v>26</v>
+      </c>
+      <c r="J216" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K216" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="L216" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="217" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B217" s="12"/>
-      <c r="C217" s="10"/>
-      <c r="D217"/>
-      <c r="E217"/>
-      <c r="F217" s="9"/>
-      <c r="G217" s="9"/>
-      <c r="H217" s="9"/>
-      <c r="I217"/>
-      <c r="J217" s="9"/>
-      <c r="K217" s="31"/>
-      <c r="L217" s="9"/>
+      <c r="B217" s="9">
+        <v>5</v>
+      </c>
+      <c r="C217" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D217" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E217" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F217" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G217" s="9">
+        <v>1</v>
+      </c>
+      <c r="H217" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I217" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J217" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K217" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L217" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="218" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B218" s="12"/>
-      <c r="C218" s="10"/>
-      <c r="D218"/>
-      <c r="E218"/>
-      <c r="F218" s="9"/>
-      <c r="G218" s="9"/>
-      <c r="H218" s="9"/>
-      <c r="I218"/>
-      <c r="J218" s="9"/>
-      <c r="K218" s="31"/>
-      <c r="L218" s="9"/>
+      <c r="B218" s="9">
+        <v>25</v>
+      </c>
+      <c r="C218" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D218" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E218" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F218" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G218" s="9">
+        <v>1</v>
+      </c>
+      <c r="H218" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I218" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J218" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K218" t="s">
+        <v>51</v>
+      </c>
+      <c r="L218" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="219" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B219" s="12"/>
-      <c r="C219" s="10"/>
-      <c r="D219"/>
-      <c r="E219"/>
-      <c r="F219" s="9"/>
-      <c r="G219" s="9"/>
-      <c r="H219" s="9"/>
-      <c r="I219"/>
-      <c r="J219" s="9"/>
-      <c r="K219" s="31"/>
-      <c r="L219" s="9"/>
+      <c r="B219" s="9">
+        <v>25</v>
+      </c>
+      <c r="C219" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D219" t="s">
+        <v>31</v>
+      </c>
+      <c r="E219" t="s">
+        <v>368</v>
+      </c>
+      <c r="F219" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G219" s="9">
+        <v>1</v>
+      </c>
+      <c r="H219" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I219" t="s">
+        <v>87</v>
+      </c>
+      <c r="J219" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K219" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="L219" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="220" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B220" s="12"/>
-      <c r="C220" s="10"/>
-      <c r="D220"/>
-      <c r="E220"/>
-      <c r="F220" s="9"/>
-      <c r="G220" s="9"/>
-      <c r="H220" s="9"/>
-      <c r="I220"/>
-      <c r="J220" s="9"/>
-      <c r="K220" s="31"/>
-      <c r="L220" s="9"/>
+      <c r="B220" s="9">
+        <v>25</v>
+      </c>
+      <c r="C220" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D220" t="s">
+        <v>370</v>
+      </c>
+      <c r="E220" t="s">
+        <v>371</v>
+      </c>
+      <c r="F220" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="G220" s="9">
+        <v>1</v>
+      </c>
+      <c r="H220" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I220" t="s">
+        <v>26</v>
+      </c>
+      <c r="J220" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K220" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="L220" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="221" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B221" s="12"/>
-      <c r="C221" s="10"/>
-      <c r="D221"/>
-      <c r="E221"/>
-      <c r="F221" s="9"/>
-      <c r="G221" s="9"/>
-      <c r="H221" s="9"/>
-      <c r="I221"/>
-      <c r="J221" s="9"/>
-      <c r="K221" s="31"/>
-      <c r="L221" s="9"/>
+      <c r="B221" s="9">
+        <v>28</v>
+      </c>
+      <c r="C221" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D221" t="s">
+        <v>30</v>
+      </c>
+      <c r="E221" t="s">
+        <v>298</v>
+      </c>
+      <c r="F221" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G221" s="9">
+        <v>1</v>
+      </c>
+      <c r="H221" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I221" t="s">
+        <v>98</v>
+      </c>
+      <c r="J221" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K221" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="L221" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="222" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B222" s="12"/>
-      <c r="C222" s="10"/>
-      <c r="D222"/>
-      <c r="E222"/>
-      <c r="F222" s="9"/>
-      <c r="G222" s="9"/>
-      <c r="H222" s="9"/>
-      <c r="I222"/>
-      <c r="J222" s="9"/>
-      <c r="K222" s="31"/>
-      <c r="L222" s="9"/>
+      <c r="B222" s="9">
+        <v>28</v>
+      </c>
+      <c r="C222" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D222" t="s">
+        <v>30</v>
+      </c>
+      <c r="E222" t="s">
+        <v>374</v>
+      </c>
+      <c r="F222" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G222" s="9">
+        <v>1</v>
+      </c>
+      <c r="H222" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I222" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J222" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K222" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="L222" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="223" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B223" s="12"/>
-      <c r="C223" s="10"/>
-      <c r="D223"/>
-      <c r="E223"/>
-      <c r="F223" s="9"/>
-      <c r="G223" s="9"/>
-      <c r="H223" s="9"/>
-      <c r="I223"/>
-      <c r="J223" s="9"/>
-      <c r="K223" s="31"/>
-      <c r="L223" s="9"/>
+      <c r="B223" s="9">
+        <v>28</v>
+      </c>
+      <c r="C223" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D223" t="s">
+        <v>376</v>
+      </c>
+      <c r="E223" t="s">
+        <v>376</v>
+      </c>
+      <c r="F223" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G223" s="9">
+        <v>1</v>
+      </c>
+      <c r="H223" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I223" t="s">
+        <v>377</v>
+      </c>
+      <c r="J223" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K223" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="L223" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="224" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B224" s="12"/>
-      <c r="C224" s="10"/>
-      <c r="D224"/>
-      <c r="E224"/>
-      <c r="F224" s="9"/>
-      <c r="G224" s="9"/>
-      <c r="H224" s="9"/>
-      <c r="I224"/>
-      <c r="J224" s="9"/>
-      <c r="K224" s="31"/>
-      <c r="L224" s="9"/>
+      <c r="B224" s="9">
+        <v>28</v>
+      </c>
+      <c r="C224" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D224" t="s">
+        <v>379</v>
+      </c>
+      <c r="E224" t="s">
+        <v>379</v>
+      </c>
+      <c r="F224" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G224" s="9">
+        <v>1</v>
+      </c>
+      <c r="H224" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I224" t="s">
+        <v>18</v>
+      </c>
+      <c r="J224" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K224" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="L224" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="225" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B225" s="12"/>
-      <c r="C225" s="10"/>
-      <c r="D225"/>
-      <c r="E225"/>
-      <c r="F225" s="9"/>
-      <c r="G225" s="9"/>
-      <c r="H225" s="9"/>
-      <c r="I225"/>
-      <c r="J225" s="9"/>
-      <c r="K225" s="31"/>
-      <c r="L225" s="9"/>
+      <c r="B225" s="9">
+        <v>11</v>
+      </c>
+      <c r="C225" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D225" t="s">
+        <v>278</v>
+      </c>
+      <c r="E225" t="s">
+        <v>279</v>
+      </c>
+      <c r="F225" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G225" s="9">
+        <v>1</v>
+      </c>
+      <c r="H225" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I225" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J225" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K225" t="s">
+        <v>280</v>
+      </c>
+      <c r="L225" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="226" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B226" s="12"/>
-      <c r="C226" s="10"/>
-      <c r="D226"/>
-      <c r="E226"/>
-      <c r="F226" s="9"/>
-      <c r="G226" s="9"/>
-      <c r="H226" s="9"/>
-      <c r="I226"/>
-      <c r="J226" s="9"/>
-      <c r="K226" s="31"/>
-      <c r="L226" s="9"/>
+      <c r="B226" s="9">
+        <v>28</v>
+      </c>
+      <c r="C226" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D226" t="s">
+        <v>376</v>
+      </c>
+      <c r="E226" t="s">
+        <v>376</v>
+      </c>
+      <c r="F226" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G226" s="9">
+        <v>1</v>
+      </c>
+      <c r="H226" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I226" t="s">
+        <v>377</v>
+      </c>
+      <c r="J226" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K226" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="L226" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="227" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B227" s="12"/>
-      <c r="C227" s="10"/>
-      <c r="D227"/>
-      <c r="E227"/>
-      <c r="F227" s="9"/>
-      <c r="G227" s="9"/>
-      <c r="H227" s="9"/>
-      <c r="I227"/>
-      <c r="J227" s="9"/>
-      <c r="K227" s="31"/>
-      <c r="L227" s="9"/>
+      <c r="B227" s="9">
+        <v>11</v>
+      </c>
+      <c r="C227" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D227" t="s">
+        <v>278</v>
+      </c>
+      <c r="E227" t="s">
+        <v>279</v>
+      </c>
+      <c r="F227" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G227" s="9">
+        <v>1</v>
+      </c>
+      <c r="H227" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I227" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J227" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K227" t="s">
+        <v>280</v>
+      </c>
+      <c r="L227" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="228" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B228" s="12"/>
-      <c r="C228" s="10"/>
-      <c r="D228"/>
-      <c r="E228"/>
-      <c r="F228" s="9"/>
-      <c r="G228" s="9"/>
-      <c r="H228" s="9"/>
-      <c r="I228"/>
-      <c r="J228" s="9"/>
-      <c r="K228" s="31"/>
-      <c r="L228" s="9"/>
+      <c r="B228" s="9">
+        <v>28</v>
+      </c>
+      <c r="C228" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D228" t="s">
+        <v>30</v>
+      </c>
+      <c r="E228" t="s">
+        <v>374</v>
+      </c>
+      <c r="F228" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G228" s="9">
+        <v>1</v>
+      </c>
+      <c r="H228" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I228" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J228" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K228" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="L228" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="229" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B229" s="12"/>
-      <c r="C229" s="10"/>
-      <c r="D229"/>
-      <c r="E229"/>
-      <c r="F229" s="9"/>
-      <c r="G229" s="9"/>
-      <c r="H229" s="9"/>
-      <c r="I229"/>
-      <c r="J229" s="9"/>
-      <c r="K229" s="31"/>
-      <c r="L229" s="9"/>
+      <c r="B229" s="9">
+        <v>26</v>
+      </c>
+      <c r="C229" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D229" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E229" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F229" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G229" s="9">
+        <v>1</v>
+      </c>
+      <c r="H229" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I229" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J229" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K229" t="s">
+        <v>235</v>
+      </c>
+      <c r="L229" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="230" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B230" s="12"/>
-      <c r="C230" s="10"/>
-      <c r="D230"/>
-      <c r="E230"/>
-      <c r="F230" s="9"/>
-      <c r="G230" s="9"/>
-      <c r="H230" s="9"/>
-      <c r="I230"/>
-      <c r="J230" s="9"/>
-      <c r="K230" s="31"/>
-      <c r="L230" s="9"/>
+      <c r="B230" s="9">
+        <v>10</v>
+      </c>
+      <c r="C230" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D230" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E230" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F230" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G230" s="9">
+        <v>1</v>
+      </c>
+      <c r="H230" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I230" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J230" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K230" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L230" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="231" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B231" s="12"/>
-      <c r="C231" s="10"/>
-      <c r="D231"/>
-      <c r="E231"/>
-      <c r="F231" s="9"/>
-      <c r="G231" s="9"/>
-      <c r="H231" s="9"/>
-      <c r="I231"/>
-      <c r="J231" s="9"/>
-      <c r="K231" s="31"/>
-      <c r="L231" s="9"/>
+      <c r="B231" s="9">
+        <v>10</v>
+      </c>
+      <c r="C231" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D231" t="s">
+        <v>381</v>
+      </c>
+      <c r="E231" t="s">
+        <v>381</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G231" s="9">
+        <v>1</v>
+      </c>
+      <c r="H231" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I231" t="s">
+        <v>18</v>
+      </c>
+      <c r="J231" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K231" t="s">
+        <v>382</v>
+      </c>
+      <c r="L231" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="232" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B232" s="12"/>
-      <c r="C232" s="10"/>
-      <c r="D232"/>
-      <c r="E232"/>
-      <c r="F232" s="9"/>
-      <c r="G232" s="9"/>
-      <c r="H232" s="9"/>
-      <c r="I232"/>
-      <c r="J232" s="9"/>
-      <c r="K232" s="31"/>
-      <c r="L232" s="9"/>
+      <c r="B232" s="9">
+        <v>25</v>
+      </c>
+      <c r="C232" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D232" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E232" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F232" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G232" s="9">
+        <v>1</v>
+      </c>
+      <c r="H232" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I232" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J232" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K232" t="s">
+        <v>51</v>
+      </c>
+      <c r="L232" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="233" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B233" s="12"/>
-      <c r="C233" s="10"/>
-      <c r="D233"/>
-      <c r="E233"/>
-      <c r="F233" s="9"/>
-      <c r="G233" s="9"/>
-      <c r="H233" s="9"/>
-      <c r="I233"/>
-      <c r="J233" s="9"/>
-      <c r="K233" s="31"/>
-      <c r="L233" s="9"/>
+      <c r="B233" s="9">
+        <v>5</v>
+      </c>
+      <c r="C233" s="10">
+        <v>43601</v>
+      </c>
+      <c r="D233" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E233" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F233" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G233" s="9">
+        <v>1</v>
+      </c>
+      <c r="H233" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I233" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J233" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K233" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L233" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="234" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B234" s="12"/>
-      <c r="C234" s="10"/>
-      <c r="D234"/>
-      <c r="E234"/>
-      <c r="F234" s="9"/>
-      <c r="G234" s="9"/>
-      <c r="H234" s="9"/>
-      <c r="I234"/>
-      <c r="J234" s="9"/>
-      <c r="K234" s="31"/>
-      <c r="L234" s="9"/>
+      <c r="B234" s="9">
+        <v>26</v>
+      </c>
+      <c r="C234" s="10">
+        <v>43602</v>
+      </c>
+      <c r="D234" t="s">
+        <v>317</v>
+      </c>
+      <c r="E234" t="s">
+        <v>324</v>
+      </c>
+      <c r="F234" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G234" s="9">
+        <v>1</v>
+      </c>
+      <c r="H234" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I234" t="s">
+        <v>26</v>
+      </c>
+      <c r="J234" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K234" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="L234" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="235" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B235" s="12"/>
-      <c r="C235" s="10"/>
-      <c r="D235"/>
-      <c r="E235"/>
-      <c r="F235" s="9"/>
-      <c r="G235" s="9"/>
-      <c r="H235" s="9"/>
-      <c r="I235"/>
-      <c r="J235" s="9"/>
-      <c r="K235" s="31"/>
-      <c r="L235" s="9"/>
+      <c r="B235" s="9">
+        <v>25</v>
+      </c>
+      <c r="C235" s="10">
+        <v>43602</v>
+      </c>
+      <c r="D235" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E235" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F235" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G235" s="9">
+        <v>1</v>
+      </c>
+      <c r="H235" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I235" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J235" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K235" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="L235" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="236" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B236" s="12"/>
-      <c r="C236" s="10"/>
-      <c r="D236"/>
-      <c r="E236"/>
-      <c r="F236" s="9"/>
-      <c r="G236" s="9"/>
-      <c r="H236" s="9"/>
-      <c r="I236"/>
-      <c r="J236" s="9"/>
-      <c r="K236" s="31"/>
-      <c r="L236" s="9"/>
+      <c r="B236" s="9">
+        <v>5</v>
+      </c>
+      <c r="C236" s="10">
+        <v>43602</v>
+      </c>
+      <c r="D236" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E236" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F236" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G236" s="9">
+        <v>1</v>
+      </c>
+      <c r="H236" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I236" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J236" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K236" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L236" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="237" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B237" s="12"/>
-      <c r="C237" s="10"/>
-      <c r="D237"/>
-      <c r="E237"/>
-      <c r="F237" s="9"/>
-      <c r="G237" s="9"/>
-      <c r="H237" s="9"/>
-      <c r="I237"/>
-      <c r="J237" s="9"/>
-      <c r="K237" s="31"/>
-      <c r="L237" s="9"/>
+      <c r="B237" s="9">
+        <v>6</v>
+      </c>
+      <c r="C237" s="10">
+        <v>43602</v>
+      </c>
+      <c r="D237" t="s">
+        <v>30</v>
+      </c>
+      <c r="E237" t="s">
+        <v>352</v>
+      </c>
+      <c r="F237" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G237" s="9">
+        <v>1</v>
+      </c>
+      <c r="H237" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I237" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J237" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K237" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="L237" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="238" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B238" s="12"/>
-      <c r="C238" s="10"/>
-      <c r="D238"/>
-      <c r="E238"/>
-      <c r="F238" s="9"/>
-      <c r="G238" s="9"/>
-      <c r="H238" s="9"/>
-      <c r="I238"/>
-      <c r="J238" s="9"/>
-      <c r="K238" s="31"/>
-      <c r="L238" s="9"/>
+      <c r="B238" s="9">
+        <v>6</v>
+      </c>
+      <c r="C238" s="10">
+        <v>43602</v>
+      </c>
+      <c r="D238" t="s">
+        <v>384</v>
+      </c>
+      <c r="E238" t="s">
+        <v>385</v>
+      </c>
+      <c r="F238" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G238" s="9">
+        <v>1</v>
+      </c>
+      <c r="H238" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I238" t="s">
+        <v>23</v>
+      </c>
+      <c r="J238" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K238" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="L238" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="239" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B239" s="12"/>
-      <c r="C239" s="10"/>
-      <c r="D239"/>
-      <c r="E239"/>
-      <c r="F239" s="9"/>
-      <c r="G239" s="9"/>
-      <c r="H239" s="9"/>
-      <c r="I239"/>
-      <c r="J239" s="9"/>
-      <c r="K239" s="31"/>
-      <c r="L239" s="9"/>
+      <c r="B239" s="9">
+        <v>25</v>
+      </c>
+      <c r="C239" s="10">
+        <v>43602</v>
+      </c>
+      <c r="D239" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E239" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F239" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G239" s="9">
+        <v>1</v>
+      </c>
+      <c r="H239" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I239" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J239" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K239" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="L239" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="240" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B240" s="12"/>
-      <c r="C240" s="10"/>
+      <c r="C240" s="10" t="s">
+        <v>387</v>
+      </c>
       <c r="D240"/>
       <c r="E240"/>
       <c r="F240" s="9"/>
@@ -9855,235 +10660,1267 @@
       <c r="L240" s="9"/>
     </row>
     <row r="241" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B241" s="12"/>
-      <c r="C241" s="10"/>
-      <c r="D241"/>
-      <c r="E241"/>
-      <c r="F241" s="9"/>
-      <c r="G241" s="9"/>
-      <c r="H241" s="9"/>
-      <c r="I241"/>
-      <c r="J241" s="9"/>
-      <c r="K241" s="31"/>
-      <c r="L241" s="9"/>
+      <c r="B241" s="9">
+        <v>18</v>
+      </c>
+      <c r="C241" s="10">
+        <v>43602</v>
+      </c>
+      <c r="D241" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E241" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F241" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G241" s="9">
+        <v>1</v>
+      </c>
+      <c r="H241" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I241" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J241" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K241" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L241" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="242" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B242" s="12"/>
-      <c r="C242" s="10"/>
-      <c r="D242"/>
-      <c r="E242"/>
-      <c r="F242" s="9"/>
-      <c r="G242" s="9"/>
-      <c r="H242" s="9"/>
-      <c r="I242"/>
-      <c r="J242" s="9"/>
-      <c r="K242" s="31"/>
-      <c r="L242" s="9"/>
+      <c r="B242" s="9">
+        <v>25</v>
+      </c>
+      <c r="C242" s="10">
+        <v>43603</v>
+      </c>
+      <c r="D242" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E242" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F242" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G242" s="9">
+        <v>1</v>
+      </c>
+      <c r="H242" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I242" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J242" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K242" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="L242" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="243" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B243" s="12"/>
-      <c r="C243" s="10"/>
-      <c r="D243"/>
-      <c r="E243"/>
-      <c r="F243" s="9"/>
-      <c r="G243" s="9"/>
-      <c r="H243" s="9"/>
-      <c r="I243"/>
-      <c r="J243" s="9"/>
-      <c r="K243" s="31"/>
-      <c r="L243" s="9"/>
+      <c r="B243" s="9">
+        <v>25</v>
+      </c>
+      <c r="C243" s="10">
+        <v>43603</v>
+      </c>
+      <c r="D243" t="s">
+        <v>384</v>
+      </c>
+      <c r="E243" t="s">
+        <v>385</v>
+      </c>
+      <c r="F243" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G243" s="9">
+        <v>1</v>
+      </c>
+      <c r="H243" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I243" t="s">
+        <v>23</v>
+      </c>
+      <c r="J243" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K243" t="s">
+        <v>388</v>
+      </c>
+      <c r="L243" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="244" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B244" s="12"/>
-      <c r="C244" s="10"/>
-      <c r="D244"/>
-      <c r="E244"/>
-      <c r="F244" s="9"/>
-      <c r="G244" s="9"/>
-      <c r="H244" s="9"/>
-      <c r="I244"/>
-      <c r="J244" s="9"/>
-      <c r="K244" s="31"/>
-      <c r="L244" s="9"/>
+      <c r="B244" s="9">
+        <v>25</v>
+      </c>
+      <c r="C244" s="10">
+        <v>43603</v>
+      </c>
+      <c r="D244" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E244" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F244" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G244" s="9">
+        <v>1</v>
+      </c>
+      <c r="H244" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I244" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J244" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K244" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="L244" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="245" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B245" s="12"/>
-      <c r="C245" s="10"/>
-      <c r="D245"/>
-      <c r="E245"/>
-      <c r="F245" s="9"/>
-      <c r="G245" s="9"/>
-      <c r="H245" s="9"/>
-      <c r="I245"/>
-      <c r="J245" s="9"/>
-      <c r="K245" s="31"/>
-      <c r="L245" s="9"/>
+      <c r="B245" s="9">
+        <v>25</v>
+      </c>
+      <c r="C245" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D245" t="s">
+        <v>30</v>
+      </c>
+      <c r="E245" t="s">
+        <v>305</v>
+      </c>
+      <c r="F245" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G245" s="9">
+        <v>1</v>
+      </c>
+      <c r="H245" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I245" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J245" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K245" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="L245" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="246" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B246" s="12"/>
-      <c r="C246" s="10"/>
-      <c r="D246"/>
-      <c r="E246"/>
-      <c r="F246" s="9"/>
-      <c r="G246" s="9"/>
-      <c r="H246" s="9"/>
-      <c r="I246"/>
-      <c r="J246" s="9"/>
-      <c r="K246" s="31"/>
-      <c r="L246" s="9"/>
+      <c r="B246" s="9">
+        <v>25</v>
+      </c>
+      <c r="C246" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D246" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E246" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F246" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G246" s="9">
+        <v>1</v>
+      </c>
+      <c r="H246" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I246" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J246" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K246" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="L246" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="247" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B247" s="12"/>
-      <c r="C247" s="10"/>
-      <c r="D247"/>
-      <c r="E247"/>
-      <c r="F247" s="9"/>
-      <c r="G247" s="9"/>
-      <c r="H247" s="9"/>
-      <c r="I247"/>
-      <c r="J247" s="9"/>
-      <c r="K247" s="31"/>
-      <c r="L247" s="9"/>
+      <c r="B247" s="9">
+        <v>26</v>
+      </c>
+      <c r="C247" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D247" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E247" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F247" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G247" s="9">
+        <v>1</v>
+      </c>
+      <c r="H247" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I247" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J247" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K247" t="s">
+        <v>235</v>
+      </c>
+      <c r="L247" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="248" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B248" s="12"/>
-      <c r="C248" s="10"/>
-      <c r="D248"/>
-      <c r="E248"/>
-      <c r="F248" s="9"/>
-      <c r="G248" s="9"/>
-      <c r="H248" s="9"/>
-      <c r="I248"/>
-      <c r="J248" s="9"/>
-      <c r="K248" s="31"/>
-      <c r="L248" s="9"/>
+      <c r="B248" s="9">
+        <v>6</v>
+      </c>
+      <c r="C248" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D248" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E248" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F248" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G248" s="9">
+        <v>1</v>
+      </c>
+      <c r="H248" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I248" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J248" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K248" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L248" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="249" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B249" s="12"/>
-      <c r="C249" s="10"/>
-      <c r="D249"/>
-      <c r="E249"/>
-      <c r="F249" s="9"/>
-      <c r="G249" s="9"/>
-      <c r="H249" s="9"/>
-      <c r="I249"/>
-      <c r="J249" s="9"/>
-      <c r="K249" s="31"/>
-      <c r="L249" s="9"/>
+      <c r="B249" s="9">
+        <v>22</v>
+      </c>
+      <c r="C249" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D249" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E249" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F249" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G249" s="9">
+        <v>1</v>
+      </c>
+      <c r="H249" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I249" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J249" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K249" t="s">
+        <v>389</v>
+      </c>
+      <c r="L249" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="250" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B250" s="12"/>
-      <c r="C250" s="10"/>
-      <c r="D250"/>
-      <c r="E250"/>
-      <c r="F250" s="9"/>
-      <c r="G250" s="9"/>
-      <c r="H250" s="9"/>
-      <c r="I250"/>
-      <c r="J250" s="9"/>
-      <c r="K250" s="31"/>
-      <c r="L250" s="9"/>
+      <c r="B250" s="9">
+        <v>10</v>
+      </c>
+      <c r="C250" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D250" t="s">
+        <v>381</v>
+      </c>
+      <c r="E250" t="s">
+        <v>381</v>
+      </c>
+      <c r="F250" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G250" s="9">
+        <v>1</v>
+      </c>
+      <c r="H250" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I250" t="s">
+        <v>18</v>
+      </c>
+      <c r="J250" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K250" t="s">
+        <v>390</v>
+      </c>
+      <c r="L250" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="251" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B251" s="12"/>
-      <c r="C251" s="10"/>
-      <c r="D251"/>
-      <c r="E251"/>
-      <c r="F251" s="9"/>
-      <c r="G251" s="9"/>
-      <c r="H251" s="9"/>
-      <c r="I251"/>
-      <c r="J251" s="9"/>
-      <c r="K251" s="31"/>
-      <c r="L251" s="9"/>
-    </row>
-    <row r="252" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B252" s="12"/>
-      <c r="C252" s="10"/>
-      <c r="D252" s="13"/>
-      <c r="E252" s="13"/>
-      <c r="F252" s="25"/>
-      <c r="G252" s="9"/>
-      <c r="H252" s="9"/>
-      <c r="I252" s="13"/>
-      <c r="J252" s="9"/>
-      <c r="K252" s="13"/>
-      <c r="L252" s="9"/>
-    </row>
-    <row r="253" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B253" s="12"/>
-      <c r="C253" s="10"/>
-      <c r="D253" s="13"/>
-      <c r="E253" s="13"/>
-      <c r="F253" s="25"/>
-      <c r="G253" s="9"/>
-      <c r="H253" s="9"/>
-      <c r="I253" s="13"/>
-      <c r="J253" s="9"/>
-      <c r="K253" s="13"/>
-      <c r="L253" s="9"/>
-    </row>
-    <row r="254" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B254" s="12"/>
-      <c r="C254" s="10"/>
-      <c r="D254" s="13"/>
-      <c r="E254" s="13"/>
-      <c r="F254" s="25"/>
-      <c r="G254" s="9"/>
-      <c r="H254" s="9"/>
-      <c r="I254" s="13"/>
-      <c r="J254" s="9"/>
-      <c r="K254" s="13"/>
-      <c r="L254" s="9"/>
-    </row>
-    <row r="255" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B255" s="34" t="s">
+      <c r="B251" s="34">
+        <v>78</v>
+      </c>
+      <c r="C251" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D251" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E251" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="F251" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="G251" s="34">
+        <v>1</v>
+      </c>
+      <c r="H251" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I251" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J251" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K251" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="L251" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="252" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B252" s="34">
+        <v>25</v>
+      </c>
+      <c r="C252" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D252" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E252" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F252" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G252" s="34">
+        <v>1</v>
+      </c>
+      <c r="H252" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I252" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J252" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K252" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="L252" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B253" s="34">
+        <v>10</v>
+      </c>
+      <c r="C253" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D253" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E253" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F253" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G253" s="34">
+        <v>1</v>
+      </c>
+      <c r="H253" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I253" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J253" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K253" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L253" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B254" s="34">
+        <v>10</v>
+      </c>
+      <c r="C254" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D254" t="s">
+        <v>278</v>
+      </c>
+      <c r="E254" t="s">
+        <v>394</v>
+      </c>
+      <c r="F254" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G254" s="34">
+        <v>1</v>
+      </c>
+      <c r="H254" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I254" t="s">
+        <v>23</v>
+      </c>
+      <c r="J254" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K254" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="L254" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="255" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B255" s="34">
+        <v>10</v>
+      </c>
+      <c r="C255" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D255" t="s">
+        <v>30</v>
+      </c>
+      <c r="E255" t="s">
+        <v>331</v>
+      </c>
+      <c r="F255" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G255" s="34">
+        <v>1</v>
+      </c>
+      <c r="H255" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I255" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J255" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K255" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="L255" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="256" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B256" s="34">
+        <v>25</v>
+      </c>
+      <c r="C256" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D256" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E256" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F256" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G256" s="34">
+        <v>1</v>
+      </c>
+      <c r="H256" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I256" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J256" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K256" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="L256" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B257" s="34">
+        <v>28</v>
+      </c>
+      <c r="C257" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D257" t="s">
+        <v>376</v>
+      </c>
+      <c r="E257" t="s">
+        <v>376</v>
+      </c>
+      <c r="F257" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G257" s="34">
+        <v>1</v>
+      </c>
+      <c r="H257" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I257" t="s">
+        <v>377</v>
+      </c>
+      <c r="J257" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K257" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="L257" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B258" s="34">
+        <v>25</v>
+      </c>
+      <c r="C258" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D258" t="s">
+        <v>122</v>
+      </c>
+      <c r="E258" t="s">
+        <v>399</v>
+      </c>
+      <c r="F258" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G258" s="34">
+        <v>1</v>
+      </c>
+      <c r="H258" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I258" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J258" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K258" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="L258" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B259" s="34">
+        <v>25</v>
+      </c>
+      <c r="C259" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D259" t="s">
+        <v>30</v>
+      </c>
+      <c r="E259" t="s">
+        <v>401</v>
+      </c>
+      <c r="F259" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="G259" s="34">
+        <v>1</v>
+      </c>
+      <c r="H259" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I259" t="s">
+        <v>26</v>
+      </c>
+      <c r="J259" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K259" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="L259" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="260" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B260" s="34">
+        <v>25</v>
+      </c>
+      <c r="C260" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D260" t="s">
+        <v>30</v>
+      </c>
+      <c r="E260" t="s">
+        <v>404</v>
+      </c>
+      <c r="F260" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G260" s="34">
+        <v>1</v>
+      </c>
+      <c r="H260" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I260" t="s">
+        <v>26</v>
+      </c>
+      <c r="J260" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K260" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="L260" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B261" s="34">
+        <v>10</v>
+      </c>
+      <c r="C261" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D261" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E261" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F261" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G261" s="34">
+        <v>1</v>
+      </c>
+      <c r="H261" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I261" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J261" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K261" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L261" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="262" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B262" s="34">
+        <v>22</v>
+      </c>
+      <c r="C262" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D262" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E262" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="F262" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G262" s="34">
+        <v>1</v>
+      </c>
+      <c r="H262" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I262" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J262" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K262" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="L262" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B263" s="34">
+        <v>10</v>
+      </c>
+      <c r="C263" s="35">
+        <v>43603</v>
+      </c>
+      <c r="D263" t="s">
+        <v>30</v>
+      </c>
+      <c r="E263" t="s">
+        <v>407</v>
+      </c>
+      <c r="F263" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="G263" s="34">
+        <v>1</v>
+      </c>
+      <c r="H263" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I263" t="s">
+        <v>23</v>
+      </c>
+      <c r="J263" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K263" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="L263" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B264" s="12"/>
+      <c r="C264" s="10"/>
+      <c r="D264" s="13"/>
+      <c r="E264" s="13"/>
+      <c r="F264" s="9"/>
+      <c r="G264" s="9"/>
+      <c r="H264" s="9"/>
+      <c r="I264" s="13"/>
+      <c r="J264" s="9"/>
+      <c r="K264" s="29"/>
+      <c r="L264" s="9"/>
+    </row>
+    <row r="265" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B265" s="12"/>
+      <c r="C265" s="10"/>
+      <c r="D265" s="13"/>
+      <c r="E265" s="13"/>
+      <c r="F265" s="9"/>
+      <c r="G265" s="9"/>
+      <c r="H265" s="9"/>
+      <c r="I265" s="13"/>
+      <c r="J265" s="9"/>
+      <c r="K265" s="29"/>
+      <c r="L265" s="9"/>
+    </row>
+    <row r="266" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B266" s="12"/>
+      <c r="C266" s="10"/>
+      <c r="D266" s="13"/>
+      <c r="E266" s="13"/>
+      <c r="F266" s="9"/>
+      <c r="G266" s="9"/>
+      <c r="H266" s="9"/>
+      <c r="I266" s="13"/>
+      <c r="J266" s="9"/>
+      <c r="K266" s="29"/>
+      <c r="L266" s="9"/>
+    </row>
+    <row r="267" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B267" s="12"/>
+      <c r="C267" s="10"/>
+      <c r="D267" s="13"/>
+      <c r="E267" s="13"/>
+      <c r="F267" s="9"/>
+      <c r="G267" s="9"/>
+      <c r="H267" s="9"/>
+      <c r="I267" s="13"/>
+      <c r="J267" s="9"/>
+      <c r="K267" s="29"/>
+      <c r="L267" s="9"/>
+    </row>
+    <row r="268" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B268" s="12"/>
+      <c r="C268" s="10"/>
+      <c r="D268" s="13"/>
+      <c r="E268" s="13"/>
+      <c r="F268" s="9"/>
+      <c r="G268" s="9"/>
+      <c r="H268" s="9"/>
+      <c r="I268" s="13"/>
+      <c r="J268" s="9"/>
+      <c r="K268" s="29"/>
+      <c r="L268" s="9"/>
+    </row>
+    <row r="269" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B269" s="12"/>
+      <c r="C269" s="10"/>
+      <c r="D269" s="13"/>
+      <c r="E269" s="13"/>
+      <c r="F269" s="9"/>
+      <c r="G269" s="9"/>
+      <c r="H269" s="9"/>
+      <c r="I269" s="13"/>
+      <c r="J269" s="9"/>
+      <c r="K269" s="29"/>
+      <c r="L269" s="9"/>
+    </row>
+    <row r="270" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B270" s="12"/>
+      <c r="C270" s="10"/>
+      <c r="D270" s="13"/>
+      <c r="E270" s="13"/>
+      <c r="F270" s="9"/>
+      <c r="G270" s="9"/>
+      <c r="H270" s="9"/>
+      <c r="I270" s="13"/>
+      <c r="J270" s="9"/>
+      <c r="K270" s="29"/>
+      <c r="L270" s="9"/>
+    </row>
+    <row r="271" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B271" s="12"/>
+      <c r="C271" s="10"/>
+      <c r="D271" s="13"/>
+      <c r="E271" s="13"/>
+      <c r="F271" s="9"/>
+      <c r="G271" s="9"/>
+      <c r="H271" s="9"/>
+      <c r="I271" s="13"/>
+      <c r="J271" s="9"/>
+      <c r="K271" s="29"/>
+      <c r="L271" s="9"/>
+    </row>
+    <row r="272" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B272" s="12"/>
+      <c r="C272" s="10"/>
+      <c r="D272" s="13"/>
+      <c r="E272" s="13"/>
+      <c r="F272" s="9"/>
+      <c r="G272" s="9"/>
+      <c r="H272" s="9"/>
+      <c r="I272" s="13"/>
+      <c r="J272" s="9"/>
+      <c r="K272" s="29"/>
+      <c r="L272" s="9"/>
+    </row>
+    <row r="273" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B273" s="12"/>
+      <c r="C273" s="10"/>
+      <c r="D273" s="13"/>
+      <c r="E273" s="13"/>
+      <c r="F273" s="9"/>
+      <c r="G273" s="9"/>
+      <c r="H273" s="9"/>
+      <c r="I273" s="13"/>
+      <c r="J273" s="9"/>
+      <c r="K273" s="29"/>
+      <c r="L273" s="9"/>
+    </row>
+    <row r="274" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B274" s="12"/>
+      <c r="C274" s="10"/>
+      <c r="D274" s="13"/>
+      <c r="E274" s="13"/>
+      <c r="F274" s="9"/>
+      <c r="G274" s="9"/>
+      <c r="H274" s="9"/>
+      <c r="I274" s="13"/>
+      <c r="J274" s="9"/>
+      <c r="K274" s="29"/>
+      <c r="L274" s="9"/>
+    </row>
+    <row r="275" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B275" s="12"/>
+      <c r="C275" s="10"/>
+      <c r="D275" s="13"/>
+      <c r="E275" s="13"/>
+      <c r="F275" s="9"/>
+      <c r="G275" s="9"/>
+      <c r="H275" s="9"/>
+      <c r="I275" s="13"/>
+      <c r="J275" s="9"/>
+      <c r="K275" s="29"/>
+      <c r="L275" s="9"/>
+    </row>
+    <row r="276" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B276" s="12"/>
+      <c r="C276" s="10"/>
+      <c r="D276"/>
+      <c r="E276"/>
+      <c r="F276" s="9"/>
+      <c r="G276" s="9"/>
+      <c r="H276" s="9"/>
+      <c r="I276"/>
+      <c r="J276" s="9"/>
+      <c r="K276" s="31"/>
+      <c r="L276" s="9"/>
+    </row>
+    <row r="277" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B277" s="12"/>
+      <c r="C277" s="10"/>
+      <c r="D277"/>
+      <c r="E277"/>
+      <c r="F277" s="9"/>
+      <c r="G277" s="9"/>
+      <c r="H277" s="9"/>
+      <c r="I277"/>
+      <c r="J277" s="9"/>
+      <c r="K277" s="31"/>
+      <c r="L277" s="9"/>
+    </row>
+    <row r="278" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B278" s="12"/>
+      <c r="C278" s="10"/>
+      <c r="D278"/>
+      <c r="E278"/>
+      <c r="F278" s="9"/>
+      <c r="G278" s="9"/>
+      <c r="H278" s="9"/>
+      <c r="I278"/>
+      <c r="J278" s="9"/>
+      <c r="K278" s="31"/>
+      <c r="L278" s="9"/>
+      <c r="M278" s="3"/>
+      <c r="N278" s="3"/>
+      <c r="O278" s="3"/>
+      <c r="P278" s="3"/>
+      <c r="Q278" s="3"/>
+      <c r="R278" s="3"/>
+      <c r="S278" s="3"/>
+    </row>
+    <row r="279" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B279" s="12"/>
+      <c r="C279" s="10"/>
+      <c r="D279"/>
+      <c r="E279"/>
+      <c r="F279" s="9"/>
+      <c r="G279" s="9"/>
+      <c r="H279" s="9"/>
+      <c r="I279"/>
+      <c r="J279" s="9"/>
+      <c r="K279" s="31"/>
+      <c r="L279" s="9"/>
+      <c r="M279" s="3"/>
+      <c r="N279" s="3"/>
+      <c r="O279" s="3"/>
+      <c r="P279" s="3"/>
+      <c r="Q279" s="3"/>
+      <c r="R279" s="3"/>
+      <c r="S279" s="3"/>
+    </row>
+    <row r="280" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B280" s="12"/>
+      <c r="C280" s="10"/>
+      <c r="D280"/>
+      <c r="E280"/>
+      <c r="F280" s="9"/>
+      <c r="G280" s="9"/>
+      <c r="H280" s="9"/>
+      <c r="I280"/>
+      <c r="J280" s="9"/>
+      <c r="K280" s="31"/>
+      <c r="L280" s="9"/>
+      <c r="M280" s="3"/>
+      <c r="N280" s="3"/>
+      <c r="O280" s="3"/>
+      <c r="P280" s="3"/>
+      <c r="Q280" s="3"/>
+      <c r="R280" s="3"/>
+      <c r="S280" s="3"/>
+    </row>
+    <row r="281" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B281" s="12"/>
+      <c r="C281" s="10"/>
+      <c r="D281"/>
+      <c r="E281"/>
+      <c r="F281" s="9"/>
+      <c r="G281" s="9"/>
+      <c r="H281" s="9"/>
+      <c r="I281"/>
+      <c r="J281" s="9"/>
+      <c r="K281" s="31"/>
+      <c r="L281" s="9"/>
+      <c r="M281" s="3"/>
+      <c r="N281" s="3"/>
+      <c r="O281" s="3"/>
+      <c r="P281" s="3"/>
+      <c r="Q281" s="3"/>
+      <c r="R281" s="3"/>
+      <c r="S281" s="3"/>
+    </row>
+    <row r="282" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B282" s="12"/>
+      <c r="C282" s="10"/>
+      <c r="D282"/>
+      <c r="E282"/>
+      <c r="F282" s="9"/>
+      <c r="G282" s="9"/>
+      <c r="H282" s="9"/>
+      <c r="I282"/>
+      <c r="J282" s="9"/>
+      <c r="K282" s="31"/>
+      <c r="L282" s="9"/>
+      <c r="M282" s="3"/>
+      <c r="N282" s="3"/>
+      <c r="O282" s="3"/>
+      <c r="P282" s="3"/>
+      <c r="Q282" s="3"/>
+      <c r="R282" s="3"/>
+      <c r="S282" s="3"/>
+      <c r="T282" s="3"/>
+    </row>
+    <row r="283" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B283" s="12"/>
+      <c r="C283" s="10"/>
+      <c r="D283"/>
+      <c r="E283"/>
+      <c r="F283" s="9"/>
+      <c r="G283" s="9"/>
+      <c r="H283" s="9"/>
+      <c r="I283"/>
+      <c r="J283" s="9"/>
+      <c r="K283" s="31"/>
+      <c r="L283" s="9"/>
+      <c r="M283" s="3"/>
+      <c r="N283" s="3"/>
+      <c r="O283" s="3"/>
+      <c r="P283" s="3"/>
+      <c r="Q283" s="3"/>
+      <c r="R283" s="3"/>
+      <c r="S283" s="3"/>
+      <c r="T283" s="3"/>
+    </row>
+    <row r="284" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B284" s="12"/>
+      <c r="C284" s="10"/>
+      <c r="D284"/>
+      <c r="E284"/>
+      <c r="F284" s="9"/>
+      <c r="G284" s="9"/>
+      <c r="H284" s="9"/>
+      <c r="I284"/>
+      <c r="J284" s="9"/>
+      <c r="K284" s="31"/>
+      <c r="L284" s="9"/>
+      <c r="M284" s="3"/>
+      <c r="N284" s="3"/>
+      <c r="O284" s="3"/>
+      <c r="P284" s="3"/>
+      <c r="Q284" s="3"/>
+      <c r="R284" s="3"/>
+      <c r="S284" s="3"/>
+      <c r="T284" s="3"/>
+    </row>
+    <row r="285" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B285" s="12"/>
+      <c r="C285" s="10"/>
+      <c r="D285"/>
+      <c r="E285"/>
+      <c r="F285" s="9"/>
+      <c r="G285" s="9"/>
+      <c r="H285" s="9"/>
+      <c r="I285"/>
+      <c r="J285" s="9"/>
+      <c r="K285" s="31"/>
+      <c r="L285" s="9"/>
+      <c r="M285" s="3"/>
+      <c r="N285" s="3"/>
+      <c r="O285" s="3"/>
+      <c r="P285" s="3"/>
+      <c r="Q285" s="3"/>
+      <c r="R285" s="3"/>
+      <c r="S285" s="3"/>
+      <c r="T285" s="3"/>
+    </row>
+    <row r="286" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B286" s="12"/>
+      <c r="C286" s="10"/>
+      <c r="D286" s="13"/>
+      <c r="E286" s="13"/>
+      <c r="F286" s="25"/>
+      <c r="G286" s="9"/>
+      <c r="H286" s="9"/>
+      <c r="I286" s="13"/>
+      <c r="J286" s="9"/>
+      <c r="K286" s="13"/>
+      <c r="L286" s="9"/>
+      <c r="M286" s="3"/>
+      <c r="N286" s="3"/>
+      <c r="O286" s="3"/>
+      <c r="P286" s="3"/>
+      <c r="Q286" s="3"/>
+      <c r="R286" s="3"/>
+      <c r="S286" s="3"/>
+      <c r="T286" s="3"/>
+    </row>
+    <row r="287" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B287" s="12"/>
+      <c r="C287" s="10"/>
+      <c r="D287" s="13"/>
+      <c r="E287" s="13"/>
+      <c r="F287" s="25"/>
+      <c r="G287" s="9"/>
+      <c r="H287" s="9"/>
+      <c r="I287" s="13"/>
+      <c r="J287" s="9"/>
+      <c r="K287" s="13"/>
+      <c r="L287" s="9"/>
+      <c r="M287" s="3"/>
+      <c r="N287" s="3"/>
+      <c r="O287" s="3"/>
+      <c r="P287" s="3"/>
+      <c r="Q287" s="3"/>
+      <c r="R287" s="3"/>
+      <c r="S287" s="3"/>
+      <c r="T287" s="3"/>
+    </row>
+    <row r="288" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B288" s="12"/>
+      <c r="C288" s="10"/>
+      <c r="D288" s="13"/>
+      <c r="E288" s="13"/>
+      <c r="F288" s="25"/>
+      <c r="G288" s="9"/>
+      <c r="H288" s="9"/>
+      <c r="I288" s="13"/>
+      <c r="J288" s="9"/>
+      <c r="K288" s="13"/>
+      <c r="L288" s="9"/>
+      <c r="M288" s="3"/>
+      <c r="N288" s="3"/>
+      <c r="O288" s="3"/>
+      <c r="P288" s="3"/>
+      <c r="Q288" s="3"/>
+      <c r="R288" s="3"/>
+      <c r="S288" s="3"/>
+      <c r="T288" s="3"/>
+    </row>
+    <row r="289" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B289" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C255" s="35"/>
-      <c r="D255" s="14"/>
-      <c r="E255" s="14"/>
-      <c r="F255" s="15"/>
-      <c r="G255" s="15">
-        <f>SUM(G3:G254)</f>
-        <v>208</v>
-      </c>
-      <c r="H255" s="15"/>
-      <c r="I255" s="15"/>
-      <c r="J255" s="9"/>
-      <c r="K255" s="21"/>
-      <c r="L255" s="9"/>
-    </row>
-    <row r="257" spans="2:12" ht="75" customHeight="1">
-      <c r="B257" s="36"/>
-      <c r="C257" s="37"/>
-      <c r="D257" s="37"/>
-      <c r="E257" s="37"/>
-      <c r="F257" s="37"/>
-      <c r="G257" s="37"/>
-      <c r="H257" s="37"/>
-      <c r="I257" s="37"/>
-      <c r="J257" s="38"/>
-      <c r="K257" s="22"/>
-      <c r="L257" s="23"/>
+      <c r="C289" s="40"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="14"/>
+      <c r="F289" s="15"/>
+      <c r="G289" s="15">
+        <f>SUM(G3:G288)</f>
+        <v>260</v>
+      </c>
+      <c r="H289" s="15"/>
+      <c r="I289" s="15"/>
+      <c r="J289" s="9"/>
+      <c r="K289" s="21"/>
+      <c r="L289" s="9"/>
+    </row>
+    <row r="291" spans="2:12" ht="75" customHeight="1">
+      <c r="B291" s="41"/>
+      <c r="C291" s="42"/>
+      <c r="D291" s="42"/>
+      <c r="E291" s="42"/>
+      <c r="F291" s="42"/>
+      <c r="G291" s="42"/>
+      <c r="H291" s="42"/>
+      <c r="I291" s="42"/>
+      <c r="J291" s="43"/>
+      <c r="K291" s="22"/>
+      <c r="L291" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L255"/>
+  <autoFilter ref="C2:L289"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="B257:J257"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="B291:J291"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J255">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J289">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J254">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J288">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10201,9 +12038,46 @@
     <hyperlink ref="K208" r:id="rId111"/>
     <hyperlink ref="K209" r:id="rId112"/>
     <hyperlink ref="K210" r:id="rId113"/>
+    <hyperlink ref="K211" r:id="rId114"/>
+    <hyperlink ref="K213" r:id="rId115"/>
+    <hyperlink ref="K215" r:id="rId116"/>
+    <hyperlink ref="K216" r:id="rId117"/>
+    <hyperlink ref="K217" r:id="rId118"/>
+    <hyperlink ref="K219" r:id="rId119"/>
+    <hyperlink ref="K220" r:id="rId120"/>
+    <hyperlink ref="K221" r:id="rId121"/>
+    <hyperlink ref="K222" r:id="rId122"/>
+    <hyperlink ref="K223" r:id="rId123"/>
+    <hyperlink ref="K224" r:id="rId124"/>
+    <hyperlink ref="K226" r:id="rId125"/>
+    <hyperlink ref="K228" r:id="rId126"/>
+    <hyperlink ref="K229" r:id="rId127"/>
+    <hyperlink ref="K233" r:id="rId128"/>
+    <hyperlink ref="K234" r:id="rId129"/>
+    <hyperlink ref="K235" r:id="rId130"/>
+    <hyperlink ref="K236" r:id="rId131"/>
+    <hyperlink ref="K237" r:id="rId132"/>
+    <hyperlink ref="K238" r:id="rId133"/>
+    <hyperlink ref="K239" r:id="rId134"/>
+    <hyperlink ref="K242" r:id="rId135"/>
+    <hyperlink ref="K244" r:id="rId136"/>
+    <hyperlink ref="K245" r:id="rId137"/>
+    <hyperlink ref="K246" r:id="rId138"/>
+    <hyperlink ref="K247" r:id="rId139"/>
+    <hyperlink ref="K251" r:id="rId140"/>
+    <hyperlink ref="K252" r:id="rId141"/>
+    <hyperlink ref="K254" r:id="rId142"/>
+    <hyperlink ref="K255" r:id="rId143"/>
+    <hyperlink ref="K256" r:id="rId144"/>
+    <hyperlink ref="K257" r:id="rId145"/>
+    <hyperlink ref="K258" r:id="rId146"/>
+    <hyperlink ref="K259" r:id="rId147"/>
+    <hyperlink ref="K260" r:id="rId148"/>
+    <hyperlink ref="K262" r:id="rId149"/>
+    <hyperlink ref="K263" r:id="rId150"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId114"/>
-  <drawing r:id="rId115"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId151"/>
+  <drawing r:id="rId152"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$306</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="437">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -503,10 +503,6 @@
   </si>
   <si>
     <t>https://xhbup.com/jinchen/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/longju/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1429,12 +1425,114 @@
     <t>https://xhbup.com/ycst/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>https://xhbup.com/haoyal2/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/kqdk1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/yueguangq1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市明颜化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/mingyan/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市玉鑫化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/yuxin/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>汕头市青顺商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/qingshun/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/symy1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/tianchuang1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞市林龄生物科技有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/linling/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞市馨丽豪化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/xlh/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>汕头市瑞华美化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/rmh/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/kehong3/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞市和谷美容有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/hegu/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>分宜县多邦贸易有限公司</t>
+  </si>
+  <si>
+    <t>祛痘</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/duobang/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/hanjiam1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市妆妍生物技术有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/mingzhuang1/</t>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1556,6 +1654,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1759,7 +1865,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1871,6 +1977,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1916,13 +2031,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>1574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2252,13 +2367,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:T291"/>
+  <dimension ref="B1:T308"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F254" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F257" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K263" sqref="K263"/>
+      <selection pane="bottomRight" activeCell="C269" sqref="C269:C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2283,24 +2398,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="16"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
+      <c r="N1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -4263,41 +4378,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B57" s="9">
-        <v>29</v>
-      </c>
-      <c r="C57" s="10">
-        <v>43590</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G57" s="9">
-        <v>1</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K57" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B58" s="9">
         <v>30</v>
@@ -4362,7 +4442,7 @@
         <v>28</v>
       </c>
       <c r="K59" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L59" s="9" t="s">
         <v>20</v>
@@ -4432,7 +4512,7 @@
         <v>28</v>
       </c>
       <c r="K61" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L61" s="9" t="s">
         <v>20</v>
@@ -4922,7 +5002,7 @@
         <v>28</v>
       </c>
       <c r="K75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L75" s="9" t="s">
         <v>20</v>
@@ -4957,7 +5037,7 @@
         <v>25</v>
       </c>
       <c r="K76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L76" s="9" t="s">
         <v>20</v>
@@ -5062,7 +5142,7 @@
         <v>19</v>
       </c>
       <c r="K79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L79" s="9" t="s">
         <v>20</v>
@@ -5097,7 +5177,7 @@
         <v>28</v>
       </c>
       <c r="K80" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L80" s="9" t="s">
         <v>20</v>
@@ -5132,7 +5212,7 @@
         <v>19</v>
       </c>
       <c r="K81" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L81" s="9" t="s">
         <v>20</v>
@@ -5146,10 +5226,10 @@
         <v>43592</v>
       </c>
       <c r="D82" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E82" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>153</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>52</v>
@@ -5167,7 +5247,7 @@
         <v>28</v>
       </c>
       <c r="K82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L82" s="9" t="s">
         <v>20</v>
@@ -5184,7 +5264,7 @@
         <v>122</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F83" s="9" t="s">
         <v>52</v>
@@ -5202,7 +5282,7 @@
         <v>28</v>
       </c>
       <c r="K83" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L83" s="9" t="s">
         <v>20</v>
@@ -5219,10 +5299,10 @@
         <v>39</v>
       </c>
       <c r="E84" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="G84" s="9">
         <v>1</v>
@@ -5237,7 +5317,7 @@
         <v>28</v>
       </c>
       <c r="K84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L84" s="9" t="s">
         <v>20</v>
@@ -5286,13 +5366,13 @@
         <v>43592</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G86" s="9">
         <v>1</v>
@@ -5307,7 +5387,7 @@
         <v>19</v>
       </c>
       <c r="K86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L86" s="9" t="s">
         <v>20</v>
@@ -5321,13 +5401,13 @@
         <v>43592</v>
       </c>
       <c r="D87" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E87" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="F87" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="G87" s="9">
         <v>1</v>
@@ -5342,7 +5422,7 @@
         <v>28</v>
       </c>
       <c r="K87" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L87" s="9" t="s">
         <v>20</v>
@@ -5374,10 +5454,10 @@
         <v>26</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L88" s="9" t="s">
         <v>20</v>
@@ -5482,7 +5562,7 @@
         <v>19</v>
       </c>
       <c r="K91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L91" s="9" t="s">
         <v>20</v>
@@ -5496,10 +5576,10 @@
         <v>43592</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>54</v>
@@ -5517,7 +5597,7 @@
         <v>28</v>
       </c>
       <c r="K92" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L92" s="9" t="s">
         <v>20</v>
@@ -5534,7 +5614,7 @@
         <v>122</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>104</v>
@@ -5552,7 +5632,7 @@
         <v>28</v>
       </c>
       <c r="K93" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L93" s="9" t="s">
         <v>20</v>
@@ -5622,7 +5702,7 @@
         <v>19</v>
       </c>
       <c r="K95" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L95" s="9" t="s">
         <v>20</v>
@@ -5657,7 +5737,7 @@
         <v>19</v>
       </c>
       <c r="K96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L96" s="9" t="s">
         <v>20</v>
@@ -5671,13 +5751,13 @@
         <v>43592</v>
       </c>
       <c r="D97" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F97" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="G97" s="9">
         <v>1</v>
@@ -5692,7 +5772,7 @@
         <v>28</v>
       </c>
       <c r="K97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L97" s="9" t="s">
         <v>20</v>
@@ -5709,7 +5789,7 @@
         <v>30</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>52</v>
@@ -5727,7 +5807,7 @@
         <v>25</v>
       </c>
       <c r="K98" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L98" s="9" t="s">
         <v>20</v>
@@ -5741,10 +5821,10 @@
         <v>43593</v>
       </c>
       <c r="D99" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E99" s="26" t="s">
         <v>169</v>
-      </c>
-      <c r="E99" s="26" t="s">
-        <v>170</v>
       </c>
       <c r="F99" s="9" t="s">
         <v>104</v>
@@ -5762,7 +5842,7 @@
         <v>28</v>
       </c>
       <c r="K99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L99" s="9" t="s">
         <v>20</v>
@@ -5779,7 +5859,7 @@
         <v>39</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>52</v>
@@ -5797,7 +5877,7 @@
         <v>19</v>
       </c>
       <c r="K100" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L100" s="9" t="s">
         <v>20</v>
@@ -5867,7 +5947,7 @@
         <v>19</v>
       </c>
       <c r="K102" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L102" s="9" t="s">
         <v>20</v>
@@ -5919,10 +5999,10 @@
         <v>31</v>
       </c>
       <c r="E104" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F104" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="G104" s="9">
         <v>1</v>
@@ -5937,7 +6017,7 @@
         <v>19</v>
       </c>
       <c r="K104" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L104" s="9" t="s">
         <v>20</v>
@@ -5951,28 +6031,28 @@
         <v>43593</v>
       </c>
       <c r="D105" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G105" s="9">
+        <v>1</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" s="30" t="s">
         <v>174</v>
-      </c>
-      <c r="E105" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G105" s="9">
-        <v>1</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I105" s="30" t="s">
-        <v>175</v>
       </c>
       <c r="J105" s="9" t="s">
         <v>25</v>
       </c>
       <c r="K105" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L105" s="9" t="s">
         <v>20</v>
@@ -5989,7 +6069,7 @@
         <v>122</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>52</v>
@@ -6001,13 +6081,13 @@
         <v>17</v>
       </c>
       <c r="I106" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J106" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K106" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L106" s="9" t="s">
         <v>20</v>
@@ -6021,13 +6101,13 @@
         <v>43593</v>
       </c>
       <c r="D107" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E107" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E107" s="26" t="s">
-        <v>179</v>
-      </c>
       <c r="F107" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G107" s="9">
         <v>1</v>
@@ -6036,13 +6116,13 @@
         <v>17</v>
       </c>
       <c r="I107" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J107" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K107" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L107" s="9" t="s">
         <v>20</v>
@@ -6059,7 +6139,7 @@
         <v>122</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>104</v>
@@ -6077,7 +6157,7 @@
         <v>28</v>
       </c>
       <c r="K108" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L108" s="9" t="s">
         <v>20</v>
@@ -6094,7 +6174,7 @@
         <v>122</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F109" s="9" t="s">
         <v>52</v>
@@ -6112,7 +6192,7 @@
         <v>28</v>
       </c>
       <c r="K109" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L109" s="9" t="s">
         <v>20</v>
@@ -6164,7 +6244,7 @@
         <v>122</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F111" s="9" t="s">
         <v>104</v>
@@ -6182,7 +6262,7 @@
         <v>28</v>
       </c>
       <c r="K111" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L111" s="9" t="s">
         <v>20</v>
@@ -6196,10 +6276,10 @@
         <v>43593</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F112" s="9" t="s">
         <v>76</v>
@@ -6214,10 +6294,10 @@
         <v>18</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K112" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L112" s="9" t="s">
         <v>20</v>
@@ -6231,7 +6311,7 @@
         <v>43593</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E113" s="13" t="s">
         <v>75</v>
@@ -6252,7 +6332,7 @@
         <v>19</v>
       </c>
       <c r="K113" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L113" s="9" t="s">
         <v>20</v>
@@ -6301,13 +6381,13 @@
         <v>43594</v>
       </c>
       <c r="D115" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E115" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E115" s="13" t="s">
+      <c r="F115" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="G115" s="9">
         <v>1</v>
@@ -6322,7 +6402,7 @@
         <v>28</v>
       </c>
       <c r="K115" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L115" s="9" t="s">
         <v>20</v>
@@ -6374,7 +6454,7 @@
         <v>39</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>52</v>
@@ -6392,7 +6472,7 @@
         <v>19</v>
       </c>
       <c r="K117" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L117" s="9" t="s">
         <v>20</v>
@@ -6409,10 +6489,10 @@
         <v>30</v>
       </c>
       <c r="E118" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F118" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="G118" s="9">
         <v>1</v>
@@ -6427,7 +6507,7 @@
         <v>19</v>
       </c>
       <c r="K118" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L118" s="9" t="s">
         <v>20</v>
@@ -6462,7 +6542,7 @@
         <v>28</v>
       </c>
       <c r="K119" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L119" s="9" t="s">
         <v>20</v>
@@ -6476,10 +6556,10 @@
         <v>43594</v>
       </c>
       <c r="D120" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E120" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>52</v>
@@ -6497,7 +6577,7 @@
         <v>28</v>
       </c>
       <c r="K120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L120" s="9" t="s">
         <v>20</v>
@@ -6511,10 +6591,10 @@
         <v>43594</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>52</v>
@@ -6532,7 +6612,7 @@
         <v>28</v>
       </c>
       <c r="K121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L121" s="9" t="s">
         <v>20</v>
@@ -6546,10 +6626,10 @@
         <v>43594</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F122" s="9" t="s">
         <v>52</v>
@@ -6567,7 +6647,7 @@
         <v>28</v>
       </c>
       <c r="K122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L122" s="9" t="s">
         <v>20</v>
@@ -6584,10 +6664,10 @@
         <v>122</v>
       </c>
       <c r="E123" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F123" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="G123" s="9">
         <v>1</v>
@@ -6602,7 +6682,7 @@
         <v>28</v>
       </c>
       <c r="K123" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L123" s="9" t="s">
         <v>20</v>
@@ -6616,10 +6696,10 @@
         <v>43594</v>
       </c>
       <c r="D124" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E124" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>52</v>
@@ -6637,7 +6717,7 @@
         <v>19</v>
       </c>
       <c r="K124" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L124" s="9" t="s">
         <v>20</v>
@@ -6651,10 +6731,10 @@
         <v>43594</v>
       </c>
       <c r="D125" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E125" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="E125" s="13" t="s">
-        <v>205</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>52</v>
@@ -6672,7 +6752,7 @@
         <v>19</v>
       </c>
       <c r="K125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L125" s="9" t="s">
         <v>20</v>
@@ -6791,10 +6871,10 @@
         <v>43594</v>
       </c>
       <c r="D129" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E129" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>52</v>
@@ -6812,7 +6892,7 @@
         <v>19</v>
       </c>
       <c r="K129" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L129" s="9" t="s">
         <v>20</v>
@@ -6832,7 +6912,7 @@
         <v>111</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G130" s="9">
         <v>1</v>
@@ -6847,7 +6927,7 @@
         <v>28</v>
       </c>
       <c r="K130" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L130" s="9" t="s">
         <v>20</v>
@@ -6867,7 +6947,7 @@
         <v>130</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G131" s="9">
         <v>1</v>
@@ -6882,7 +6962,7 @@
         <v>28</v>
       </c>
       <c r="K131" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L131" s="9" t="s">
         <v>20</v>
@@ -6899,7 +6979,7 @@
         <v>30</v>
       </c>
       <c r="E132" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F132" s="9" t="s">
         <v>104</v>
@@ -6917,7 +6997,7 @@
         <v>25</v>
       </c>
       <c r="K132" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L132" s="9" t="s">
         <v>20</v>
@@ -6931,10 +7011,10 @@
         <v>43595</v>
       </c>
       <c r="D133" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F133" s="9" t="s">
         <v>52</v>
@@ -6952,7 +7032,7 @@
         <v>28</v>
       </c>
       <c r="K133" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L133" s="9" t="s">
         <v>20</v>
@@ -6966,10 +7046,10 @@
         <v>43595</v>
       </c>
       <c r="D134" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F134" s="9" t="s">
         <v>52</v>
@@ -6987,7 +7067,7 @@
         <v>28</v>
       </c>
       <c r="K134" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L134" s="9" t="s">
         <v>20</v>
@@ -7001,13 +7081,13 @@
         <v>43595</v>
       </c>
       <c r="D135" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="E135" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="E135" s="26" t="s">
+      <c r="F135" s="25" t="s">
         <v>214</v>
-      </c>
-      <c r="F135" s="25" t="s">
-        <v>215</v>
       </c>
       <c r="G135" s="9">
         <v>1</v>
@@ -7022,7 +7102,7 @@
         <v>28</v>
       </c>
       <c r="K135" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L135" s="9" t="s">
         <v>20</v>
@@ -7039,10 +7119,10 @@
         <v>30</v>
       </c>
       <c r="E136" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F136" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G136" s="9">
         <v>1</v>
@@ -7057,7 +7137,7 @@
         <v>25</v>
       </c>
       <c r="K136" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L136" s="9" t="s">
         <v>20</v>
@@ -7106,10 +7186,10 @@
         <v>43595</v>
       </c>
       <c r="D138" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F138" s="9" t="s">
         <v>104</v>
@@ -7127,7 +7207,7 @@
         <v>25</v>
       </c>
       <c r="K138" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L138" s="9" t="s">
         <v>20</v>
@@ -7141,10 +7221,10 @@
         <v>43595</v>
       </c>
       <c r="D139" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>104</v>
@@ -7162,7 +7242,7 @@
         <v>25</v>
       </c>
       <c r="K139" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L139" s="9" t="s">
         <v>20</v>
@@ -7211,7 +7291,7 @@
         <v>43595</v>
       </c>
       <c r="D141" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E141" s="26" t="s">
         <v>106</v>
@@ -7232,7 +7312,7 @@
         <v>19</v>
       </c>
       <c r="K141" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L141" s="9" t="s">
         <v>20</v>
@@ -7246,28 +7326,28 @@
         <v>43595</v>
       </c>
       <c r="D142" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E142" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="E142" s="26" t="s">
+      <c r="F142" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="G142" s="9">
+        <v>1</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="F142" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="G142" s="9">
-        <v>1</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I142" s="26" t="s">
-        <v>264</v>
-      </c>
       <c r="J142" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K142" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L142" s="9" t="s">
         <v>20</v>
@@ -7281,13 +7361,13 @@
         <v>43595</v>
       </c>
       <c r="D143" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E143" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="F143" s="25" t="s">
         <v>266</v>
-      </c>
-      <c r="F143" s="25" t="s">
-        <v>267</v>
       </c>
       <c r="G143" s="9">
         <v>1</v>
@@ -7302,7 +7382,7 @@
         <v>25</v>
       </c>
       <c r="K143" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L143" s="9" t="s">
         <v>20</v>
@@ -7354,10 +7434,10 @@
         <v>30</v>
       </c>
       <c r="E145" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F145" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="G145" s="9">
         <v>1</v>
@@ -7372,7 +7452,7 @@
         <v>19</v>
       </c>
       <c r="K145" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L145" s="9" t="s">
         <v>20</v>
@@ -7389,7 +7469,7 @@
         <v>30</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F146" s="9" t="s">
         <v>52</v>
@@ -7407,7 +7487,7 @@
         <v>19</v>
       </c>
       <c r="K146" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L146" s="9" t="s">
         <v>20</v>
@@ -7416,7 +7496,7 @@
     <row r="147" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B147" s="12"/>
       <c r="C147" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D147" s="13"/>
       <c r="E147" s="13"/>
@@ -7436,10 +7516,10 @@
         <v>43596</v>
       </c>
       <c r="D148" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E148" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F148" s="9" t="s">
         <v>54</v>
@@ -7451,7 +7531,7 @@
         <v>17</v>
       </c>
       <c r="I148" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J148" s="9" t="s">
         <v>19</v>
@@ -7471,10 +7551,10 @@
         <v>43596</v>
       </c>
       <c r="D149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E149" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F149" s="9" t="s">
         <v>52</v>
@@ -7492,7 +7572,7 @@
         <v>19</v>
       </c>
       <c r="K149" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L149" s="9" t="s">
         <v>20</v>
@@ -7582,7 +7662,7 @@
         <v>111</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G152" s="9">
         <v>1</v>
@@ -7597,7 +7677,7 @@
         <v>28</v>
       </c>
       <c r="K152" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L152" s="9" t="s">
         <v>20</v>
@@ -7681,10 +7761,10 @@
         <v>43597</v>
       </c>
       <c r="D155" t="s">
+        <v>277</v>
+      </c>
+      <c r="E155" t="s">
         <v>278</v>
-      </c>
-      <c r="E155" t="s">
-        <v>279</v>
       </c>
       <c r="F155" s="9" t="s">
         <v>54</v>
@@ -7702,7 +7782,7 @@
         <v>19</v>
       </c>
       <c r="K155" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L155" s="9" t="s">
         <v>20</v>
@@ -7716,13 +7796,13 @@
         <v>43597</v>
       </c>
       <c r="D156" t="s">
+        <v>280</v>
+      </c>
+      <c r="E156" t="s">
         <v>281</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="F156" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="G156" s="9">
         <v>1</v>
@@ -7737,7 +7817,7 @@
         <v>19</v>
       </c>
       <c r="K156" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L156" s="9" t="s">
         <v>20</v>
@@ -7786,13 +7866,13 @@
         <v>43598</v>
       </c>
       <c r="D158" t="s">
+        <v>212</v>
+      </c>
+      <c r="E158" t="s">
         <v>213</v>
       </c>
-      <c r="E158" t="s">
-        <v>214</v>
-      </c>
       <c r="F158" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G158" s="9">
         <v>1</v>
@@ -7807,7 +7887,7 @@
         <v>19</v>
       </c>
       <c r="K158" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L158" s="9" t="s">
         <v>20</v>
@@ -7821,10 +7901,10 @@
         <v>43598</v>
       </c>
       <c r="D159" t="s">
+        <v>277</v>
+      </c>
+      <c r="E159" t="s">
         <v>278</v>
-      </c>
-      <c r="E159" t="s">
-        <v>279</v>
       </c>
       <c r="F159" s="9" t="s">
         <v>54</v>
@@ -7842,7 +7922,7 @@
         <v>19</v>
       </c>
       <c r="K159" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L159" s="9" t="s">
         <v>20</v>
@@ -7856,10 +7936,10 @@
         <v>43598</v>
       </c>
       <c r="D160" t="s">
+        <v>286</v>
+      </c>
+      <c r="E160" t="s">
         <v>287</v>
-      </c>
-      <c r="E160" t="s">
-        <v>288</v>
       </c>
       <c r="F160" s="9" t="s">
         <v>54</v>
@@ -7871,13 +7951,13 @@
         <v>17</v>
       </c>
       <c r="I160" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J160" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K160" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L160" s="9" t="s">
         <v>20</v>
@@ -7926,13 +8006,13 @@
         <v>43598</v>
       </c>
       <c r="D162" t="s">
+        <v>289</v>
+      </c>
+      <c r="E162" t="s">
         <v>290</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="F162" s="9" t="s">
-        <v>292</v>
       </c>
       <c r="G162" s="9">
         <v>1</v>
@@ -7947,7 +8027,7 @@
         <v>28</v>
       </c>
       <c r="K162" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L162" s="9" t="s">
         <v>20</v>
@@ -8007,13 +8087,13 @@
         <v>17</v>
       </c>
       <c r="I164" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J164" s="9" t="s">
         <v>25</v>
       </c>
       <c r="K164" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L164" s="9" t="s">
         <v>20</v>
@@ -8065,7 +8145,7 @@
         <v>30</v>
       </c>
       <c r="E166" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F166" s="9" t="s">
         <v>54</v>
@@ -8083,7 +8163,7 @@
         <v>28</v>
       </c>
       <c r="K166" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L166" s="9" t="s">
         <v>20</v>
@@ -8100,7 +8180,7 @@
         <v>30</v>
       </c>
       <c r="E167" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F167" s="9" t="s">
         <v>54</v>
@@ -8118,7 +8198,7 @@
         <v>28</v>
       </c>
       <c r="K167" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L167" s="9" t="s">
         <v>20</v>
@@ -8132,10 +8212,10 @@
         <v>43598</v>
       </c>
       <c r="D168" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E168" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="E168" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="F168" s="9" t="s">
         <v>52</v>
@@ -8153,7 +8233,7 @@
         <v>19</v>
       </c>
       <c r="K168" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L168" s="9" t="s">
         <v>20</v>
@@ -8167,10 +8247,10 @@
         <v>43598</v>
       </c>
       <c r="D169" t="s">
+        <v>299</v>
+      </c>
+      <c r="E169" t="s">
         <v>300</v>
-      </c>
-      <c r="E169" t="s">
-        <v>301</v>
       </c>
       <c r="F169" s="9" t="s">
         <v>54</v>
@@ -8188,7 +8268,7 @@
         <v>19</v>
       </c>
       <c r="K169" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L169" s="9" t="s">
         <v>20</v>
@@ -8275,7 +8355,7 @@
         <v>30</v>
       </c>
       <c r="E172" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F172" s="9" t="s">
         <v>52</v>
@@ -8293,7 +8373,7 @@
         <v>28</v>
       </c>
       <c r="K172" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L172" s="9" t="s">
         <v>20</v>
@@ -8310,7 +8390,7 @@
         <v>30</v>
       </c>
       <c r="E173" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F173" s="9" t="s">
         <v>52</v>
@@ -8328,7 +8408,7 @@
         <v>28</v>
       </c>
       <c r="K173" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L173" s="9" t="s">
         <v>20</v>
@@ -8377,10 +8457,10 @@
         <v>43599</v>
       </c>
       <c r="D175" t="s">
+        <v>306</v>
+      </c>
+      <c r="E175" t="s">
         <v>307</v>
-      </c>
-      <c r="E175" t="s">
-        <v>308</v>
       </c>
       <c r="F175" s="9" t="s">
         <v>52</v>
@@ -8398,7 +8478,7 @@
         <v>28</v>
       </c>
       <c r="K175" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L175" s="9" t="s">
         <v>20</v>
@@ -8412,13 +8492,13 @@
         <v>43599</v>
       </c>
       <c r="D176" t="s">
+        <v>309</v>
+      </c>
+      <c r="E176" t="s">
         <v>310</v>
       </c>
-      <c r="E176" t="s">
-        <v>311</v>
-      </c>
       <c r="F176" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G176" s="9">
         <v>1</v>
@@ -8430,10 +8510,10 @@
         <v>26</v>
       </c>
       <c r="J176" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K176" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L176" s="9" t="s">
         <v>20</v>
@@ -8450,7 +8530,7 @@
         <v>30</v>
       </c>
       <c r="E177" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F177" s="9" t="s">
         <v>54</v>
@@ -8468,7 +8548,7 @@
         <v>28</v>
       </c>
       <c r="K177" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L177" s="9" t="s">
         <v>20</v>
@@ -8485,7 +8565,7 @@
         <v>30</v>
       </c>
       <c r="E178" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F178" s="9" t="s">
         <v>54</v>
@@ -8503,7 +8583,7 @@
         <v>28</v>
       </c>
       <c r="K178" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L178" s="9" t="s">
         <v>20</v>
@@ -8517,10 +8597,10 @@
         <v>43599</v>
       </c>
       <c r="D179" t="s">
+        <v>316</v>
+      </c>
+      <c r="E179" t="s">
         <v>317</v>
-      </c>
-      <c r="E179" t="s">
-        <v>318</v>
       </c>
       <c r="F179" s="9" t="s">
         <v>52</v>
@@ -8538,7 +8618,7 @@
         <v>28</v>
       </c>
       <c r="K179" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L179" s="9" t="s">
         <v>20</v>
@@ -8552,13 +8632,13 @@
         <v>43599</v>
       </c>
       <c r="D180" t="s">
+        <v>319</v>
+      </c>
+      <c r="E180" t="s">
         <v>320</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="F180" s="9" t="s">
-        <v>322</v>
       </c>
       <c r="G180" s="9">
         <v>1</v>
@@ -8573,7 +8653,7 @@
         <v>28</v>
       </c>
       <c r="K180" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L180" s="9" t="s">
         <v>20</v>
@@ -8587,10 +8667,10 @@
         <v>43599</v>
       </c>
       <c r="D181" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E181" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F181" s="9" t="s">
         <v>52</v>
@@ -8608,7 +8688,7 @@
         <v>25</v>
       </c>
       <c r="K181" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L181" s="9" t="s">
         <v>20</v>
@@ -8695,7 +8775,7 @@
         <v>122</v>
       </c>
       <c r="E184" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F184" s="9" t="s">
         <v>54</v>
@@ -8713,7 +8793,7 @@
         <v>28</v>
       </c>
       <c r="K184" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L184" s="9" t="s">
         <v>20</v>
@@ -8762,13 +8842,13 @@
         <v>43599</v>
       </c>
       <c r="D186" t="s">
+        <v>327</v>
+      </c>
+      <c r="E186" t="s">
+        <v>327</v>
+      </c>
+      <c r="F186" s="9" t="s">
         <v>328</v>
-      </c>
-      <c r="E186" t="s">
-        <v>328</v>
-      </c>
-      <c r="F186" s="9" t="s">
-        <v>329</v>
       </c>
       <c r="G186" s="9">
         <v>1</v>
@@ -8783,7 +8863,7 @@
         <v>28</v>
       </c>
       <c r="K186" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L186" s="9" t="s">
         <v>20</v>
@@ -8800,7 +8880,7 @@
         <v>30</v>
       </c>
       <c r="E187" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F187" s="9" t="s">
         <v>54</v>
@@ -8818,7 +8898,7 @@
         <v>28</v>
       </c>
       <c r="K187" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L187" s="9" t="s">
         <v>20</v>
@@ -8835,7 +8915,7 @@
         <v>30</v>
       </c>
       <c r="E188" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F188" s="9" t="s">
         <v>52</v>
@@ -8853,7 +8933,7 @@
         <v>28</v>
       </c>
       <c r="K188" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L188" s="9" t="s">
         <v>20</v>
@@ -8867,10 +8947,10 @@
         <v>43599</v>
       </c>
       <c r="D189" t="s">
+        <v>277</v>
+      </c>
+      <c r="E189" t="s">
         <v>278</v>
-      </c>
-      <c r="E189" t="s">
-        <v>279</v>
       </c>
       <c r="F189" s="9" t="s">
         <v>54</v>
@@ -8888,7 +8968,7 @@
         <v>19</v>
       </c>
       <c r="K189" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L189" s="9" t="s">
         <v>20</v>
@@ -8902,10 +8982,10 @@
         <v>43599</v>
       </c>
       <c r="D190" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E190" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F190" s="9" t="s">
         <v>54</v>
@@ -8923,7 +9003,7 @@
         <v>28</v>
       </c>
       <c r="K190" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L190" s="9" t="s">
         <v>20</v>
@@ -8937,10 +9017,10 @@
         <v>43599</v>
       </c>
       <c r="D191" t="s">
+        <v>336</v>
+      </c>
+      <c r="E191" t="s">
         <v>337</v>
-      </c>
-      <c r="E191" t="s">
-        <v>338</v>
       </c>
       <c r="F191" s="9" t="s">
         <v>52</v>
@@ -8958,7 +9038,7 @@
         <v>28</v>
       </c>
       <c r="K191" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L191" s="9" t="s">
         <v>20</v>
@@ -8975,7 +9055,7 @@
         <v>30</v>
       </c>
       <c r="E192" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F192" s="9" t="s">
         <v>54</v>
@@ -8993,7 +9073,7 @@
         <v>28</v>
       </c>
       <c r="K192" s="31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L192" s="9" t="s">
         <v>20</v>
@@ -9010,7 +9090,7 @@
         <v>30</v>
       </c>
       <c r="E193" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F193" s="9" t="s">
         <v>54</v>
@@ -9028,7 +9108,7 @@
         <v>28</v>
       </c>
       <c r="K193" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L193" s="9" t="s">
         <v>20</v>
@@ -9042,10 +9122,10 @@
         <v>43599</v>
       </c>
       <c r="D194" t="s">
+        <v>316</v>
+      </c>
+      <c r="E194" t="s">
         <v>317</v>
-      </c>
-      <c r="E194" t="s">
-        <v>318</v>
       </c>
       <c r="F194" s="9" t="s">
         <v>52</v>
@@ -9060,10 +9140,10 @@
         <v>26</v>
       </c>
       <c r="J194" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K194" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L194" s="9" t="s">
         <v>20</v>
@@ -9080,7 +9160,7 @@
         <v>39</v>
       </c>
       <c r="E195" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F195" s="9" t="s">
         <v>52</v>
@@ -9098,7 +9178,7 @@
         <v>19</v>
       </c>
       <c r="K195" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L195" s="9" t="s">
         <v>20</v>
@@ -9112,10 +9192,10 @@
         <v>43600</v>
       </c>
       <c r="D196" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E196" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F196" s="9" t="s">
         <v>52</v>
@@ -9133,7 +9213,7 @@
         <v>28</v>
       </c>
       <c r="K196" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L196" s="9" t="s">
         <v>20</v>
@@ -9150,7 +9230,7 @@
         <v>30</v>
       </c>
       <c r="E197" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F197" s="9" t="s">
         <v>54</v>
@@ -9168,7 +9248,7 @@
         <v>28</v>
       </c>
       <c r="K197" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L197" s="9" t="s">
         <v>20</v>
@@ -9185,7 +9265,7 @@
         <v>30</v>
       </c>
       <c r="E198" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F198" s="9" t="s">
         <v>54</v>
@@ -9203,7 +9283,7 @@
         <v>28</v>
       </c>
       <c r="K198" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L198" s="9" t="s">
         <v>20</v>
@@ -9220,10 +9300,10 @@
         <v>30</v>
       </c>
       <c r="E199" t="s">
+        <v>348</v>
+      </c>
+      <c r="F199" s="9" t="s">
         <v>349</v>
-      </c>
-      <c r="F199" s="9" t="s">
-        <v>350</v>
       </c>
       <c r="G199" s="9">
         <v>1</v>
@@ -9238,7 +9318,7 @@
         <v>25</v>
       </c>
       <c r="K199" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L199" s="9" t="s">
         <v>20</v>
@@ -9255,7 +9335,7 @@
         <v>39</v>
       </c>
       <c r="E200" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F200" s="9" t="s">
         <v>52</v>
@@ -9273,7 +9353,7 @@
         <v>19</v>
       </c>
       <c r="K200" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L200" s="9" t="s">
         <v>20</v>
@@ -9325,7 +9405,7 @@
         <v>30</v>
       </c>
       <c r="E202" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F202" s="9" t="s">
         <v>54</v>
@@ -9343,7 +9423,7 @@
         <v>28</v>
       </c>
       <c r="K202" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L202" s="9" t="s">
         <v>20</v>
@@ -9360,7 +9440,7 @@
         <v>30</v>
       </c>
       <c r="E203" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F203" s="9" t="s">
         <v>54</v>
@@ -9378,7 +9458,7 @@
         <v>28</v>
       </c>
       <c r="K203" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L203" s="9" t="s">
         <v>20</v>
@@ -9395,10 +9475,10 @@
         <v>30</v>
       </c>
       <c r="E204" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F204" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G204" s="9">
         <v>1</v>
@@ -9413,7 +9493,7 @@
         <v>28</v>
       </c>
       <c r="K204" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L204" s="9" t="s">
         <v>20</v>
@@ -9430,7 +9510,7 @@
         <v>30</v>
       </c>
       <c r="E205" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F205" s="9" t="s">
         <v>54</v>
@@ -9448,7 +9528,7 @@
         <v>19</v>
       </c>
       <c r="K205" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L205" s="9" t="s">
         <v>20</v>
@@ -9465,10 +9545,10 @@
         <v>30</v>
       </c>
       <c r="E206" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G206" s="9">
         <v>1</v>
@@ -9483,7 +9563,7 @@
         <v>28</v>
       </c>
       <c r="K206" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L206" s="9" t="s">
         <v>20</v>
@@ -9497,13 +9577,13 @@
         <v>43600</v>
       </c>
       <c r="D207" t="s">
+        <v>289</v>
+      </c>
+      <c r="E207" t="s">
         <v>290</v>
       </c>
-      <c r="E207" t="s">
-        <v>291</v>
-      </c>
       <c r="F207" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G207" s="9">
         <v>1</v>
@@ -9518,7 +9598,7 @@
         <v>28</v>
       </c>
       <c r="K207" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L207" s="9" t="s">
         <v>20</v>
@@ -9535,7 +9615,7 @@
         <v>30</v>
       </c>
       <c r="E208" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F208" s="9" t="s">
         <v>54</v>
@@ -9553,7 +9633,7 @@
         <v>19</v>
       </c>
       <c r="K208" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L208" s="9" t="s">
         <v>20</v>
@@ -9570,7 +9650,7 @@
         <v>30</v>
       </c>
       <c r="E209" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F209" s="9" t="s">
         <v>54</v>
@@ -9588,7 +9668,7 @@
         <v>28</v>
       </c>
       <c r="K209" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L209" s="9" t="s">
         <v>20</v>
@@ -9605,10 +9685,10 @@
         <v>30</v>
       </c>
       <c r="E210" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F210" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="F210" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="G210" s="9">
         <v>1</v>
@@ -9623,7 +9703,7 @@
         <v>19</v>
       </c>
       <c r="K210" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L210" s="9" t="s">
         <v>20</v>
@@ -9707,13 +9787,13 @@
         <v>43601</v>
       </c>
       <c r="D213" t="s">
+        <v>364</v>
+      </c>
+      <c r="E213" t="s">
+        <v>364</v>
+      </c>
+      <c r="F213" s="9" t="s">
         <v>365</v>
-      </c>
-      <c r="E213" t="s">
-        <v>365</v>
-      </c>
-      <c r="F213" s="9" t="s">
-        <v>366</v>
       </c>
       <c r="G213" s="9">
         <v>1</v>
@@ -9728,7 +9808,7 @@
         <v>25</v>
       </c>
       <c r="K213" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L213" s="9" t="s">
         <v>20</v>
@@ -9780,7 +9860,7 @@
         <v>39</v>
       </c>
       <c r="E215" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F215" s="9" t="s">
         <v>52</v>
@@ -9798,7 +9878,7 @@
         <v>19</v>
       </c>
       <c r="K215" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L215" s="9" t="s">
         <v>20</v>
@@ -9812,10 +9892,10 @@
         <v>43601</v>
       </c>
       <c r="D216" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E216" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F216" s="9" t="s">
         <v>52</v>
@@ -9833,7 +9913,7 @@
         <v>25</v>
       </c>
       <c r="K216" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L216" s="9" t="s">
         <v>20</v>
@@ -9920,7 +10000,7 @@
         <v>31</v>
       </c>
       <c r="E219" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F219" s="9" t="s">
         <v>54</v>
@@ -9938,7 +10018,7 @@
         <v>25</v>
       </c>
       <c r="K219" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L219" s="9" t="s">
         <v>20</v>
@@ -9952,13 +10032,13 @@
         <v>43601</v>
       </c>
       <c r="D220" t="s">
+        <v>369</v>
+      </c>
+      <c r="E220" t="s">
         <v>370</v>
       </c>
-      <c r="E220" t="s">
+      <c r="F220" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="F220" s="9" t="s">
-        <v>372</v>
       </c>
       <c r="G220" s="9">
         <v>1</v>
@@ -9973,7 +10053,7 @@
         <v>28</v>
       </c>
       <c r="K220" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L220" s="9" t="s">
         <v>20</v>
@@ -9990,7 +10070,7 @@
         <v>30</v>
       </c>
       <c r="E221" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F221" s="9" t="s">
         <v>54</v>
@@ -10005,10 +10085,10 @@
         <v>98</v>
       </c>
       <c r="J221" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K221" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L221" s="9" t="s">
         <v>20</v>
@@ -10025,7 +10105,7 @@
         <v>30</v>
       </c>
       <c r="E222" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F222" s="9" t="s">
         <v>54</v>
@@ -10043,7 +10123,7 @@
         <v>25</v>
       </c>
       <c r="K222" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L222" s="9" t="s">
         <v>20</v>
@@ -10057,10 +10137,10 @@
         <v>43601</v>
       </c>
       <c r="D223" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E223" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F223" s="9" t="s">
         <v>52</v>
@@ -10072,13 +10152,13 @@
         <v>17</v>
       </c>
       <c r="I223" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J223" s="9" t="s">
         <v>25</v>
       </c>
       <c r="K223" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L223" s="9" t="s">
         <v>20</v>
@@ -10092,10 +10172,10 @@
         <v>43601</v>
       </c>
       <c r="D224" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E224" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F224" s="9" t="s">
         <v>52</v>
@@ -10113,7 +10193,7 @@
         <v>25</v>
       </c>
       <c r="K224" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L224" s="9" t="s">
         <v>20</v>
@@ -10127,10 +10207,10 @@
         <v>43601</v>
       </c>
       <c r="D225" t="s">
+        <v>277</v>
+      </c>
+      <c r="E225" t="s">
         <v>278</v>
-      </c>
-      <c r="E225" t="s">
-        <v>279</v>
       </c>
       <c r="F225" s="9" t="s">
         <v>54</v>
@@ -10148,7 +10228,7 @@
         <v>19</v>
       </c>
       <c r="K225" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L225" s="9" t="s">
         <v>20</v>
@@ -10162,10 +10242,10 @@
         <v>43601</v>
       </c>
       <c r="D226" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E226" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F226" s="9" t="s">
         <v>52</v>
@@ -10177,13 +10257,13 @@
         <v>17</v>
       </c>
       <c r="I226" t="s">
+        <v>376</v>
+      </c>
+      <c r="J226" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K226" s="31" t="s">
         <v>377</v>
-      </c>
-      <c r="J226" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K226" s="31" t="s">
-        <v>378</v>
       </c>
       <c r="L226" s="9" t="s">
         <v>20</v>
@@ -10197,10 +10277,10 @@
         <v>43601</v>
       </c>
       <c r="D227" t="s">
+        <v>277</v>
+      </c>
+      <c r="E227" t="s">
         <v>278</v>
-      </c>
-      <c r="E227" t="s">
-        <v>279</v>
       </c>
       <c r="F227" s="9" t="s">
         <v>54</v>
@@ -10218,7 +10298,7 @@
         <v>19</v>
       </c>
       <c r="K227" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L227" s="9" t="s">
         <v>20</v>
@@ -10235,7 +10315,7 @@
         <v>30</v>
       </c>
       <c r="E228" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F228" s="9" t="s">
         <v>54</v>
@@ -10253,7 +10333,7 @@
         <v>19</v>
       </c>
       <c r="K228" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L228" s="9" t="s">
         <v>20</v>
@@ -10270,7 +10350,7 @@
         <v>39</v>
       </c>
       <c r="E229" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F229" s="9" t="s">
         <v>52</v>
@@ -10288,7 +10368,7 @@
         <v>19</v>
       </c>
       <c r="K229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L229" s="9" t="s">
         <v>20</v>
@@ -10337,10 +10417,10 @@
         <v>43601</v>
       </c>
       <c r="D231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F231" s="9" t="s">
         <v>52</v>
@@ -10358,7 +10438,7 @@
         <v>28</v>
       </c>
       <c r="K231" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L231" s="9" t="s">
         <v>20</v>
@@ -10442,10 +10522,10 @@
         <v>43602</v>
       </c>
       <c r="D234" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E234" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F234" s="9" t="s">
         <v>52</v>
@@ -10463,7 +10543,7 @@
         <v>25</v>
       </c>
       <c r="K234" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L234" s="9" t="s">
         <v>20</v>
@@ -10498,7 +10578,7 @@
         <v>19</v>
       </c>
       <c r="K235" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L235" s="9" t="s">
         <v>20</v>
@@ -10550,7 +10630,7 @@
         <v>30</v>
       </c>
       <c r="E237" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F237" s="9" t="s">
         <v>54</v>
@@ -10568,7 +10648,7 @@
         <v>19</v>
       </c>
       <c r="K237" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L237" s="9" t="s">
         <v>20</v>
@@ -10582,10 +10662,10 @@
         <v>43602</v>
       </c>
       <c r="D238" t="s">
+        <v>383</v>
+      </c>
+      <c r="E238" t="s">
         <v>384</v>
-      </c>
-      <c r="E238" t="s">
-        <v>385</v>
       </c>
       <c r="F238" s="9" t="s">
         <v>52</v>
@@ -10603,7 +10683,7 @@
         <v>25</v>
       </c>
       <c r="K238" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L238" s="9" t="s">
         <v>20</v>
@@ -10638,7 +10718,7 @@
         <v>19</v>
       </c>
       <c r="K239" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L239" s="9" t="s">
         <v>20</v>
@@ -10647,7 +10727,7 @@
     <row r="240" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B240" s="12"/>
       <c r="C240" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D240"/>
       <c r="E240"/>
@@ -10723,7 +10803,7 @@
         <v>19</v>
       </c>
       <c r="K242" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L242" s="9" t="s">
         <v>20</v>
@@ -10737,10 +10817,10 @@
         <v>43603</v>
       </c>
       <c r="D243" t="s">
+        <v>383</v>
+      </c>
+      <c r="E243" t="s">
         <v>384</v>
-      </c>
-      <c r="E243" t="s">
-        <v>385</v>
       </c>
       <c r="F243" s="9" t="s">
         <v>52</v>
@@ -10758,7 +10838,7 @@
         <v>19</v>
       </c>
       <c r="K243" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L243" s="9" t="s">
         <v>20</v>
@@ -10793,7 +10873,7 @@
         <v>19</v>
       </c>
       <c r="K244" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L244" s="9" t="s">
         <v>20</v>
@@ -10810,7 +10890,7 @@
         <v>30</v>
       </c>
       <c r="E245" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F245" s="9" t="s">
         <v>52</v>
@@ -10825,10 +10905,10 @@
         <v>27</v>
       </c>
       <c r="J245" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K245" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L245" s="9" t="s">
         <v>20</v>
@@ -10863,7 +10943,7 @@
         <v>19</v>
       </c>
       <c r="K246" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L246" s="9" t="s">
         <v>20</v>
@@ -10880,7 +10960,7 @@
         <v>39</v>
       </c>
       <c r="E247" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F247" s="9" t="s">
         <v>52</v>
@@ -10898,7 +10978,7 @@
         <v>19</v>
       </c>
       <c r="K247" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L247" s="9" t="s">
         <v>20</v>
@@ -10947,10 +11027,10 @@
         <v>43603</v>
       </c>
       <c r="D249" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E249" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F249" s="9" t="s">
         <v>104</v>
@@ -10968,7 +11048,7 @@
         <v>25</v>
       </c>
       <c r="K249" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L249" s="9" t="s">
         <v>20</v>
@@ -10982,10 +11062,10 @@
         <v>43603</v>
       </c>
       <c r="D250" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E250" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F250" s="9" t="s">
         <v>52</v>
@@ -11003,7 +11083,7 @@
         <v>25</v>
       </c>
       <c r="K250" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L250" s="9" t="s">
         <v>20</v>
@@ -11014,16 +11094,16 @@
         <v>78</v>
       </c>
       <c r="C251" s="35">
-        <v>43603</v>
+        <v>43604</v>
       </c>
       <c r="D251" s="34" t="s">
         <v>30</v>
       </c>
       <c r="E251" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="F251" s="34" t="s">
         <v>391</v>
-      </c>
-      <c r="F251" s="34" t="s">
-        <v>392</v>
       </c>
       <c r="G251" s="34">
         <v>1</v>
@@ -11038,7 +11118,7 @@
         <v>19</v>
       </c>
       <c r="K251" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L251" s="34" t="s">
         <v>20</v>
@@ -11049,7 +11129,7 @@
         <v>25</v>
       </c>
       <c r="C252" s="35">
-        <v>43603</v>
+        <v>43604</v>
       </c>
       <c r="D252" s="36" t="s">
         <v>34</v>
@@ -11073,7 +11153,7 @@
         <v>19</v>
       </c>
       <c r="K252" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L252" s="34" t="s">
         <v>20</v>
@@ -11084,7 +11164,7 @@
         <v>10</v>
       </c>
       <c r="C253" s="35">
-        <v>43603</v>
+        <v>43604</v>
       </c>
       <c r="D253" s="36" t="s">
         <v>60</v>
@@ -11119,13 +11199,13 @@
         <v>10</v>
       </c>
       <c r="C254" s="35">
-        <v>43603</v>
+        <v>43605</v>
       </c>
       <c r="D254" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E254" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F254" s="34" t="s">
         <v>54</v>
@@ -11143,7 +11223,7 @@
         <v>25</v>
       </c>
       <c r="K254" s="31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L254" s="34" t="s">
         <v>20</v>
@@ -11154,13 +11234,13 @@
         <v>10</v>
       </c>
       <c r="C255" s="35">
-        <v>43603</v>
+        <v>43605</v>
       </c>
       <c r="D255" t="s">
         <v>30</v>
       </c>
       <c r="E255" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F255" s="34" t="s">
         <v>54</v>
@@ -11178,7 +11258,7 @@
         <v>25</v>
       </c>
       <c r="K255" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L255" s="34" t="s">
         <v>20</v>
@@ -11189,7 +11269,7 @@
         <v>25</v>
       </c>
       <c r="C256" s="35">
-        <v>43603</v>
+        <v>43605</v>
       </c>
       <c r="D256" s="36" t="s">
         <v>34</v>
@@ -11213,7 +11293,7 @@
         <v>19</v>
       </c>
       <c r="K256" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L256" s="34" t="s">
         <v>20</v>
@@ -11224,13 +11304,13 @@
         <v>28</v>
       </c>
       <c r="C257" s="35">
-        <v>43603</v>
+        <v>43605</v>
       </c>
       <c r="D257" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E257" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F257" s="34" t="s">
         <v>52</v>
@@ -11242,13 +11322,13 @@
         <v>17</v>
       </c>
       <c r="I257" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J257" s="34" t="s">
         <v>25</v>
       </c>
       <c r="K257" s="31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L257" s="34" t="s">
         <v>20</v>
@@ -11259,13 +11339,13 @@
         <v>25</v>
       </c>
       <c r="C258" s="35">
-        <v>43603</v>
+        <v>43605</v>
       </c>
       <c r="D258" t="s">
         <v>122</v>
       </c>
       <c r="E258" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F258" s="34" t="s">
         <v>54</v>
@@ -11283,7 +11363,7 @@
         <v>28</v>
       </c>
       <c r="K258" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L258" s="34" t="s">
         <v>20</v>
@@ -11294,16 +11374,16 @@
         <v>25</v>
       </c>
       <c r="C259" s="35">
-        <v>43603</v>
+        <v>43605</v>
       </c>
       <c r="D259" t="s">
         <v>30</v>
       </c>
       <c r="E259" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F259" s="34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G259" s="34">
         <v>1</v>
@@ -11318,7 +11398,7 @@
         <v>28</v>
       </c>
       <c r="K259" s="31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L259" s="34" t="s">
         <v>20</v>
@@ -11329,13 +11409,13 @@
         <v>25</v>
       </c>
       <c r="C260" s="35">
-        <v>43603</v>
+        <v>43605</v>
       </c>
       <c r="D260" t="s">
         <v>30</v>
       </c>
       <c r="E260" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F260" s="34" t="s">
         <v>52</v>
@@ -11353,7 +11433,7 @@
         <v>25</v>
       </c>
       <c r="K260" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L260" s="34" t="s">
         <v>20</v>
@@ -11364,7 +11444,7 @@
         <v>10</v>
       </c>
       <c r="C261" s="35">
-        <v>43603</v>
+        <v>43605</v>
       </c>
       <c r="D261" s="36" t="s">
         <v>60</v>
@@ -11399,13 +11479,13 @@
         <v>22</v>
       </c>
       <c r="C262" s="35">
-        <v>43603</v>
+        <v>43605</v>
       </c>
       <c r="D262" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E262" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F262" s="34" t="s">
         <v>104</v>
@@ -11423,7 +11503,7 @@
         <v>19</v>
       </c>
       <c r="K262" s="31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L262" s="34" t="s">
         <v>20</v>
@@ -11434,16 +11514,16 @@
         <v>10</v>
       </c>
       <c r="C263" s="35">
-        <v>43603</v>
+        <v>43605</v>
       </c>
       <c r="D263" t="s">
         <v>30</v>
       </c>
       <c r="E263" t="s">
+        <v>406</v>
+      </c>
+      <c r="F263" s="34" t="s">
         <v>407</v>
-      </c>
-      <c r="F263" s="34" t="s">
-        <v>408</v>
       </c>
       <c r="G263" s="34">
         <v>1</v>
@@ -11458,469 +11538,1174 @@
         <v>28</v>
       </c>
       <c r="K263" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="L263" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B264" s="34">
+        <v>27</v>
+      </c>
+      <c r="C264" s="35">
+        <v>43605</v>
+      </c>
+      <c r="D264" t="s">
+        <v>30</v>
+      </c>
+      <c r="E264" t="s">
+        <v>295</v>
+      </c>
+      <c r="F264" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G264" s="34">
+        <v>1</v>
+      </c>
+      <c r="H264" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I264" t="s">
+        <v>98</v>
+      </c>
+      <c r="J264" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K264" s="31" t="s">
         <v>409</v>
       </c>
-      <c r="L263" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="264" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B264" s="12"/>
-      <c r="C264" s="10"/>
-      <c r="D264" s="13"/>
-      <c r="E264" s="13"/>
-      <c r="F264" s="9"/>
-      <c r="G264" s="9"/>
-      <c r="H264" s="9"/>
-      <c r="I264" s="13"/>
-      <c r="J264" s="9"/>
-      <c r="K264" s="29"/>
-      <c r="L264" s="9"/>
-    </row>
-    <row r="265" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B265" s="12"/>
-      <c r="C265" s="10"/>
-      <c r="D265" s="13"/>
-      <c r="E265" s="13"/>
-      <c r="F265" s="9"/>
-      <c r="G265" s="9"/>
-      <c r="H265" s="9"/>
-      <c r="I265" s="13"/>
-      <c r="J265" s="9"/>
-      <c r="K265" s="29"/>
-      <c r="L265" s="9"/>
-    </row>
-    <row r="266" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B266" s="12"/>
-      <c r="C266" s="10"/>
-      <c r="D266" s="13"/>
-      <c r="E266" s="13"/>
-      <c r="F266" s="9"/>
-      <c r="G266" s="9"/>
-      <c r="H266" s="9"/>
-      <c r="I266" s="13"/>
-      <c r="J266" s="9"/>
-      <c r="K266" s="29"/>
-      <c r="L266" s="9"/>
-    </row>
-    <row r="267" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B267" s="12"/>
-      <c r="C267" s="10"/>
-      <c r="D267" s="13"/>
-      <c r="E267" s="13"/>
-      <c r="F267" s="9"/>
-      <c r="G267" s="9"/>
-      <c r="H267" s="9"/>
-      <c r="I267" s="13"/>
-      <c r="J267" s="9"/>
-      <c r="K267" s="29"/>
-      <c r="L267" s="9"/>
-    </row>
-    <row r="268" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B268" s="12"/>
-      <c r="C268" s="10"/>
-      <c r="D268" s="13"/>
-      <c r="E268" s="13"/>
-      <c r="F268" s="9"/>
-      <c r="G268" s="9"/>
-      <c r="H268" s="9"/>
-      <c r="I268" s="13"/>
-      <c r="J268" s="9"/>
-      <c r="K268" s="29"/>
-      <c r="L268" s="9"/>
-    </row>
-    <row r="269" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B269" s="12"/>
-      <c r="C269" s="10"/>
-      <c r="D269" s="13"/>
-      <c r="E269" s="13"/>
-      <c r="F269" s="9"/>
-      <c r="G269" s="9"/>
-      <c r="H269" s="9"/>
-      <c r="I269" s="13"/>
-      <c r="J269" s="9"/>
-      <c r="K269" s="29"/>
-      <c r="L269" s="9"/>
-    </row>
-    <row r="270" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B270" s="12"/>
-      <c r="C270" s="10"/>
-      <c r="D270" s="13"/>
-      <c r="E270" s="13"/>
-      <c r="F270" s="9"/>
-      <c r="G270" s="9"/>
-      <c r="H270" s="9"/>
-      <c r="I270" s="13"/>
-      <c r="J270" s="9"/>
-      <c r="K270" s="29"/>
-      <c r="L270" s="9"/>
-    </row>
-    <row r="271" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B271" s="12"/>
-      <c r="C271" s="10"/>
-      <c r="D271" s="13"/>
-      <c r="E271" s="13"/>
-      <c r="F271" s="9"/>
-      <c r="G271" s="9"/>
-      <c r="H271" s="9"/>
-      <c r="I271" s="13"/>
-      <c r="J271" s="9"/>
-      <c r="K271" s="29"/>
-      <c r="L271" s="9"/>
-    </row>
-    <row r="272" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B272" s="12"/>
-      <c r="C272" s="10"/>
-      <c r="D272" s="13"/>
-      <c r="E272" s="13"/>
-      <c r="F272" s="9"/>
-      <c r="G272" s="9"/>
-      <c r="H272" s="9"/>
-      <c r="I272" s="13"/>
-      <c r="J272" s="9"/>
-      <c r="K272" s="29"/>
-      <c r="L272" s="9"/>
-    </row>
-    <row r="273" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B273" s="12"/>
-      <c r="C273" s="10"/>
-      <c r="D273" s="13"/>
-      <c r="E273" s="13"/>
-      <c r="F273" s="9"/>
-      <c r="G273" s="9"/>
-      <c r="H273" s="9"/>
-      <c r="I273" s="13"/>
-      <c r="J273" s="9"/>
-      <c r="K273" s="29"/>
-      <c r="L273" s="9"/>
-    </row>
-    <row r="274" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B274" s="12"/>
-      <c r="C274" s="10"/>
-      <c r="D274" s="13"/>
-      <c r="E274" s="13"/>
-      <c r="F274" s="9"/>
-      <c r="G274" s="9"/>
-      <c r="H274" s="9"/>
-      <c r="I274" s="13"/>
-      <c r="J274" s="9"/>
-      <c r="K274" s="29"/>
-      <c r="L274" s="9"/>
-    </row>
-    <row r="275" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B275" s="12"/>
-      <c r="C275" s="10"/>
-      <c r="D275" s="13"/>
-      <c r="E275" s="13"/>
-      <c r="F275" s="9"/>
-      <c r="G275" s="9"/>
-      <c r="H275" s="9"/>
-      <c r="I275" s="13"/>
-      <c r="J275" s="9"/>
-      <c r="K275" s="29"/>
-      <c r="L275" s="9"/>
-    </row>
-    <row r="276" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B276" s="12"/>
-      <c r="C276" s="10"/>
-      <c r="D276"/>
-      <c r="E276"/>
-      <c r="F276" s="9"/>
-      <c r="G276" s="9"/>
-      <c r="H276" s="9"/>
-      <c r="I276"/>
-      <c r="J276" s="9"/>
-      <c r="K276" s="31"/>
-      <c r="L276" s="9"/>
-    </row>
-    <row r="277" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B277" s="12"/>
-      <c r="C277" s="10"/>
-      <c r="D277"/>
-      <c r="E277"/>
-      <c r="F277" s="9"/>
-      <c r="G277" s="9"/>
-      <c r="H277" s="9"/>
-      <c r="I277"/>
-      <c r="J277" s="9"/>
-      <c r="K277" s="31"/>
-      <c r="L277" s="9"/>
-    </row>
-    <row r="278" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B278" s="12"/>
-      <c r="C278" s="10"/>
-      <c r="D278"/>
-      <c r="E278"/>
-      <c r="F278" s="9"/>
-      <c r="G278" s="9"/>
-      <c r="H278" s="9"/>
-      <c r="I278"/>
-      <c r="J278" s="9"/>
-      <c r="K278" s="31"/>
-      <c r="L278" s="9"/>
-      <c r="M278" s="3"/>
-      <c r="N278" s="3"/>
-      <c r="O278" s="3"/>
-      <c r="P278" s="3"/>
-      <c r="Q278" s="3"/>
-      <c r="R278" s="3"/>
-      <c r="S278" s="3"/>
-    </row>
-    <row r="279" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B279" s="12"/>
-      <c r="C279" s="10"/>
-      <c r="D279"/>
-      <c r="E279"/>
-      <c r="F279" s="9"/>
-      <c r="G279" s="9"/>
-      <c r="H279" s="9"/>
-      <c r="I279"/>
-      <c r="J279" s="9"/>
-      <c r="K279" s="31"/>
-      <c r="L279" s="9"/>
-      <c r="M279" s="3"/>
-      <c r="N279" s="3"/>
-      <c r="O279" s="3"/>
-      <c r="P279" s="3"/>
-      <c r="Q279" s="3"/>
-      <c r="R279" s="3"/>
-      <c r="S279" s="3"/>
-    </row>
-    <row r="280" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B280" s="12"/>
-      <c r="C280" s="10"/>
-      <c r="D280"/>
-      <c r="E280"/>
-      <c r="F280" s="9"/>
-      <c r="G280" s="9"/>
-      <c r="H280" s="9"/>
-      <c r="I280"/>
-      <c r="J280" s="9"/>
-      <c r="K280" s="31"/>
-      <c r="L280" s="9"/>
-      <c r="M280" s="3"/>
-      <c r="N280" s="3"/>
-      <c r="O280" s="3"/>
-      <c r="P280" s="3"/>
-      <c r="Q280" s="3"/>
-      <c r="R280" s="3"/>
-      <c r="S280" s="3"/>
-    </row>
-    <row r="281" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B281" s="12"/>
-      <c r="C281" s="10"/>
-      <c r="D281"/>
-      <c r="E281"/>
-      <c r="F281" s="9"/>
-      <c r="G281" s="9"/>
-      <c r="H281" s="9"/>
-      <c r="I281"/>
-      <c r="J281" s="9"/>
-      <c r="K281" s="31"/>
-      <c r="L281" s="9"/>
-      <c r="M281" s="3"/>
-      <c r="N281" s="3"/>
-      <c r="O281" s="3"/>
-      <c r="P281" s="3"/>
-      <c r="Q281" s="3"/>
-      <c r="R281" s="3"/>
-      <c r="S281" s="3"/>
-    </row>
-    <row r="282" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B282" s="12"/>
-      <c r="C282" s="10"/>
-      <c r="D282"/>
-      <c r="E282"/>
-      <c r="F282" s="9"/>
-      <c r="G282" s="9"/>
-      <c r="H282" s="9"/>
-      <c r="I282"/>
-      <c r="J282" s="9"/>
-      <c r="K282" s="31"/>
-      <c r="L282" s="9"/>
-      <c r="M282" s="3"/>
-      <c r="N282" s="3"/>
-      <c r="O282" s="3"/>
-      <c r="P282" s="3"/>
-      <c r="Q282" s="3"/>
-      <c r="R282" s="3"/>
-      <c r="S282" s="3"/>
-      <c r="T282" s="3"/>
-    </row>
-    <row r="283" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B283" s="12"/>
-      <c r="C283" s="10"/>
-      <c r="D283"/>
-      <c r="E283"/>
-      <c r="F283" s="9"/>
-      <c r="G283" s="9"/>
-      <c r="H283" s="9"/>
-      <c r="I283"/>
-      <c r="J283" s="9"/>
-      <c r="K283" s="31"/>
-      <c r="L283" s="9"/>
-      <c r="M283" s="3"/>
-      <c r="N283" s="3"/>
-      <c r="O283" s="3"/>
-      <c r="P283" s="3"/>
-      <c r="Q283" s="3"/>
-      <c r="R283" s="3"/>
-      <c r="S283" s="3"/>
-      <c r="T283" s="3"/>
-    </row>
-    <row r="284" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B284" s="12"/>
-      <c r="C284" s="10"/>
-      <c r="D284"/>
-      <c r="E284"/>
-      <c r="F284" s="9"/>
-      <c r="G284" s="9"/>
-      <c r="H284" s="9"/>
-      <c r="I284"/>
-      <c r="J284" s="9"/>
-      <c r="K284" s="31"/>
-      <c r="L284" s="9"/>
-      <c r="M284" s="3"/>
-      <c r="N284" s="3"/>
-      <c r="O284" s="3"/>
-      <c r="P284" s="3"/>
-      <c r="Q284" s="3"/>
-      <c r="R284" s="3"/>
-      <c r="S284" s="3"/>
-      <c r="T284" s="3"/>
-    </row>
-    <row r="285" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B285" s="12"/>
-      <c r="C285" s="10"/>
-      <c r="D285"/>
-      <c r="E285"/>
-      <c r="F285" s="9"/>
-      <c r="G285" s="9"/>
-      <c r="H285" s="9"/>
-      <c r="I285"/>
-      <c r="J285" s="9"/>
-      <c r="K285" s="31"/>
-      <c r="L285" s="9"/>
-      <c r="M285" s="3"/>
-      <c r="N285" s="3"/>
-      <c r="O285" s="3"/>
-      <c r="P285" s="3"/>
-      <c r="Q285" s="3"/>
-      <c r="R285" s="3"/>
-      <c r="S285" s="3"/>
-      <c r="T285" s="3"/>
-    </row>
-    <row r="286" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="L264" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B265" s="34">
+        <v>26</v>
+      </c>
+      <c r="C265" s="35">
+        <v>43605</v>
+      </c>
+      <c r="D265" t="s">
+        <v>309</v>
+      </c>
+      <c r="E265" t="s">
+        <v>310</v>
+      </c>
+      <c r="F265" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="G265" s="34">
+        <v>1</v>
+      </c>
+      <c r="H265" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I265" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J265" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K265" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="L265" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="266" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B266" s="34">
+        <v>10</v>
+      </c>
+      <c r="C266" s="35">
+        <v>43605</v>
+      </c>
+      <c r="D266" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E266" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="F266" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="G266" s="34">
+        <v>1</v>
+      </c>
+      <c r="H266" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I266" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J266" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K266" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="L266" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B267" s="34">
+        <v>22</v>
+      </c>
+      <c r="C267" s="35">
+        <v>43605</v>
+      </c>
+      <c r="D267" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E267" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="F267" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G267" s="34">
+        <v>1</v>
+      </c>
+      <c r="H267" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I267" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J267" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K267" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="L267" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="268" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B268" s="34">
+        <v>25</v>
+      </c>
+      <c r="C268" s="35">
+        <v>43605</v>
+      </c>
+      <c r="D268" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E268" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F268" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G268" s="34">
+        <v>1</v>
+      </c>
+      <c r="H268" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I268" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J268" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K268" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="L268" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B269" s="34">
+        <v>25</v>
+      </c>
+      <c r="C269" s="35">
+        <v>43606</v>
+      </c>
+      <c r="D269" t="s">
+        <v>412</v>
+      </c>
+      <c r="E269" t="s">
+        <v>412</v>
+      </c>
+      <c r="F269" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G269" s="34">
+        <v>1</v>
+      </c>
+      <c r="H269" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I269" t="s">
+        <v>376</v>
+      </c>
+      <c r="J269" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K269" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="L269" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="270" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B270" s="34">
+        <v>25</v>
+      </c>
+      <c r="C270" s="35">
+        <v>43606</v>
+      </c>
+      <c r="D270" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E270" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="F270" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G270" s="34">
+        <v>1</v>
+      </c>
+      <c r="H270" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I270" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J270" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K270" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="L270" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B271" s="34">
+        <v>26</v>
+      </c>
+      <c r="C271" s="35">
+        <v>43606</v>
+      </c>
+      <c r="D271" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E271" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="F271" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G271" s="34">
+        <v>1</v>
+      </c>
+      <c r="H271" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I271" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J271" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K271" t="s">
+        <v>234</v>
+      </c>
+      <c r="L271" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B272" s="34">
+        <v>26</v>
+      </c>
+      <c r="C272" s="35">
+        <v>43606</v>
+      </c>
+      <c r="D272" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="E272" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="F272" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G272" s="34">
+        <v>1</v>
+      </c>
+      <c r="H272" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I272" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="J272" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K272" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="L272" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="273" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B273" s="34">
+        <v>26</v>
+      </c>
+      <c r="C273" s="35">
+        <v>43606</v>
+      </c>
+      <c r="D273" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E273" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="F273" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G273" s="34">
+        <v>1</v>
+      </c>
+      <c r="H273" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I273" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J273" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K273" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="L273" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B274" s="9">
+        <v>29</v>
+      </c>
+      <c r="C274" s="35">
+        <v>43606</v>
+      </c>
+      <c r="D274" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E274" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F274" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G274" s="9">
+        <v>1</v>
+      </c>
+      <c r="H274" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I274" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J274" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K274" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="L274" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B275" s="34">
+        <v>29</v>
+      </c>
+      <c r="C275" s="35">
+        <v>43606</v>
+      </c>
+      <c r="D275" t="s">
+        <v>165</v>
+      </c>
+      <c r="E275" t="s">
+        <v>165</v>
+      </c>
+      <c r="F275" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="G275" s="34">
+        <v>1</v>
+      </c>
+      <c r="H275" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I275" t="s">
+        <v>24</v>
+      </c>
+      <c r="J275" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K275" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="L275" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B276" s="34">
+        <v>29</v>
+      </c>
+      <c r="C276" s="35">
+        <v>43606</v>
+      </c>
+      <c r="D276" t="s">
+        <v>30</v>
+      </c>
+      <c r="E276" t="s">
+        <v>421</v>
+      </c>
+      <c r="F276" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="G276" s="34">
+        <v>1</v>
+      </c>
+      <c r="H276" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I276" t="s">
+        <v>29</v>
+      </c>
+      <c r="J276" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K276" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="L276" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B277" s="34">
+        <v>25</v>
+      </c>
+      <c r="C277" s="35">
+        <v>43606</v>
+      </c>
+      <c r="D277" t="s">
+        <v>30</v>
+      </c>
+      <c r="E277" t="s">
+        <v>403</v>
+      </c>
+      <c r="F277" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G277" s="34">
+        <v>1</v>
+      </c>
+      <c r="H277" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I277" t="s">
+        <v>26</v>
+      </c>
+      <c r="J277" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K277" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="L277" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B278" s="34">
+        <v>25</v>
+      </c>
+      <c r="C278" s="35">
+        <v>43606</v>
+      </c>
+      <c r="D278" t="s">
+        <v>122</v>
+      </c>
+      <c r="E278" t="s">
+        <v>423</v>
+      </c>
+      <c r="F278" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G278" s="34">
+        <v>1</v>
+      </c>
+      <c r="H278" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I278" t="s">
+        <v>87</v>
+      </c>
+      <c r="J278" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K278" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="L278" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B279" s="34">
+        <v>25</v>
+      </c>
+      <c r="C279" s="35">
+        <v>43606</v>
+      </c>
+      <c r="D279" t="s">
+        <v>122</v>
+      </c>
+      <c r="E279" t="s">
+        <v>425</v>
+      </c>
+      <c r="F279" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G279" s="34">
+        <v>1</v>
+      </c>
+      <c r="H279" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I279" t="s">
+        <v>87</v>
+      </c>
+      <c r="J279" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K279" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="L279" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="280" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B280" s="34">
+        <v>22</v>
+      </c>
+      <c r="C280" s="35">
+        <v>43606</v>
+      </c>
+      <c r="D280" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E280" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="F280" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G280" s="34">
+        <v>1</v>
+      </c>
+      <c r="H280" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I280" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J280" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K280" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="L280" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B281" s="34">
+        <v>25</v>
+      </c>
+      <c r="C281" s="35">
+        <v>43606</v>
+      </c>
+      <c r="D281" t="s">
+        <v>122</v>
+      </c>
+      <c r="E281" t="s">
+        <v>428</v>
+      </c>
+      <c r="F281" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G281" s="34">
+        <v>1</v>
+      </c>
+      <c r="H281" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I281" t="s">
+        <v>87</v>
+      </c>
+      <c r="J281" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K281" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="L281" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="282" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B282" s="34">
+        <v>25</v>
+      </c>
+      <c r="C282" s="35">
+        <v>43606</v>
+      </c>
+      <c r="D282" t="s">
+        <v>430</v>
+      </c>
+      <c r="E282" t="s">
+        <v>430</v>
+      </c>
+      <c r="F282" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="G282" s="34">
+        <v>1</v>
+      </c>
+      <c r="H282" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I282" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J282" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K282" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="L282" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B283" s="34">
+        <v>6</v>
+      </c>
+      <c r="C283" s="35">
+        <v>43606</v>
+      </c>
+      <c r="D283" t="s">
+        <v>30</v>
+      </c>
+      <c r="E283" t="s">
+        <v>351</v>
+      </c>
+      <c r="F283" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G283" s="34">
+        <v>1</v>
+      </c>
+      <c r="H283" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I283" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J283" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K283" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="L283" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B284" s="34">
+        <v>6</v>
+      </c>
+      <c r="C284" s="35">
+        <v>43606</v>
+      </c>
+      <c r="D284" t="s">
+        <v>434</v>
+      </c>
+      <c r="E284" t="s">
+        <v>434</v>
+      </c>
+      <c r="F284" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="G284" s="34">
+        <v>1</v>
+      </c>
+      <c r="H284" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I284" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J284" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K284" t="s">
+        <v>435</v>
+      </c>
+      <c r="L284" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B285" s="34">
+        <v>25</v>
+      </c>
+      <c r="C285" s="35">
+        <v>43606</v>
+      </c>
+      <c r="D285" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E285" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F285" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G285" s="34">
+        <v>1</v>
+      </c>
+      <c r="H285" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I285" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J285" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K285" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="L285" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="286" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
       <c r="B286" s="12"/>
-      <c r="C286" s="10"/>
-      <c r="D286" s="13"/>
-      <c r="E286" s="13"/>
-      <c r="F286" s="25"/>
-      <c r="G286" s="9"/>
-      <c r="H286" s="9"/>
-      <c r="I286" s="13"/>
-      <c r="J286" s="9"/>
-      <c r="K286" s="13"/>
-      <c r="L286" s="9"/>
-      <c r="M286" s="3"/>
-      <c r="N286" s="3"/>
-      <c r="O286" s="3"/>
-      <c r="P286" s="3"/>
-      <c r="Q286" s="3"/>
-      <c r="R286" s="3"/>
-      <c r="S286" s="3"/>
-      <c r="T286" s="3"/>
-    </row>
-    <row r="287" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="C286" s="35"/>
+      <c r="D286" s="36"/>
+      <c r="E286" s="36"/>
+      <c r="F286" s="34"/>
+      <c r="G286" s="34"/>
+      <c r="H286" s="34"/>
+      <c r="I286" s="36"/>
+      <c r="J286" s="34"/>
+      <c r="K286"/>
+      <c r="L286" s="34"/>
+    </row>
+    <row r="287" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
       <c r="B287" s="12"/>
-      <c r="C287" s="10"/>
-      <c r="D287" s="13"/>
-      <c r="E287" s="13"/>
-      <c r="F287" s="25"/>
-      <c r="G287" s="9"/>
-      <c r="H287" s="9"/>
-      <c r="I287" s="13"/>
-      <c r="J287" s="9"/>
-      <c r="K287" s="13"/>
-      <c r="L287" s="9"/>
-      <c r="M287" s="3"/>
-      <c r="N287" s="3"/>
-      <c r="O287" s="3"/>
-      <c r="P287" s="3"/>
-      <c r="Q287" s="3"/>
-      <c r="R287" s="3"/>
-      <c r="S287" s="3"/>
-      <c r="T287" s="3"/>
-    </row>
-    <row r="288" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="C287" s="35"/>
+      <c r="D287" s="36"/>
+      <c r="E287" s="36"/>
+      <c r="F287" s="34"/>
+      <c r="G287" s="34"/>
+      <c r="H287" s="34"/>
+      <c r="I287" s="36"/>
+      <c r="J287" s="34"/>
+      <c r="K287"/>
+      <c r="L287" s="34"/>
+    </row>
+    <row r="288" spans="2:12" s="33" customFormat="1" ht="21.75" customHeight="1">
       <c r="B288" s="12"/>
-      <c r="C288" s="10"/>
-      <c r="D288" s="13"/>
-      <c r="E288" s="13"/>
-      <c r="F288" s="25"/>
-      <c r="G288" s="9"/>
-      <c r="H288" s="9"/>
-      <c r="I288" s="13"/>
-      <c r="J288" s="9"/>
-      <c r="K288" s="13"/>
-      <c r="L288" s="9"/>
-      <c r="M288" s="3"/>
-      <c r="N288" s="3"/>
-      <c r="O288" s="3"/>
-      <c r="P288" s="3"/>
-      <c r="Q288" s="3"/>
-      <c r="R288" s="3"/>
-      <c r="S288" s="3"/>
-      <c r="T288" s="3"/>
-    </row>
-    <row r="289" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B289" s="39" t="s">
+      <c r="C288" s="35"/>
+      <c r="D288" s="36"/>
+      <c r="E288" s="36"/>
+      <c r="F288" s="34"/>
+      <c r="G288" s="34"/>
+      <c r="H288" s="34"/>
+      <c r="I288" s="36"/>
+      <c r="J288" s="34"/>
+      <c r="K288"/>
+      <c r="L288" s="34"/>
+    </row>
+    <row r="289" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B289" s="12"/>
+      <c r="C289" s="10"/>
+      <c r="D289" s="13"/>
+      <c r="E289" s="13"/>
+      <c r="F289" s="9"/>
+      <c r="G289" s="9"/>
+      <c r="H289" s="9"/>
+      <c r="I289" s="13"/>
+      <c r="J289" s="9"/>
+      <c r="K289" s="29"/>
+      <c r="L289" s="9"/>
+    </row>
+    <row r="290" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B290" s="12"/>
+      <c r="C290" s="10"/>
+      <c r="D290" s="13"/>
+      <c r="E290" s="13"/>
+      <c r="F290" s="9"/>
+      <c r="G290" s="9"/>
+      <c r="H290" s="9"/>
+      <c r="I290" s="13"/>
+      <c r="J290" s="9"/>
+      <c r="K290" s="29"/>
+      <c r="L290" s="9"/>
+    </row>
+    <row r="291" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B291" s="12"/>
+      <c r="C291" s="10"/>
+      <c r="D291" s="13"/>
+      <c r="E291" s="13"/>
+      <c r="F291" s="9"/>
+      <c r="G291" s="9"/>
+      <c r="H291" s="9"/>
+      <c r="I291" s="13"/>
+      <c r="J291" s="9"/>
+      <c r="K291" s="29"/>
+      <c r="L291" s="9"/>
+    </row>
+    <row r="292" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B292" s="12"/>
+      <c r="C292" s="10"/>
+      <c r="D292" s="13"/>
+      <c r="E292" s="13"/>
+      <c r="F292" s="9"/>
+      <c r="G292" s="9"/>
+      <c r="H292" s="9"/>
+      <c r="I292" s="13"/>
+      <c r="J292" s="9"/>
+      <c r="K292" s="29"/>
+      <c r="L292" s="9"/>
+    </row>
+    <row r="293" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B293" s="12"/>
+      <c r="C293" s="10"/>
+      <c r="D293"/>
+      <c r="E293"/>
+      <c r="F293" s="9"/>
+      <c r="G293" s="9"/>
+      <c r="H293" s="9"/>
+      <c r="I293"/>
+      <c r="J293" s="9"/>
+      <c r="K293" s="31"/>
+      <c r="L293" s="9"/>
+    </row>
+    <row r="294" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B294" s="12"/>
+      <c r="C294" s="10"/>
+      <c r="D294"/>
+      <c r="E294"/>
+      <c r="F294" s="9"/>
+      <c r="G294" s="9"/>
+      <c r="H294" s="9"/>
+      <c r="I294"/>
+      <c r="J294" s="9"/>
+      <c r="K294" s="31"/>
+      <c r="L294" s="9"/>
+    </row>
+    <row r="295" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B295" s="12"/>
+      <c r="C295" s="10"/>
+      <c r="D295"/>
+      <c r="E295"/>
+      <c r="F295" s="9"/>
+      <c r="G295" s="9"/>
+      <c r="H295" s="9"/>
+      <c r="I295"/>
+      <c r="J295" s="9"/>
+      <c r="K295" s="31"/>
+      <c r="L295" s="9"/>
+      <c r="M295" s="3"/>
+      <c r="N295" s="3"/>
+      <c r="O295" s="3"/>
+      <c r="P295" s="3"/>
+      <c r="Q295" s="3"/>
+      <c r="R295" s="3"/>
+      <c r="S295" s="3"/>
+    </row>
+    <row r="296" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B296" s="12"/>
+      <c r="C296" s="10"/>
+      <c r="D296"/>
+      <c r="E296"/>
+      <c r="F296" s="9"/>
+      <c r="G296" s="9"/>
+      <c r="H296" s="9"/>
+      <c r="I296"/>
+      <c r="J296" s="9"/>
+      <c r="K296" s="31"/>
+      <c r="L296" s="9"/>
+      <c r="M296" s="3"/>
+      <c r="N296" s="3"/>
+      <c r="O296" s="3"/>
+      <c r="P296" s="3"/>
+      <c r="Q296" s="3"/>
+      <c r="R296" s="3"/>
+      <c r="S296" s="3"/>
+    </row>
+    <row r="297" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B297" s="12"/>
+      <c r="C297" s="10"/>
+      <c r="D297"/>
+      <c r="E297"/>
+      <c r="F297" s="9"/>
+      <c r="G297" s="9"/>
+      <c r="H297" s="9"/>
+      <c r="I297"/>
+      <c r="J297" s="9"/>
+      <c r="K297" s="31"/>
+      <c r="L297" s="9"/>
+      <c r="M297" s="3"/>
+      <c r="N297" s="3"/>
+      <c r="O297" s="3"/>
+      <c r="P297" s="3"/>
+      <c r="Q297" s="3"/>
+      <c r="R297" s="3"/>
+      <c r="S297" s="3"/>
+    </row>
+    <row r="298" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B298" s="12"/>
+      <c r="C298" s="10"/>
+      <c r="D298"/>
+      <c r="E298"/>
+      <c r="F298" s="9"/>
+      <c r="G298" s="9"/>
+      <c r="H298" s="9"/>
+      <c r="I298"/>
+      <c r="J298" s="9"/>
+      <c r="K298" s="31"/>
+      <c r="L298" s="9"/>
+      <c r="M298" s="3"/>
+      <c r="N298" s="3"/>
+      <c r="O298" s="3"/>
+      <c r="P298" s="3"/>
+      <c r="Q298" s="3"/>
+      <c r="R298" s="3"/>
+      <c r="S298" s="3"/>
+    </row>
+    <row r="299" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B299" s="12"/>
+      <c r="C299" s="10"/>
+      <c r="D299"/>
+      <c r="E299"/>
+      <c r="F299" s="9"/>
+      <c r="G299" s="9"/>
+      <c r="H299" s="9"/>
+      <c r="I299"/>
+      <c r="J299" s="9"/>
+      <c r="K299" s="31"/>
+      <c r="L299" s="9"/>
+      <c r="M299" s="3"/>
+      <c r="N299" s="3"/>
+      <c r="O299" s="3"/>
+      <c r="P299" s="3"/>
+      <c r="Q299" s="3"/>
+      <c r="R299" s="3"/>
+      <c r="S299" s="3"/>
+      <c r="T299" s="3"/>
+    </row>
+    <row r="300" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B300" s="12"/>
+      <c r="C300" s="10"/>
+      <c r="D300"/>
+      <c r="E300"/>
+      <c r="F300" s="9"/>
+      <c r="G300" s="9"/>
+      <c r="H300" s="9"/>
+      <c r="I300"/>
+      <c r="J300" s="9"/>
+      <c r="K300" s="31"/>
+      <c r="L300" s="9"/>
+      <c r="M300" s="3"/>
+      <c r="N300" s="3"/>
+      <c r="O300" s="3"/>
+      <c r="P300" s="3"/>
+      <c r="Q300" s="3"/>
+      <c r="R300" s="3"/>
+      <c r="S300" s="3"/>
+      <c r="T300" s="3"/>
+    </row>
+    <row r="301" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B301" s="12"/>
+      <c r="C301" s="10"/>
+      <c r="D301"/>
+      <c r="E301"/>
+      <c r="F301" s="9"/>
+      <c r="G301" s="9"/>
+      <c r="H301" s="9"/>
+      <c r="I301"/>
+      <c r="J301" s="9"/>
+      <c r="K301" s="31"/>
+      <c r="L301" s="9"/>
+      <c r="M301" s="3"/>
+      <c r="N301" s="3"/>
+      <c r="O301" s="3"/>
+      <c r="P301" s="3"/>
+      <c r="Q301" s="3"/>
+      <c r="R301" s="3"/>
+      <c r="S301" s="3"/>
+      <c r="T301" s="3"/>
+    </row>
+    <row r="302" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B302" s="12"/>
+      <c r="C302" s="10"/>
+      <c r="D302"/>
+      <c r="E302"/>
+      <c r="F302" s="9"/>
+      <c r="G302" s="9"/>
+      <c r="H302" s="9"/>
+      <c r="I302"/>
+      <c r="J302" s="9"/>
+      <c r="K302" s="31"/>
+      <c r="L302" s="9"/>
+      <c r="M302" s="3"/>
+      <c r="N302" s="3"/>
+      <c r="O302" s="3"/>
+      <c r="P302" s="3"/>
+      <c r="Q302" s="3"/>
+      <c r="R302" s="3"/>
+      <c r="S302" s="3"/>
+      <c r="T302" s="3"/>
+    </row>
+    <row r="303" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B303" s="12"/>
+      <c r="C303" s="10"/>
+      <c r="D303" s="13"/>
+      <c r="E303" s="13"/>
+      <c r="F303" s="25"/>
+      <c r="G303" s="9"/>
+      <c r="H303" s="9"/>
+      <c r="I303" s="13"/>
+      <c r="J303" s="9"/>
+      <c r="K303" s="13"/>
+      <c r="L303" s="9"/>
+      <c r="M303" s="3"/>
+      <c r="N303" s="3"/>
+      <c r="O303" s="3"/>
+      <c r="P303" s="3"/>
+      <c r="Q303" s="3"/>
+      <c r="R303" s="3"/>
+      <c r="S303" s="3"/>
+      <c r="T303" s="3"/>
+    </row>
+    <row r="304" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B304" s="12"/>
+      <c r="C304" s="10"/>
+      <c r="D304" s="13"/>
+      <c r="E304" s="13"/>
+      <c r="F304" s="25"/>
+      <c r="G304" s="9"/>
+      <c r="H304" s="9"/>
+      <c r="I304" s="13"/>
+      <c r="J304" s="9"/>
+      <c r="K304" s="13"/>
+      <c r="L304" s="9"/>
+      <c r="M304" s="3"/>
+      <c r="N304" s="3"/>
+      <c r="O304" s="3"/>
+      <c r="P304" s="3"/>
+      <c r="Q304" s="3"/>
+      <c r="R304" s="3"/>
+      <c r="S304" s="3"/>
+      <c r="T304" s="3"/>
+    </row>
+    <row r="305" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B305" s="12"/>
+      <c r="C305" s="10"/>
+      <c r="D305" s="13"/>
+      <c r="E305" s="13"/>
+      <c r="F305" s="25"/>
+      <c r="G305" s="9"/>
+      <c r="H305" s="9"/>
+      <c r="I305" s="13"/>
+      <c r="J305" s="9"/>
+      <c r="K305" s="13"/>
+      <c r="L305" s="9"/>
+      <c r="M305" s="3"/>
+      <c r="N305" s="3"/>
+      <c r="O305" s="3"/>
+      <c r="P305" s="3"/>
+      <c r="Q305" s="3"/>
+      <c r="R305" s="3"/>
+      <c r="S305" s="3"/>
+      <c r="T305" s="3"/>
+    </row>
+    <row r="306" spans="2:20" ht="21.75" customHeight="1">
+      <c r="B306" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C289" s="40"/>
-      <c r="D289" s="14"/>
-      <c r="E289" s="14"/>
-      <c r="F289" s="15"/>
-      <c r="G289" s="15">
-        <f>SUM(G3:G288)</f>
-        <v>260</v>
-      </c>
-      <c r="H289" s="15"/>
-      <c r="I289" s="15"/>
-      <c r="J289" s="9"/>
-      <c r="K289" s="21"/>
-      <c r="L289" s="9"/>
-    </row>
-    <row r="291" spans="2:12" ht="75" customHeight="1">
-      <c r="B291" s="41"/>
-      <c r="C291" s="42"/>
-      <c r="D291" s="42"/>
-      <c r="E291" s="42"/>
-      <c r="F291" s="42"/>
-      <c r="G291" s="42"/>
-      <c r="H291" s="42"/>
-      <c r="I291" s="42"/>
-      <c r="J291" s="43"/>
-      <c r="K291" s="22"/>
-      <c r="L291" s="23"/>
+      <c r="C306" s="43"/>
+      <c r="D306" s="14"/>
+      <c r="E306" s="14"/>
+      <c r="F306" s="15"/>
+      <c r="G306" s="15">
+        <f>SUM(G3:G305)</f>
+        <v>281</v>
+      </c>
+      <c r="H306" s="15"/>
+      <c r="I306" s="15"/>
+      <c r="J306" s="9"/>
+      <c r="K306" s="21"/>
+      <c r="L306" s="9"/>
+    </row>
+    <row r="308" spans="2:20" ht="75" customHeight="1">
+      <c r="B308" s="44"/>
+      <c r="C308" s="45"/>
+      <c r="D308" s="45"/>
+      <c r="E308" s="45"/>
+      <c r="F308" s="45"/>
+      <c r="G308" s="45"/>
+      <c r="H308" s="45"/>
+      <c r="I308" s="45"/>
+      <c r="J308" s="46"/>
+      <c r="K308" s="22"/>
+      <c r="L308" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L289"/>
+  <autoFilter ref="C2:L306"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="B291:J291"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="B308:J308"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J289">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J306">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J288">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J56 J58:J305">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11939,145 +12724,165 @@
     <hyperlink ref="K47" r:id="rId12"/>
     <hyperlink ref="K53" r:id="rId13"/>
     <hyperlink ref="K56" r:id="rId14"/>
-    <hyperlink ref="K57" r:id="rId15"/>
-    <hyperlink ref="K58" r:id="rId16"/>
-    <hyperlink ref="K59" r:id="rId17"/>
-    <hyperlink ref="K60" r:id="rId18"/>
-    <hyperlink ref="K61" r:id="rId19"/>
-    <hyperlink ref="K62" r:id="rId20"/>
-    <hyperlink ref="K65" r:id="rId21"/>
-    <hyperlink ref="K66" r:id="rId22"/>
-    <hyperlink ref="K67" r:id="rId23"/>
-    <hyperlink ref="K71" r:id="rId24"/>
-    <hyperlink ref="K72" r:id="rId25"/>
-    <hyperlink ref="K74" r:id="rId26"/>
-    <hyperlink ref="K75" r:id="rId27"/>
-    <hyperlink ref="K76" r:id="rId28"/>
-    <hyperlink ref="K79" r:id="rId29"/>
-    <hyperlink ref="K80" r:id="rId30"/>
-    <hyperlink ref="K81" r:id="rId31"/>
-    <hyperlink ref="K82" r:id="rId32"/>
-    <hyperlink ref="K83" r:id="rId33"/>
-    <hyperlink ref="K84" r:id="rId34"/>
-    <hyperlink ref="K87" r:id="rId35"/>
-    <hyperlink ref="K88" r:id="rId36"/>
-    <hyperlink ref="K92" r:id="rId37"/>
-    <hyperlink ref="K93" r:id="rId38"/>
-    <hyperlink ref="K95" r:id="rId39"/>
-    <hyperlink ref="K98" r:id="rId40"/>
-    <hyperlink ref="K96" r:id="rId41"/>
-    <hyperlink ref="K97" r:id="rId42"/>
-    <hyperlink ref="K99" r:id="rId43"/>
-    <hyperlink ref="K100" r:id="rId44"/>
-    <hyperlink ref="K102" r:id="rId45"/>
-    <hyperlink ref="K104" r:id="rId46"/>
-    <hyperlink ref="K105" r:id="rId47"/>
-    <hyperlink ref="K108" r:id="rId48"/>
-    <hyperlink ref="K106" r:id="rId49"/>
-    <hyperlink ref="K109" r:id="rId50"/>
-    <hyperlink ref="K111" r:id="rId51"/>
-    <hyperlink ref="K112" r:id="rId52"/>
-    <hyperlink ref="K107" r:id="rId53"/>
-    <hyperlink ref="K113" r:id="rId54"/>
-    <hyperlink ref="K115" r:id="rId55"/>
-    <hyperlink ref="K117" r:id="rId56"/>
-    <hyperlink ref="K118" r:id="rId57"/>
-    <hyperlink ref="K119" r:id="rId58"/>
-    <hyperlink ref="K120" r:id="rId59"/>
-    <hyperlink ref="K121:K122" r:id="rId60" display="https://xhbup.com/qianfei22/"/>
-    <hyperlink ref="K121" r:id="rId61"/>
-    <hyperlink ref="K122" r:id="rId62"/>
-    <hyperlink ref="K123" r:id="rId63"/>
-    <hyperlink ref="K124" r:id="rId64"/>
-    <hyperlink ref="K129" r:id="rId65"/>
-    <hyperlink ref="K132" r:id="rId66"/>
-    <hyperlink ref="K133" r:id="rId67"/>
-    <hyperlink ref="K134" r:id="rId68"/>
-    <hyperlink ref="K135" r:id="rId69"/>
-    <hyperlink ref="K136" r:id="rId70"/>
-    <hyperlink ref="K139" r:id="rId71"/>
-    <hyperlink ref="K138" r:id="rId72"/>
-    <hyperlink ref="K141" r:id="rId73"/>
-    <hyperlink ref="K142" r:id="rId74"/>
-    <hyperlink ref="K143" r:id="rId75"/>
-    <hyperlink ref="K145" r:id="rId76"/>
-    <hyperlink ref="K160" r:id="rId77"/>
-    <hyperlink ref="K162" r:id="rId78"/>
-    <hyperlink ref="K163" r:id="rId79"/>
-    <hyperlink ref="K166" r:id="rId80"/>
-    <hyperlink ref="K167" r:id="rId81"/>
-    <hyperlink ref="K168" r:id="rId82"/>
-    <hyperlink ref="K170" r:id="rId83"/>
-    <hyperlink ref="K172" r:id="rId84"/>
-    <hyperlink ref="K173" r:id="rId85"/>
-    <hyperlink ref="K174" r:id="rId86"/>
-    <hyperlink ref="K175" r:id="rId87"/>
-    <hyperlink ref="K177" r:id="rId88"/>
-    <hyperlink ref="K178" r:id="rId89"/>
-    <hyperlink ref="K179" r:id="rId90"/>
-    <hyperlink ref="K180" r:id="rId91"/>
-    <hyperlink ref="K181" r:id="rId92"/>
-    <hyperlink ref="K184" r:id="rId93"/>
-    <hyperlink ref="K186" r:id="rId94"/>
-    <hyperlink ref="K187" r:id="rId95"/>
-    <hyperlink ref="K192" r:id="rId96"/>
-    <hyperlink ref="K193" r:id="rId97"/>
-    <hyperlink ref="K194" r:id="rId98"/>
-    <hyperlink ref="K195" r:id="rId99"/>
-    <hyperlink ref="K196" r:id="rId100"/>
-    <hyperlink ref="K197" r:id="rId101"/>
-    <hyperlink ref="K198" r:id="rId102"/>
-    <hyperlink ref="K199" r:id="rId103"/>
-    <hyperlink ref="K200" r:id="rId104"/>
-    <hyperlink ref="K202" r:id="rId105"/>
-    <hyperlink ref="K203" r:id="rId106"/>
-    <hyperlink ref="K204" r:id="rId107"/>
-    <hyperlink ref="K205" r:id="rId108"/>
-    <hyperlink ref="K206" r:id="rId109"/>
-    <hyperlink ref="K207" r:id="rId110"/>
-    <hyperlink ref="K208" r:id="rId111"/>
-    <hyperlink ref="K209" r:id="rId112"/>
-    <hyperlink ref="K210" r:id="rId113"/>
-    <hyperlink ref="K211" r:id="rId114"/>
-    <hyperlink ref="K213" r:id="rId115"/>
-    <hyperlink ref="K215" r:id="rId116"/>
-    <hyperlink ref="K216" r:id="rId117"/>
-    <hyperlink ref="K217" r:id="rId118"/>
-    <hyperlink ref="K219" r:id="rId119"/>
-    <hyperlink ref="K220" r:id="rId120"/>
-    <hyperlink ref="K221" r:id="rId121"/>
-    <hyperlink ref="K222" r:id="rId122"/>
-    <hyperlink ref="K223" r:id="rId123"/>
-    <hyperlink ref="K224" r:id="rId124"/>
-    <hyperlink ref="K226" r:id="rId125"/>
-    <hyperlink ref="K228" r:id="rId126"/>
-    <hyperlink ref="K229" r:id="rId127"/>
-    <hyperlink ref="K233" r:id="rId128"/>
-    <hyperlink ref="K234" r:id="rId129"/>
-    <hyperlink ref="K235" r:id="rId130"/>
-    <hyperlink ref="K236" r:id="rId131"/>
-    <hyperlink ref="K237" r:id="rId132"/>
-    <hyperlink ref="K238" r:id="rId133"/>
-    <hyperlink ref="K239" r:id="rId134"/>
-    <hyperlink ref="K242" r:id="rId135"/>
-    <hyperlink ref="K244" r:id="rId136"/>
-    <hyperlink ref="K245" r:id="rId137"/>
-    <hyperlink ref="K246" r:id="rId138"/>
-    <hyperlink ref="K247" r:id="rId139"/>
-    <hyperlink ref="K251" r:id="rId140"/>
-    <hyperlink ref="K252" r:id="rId141"/>
-    <hyperlink ref="K254" r:id="rId142"/>
-    <hyperlink ref="K255" r:id="rId143"/>
-    <hyperlink ref="K256" r:id="rId144"/>
-    <hyperlink ref="K257" r:id="rId145"/>
-    <hyperlink ref="K258" r:id="rId146"/>
-    <hyperlink ref="K259" r:id="rId147"/>
-    <hyperlink ref="K260" r:id="rId148"/>
-    <hyperlink ref="K262" r:id="rId149"/>
-    <hyperlink ref="K263" r:id="rId150"/>
+    <hyperlink ref="K58" r:id="rId15"/>
+    <hyperlink ref="K59" r:id="rId16"/>
+    <hyperlink ref="K60" r:id="rId17"/>
+    <hyperlink ref="K61" r:id="rId18"/>
+    <hyperlink ref="K62" r:id="rId19"/>
+    <hyperlink ref="K65" r:id="rId20"/>
+    <hyperlink ref="K66" r:id="rId21"/>
+    <hyperlink ref="K67" r:id="rId22"/>
+    <hyperlink ref="K71" r:id="rId23"/>
+    <hyperlink ref="K72" r:id="rId24"/>
+    <hyperlink ref="K74" r:id="rId25"/>
+    <hyperlink ref="K75" r:id="rId26"/>
+    <hyperlink ref="K76" r:id="rId27"/>
+    <hyperlink ref="K79" r:id="rId28"/>
+    <hyperlink ref="K80" r:id="rId29"/>
+    <hyperlink ref="K81" r:id="rId30"/>
+    <hyperlink ref="K82" r:id="rId31"/>
+    <hyperlink ref="K83" r:id="rId32"/>
+    <hyperlink ref="K84" r:id="rId33"/>
+    <hyperlink ref="K87" r:id="rId34"/>
+    <hyperlink ref="K88" r:id="rId35"/>
+    <hyperlink ref="K92" r:id="rId36"/>
+    <hyperlink ref="K93" r:id="rId37"/>
+    <hyperlink ref="K95" r:id="rId38"/>
+    <hyperlink ref="K98" r:id="rId39"/>
+    <hyperlink ref="K96" r:id="rId40"/>
+    <hyperlink ref="K97" r:id="rId41"/>
+    <hyperlink ref="K99" r:id="rId42"/>
+    <hyperlink ref="K100" r:id="rId43"/>
+    <hyperlink ref="K102" r:id="rId44"/>
+    <hyperlink ref="K104" r:id="rId45"/>
+    <hyperlink ref="K105" r:id="rId46"/>
+    <hyperlink ref="K108" r:id="rId47"/>
+    <hyperlink ref="K106" r:id="rId48"/>
+    <hyperlink ref="K109" r:id="rId49"/>
+    <hyperlink ref="K111" r:id="rId50"/>
+    <hyperlink ref="K112" r:id="rId51"/>
+    <hyperlink ref="K107" r:id="rId52"/>
+    <hyperlink ref="K113" r:id="rId53"/>
+    <hyperlink ref="K115" r:id="rId54"/>
+    <hyperlink ref="K117" r:id="rId55"/>
+    <hyperlink ref="K118" r:id="rId56"/>
+    <hyperlink ref="K119" r:id="rId57"/>
+    <hyperlink ref="K120" r:id="rId58"/>
+    <hyperlink ref="K121:K122" r:id="rId59" display="https://xhbup.com/qianfei22/"/>
+    <hyperlink ref="K121" r:id="rId60"/>
+    <hyperlink ref="K122" r:id="rId61"/>
+    <hyperlink ref="K123" r:id="rId62"/>
+    <hyperlink ref="K124" r:id="rId63"/>
+    <hyperlink ref="K129" r:id="rId64"/>
+    <hyperlink ref="K132" r:id="rId65"/>
+    <hyperlink ref="K133" r:id="rId66"/>
+    <hyperlink ref="K134" r:id="rId67"/>
+    <hyperlink ref="K135" r:id="rId68"/>
+    <hyperlink ref="K136" r:id="rId69"/>
+    <hyperlink ref="K139" r:id="rId70"/>
+    <hyperlink ref="K138" r:id="rId71"/>
+    <hyperlink ref="K141" r:id="rId72"/>
+    <hyperlink ref="K142" r:id="rId73"/>
+    <hyperlink ref="K143" r:id="rId74"/>
+    <hyperlink ref="K145" r:id="rId75"/>
+    <hyperlink ref="K160" r:id="rId76"/>
+    <hyperlink ref="K162" r:id="rId77"/>
+    <hyperlink ref="K163" r:id="rId78"/>
+    <hyperlink ref="K166" r:id="rId79"/>
+    <hyperlink ref="K167" r:id="rId80"/>
+    <hyperlink ref="K168" r:id="rId81"/>
+    <hyperlink ref="K170" r:id="rId82"/>
+    <hyperlink ref="K172" r:id="rId83"/>
+    <hyperlink ref="K173" r:id="rId84"/>
+    <hyperlink ref="K174" r:id="rId85"/>
+    <hyperlink ref="K175" r:id="rId86"/>
+    <hyperlink ref="K177" r:id="rId87"/>
+    <hyperlink ref="K178" r:id="rId88"/>
+    <hyperlink ref="K179" r:id="rId89"/>
+    <hyperlink ref="K180" r:id="rId90"/>
+    <hyperlink ref="K181" r:id="rId91"/>
+    <hyperlink ref="K184" r:id="rId92"/>
+    <hyperlink ref="K186" r:id="rId93"/>
+    <hyperlink ref="K187" r:id="rId94"/>
+    <hyperlink ref="K192" r:id="rId95"/>
+    <hyperlink ref="K193" r:id="rId96"/>
+    <hyperlink ref="K194" r:id="rId97"/>
+    <hyperlink ref="K195" r:id="rId98"/>
+    <hyperlink ref="K196" r:id="rId99"/>
+    <hyperlink ref="K197" r:id="rId100"/>
+    <hyperlink ref="K198" r:id="rId101"/>
+    <hyperlink ref="K199" r:id="rId102"/>
+    <hyperlink ref="K200" r:id="rId103"/>
+    <hyperlink ref="K202" r:id="rId104"/>
+    <hyperlink ref="K203" r:id="rId105"/>
+    <hyperlink ref="K204" r:id="rId106"/>
+    <hyperlink ref="K205" r:id="rId107"/>
+    <hyperlink ref="K206" r:id="rId108"/>
+    <hyperlink ref="K207" r:id="rId109"/>
+    <hyperlink ref="K208" r:id="rId110"/>
+    <hyperlink ref="K209" r:id="rId111"/>
+    <hyperlink ref="K210" r:id="rId112"/>
+    <hyperlink ref="K211" r:id="rId113"/>
+    <hyperlink ref="K213" r:id="rId114"/>
+    <hyperlink ref="K215" r:id="rId115"/>
+    <hyperlink ref="K216" r:id="rId116"/>
+    <hyperlink ref="K217" r:id="rId117"/>
+    <hyperlink ref="K219" r:id="rId118"/>
+    <hyperlink ref="K220" r:id="rId119"/>
+    <hyperlink ref="K221" r:id="rId120"/>
+    <hyperlink ref="K222" r:id="rId121"/>
+    <hyperlink ref="K223" r:id="rId122"/>
+    <hyperlink ref="K224" r:id="rId123"/>
+    <hyperlink ref="K226" r:id="rId124"/>
+    <hyperlink ref="K228" r:id="rId125"/>
+    <hyperlink ref="K229" r:id="rId126"/>
+    <hyperlink ref="K233" r:id="rId127"/>
+    <hyperlink ref="K234" r:id="rId128"/>
+    <hyperlink ref="K235" r:id="rId129"/>
+    <hyperlink ref="K236" r:id="rId130"/>
+    <hyperlink ref="K237" r:id="rId131"/>
+    <hyperlink ref="K238" r:id="rId132"/>
+    <hyperlink ref="K239" r:id="rId133"/>
+    <hyperlink ref="K242" r:id="rId134"/>
+    <hyperlink ref="K244" r:id="rId135"/>
+    <hyperlink ref="K245" r:id="rId136"/>
+    <hyperlink ref="K246" r:id="rId137"/>
+    <hyperlink ref="K247" r:id="rId138"/>
+    <hyperlink ref="K251" r:id="rId139"/>
+    <hyperlink ref="K252" r:id="rId140"/>
+    <hyperlink ref="K254" r:id="rId141"/>
+    <hyperlink ref="K255" r:id="rId142"/>
+    <hyperlink ref="K256" r:id="rId143"/>
+    <hyperlink ref="K257" r:id="rId144"/>
+    <hyperlink ref="K258" r:id="rId145"/>
+    <hyperlink ref="K259" r:id="rId146"/>
+    <hyperlink ref="K260" r:id="rId147"/>
+    <hyperlink ref="K262" r:id="rId148"/>
+    <hyperlink ref="K263" r:id="rId149"/>
+    <hyperlink ref="K264" r:id="rId150"/>
+    <hyperlink ref="K265" r:id="rId151"/>
+    <hyperlink ref="K266" r:id="rId152"/>
+    <hyperlink ref="K267" r:id="rId153"/>
+    <hyperlink ref="K268" r:id="rId154"/>
+    <hyperlink ref="K269" r:id="rId155"/>
+    <hyperlink ref="K270" r:id="rId156"/>
+    <hyperlink ref="K271" r:id="rId157"/>
+    <hyperlink ref="K272" r:id="rId158"/>
+    <hyperlink ref="K273" r:id="rId159"/>
+    <hyperlink ref="K274" r:id="rId160"/>
+    <hyperlink ref="K275" r:id="rId161"/>
+    <hyperlink ref="K276" r:id="rId162"/>
+    <hyperlink ref="K277" r:id="rId163"/>
+    <hyperlink ref="K278" r:id="rId164"/>
+    <hyperlink ref="K279" r:id="rId165"/>
+    <hyperlink ref="K280" r:id="rId166"/>
+    <hyperlink ref="K281" r:id="rId167"/>
+    <hyperlink ref="K282" r:id="rId168"/>
+    <hyperlink ref="K283" r:id="rId169"/>
+    <hyperlink ref="K285" r:id="rId170"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId151"/>
-  <drawing r:id="rId152"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId171"/>
+  <drawing r:id="rId172"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -10,15 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$325</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$338</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="478">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1620,6 +1619,57 @@
   </si>
   <si>
     <t>https://www.xhbup.com/yichens/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海市金枝玉液化妆品有限公司</t>
+  </si>
+  <si>
+    <t>杨鑫 </t>
+  </si>
+  <si>
+    <t> https://xhbup.com/jzyy/</t>
+  </si>
+  <si>
+    <t>生发</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>肇庆市华满丰商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/huamanf/</t>
+  </si>
+  <si>
+    <t>汇通宝支付有限责任公司</t>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/huitongb/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/chaofa3/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ka</t>
+  </si>
+  <si>
+    <t>广东万丈金数信息技术股份有限公司（出行无忧</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/wzjs</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/sihet2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/sihet1</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2061,6 +2111,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2080,9 +2133,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2109,13 +2159,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>339</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>340</xdr:row>
       <xdr:rowOff>1574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2445,13 +2495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:T327"/>
+  <dimension ref="B1:T340"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F293" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K307" sqref="K307"/>
+      <selection pane="bottomRight" activeCell="L314" sqref="L314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2476,24 +2526,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="16"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
+      <c r="N1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -13057,7 +13107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+    <row r="305" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B305" s="33">
         <v>7</v>
       </c>
@@ -13092,7 +13142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+    <row r="306" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B306" s="33">
         <v>28</v>
       </c>
@@ -13127,7 +13177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+    <row r="307" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B307" s="33">
         <v>28</v>
       </c>
@@ -13155,366 +13205,753 @@
       <c r="J307" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="K307" s="43" t="s">
+      <c r="K307" s="36" t="s">
         <v>462</v>
       </c>
       <c r="L307" s="33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B308" s="12"/>
-      <c r="C308" s="10"/>
-      <c r="D308" s="13"/>
-      <c r="E308" s="13"/>
-      <c r="F308" s="9"/>
-      <c r="G308" s="9"/>
-      <c r="H308" s="9"/>
-      <c r="I308" s="13"/>
-      <c r="J308" s="9"/>
-      <c r="K308" s="29"/>
-      <c r="L308" s="9"/>
-    </row>
-    <row r="309" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B309" s="12"/>
-      <c r="C309" s="10"/>
-      <c r="D309" s="13"/>
-      <c r="E309" s="13"/>
-      <c r="F309" s="9"/>
-      <c r="G309" s="9"/>
-      <c r="H309" s="9"/>
-      <c r="I309" s="13"/>
-      <c r="J309" s="9"/>
-      <c r="K309" s="29"/>
-      <c r="L309" s="9"/>
-    </row>
-    <row r="310" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B310" s="12"/>
-      <c r="C310" s="10"/>
-      <c r="D310" s="13"/>
-      <c r="E310" s="13"/>
-      <c r="F310" s="9"/>
-      <c r="G310" s="9"/>
-      <c r="H310" s="9"/>
-      <c r="I310" s="13"/>
-      <c r="J310" s="9"/>
-      <c r="K310" s="29"/>
-      <c r="L310" s="9"/>
-    </row>
-    <row r="311" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B311" s="12"/>
-      <c r="C311" s="10"/>
-      <c r="D311" s="13"/>
-      <c r="E311" s="13"/>
-      <c r="F311" s="9"/>
-      <c r="G311" s="9"/>
-      <c r="H311" s="9"/>
-      <c r="I311" s="13"/>
-      <c r="J311" s="9"/>
-      <c r="K311" s="29"/>
-      <c r="L311" s="9"/>
-    </row>
-    <row r="312" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B312" s="12"/>
-      <c r="C312" s="10"/>
-      <c r="D312"/>
-      <c r="E312"/>
-      <c r="F312" s="9"/>
-      <c r="G312" s="9"/>
-      <c r="H312" s="9"/>
-      <c r="I312"/>
-      <c r="J312" s="9"/>
-      <c r="K312" s="31"/>
-      <c r="L312" s="9"/>
-    </row>
-    <row r="313" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B313" s="12"/>
-      <c r="C313" s="10"/>
-      <c r="D313"/>
-      <c r="E313"/>
-      <c r="F313" s="9"/>
-      <c r="G313" s="9"/>
-      <c r="H313" s="9"/>
-      <c r="I313"/>
-      <c r="J313" s="9"/>
-      <c r="K313" s="31"/>
-      <c r="L313" s="9"/>
-    </row>
-    <row r="314" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B314" s="12"/>
-      <c r="C314" s="10"/>
-      <c r="D314"/>
-      <c r="E314"/>
-      <c r="F314" s="9"/>
-      <c r="G314" s="9"/>
-      <c r="H314" s="9"/>
-      <c r="I314"/>
-      <c r="J314" s="9"/>
-      <c r="K314" s="31"/>
-      <c r="L314" s="9"/>
-      <c r="M314" s="3"/>
-      <c r="N314" s="3"/>
-      <c r="O314" s="3"/>
-      <c r="P314" s="3"/>
-      <c r="Q314" s="3"/>
-      <c r="R314" s="3"/>
-      <c r="S314" s="3"/>
-    </row>
-    <row r="315" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B315" s="12"/>
-      <c r="C315" s="10"/>
-      <c r="D315"/>
-      <c r="E315"/>
-      <c r="F315" s="9"/>
-      <c r="G315" s="9"/>
-      <c r="H315" s="9"/>
-      <c r="I315"/>
-      <c r="J315" s="9"/>
-      <c r="K315" s="31"/>
-      <c r="L315" s="9"/>
-      <c r="M315" s="3"/>
-      <c r="N315" s="3"/>
-      <c r="O315" s="3"/>
-      <c r="P315" s="3"/>
-      <c r="Q315" s="3"/>
-      <c r="R315" s="3"/>
-      <c r="S315" s="3"/>
-    </row>
-    <row r="316" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B316" s="12"/>
-      <c r="C316" s="10"/>
-      <c r="D316"/>
-      <c r="E316"/>
-      <c r="F316" s="9"/>
-      <c r="G316" s="9"/>
-      <c r="H316" s="9"/>
-      <c r="I316"/>
-      <c r="J316" s="9"/>
-      <c r="K316" s="31"/>
-      <c r="L316" s="9"/>
-      <c r="M316" s="3"/>
-      <c r="N316" s="3"/>
-      <c r="O316" s="3"/>
-      <c r="P316" s="3"/>
-      <c r="Q316" s="3"/>
-      <c r="R316" s="3"/>
-      <c r="S316" s="3"/>
-    </row>
-    <row r="317" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B317" s="12"/>
-      <c r="C317" s="10"/>
-      <c r="D317"/>
-      <c r="E317"/>
-      <c r="F317" s="9"/>
-      <c r="G317" s="9"/>
-      <c r="H317" s="9"/>
-      <c r="I317"/>
-      <c r="J317" s="9"/>
-      <c r="K317" s="31"/>
-      <c r="L317" s="9"/>
-      <c r="M317" s="3"/>
-      <c r="N317" s="3"/>
-      <c r="O317" s="3"/>
-      <c r="P317" s="3"/>
-      <c r="Q317" s="3"/>
-      <c r="R317" s="3"/>
-      <c r="S317" s="3"/>
-    </row>
-    <row r="318" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="308" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B308" s="33">
+        <v>21</v>
+      </c>
+      <c r="C308" s="34">
+        <v>43608</v>
+      </c>
+      <c r="D308" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E308" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F308" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G308" s="33">
+        <v>1</v>
+      </c>
+      <c r="H308" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I308" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J308" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K308" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="L308" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="309" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B309" s="33">
+        <v>25</v>
+      </c>
+      <c r="C309" s="34">
+        <v>43608</v>
+      </c>
+      <c r="D309" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E309" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F309" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G309" s="33">
+        <v>1</v>
+      </c>
+      <c r="H309" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I309" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J309" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K309" t="s">
+        <v>142</v>
+      </c>
+      <c r="L309" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B310" s="33">
+        <v>25</v>
+      </c>
+      <c r="C310" s="34">
+        <v>43608</v>
+      </c>
+      <c r="D310" t="s">
+        <v>39</v>
+      </c>
+      <c r="E310" t="s">
+        <v>463</v>
+      </c>
+      <c r="F310" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="G310" s="33">
+        <v>1</v>
+      </c>
+      <c r="H310" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I310" t="s">
+        <v>464</v>
+      </c>
+      <c r="J310" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K310" t="s">
+        <v>465</v>
+      </c>
+      <c r="L310" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="311" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B311" s="33">
+        <v>25</v>
+      </c>
+      <c r="C311" s="34">
+        <v>43608</v>
+      </c>
+      <c r="D311" t="s">
+        <v>39</v>
+      </c>
+      <c r="E311" t="s">
+        <v>467</v>
+      </c>
+      <c r="F311" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="G311" s="33">
+        <v>1</v>
+      </c>
+      <c r="H311" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I311" t="s">
+        <v>464</v>
+      </c>
+      <c r="J311" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K311" t="s">
+        <v>468</v>
+      </c>
+      <c r="L311" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B312" s="33">
+        <v>25</v>
+      </c>
+      <c r="C312" s="34">
+        <v>43608</v>
+      </c>
+      <c r="D312" t="s">
+        <v>30</v>
+      </c>
+      <c r="E312" t="s">
+        <v>469</v>
+      </c>
+      <c r="F312" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="G312" s="33">
+        <v>1</v>
+      </c>
+      <c r="H312" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I312" t="s">
+        <v>27</v>
+      </c>
+      <c r="J312" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K312" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="L312" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B313" s="33">
+        <v>28</v>
+      </c>
+      <c r="C313" s="34">
+        <v>43608</v>
+      </c>
+      <c r="D313" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E313" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="F313" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G313" s="33">
+        <v>1</v>
+      </c>
+      <c r="H313" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I313" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J313" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K313" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="L313" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="314" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B314" s="33">
+        <v>28</v>
+      </c>
+      <c r="C314" s="34">
+        <v>43608</v>
+      </c>
+      <c r="D314" t="s">
+        <v>30</v>
+      </c>
+      <c r="E314" t="s">
+        <v>456</v>
+      </c>
+      <c r="F314" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G314" s="33">
+        <v>1</v>
+      </c>
+      <c r="H314" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I314" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J314" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K314" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="L314" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B315" s="33">
+        <v>28</v>
+      </c>
+      <c r="C315" s="34">
+        <v>43608</v>
+      </c>
+      <c r="D315" t="s">
+        <v>473</v>
+      </c>
+      <c r="E315" t="s">
+        <v>474</v>
+      </c>
+      <c r="F315" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G315" s="33">
+        <v>1</v>
+      </c>
+      <c r="H315" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I315" t="s">
+        <v>98</v>
+      </c>
+      <c r="J315" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K315" t="s">
+        <v>475</v>
+      </c>
+      <c r="L315" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B316" s="33">
+        <v>11</v>
+      </c>
+      <c r="C316" s="34">
+        <v>43608</v>
+      </c>
+      <c r="D316" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E316" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F316" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G316" s="33">
+        <v>1</v>
+      </c>
+      <c r="H316" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I316" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J316" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K316" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="L316" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B317" s="33">
+        <v>28</v>
+      </c>
+      <c r="C317" s="34">
+        <v>43608</v>
+      </c>
+      <c r="D317" t="s">
+        <v>30</v>
+      </c>
+      <c r="E317" t="s">
+        <v>456</v>
+      </c>
+      <c r="F317" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G317" s="33">
+        <v>1</v>
+      </c>
+      <c r="H317" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I317" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J317" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K317" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="L317" s="33"/>
+    </row>
+    <row r="318" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B318" s="12"/>
-      <c r="C318" s="10"/>
+      <c r="C318" s="34"/>
       <c r="D318"/>
       <c r="E318"/>
-      <c r="F318" s="9"/>
-      <c r="G318" s="9"/>
-      <c r="H318" s="9"/>
+      <c r="F318" s="33"/>
+      <c r="G318" s="33"/>
+      <c r="H318" s="33"/>
       <c r="I318"/>
-      <c r="J318" s="9"/>
-      <c r="K318" s="31"/>
-      <c r="L318" s="9"/>
-      <c r="M318" s="3"/>
-      <c r="N318" s="3"/>
-      <c r="O318" s="3"/>
-      <c r="P318" s="3"/>
-      <c r="Q318" s="3"/>
-      <c r="R318" s="3"/>
-      <c r="S318" s="3"/>
-      <c r="T318" s="3"/>
-    </row>
-    <row r="319" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="J318" s="33"/>
+      <c r="K318"/>
+      <c r="L318" s="33"/>
+    </row>
+    <row r="319" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B319" s="12"/>
-      <c r="C319" s="10"/>
+      <c r="C319" s="34"/>
       <c r="D319"/>
       <c r="E319"/>
-      <c r="F319" s="9"/>
-      <c r="G319" s="9"/>
-      <c r="H319" s="9"/>
+      <c r="F319" s="33"/>
+      <c r="G319" s="33"/>
+      <c r="H319" s="33"/>
       <c r="I319"/>
-      <c r="J319" s="9"/>
-      <c r="K319" s="31"/>
-      <c r="L319" s="9"/>
-      <c r="M319" s="3"/>
-      <c r="N319" s="3"/>
-      <c r="O319" s="3"/>
-      <c r="P319" s="3"/>
-      <c r="Q319" s="3"/>
-      <c r="R319" s="3"/>
-      <c r="S319" s="3"/>
-      <c r="T319" s="3"/>
-    </row>
-    <row r="320" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="J319" s="33"/>
+      <c r="K319"/>
+      <c r="L319" s="33"/>
+    </row>
+    <row r="320" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B320" s="12"/>
-      <c r="C320" s="10"/>
+      <c r="C320" s="34"/>
       <c r="D320"/>
       <c r="E320"/>
-      <c r="F320" s="9"/>
-      <c r="G320" s="9"/>
-      <c r="H320" s="9"/>
+      <c r="F320" s="33"/>
+      <c r="G320" s="33"/>
+      <c r="H320" s="33"/>
       <c r="I320"/>
-      <c r="J320" s="9"/>
-      <c r="K320" s="31"/>
-      <c r="L320" s="9"/>
-      <c r="M320" s="3"/>
-      <c r="N320" s="3"/>
-      <c r="O320" s="3"/>
-      <c r="P320" s="3"/>
-      <c r="Q320" s="3"/>
-      <c r="R320" s="3"/>
-      <c r="S320" s="3"/>
-      <c r="T320" s="3"/>
-    </row>
-    <row r="321" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="J320" s="33"/>
+      <c r="K320"/>
+      <c r="L320" s="33"/>
+    </row>
+    <row r="321" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B321" s="12"/>
-      <c r="C321" s="10"/>
+      <c r="C321" s="34"/>
       <c r="D321"/>
       <c r="E321"/>
-      <c r="F321" s="9"/>
-      <c r="G321" s="9"/>
-      <c r="H321" s="9"/>
+      <c r="F321" s="33"/>
+      <c r="G321" s="33"/>
+      <c r="H321" s="33"/>
       <c r="I321"/>
-      <c r="J321" s="9"/>
-      <c r="K321" s="31"/>
-      <c r="L321" s="9"/>
-      <c r="M321" s="3"/>
-      <c r="N321" s="3"/>
-      <c r="O321" s="3"/>
-      <c r="P321" s="3"/>
-      <c r="Q321" s="3"/>
-      <c r="R321" s="3"/>
-      <c r="S321" s="3"/>
-      <c r="T321" s="3"/>
-    </row>
-    <row r="322" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="J321" s="33"/>
+      <c r="K321"/>
+      <c r="L321" s="33"/>
+    </row>
+    <row r="322" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B322" s="12"/>
-      <c r="C322" s="10"/>
-      <c r="D322" s="13"/>
-      <c r="E322" s="13"/>
-      <c r="F322" s="25"/>
-      <c r="G322" s="9"/>
-      <c r="H322" s="9"/>
-      <c r="I322" s="13"/>
-      <c r="J322" s="9"/>
-      <c r="K322" s="13"/>
-      <c r="L322" s="9"/>
-      <c r="M322" s="3"/>
-      <c r="N322" s="3"/>
-      <c r="O322" s="3"/>
-      <c r="P322" s="3"/>
-      <c r="Q322" s="3"/>
-      <c r="R322" s="3"/>
-      <c r="S322" s="3"/>
-      <c r="T322" s="3"/>
-    </row>
-    <row r="323" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="C322" s="34"/>
+      <c r="D322"/>
+      <c r="E322"/>
+      <c r="F322" s="33"/>
+      <c r="G322" s="33"/>
+      <c r="H322" s="33"/>
+      <c r="I322"/>
+      <c r="J322" s="33"/>
+      <c r="K322"/>
+      <c r="L322" s="33"/>
+    </row>
+    <row r="323" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B323" s="12"/>
-      <c r="C323" s="10"/>
-      <c r="D323" s="13"/>
-      <c r="E323" s="13"/>
-      <c r="F323" s="25"/>
-      <c r="G323" s="9"/>
-      <c r="H323" s="9"/>
-      <c r="I323" s="13"/>
-      <c r="J323" s="9"/>
-      <c r="K323" s="13"/>
-      <c r="L323" s="9"/>
-      <c r="M323" s="3"/>
-      <c r="N323" s="3"/>
-      <c r="O323" s="3"/>
-      <c r="P323" s="3"/>
-      <c r="Q323" s="3"/>
-      <c r="R323" s="3"/>
-      <c r="S323" s="3"/>
-      <c r="T323" s="3"/>
-    </row>
-    <row r="324" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="C323" s="34"/>
+      <c r="D323"/>
+      <c r="E323"/>
+      <c r="F323" s="33"/>
+      <c r="G323" s="33"/>
+      <c r="H323" s="33"/>
+      <c r="I323"/>
+      <c r="J323" s="33"/>
+      <c r="K323"/>
+      <c r="L323" s="33"/>
+    </row>
+    <row r="324" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B324" s="12"/>
-      <c r="C324" s="10"/>
-      <c r="D324" s="13"/>
-      <c r="E324" s="13"/>
-      <c r="F324" s="25"/>
-      <c r="G324" s="9"/>
-      <c r="H324" s="9"/>
-      <c r="I324" s="13"/>
-      <c r="J324" s="9"/>
-      <c r="K324" s="13"/>
-      <c r="L324" s="9"/>
-      <c r="M324" s="3"/>
-      <c r="N324" s="3"/>
-      <c r="O324" s="3"/>
-      <c r="P324" s="3"/>
-      <c r="Q324" s="3"/>
-      <c r="R324" s="3"/>
-      <c r="S324" s="3"/>
-      <c r="T324" s="3"/>
-    </row>
-    <row r="325" spans="2:20" ht="21.75" customHeight="1">
-      <c r="B325" s="38" t="s">
+      <c r="C324" s="34"/>
+      <c r="D324"/>
+      <c r="E324"/>
+      <c r="F324" s="33"/>
+      <c r="G324" s="33"/>
+      <c r="H324" s="33"/>
+      <c r="I324"/>
+      <c r="J324" s="33"/>
+      <c r="K324"/>
+      <c r="L324" s="33"/>
+    </row>
+    <row r="325" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B325" s="12"/>
+      <c r="C325" s="10"/>
+      <c r="D325"/>
+      <c r="E325"/>
+      <c r="F325" s="9"/>
+      <c r="G325" s="9"/>
+      <c r="H325" s="9"/>
+      <c r="I325"/>
+      <c r="J325" s="9"/>
+      <c r="K325" s="31"/>
+      <c r="L325" s="9"/>
+    </row>
+    <row r="326" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B326" s="12"/>
+      <c r="C326" s="10"/>
+      <c r="D326"/>
+      <c r="E326"/>
+      <c r="F326" s="9"/>
+      <c r="G326" s="9"/>
+      <c r="H326" s="9"/>
+      <c r="I326"/>
+      <c r="J326" s="9"/>
+      <c r="K326" s="31"/>
+      <c r="L326" s="9"/>
+    </row>
+    <row r="327" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B327" s="12"/>
+      <c r="C327" s="10"/>
+      <c r="D327"/>
+      <c r="E327"/>
+      <c r="F327" s="9"/>
+      <c r="G327" s="9"/>
+      <c r="H327" s="9"/>
+      <c r="I327"/>
+      <c r="J327" s="9"/>
+      <c r="K327" s="31"/>
+      <c r="L327" s="9"/>
+      <c r="M327" s="3"/>
+      <c r="N327" s="3"/>
+      <c r="O327" s="3"/>
+      <c r="P327" s="3"/>
+      <c r="Q327" s="3"/>
+      <c r="R327" s="3"/>
+      <c r="S327" s="3"/>
+    </row>
+    <row r="328" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B328" s="12"/>
+      <c r="C328" s="10"/>
+      <c r="D328"/>
+      <c r="E328"/>
+      <c r="F328" s="9"/>
+      <c r="G328" s="9"/>
+      <c r="H328" s="9"/>
+      <c r="I328"/>
+      <c r="J328" s="9"/>
+      <c r="K328" s="31"/>
+      <c r="L328" s="9"/>
+      <c r="M328" s="3"/>
+      <c r="N328" s="3"/>
+      <c r="O328" s="3"/>
+      <c r="P328" s="3"/>
+      <c r="Q328" s="3"/>
+      <c r="R328" s="3"/>
+      <c r="S328" s="3"/>
+    </row>
+    <row r="329" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B329" s="12"/>
+      <c r="C329" s="10"/>
+      <c r="D329"/>
+      <c r="E329"/>
+      <c r="F329" s="9"/>
+      <c r="G329" s="9"/>
+      <c r="H329" s="9"/>
+      <c r="I329"/>
+      <c r="J329" s="9"/>
+      <c r="K329" s="31"/>
+      <c r="L329" s="9"/>
+      <c r="M329" s="3"/>
+      <c r="N329" s="3"/>
+      <c r="O329" s="3"/>
+      <c r="P329" s="3"/>
+      <c r="Q329" s="3"/>
+      <c r="R329" s="3"/>
+      <c r="S329" s="3"/>
+    </row>
+    <row r="330" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B330" s="12"/>
+      <c r="C330" s="10"/>
+      <c r="D330"/>
+      <c r="E330"/>
+      <c r="F330" s="9"/>
+      <c r="G330" s="9"/>
+      <c r="H330" s="9"/>
+      <c r="I330"/>
+      <c r="J330" s="9"/>
+      <c r="K330" s="31"/>
+      <c r="L330" s="9"/>
+      <c r="M330" s="3"/>
+      <c r="N330" s="3"/>
+      <c r="O330" s="3"/>
+      <c r="P330" s="3"/>
+      <c r="Q330" s="3"/>
+      <c r="R330" s="3"/>
+      <c r="S330" s="3"/>
+    </row>
+    <row r="331" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B331" s="12"/>
+      <c r="C331" s="10"/>
+      <c r="D331"/>
+      <c r="E331"/>
+      <c r="F331" s="9"/>
+      <c r="G331" s="9"/>
+      <c r="H331" s="9"/>
+      <c r="I331"/>
+      <c r="J331" s="9"/>
+      <c r="K331" s="31"/>
+      <c r="L331" s="9"/>
+      <c r="M331" s="3"/>
+      <c r="N331" s="3"/>
+      <c r="O331" s="3"/>
+      <c r="P331" s="3"/>
+      <c r="Q331" s="3"/>
+      <c r="R331" s="3"/>
+      <c r="S331" s="3"/>
+      <c r="T331" s="3"/>
+    </row>
+    <row r="332" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B332" s="12"/>
+      <c r="C332" s="10"/>
+      <c r="D332"/>
+      <c r="E332"/>
+      <c r="F332" s="9"/>
+      <c r="G332" s="9"/>
+      <c r="H332" s="9"/>
+      <c r="I332"/>
+      <c r="J332" s="9"/>
+      <c r="K332" s="31"/>
+      <c r="L332" s="9"/>
+      <c r="M332" s="3"/>
+      <c r="N332" s="3"/>
+      <c r="O332" s="3"/>
+      <c r="P332" s="3"/>
+      <c r="Q332" s="3"/>
+      <c r="R332" s="3"/>
+      <c r="S332" s="3"/>
+      <c r="T332" s="3"/>
+    </row>
+    <row r="333" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B333" s="12"/>
+      <c r="C333" s="10"/>
+      <c r="D333"/>
+      <c r="E333"/>
+      <c r="F333" s="9"/>
+      <c r="G333" s="9"/>
+      <c r="H333" s="9"/>
+      <c r="I333"/>
+      <c r="J333" s="9"/>
+      <c r="K333" s="31"/>
+      <c r="L333" s="9"/>
+      <c r="M333" s="3"/>
+      <c r="N333" s="3"/>
+      <c r="O333" s="3"/>
+      <c r="P333" s="3"/>
+      <c r="Q333" s="3"/>
+      <c r="R333" s="3"/>
+      <c r="S333" s="3"/>
+      <c r="T333" s="3"/>
+    </row>
+    <row r="334" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B334" s="12"/>
+      <c r="C334" s="10"/>
+      <c r="D334"/>
+      <c r="E334"/>
+      <c r="F334" s="9"/>
+      <c r="G334" s="9"/>
+      <c r="H334" s="9"/>
+      <c r="I334"/>
+      <c r="J334" s="9"/>
+      <c r="K334" s="31"/>
+      <c r="L334" s="9"/>
+      <c r="M334" s="3"/>
+      <c r="N334" s="3"/>
+      <c r="O334" s="3"/>
+      <c r="P334" s="3"/>
+      <c r="Q334" s="3"/>
+      <c r="R334" s="3"/>
+      <c r="S334" s="3"/>
+      <c r="T334" s="3"/>
+    </row>
+    <row r="335" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B335" s="12"/>
+      <c r="C335" s="10"/>
+      <c r="D335" s="13"/>
+      <c r="E335" s="13"/>
+      <c r="F335" s="25"/>
+      <c r="G335" s="9"/>
+      <c r="H335" s="9"/>
+      <c r="I335" s="13"/>
+      <c r="J335" s="9"/>
+      <c r="K335" s="13"/>
+      <c r="L335" s="9"/>
+      <c r="M335" s="3"/>
+      <c r="N335" s="3"/>
+      <c r="O335" s="3"/>
+      <c r="P335" s="3"/>
+      <c r="Q335" s="3"/>
+      <c r="R335" s="3"/>
+      <c r="S335" s="3"/>
+      <c r="T335" s="3"/>
+    </row>
+    <row r="336" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B336" s="12"/>
+      <c r="C336" s="10"/>
+      <c r="D336" s="13"/>
+      <c r="E336" s="13"/>
+      <c r="F336" s="25"/>
+      <c r="G336" s="9"/>
+      <c r="H336" s="9"/>
+      <c r="I336" s="13"/>
+      <c r="J336" s="9"/>
+      <c r="K336" s="13"/>
+      <c r="L336" s="9"/>
+      <c r="M336" s="3"/>
+      <c r="N336" s="3"/>
+      <c r="O336" s="3"/>
+      <c r="P336" s="3"/>
+      <c r="Q336" s="3"/>
+      <c r="R336" s="3"/>
+      <c r="S336" s="3"/>
+      <c r="T336" s="3"/>
+    </row>
+    <row r="337" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B337" s="12"/>
+      <c r="C337" s="10"/>
+      <c r="D337" s="13"/>
+      <c r="E337" s="13"/>
+      <c r="F337" s="25"/>
+      <c r="G337" s="9"/>
+      <c r="H337" s="9"/>
+      <c r="I337" s="13"/>
+      <c r="J337" s="9"/>
+      <c r="K337" s="13"/>
+      <c r="L337" s="9"/>
+      <c r="M337" s="3"/>
+      <c r="N337" s="3"/>
+      <c r="O337" s="3"/>
+      <c r="P337" s="3"/>
+      <c r="Q337" s="3"/>
+      <c r="R337" s="3"/>
+      <c r="S337" s="3"/>
+      <c r="T337" s="3"/>
+    </row>
+    <row r="338" spans="2:20" ht="21.75" customHeight="1">
+      <c r="B338" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C325" s="39"/>
-      <c r="D325" s="14"/>
-      <c r="E325" s="14"/>
-      <c r="F325" s="15"/>
-      <c r="G325" s="15">
-        <f>SUM(G3:G324)</f>
-        <v>303</v>
-      </c>
-      <c r="H325" s="15"/>
-      <c r="I325" s="15"/>
-      <c r="J325" s="9"/>
-      <c r="K325" s="21"/>
-      <c r="L325" s="9"/>
-    </row>
-    <row r="327" spans="2:20" ht="75" customHeight="1">
-      <c r="B327" s="40"/>
-      <c r="C327" s="41"/>
-      <c r="D327" s="41"/>
-      <c r="E327" s="41"/>
-      <c r="F327" s="41"/>
-      <c r="G327" s="41"/>
-      <c r="H327" s="41"/>
-      <c r="I327" s="41"/>
-      <c r="J327" s="42"/>
-      <c r="K327" s="22"/>
-      <c r="L327" s="23"/>
+      <c r="C338" s="40"/>
+      <c r="D338" s="14"/>
+      <c r="E338" s="14"/>
+      <c r="F338" s="15"/>
+      <c r="G338" s="15">
+        <f>SUM(G3:G337)</f>
+        <v>313</v>
+      </c>
+      <c r="H338" s="15"/>
+      <c r="I338" s="15"/>
+      <c r="J338" s="9"/>
+      <c r="K338" s="21"/>
+      <c r="L338" s="9"/>
+    </row>
+    <row r="340" spans="2:20" ht="75" customHeight="1">
+      <c r="B340" s="41"/>
+      <c r="C340" s="42"/>
+      <c r="D340" s="42"/>
+      <c r="E340" s="42"/>
+      <c r="F340" s="42"/>
+      <c r="G340" s="42"/>
+      <c r="H340" s="42"/>
+      <c r="I340" s="42"/>
+      <c r="J340" s="43"/>
+      <c r="K340" s="22"/>
+      <c r="L340" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L325"/>
+  <autoFilter ref="C2:L338"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B325:C325"/>
-    <mergeCell ref="B327:J327"/>
+    <mergeCell ref="B338:C338"/>
+    <mergeCell ref="B340:J340"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J325">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J338">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J56 J58:J324">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J56 J58:J337">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13706,9 +14143,15 @@
     <hyperlink ref="K303" r:id="rId185"/>
     <hyperlink ref="K304" r:id="rId186"/>
     <hyperlink ref="K307" r:id="rId187"/>
+    <hyperlink ref="K309" r:id="rId188"/>
+    <hyperlink ref="K312" r:id="rId189"/>
+    <hyperlink ref="K313" r:id="rId190"/>
+    <hyperlink ref="K314" r:id="rId191"/>
+    <hyperlink ref="K316" r:id="rId192"/>
+    <hyperlink ref="K317" r:id="rId193"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId188"/>
-  <drawing r:id="rId189"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId194"/>
+  <drawing r:id="rId195"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\WWW\myWork\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A820F530-0689-410C-A72C-AD560EB2B0B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$338</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$378</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="513">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1673,14 +1667,6 @@
   </si>
   <si>
     <t>https://xhbup.com/wzjs</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/sihet2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/sihet1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>5月份业务线数量汇总</t>
@@ -1843,12 +1829,94 @@
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>第四周</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞市会心日化贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/hxrh</t>
+  </si>
+  <si>
+    <t>江门市蓬江区卓斌美容有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/zbmr</t>
+  </si>
+  <si>
+    <t>佛山市恩泊化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/sibo/</t>
+  </si>
+  <si>
+    <t>肇庆玉都天光墟网络文化传播</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/wzjs</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/ylzf7/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/tgx</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>翡翠</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhimei/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/sihet1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/sihet2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞市天资堂化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/tzt/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海市晨梦晨贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/cmc/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/jdyy1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/yishida1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市天盈化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/tianying/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2181,7 +2249,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2293,6 +2361,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2317,8 +2388,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2352,13 +2423,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>339</xdr:row>
+      <xdr:row>379</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>380</xdr:row>
       <xdr:rowOff>1574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2366,7 +2437,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2449,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2687,17 +2758,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T340"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:T380"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F324" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F347" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I333" sqref="I333"/>
+      <selection pane="bottomRight" activeCell="L353" sqref="L353"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="7" style="3" customWidth="1"/>
@@ -2718,27 +2789,27 @@
     <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1" s="37" t="s">
+    <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="16"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="38" t="s">
-        <v>477</v>
-      </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-    </row>
-    <row r="2" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N1" s="39" t="s">
+        <v>475</v>
+      </c>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+    </row>
+    <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2785,7 +2856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" s="2" customFormat="1">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -2833,7 +2904,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B4" s="9">
         <v>5</v>
       </c>
@@ -2883,7 +2954,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B5" s="9">
         <v>6</v>
       </c>
@@ -2918,7 +2989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B6" s="9">
         <v>7</v>
       </c>
@@ -2953,7 +3024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B7" s="9">
         <v>8</v>
       </c>
@@ -2988,7 +3059,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B8" s="9">
         <v>9</v>
       </c>
@@ -3023,7 +3094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B9" s="9">
         <v>10</v>
       </c>
@@ -3058,7 +3129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B10" s="9">
         <v>11</v>
       </c>
@@ -3093,7 +3164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B11" s="9">
         <v>12</v>
       </c>
@@ -3128,7 +3199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B12" s="9">
         <v>13</v>
       </c>
@@ -3163,7 +3234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B13" s="9">
         <v>15</v>
       </c>
@@ -3198,7 +3269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B14" s="9">
         <v>16</v>
       </c>
@@ -3233,7 +3304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B15" s="9">
         <v>17</v>
       </c>
@@ -3268,7 +3339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B16" s="9">
         <v>18</v>
       </c>
@@ -3303,7 +3374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B17" s="9">
         <v>19</v>
       </c>
@@ -3338,7 +3409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B18" s="9">
         <v>20</v>
       </c>
@@ -3373,7 +3444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B19" s="9">
         <v>21</v>
       </c>
@@ -3408,7 +3479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B20" s="9">
         <v>22</v>
       </c>
@@ -3443,7 +3514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B21" s="9">
         <v>24</v>
       </c>
@@ -3478,7 +3549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B22" s="9">
         <v>25</v>
       </c>
@@ -3513,7 +3584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B23" s="9">
         <v>26</v>
       </c>
@@ -3548,7 +3619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B24" s="9">
         <v>25</v>
       </c>
@@ -3583,7 +3654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B25" s="9">
         <v>26</v>
       </c>
@@ -3618,7 +3689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B26" s="9">
         <v>25</v>
       </c>
@@ -3653,7 +3724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B27" s="9">
         <v>26</v>
       </c>
@@ -3688,7 +3759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B28" s="9">
         <v>24</v>
       </c>
@@ -3723,7 +3794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B29" s="9">
         <v>25</v>
       </c>
@@ -3758,7 +3829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B30" s="9">
         <v>26</v>
       </c>
@@ -3793,7 +3864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B31" s="9">
         <v>26</v>
       </c>
@@ -3828,7 +3899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B32" s="9">
         <v>25</v>
       </c>
@@ -3863,7 +3934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B33" s="9">
         <v>26</v>
       </c>
@@ -3898,7 +3969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B34" s="9">
         <v>25</v>
       </c>
@@ -3933,7 +4004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B35" s="9">
         <v>24</v>
       </c>
@@ -3968,7 +4039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B36" s="9">
         <v>25</v>
       </c>
@@ -4003,7 +4074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B37" s="9">
         <v>26</v>
       </c>
@@ -4038,7 +4109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B38" s="9">
         <v>27</v>
       </c>
@@ -4073,7 +4144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B39" s="9">
         <v>25</v>
       </c>
@@ -4108,7 +4179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B40" s="9">
         <v>26</v>
       </c>
@@ -4143,7 +4214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B41" s="9">
         <v>27</v>
       </c>
@@ -4178,7 +4249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B42" s="9">
         <v>28</v>
       </c>
@@ -4213,7 +4284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B43" s="9">
         <v>29</v>
       </c>
@@ -4244,7 +4315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B44" s="9">
         <v>24</v>
       </c>
@@ -4279,7 +4350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B45" s="9">
         <v>6</v>
       </c>
@@ -4314,7 +4385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B46" s="9">
         <v>7</v>
       </c>
@@ -4349,7 +4420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B47" s="9">
         <v>8</v>
       </c>
@@ -4384,7 +4455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B48" s="9">
         <v>9</v>
       </c>
@@ -4419,7 +4490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="B49" s="9">
         <v>10</v>
       </c>
@@ -4454,7 +4525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="2:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="B50" s="9">
         <v>11</v>
       </c>
@@ -4489,7 +4560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B51" s="9">
         <v>25</v>
       </c>
@@ -4524,7 +4595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B52" s="9">
         <v>6</v>
       </c>
@@ -4559,7 +4630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B53" s="9">
         <v>7</v>
       </c>
@@ -4594,7 +4665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B54" s="9">
         <v>8</v>
       </c>
@@ -4629,7 +4700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B55" s="9">
         <v>9</v>
       </c>
@@ -4664,7 +4735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B56" s="9">
         <v>28</v>
       </c>
@@ -4699,7 +4770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B58" s="9">
         <v>30</v>
       </c>
@@ -4734,7 +4805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B59" s="9">
         <v>31</v>
       </c>
@@ -4769,7 +4840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B60" s="9">
         <v>32</v>
       </c>
@@ -4804,7 +4875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B61" s="9">
         <v>33</v>
       </c>
@@ -4839,7 +4910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B62" s="9">
         <v>34</v>
       </c>
@@ -4874,7 +4945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B63" s="9">
         <v>6</v>
       </c>
@@ -4909,7 +4980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B64" s="9">
         <v>7</v>
       </c>
@@ -4944,7 +5015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B65" s="9">
         <v>8</v>
       </c>
@@ -4979,7 +5050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B66" s="9">
         <v>9</v>
       </c>
@@ -5014,7 +5085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B67" s="9">
         <v>10</v>
       </c>
@@ -5049,7 +5120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B68" s="9">
         <v>11</v>
       </c>
@@ -5084,7 +5155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B69" s="9">
         <v>7</v>
       </c>
@@ -5119,7 +5190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B70" s="9">
         <v>24</v>
       </c>
@@ -5154,7 +5225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B71" s="9">
         <v>34</v>
       </c>
@@ -5189,7 +5260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B72" s="9">
         <v>35</v>
       </c>
@@ -5224,7 +5295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B73" s="9">
         <v>6</v>
       </c>
@@ -5259,7 +5330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B74" s="9">
         <v>30</v>
       </c>
@@ -5294,7 +5365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B75" s="9">
         <v>35</v>
       </c>
@@ -5329,7 +5400,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B76" s="9">
         <v>36</v>
       </c>
@@ -5364,7 +5435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B77" s="9">
         <v>37</v>
       </c>
@@ -5399,7 +5470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B78" s="9">
         <v>24</v>
       </c>
@@ -5434,7 +5505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B79" s="9">
         <v>10</v>
       </c>
@@ -5469,7 +5540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B80" s="9">
         <v>11</v>
       </c>
@@ -5504,7 +5575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B81" s="9">
         <v>34</v>
       </c>
@@ -5539,7 +5610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B82" s="9">
         <v>35</v>
       </c>
@@ -5574,7 +5645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B83" s="9">
         <v>36</v>
       </c>
@@ -5609,7 +5680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B84" s="9">
         <v>37</v>
       </c>
@@ -5644,7 +5715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B85" s="9">
         <v>21</v>
       </c>
@@ -5679,7 +5750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B86" s="9">
         <v>22</v>
       </c>
@@ -5714,7 +5785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B87" s="9">
         <v>23</v>
       </c>
@@ -5749,7 +5820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B88" s="9">
         <v>35</v>
       </c>
@@ -5784,7 +5855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B89" s="9">
         <v>25</v>
       </c>
@@ -5819,7 +5890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B90" s="9">
         <v>21</v>
       </c>
@@ -5854,7 +5925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B91" s="9">
         <v>22</v>
       </c>
@@ -5889,7 +5960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B92" s="9">
         <v>23</v>
       </c>
@@ -5924,7 +5995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B93" s="9">
         <v>24</v>
       </c>
@@ -5959,7 +6030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B94" s="9">
         <v>7</v>
       </c>
@@ -5994,7 +6065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B95" s="9">
         <v>21</v>
       </c>
@@ -6029,7 +6100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B96" s="9">
         <v>22</v>
       </c>
@@ -6064,7 +6135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B97" s="9">
         <v>23</v>
       </c>
@@ -6099,7 +6170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B98" s="9">
         <v>24</v>
       </c>
@@ -6134,7 +6205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B99" s="9">
         <v>25</v>
       </c>
@@ -6169,7 +6240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B100" s="9">
         <v>26</v>
       </c>
@@ -6204,7 +6275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B101" s="9">
         <v>24</v>
       </c>
@@ -6239,7 +6310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B102" s="9">
         <v>9</v>
       </c>
@@ -6274,7 +6345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B103" s="9">
         <v>7</v>
       </c>
@@ -6309,7 +6380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B104" s="9">
         <v>8</v>
       </c>
@@ -6344,7 +6415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B105" s="9">
         <v>9</v>
       </c>
@@ -6379,7 +6450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B106" s="9">
         <v>10</v>
       </c>
@@ -6414,7 +6485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B107" s="9">
         <v>11</v>
       </c>
@@ -6449,7 +6520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B108" s="9">
         <v>12</v>
       </c>
@@ -6484,7 +6555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B109" s="9">
         <v>13</v>
       </c>
@@ -6519,7 +6590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B110" s="9">
         <v>25</v>
       </c>
@@ -6554,7 +6625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B111" s="9">
         <v>15</v>
       </c>
@@ -6589,7 +6660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B112" s="9">
         <v>16</v>
       </c>
@@ -6624,7 +6695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B113" s="9">
         <v>26</v>
       </c>
@@ -6659,7 +6730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B114" s="9">
         <v>25</v>
       </c>
@@ -6694,7 +6765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B115" s="9">
         <v>26</v>
       </c>
@@ -6729,7 +6800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B116" s="9">
         <v>24</v>
       </c>
@@ -6764,7 +6835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B117" s="9">
         <v>26</v>
       </c>
@@ -6799,7 +6870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B118" s="9">
         <v>27</v>
       </c>
@@ -6834,7 +6905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B119" s="9">
         <v>28</v>
       </c>
@@ -6869,7 +6940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B120" s="9">
         <v>29</v>
       </c>
@@ -6904,7 +6975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B121" s="9">
         <v>30</v>
       </c>
@@ -6939,7 +7010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B122" s="9">
         <v>31</v>
       </c>
@@ -6974,7 +7045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B123" s="9">
         <v>32</v>
       </c>
@@ -7009,7 +7080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B124" s="9">
         <v>33</v>
       </c>
@@ -7044,7 +7115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B125" s="9">
         <v>34</v>
       </c>
@@ -7079,7 +7150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B126" s="9">
         <v>24</v>
       </c>
@@ -7114,7 +7185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B127" s="9">
         <v>25</v>
       </c>
@@ -7149,7 +7220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B128" s="9">
         <v>26</v>
       </c>
@@ -7184,7 +7255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B129" s="9">
         <v>33</v>
       </c>
@@ -7219,7 +7290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B130" s="9">
         <v>34</v>
       </c>
@@ -7254,7 +7325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B131" s="9">
         <v>35</v>
       </c>
@@ -7289,7 +7360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B132" s="9">
         <v>36</v>
       </c>
@@ -7324,7 +7395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B133" s="9">
         <v>37</v>
       </c>
@@ -7359,7 +7430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B134" s="9">
         <v>38</v>
       </c>
@@ -7394,7 +7465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B135" s="9">
         <v>39</v>
       </c>
@@ -7429,7 +7500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B136" s="9">
         <v>40</v>
       </c>
@@ -7464,7 +7535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B137" s="9">
         <v>25</v>
       </c>
@@ -7499,7 +7570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B138" s="9">
         <v>26</v>
       </c>
@@ -7534,7 +7605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B139" s="9">
         <v>27</v>
       </c>
@@ -7569,7 +7640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B140" s="9">
         <v>10</v>
       </c>
@@ -7604,7 +7675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B141" s="9">
         <v>8</v>
       </c>
@@ -7639,7 +7710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B142" s="9">
         <v>9</v>
       </c>
@@ -7674,7 +7745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B143" s="9">
         <v>10</v>
       </c>
@@ -7709,7 +7780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B144" s="9">
         <v>7</v>
       </c>
@@ -7744,7 +7815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B145" s="9">
         <v>27</v>
       </c>
@@ -7779,7 +7850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B146" s="9">
         <v>28</v>
       </c>
@@ -7814,7 +7885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B147" s="12"/>
       <c r="C147" s="34" t="s">
         <v>272</v>
@@ -7829,7 +7900,7 @@
       <c r="K147" s="35"/>
       <c r="L147" s="33"/>
     </row>
-    <row r="148" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B148" s="9">
         <v>28</v>
       </c>
@@ -7864,7 +7935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B149" s="9">
         <v>29</v>
       </c>
@@ -7899,7 +7970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B150" s="9">
         <v>25</v>
       </c>
@@ -7934,7 +8005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B151" s="9">
         <v>6</v>
       </c>
@@ -7969,7 +8040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B152" s="9">
         <v>7</v>
       </c>
@@ -8004,7 +8075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B153" s="9">
         <v>25</v>
       </c>
@@ -8039,7 +8110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B154" s="9">
         <v>10</v>
       </c>
@@ -8074,7 +8145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B155" s="9">
         <v>11</v>
       </c>
@@ -8109,7 +8180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B156" s="9">
         <v>12</v>
       </c>
@@ -8144,7 +8215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B157" s="9">
         <v>13</v>
       </c>
@@ -8179,7 +8250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B158" s="9">
         <v>14</v>
       </c>
@@ -8214,7 +8285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B159" s="9">
         <v>11</v>
       </c>
@@ -8249,7 +8320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B160" s="9">
         <v>12</v>
       </c>
@@ -8284,7 +8355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B161" s="9">
         <v>25</v>
       </c>
@@ -8319,7 +8390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B162" s="9">
         <v>26</v>
       </c>
@@ -8354,7 +8425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B163" s="9">
         <v>35</v>
       </c>
@@ -8389,7 +8460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B164" s="9">
         <v>36</v>
       </c>
@@ -8420,7 +8491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B165" s="9">
         <v>26</v>
       </c>
@@ -8455,7 +8526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B166" s="9">
         <v>27</v>
       </c>
@@ -8490,7 +8561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B167" s="9">
         <v>28</v>
       </c>
@@ -8525,7 +8596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B168" s="9">
         <v>33</v>
       </c>
@@ -8560,7 +8631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B169" s="9">
         <v>34</v>
       </c>
@@ -8595,7 +8666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B170" s="9">
         <v>8</v>
       </c>
@@ -8630,7 +8701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B171" s="9">
         <v>25</v>
       </c>
@@ -8665,7 +8736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B172" s="9">
         <v>25</v>
       </c>
@@ -8700,7 +8771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B173" s="9">
         <v>25</v>
       </c>
@@ -8735,7 +8806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B174" s="9">
         <v>26</v>
       </c>
@@ -8770,7 +8841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B175" s="9">
         <v>26</v>
       </c>
@@ -8805,7 +8876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B176" s="9">
         <v>26</v>
       </c>
@@ -8840,7 +8911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B177" s="9">
         <v>26</v>
       </c>
@@ -8875,7 +8946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B178" s="9">
         <v>26</v>
       </c>
@@ -8910,7 +8981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B179" s="9">
         <v>26</v>
       </c>
@@ -8945,7 +9016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B180" s="9">
         <v>26</v>
       </c>
@@ -8980,7 +9051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B181" s="9">
         <v>26</v>
       </c>
@@ -9015,7 +9086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B182" s="9">
         <v>10</v>
       </c>
@@ -9050,7 +9121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B183" s="9">
         <v>25</v>
       </c>
@@ -9085,7 +9156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B184" s="9">
         <v>25</v>
       </c>
@@ -9120,7 +9191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B185" s="9">
         <v>7</v>
       </c>
@@ -9155,7 +9226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B186" s="9">
         <v>8</v>
       </c>
@@ -9190,7 +9261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B187" s="9">
         <v>8</v>
       </c>
@@ -9225,7 +9296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B188" s="9">
         <v>9</v>
       </c>
@@ -9260,7 +9331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B189" s="9">
         <v>11</v>
       </c>
@@ -9295,7 +9366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B190" s="9">
         <v>11</v>
       </c>
@@ -9330,7 +9401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B191" s="9">
         <v>12</v>
       </c>
@@ -9365,7 +9436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B192" s="9">
         <v>13</v>
       </c>
@@ -9400,7 +9471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B193" s="9">
         <v>14</v>
       </c>
@@ -9435,7 +9506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B194" s="9">
         <v>26</v>
       </c>
@@ -9470,7 +9541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B195" s="9">
         <v>26</v>
       </c>
@@ -9505,7 +9576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B196" s="9">
         <v>27</v>
       </c>
@@ -9540,7 +9611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B197" s="9">
         <v>28</v>
       </c>
@@ -9575,7 +9646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B198" s="9">
         <v>29</v>
       </c>
@@ -9610,7 +9681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B199" s="9">
         <v>29</v>
       </c>
@@ -9645,7 +9716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B200" s="9">
         <v>26</v>
       </c>
@@ -9680,7 +9751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B201" s="9">
         <v>6</v>
       </c>
@@ -9715,7 +9786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B202" s="9">
         <v>6</v>
       </c>
@@ -9750,7 +9821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B203" s="9">
         <v>6</v>
       </c>
@@ -9785,7 +9856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B204" s="9">
         <v>6</v>
       </c>
@@ -9820,7 +9891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B205" s="9">
         <v>8</v>
       </c>
@@ -9855,7 +9926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B206" s="9">
         <v>8</v>
       </c>
@@ -9890,7 +9961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B207" s="9">
         <v>8</v>
       </c>
@@ -9925,7 +9996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B208" s="9">
         <v>27</v>
       </c>
@@ -9960,7 +10031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B209" s="9">
         <v>27</v>
       </c>
@@ -9995,7 +10066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B210" s="9">
         <v>27</v>
       </c>
@@ -10030,7 +10101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B211" s="9">
         <v>5</v>
       </c>
@@ -10065,7 +10136,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B212" s="9">
         <v>10</v>
       </c>
@@ -10100,7 +10171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B213" s="9">
         <v>11</v>
       </c>
@@ -10135,7 +10206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B214" s="9">
         <v>25</v>
       </c>
@@ -10170,7 +10241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B215" s="9">
         <v>26</v>
       </c>
@@ -10205,7 +10276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B216" s="9">
         <v>26</v>
       </c>
@@ -10240,7 +10311,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B217" s="9">
         <v>5</v>
       </c>
@@ -10275,7 +10346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B218" s="9">
         <v>25</v>
       </c>
@@ -10310,7 +10381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B219" s="9">
         <v>25</v>
       </c>
@@ -10345,7 +10416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B220" s="9">
         <v>25</v>
       </c>
@@ -10380,7 +10451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B221" s="9">
         <v>28</v>
       </c>
@@ -10415,7 +10486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B222" s="9">
         <v>28</v>
       </c>
@@ -10450,7 +10521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B223" s="9">
         <v>28</v>
       </c>
@@ -10485,7 +10556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B224" s="9">
         <v>28</v>
       </c>
@@ -10520,7 +10591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B225" s="9">
         <v>11</v>
       </c>
@@ -10555,7 +10626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B226" s="9">
         <v>28</v>
       </c>
@@ -10590,7 +10661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B227" s="9">
         <v>11</v>
       </c>
@@ -10625,7 +10696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B228" s="9">
         <v>28</v>
       </c>
@@ -10660,7 +10731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B229" s="9">
         <v>26</v>
       </c>
@@ -10695,7 +10766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B230" s="9">
         <v>10</v>
       </c>
@@ -10730,7 +10801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="231" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B231" s="9">
         <v>10</v>
       </c>
@@ -10765,7 +10836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B232" s="9">
         <v>25</v>
       </c>
@@ -10800,7 +10871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B233" s="9">
         <v>5</v>
       </c>
@@ -10835,7 +10906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B234" s="9">
         <v>26</v>
       </c>
@@ -10870,7 +10941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B235" s="9">
         <v>25</v>
       </c>
@@ -10905,7 +10976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B236" s="9">
         <v>5</v>
       </c>
@@ -10940,7 +11011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="237" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B237" s="9">
         <v>6</v>
       </c>
@@ -10975,7 +11046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B238" s="9">
         <v>6</v>
       </c>
@@ -11010,7 +11081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B239" s="9">
         <v>25</v>
       </c>
@@ -11045,7 +11116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B240" s="12"/>
       <c r="C240" s="34" t="s">
         <v>370</v>
@@ -11060,7 +11131,7 @@
       <c r="K240"/>
       <c r="L240" s="33"/>
     </row>
-    <row r="241" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B241" s="9">
         <v>18</v>
       </c>
@@ -11095,7 +11166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B242" s="9">
         <v>25</v>
       </c>
@@ -11130,7 +11201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B243" s="9">
         <v>25</v>
       </c>
@@ -11165,7 +11236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B244" s="9">
         <v>25</v>
       </c>
@@ -11200,7 +11271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="245" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B245" s="9">
         <v>25</v>
       </c>
@@ -11235,7 +11306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B246" s="9">
         <v>25</v>
       </c>
@@ -11270,7 +11341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="247" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B247" s="9">
         <v>26</v>
       </c>
@@ -11305,7 +11376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="248" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B248" s="9">
         <v>6</v>
       </c>
@@ -11340,7 +11411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B249" s="9">
         <v>22</v>
       </c>
@@ -11375,7 +11446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="250" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B250" s="9">
         <v>10</v>
       </c>
@@ -11410,7 +11481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="251" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B251" s="33">
         <v>78</v>
       </c>
@@ -11445,7 +11516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B252" s="33">
         <v>25</v>
       </c>
@@ -11480,7 +11551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B253" s="33">
         <v>10</v>
       </c>
@@ -11515,7 +11586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="254" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B254" s="33">
         <v>10</v>
       </c>
@@ -11550,7 +11621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B255" s="33">
         <v>10</v>
       </c>
@@ -11585,7 +11656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B256" s="33">
         <v>25</v>
       </c>
@@ -11620,7 +11691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B257" s="33">
         <v>28</v>
       </c>
@@ -11655,7 +11726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B258" s="33">
         <v>25</v>
       </c>
@@ -11690,7 +11761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B259" s="33">
         <v>25</v>
       </c>
@@ -11725,7 +11796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B260" s="33">
         <v>25</v>
       </c>
@@ -11760,7 +11831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="261" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B261" s="33">
         <v>10</v>
       </c>
@@ -11795,7 +11866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B262" s="33">
         <v>22</v>
       </c>
@@ -11830,7 +11901,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="263" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B263" s="33">
         <v>10</v>
       </c>
@@ -11865,7 +11936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B264" s="33">
         <v>27</v>
       </c>
@@ -11900,7 +11971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B265" s="33">
         <v>26</v>
       </c>
@@ -11935,7 +12006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B266" s="33">
         <v>10</v>
       </c>
@@ -11970,7 +12041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B267" s="33">
         <v>22</v>
       </c>
@@ -12005,7 +12076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="268" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B268" s="33">
         <v>25</v>
       </c>
@@ -12040,7 +12111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B269" s="33">
         <v>25</v>
       </c>
@@ -12075,7 +12146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="270" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B270" s="33">
         <v>25</v>
       </c>
@@ -12110,7 +12181,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B271" s="33">
         <v>26</v>
       </c>
@@ -12145,7 +12216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B272" s="33">
         <v>26</v>
       </c>
@@ -12180,7 +12251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="273" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B273" s="33">
         <v>26</v>
       </c>
@@ -12215,7 +12286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:12" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B274" s="9">
         <v>29</v>
       </c>
@@ -12250,7 +12321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B275" s="33">
         <v>29</v>
       </c>
@@ -12285,7 +12356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B276" s="33">
         <v>29</v>
       </c>
@@ -12320,7 +12391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="277" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B277" s="33">
         <v>25</v>
       </c>
@@ -12355,7 +12426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="278" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B278" s="33">
         <v>25</v>
       </c>
@@ -12390,7 +12461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B279" s="33">
         <v>25</v>
       </c>
@@ -12425,7 +12496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B280" s="33">
         <v>22</v>
       </c>
@@ -12460,7 +12531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B281" s="33">
         <v>25</v>
       </c>
@@ -12495,7 +12566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B282" s="33">
         <v>25</v>
       </c>
@@ -12530,7 +12601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B283" s="33">
         <v>6</v>
       </c>
@@ -12565,7 +12636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B284" s="33">
         <v>6</v>
       </c>
@@ -12600,7 +12671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B285" s="33">
         <v>25</v>
       </c>
@@ -12635,7 +12706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B286" s="33">
         <v>16</v>
       </c>
@@ -12670,7 +12741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B287" s="33">
         <v>10</v>
       </c>
@@ -12705,7 +12776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="288" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B288" s="33">
         <v>10</v>
       </c>
@@ -12740,7 +12811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B289" s="33">
         <v>10</v>
       </c>
@@ -12775,7 +12846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B290" s="33">
         <v>10</v>
       </c>
@@ -12810,7 +12881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B291" s="33">
         <v>10</v>
       </c>
@@ -12845,7 +12916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B292" s="33">
         <v>12</v>
       </c>
@@ -12880,7 +12951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B293" s="33">
         <v>28</v>
       </c>
@@ -12915,7 +12986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B294" s="33">
         <v>28</v>
       </c>
@@ -12950,7 +13021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B295" s="33">
         <v>28</v>
       </c>
@@ -12985,7 +13056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B296" s="33">
         <v>28</v>
       </c>
@@ -13020,7 +13091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="297" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B297" s="33">
         <v>28</v>
       </c>
@@ -13055,7 +13126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B298" s="33">
         <v>28</v>
       </c>
@@ -13090,7 +13161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B299" s="33">
         <v>28</v>
       </c>
@@ -13118,14 +13189,14 @@
       <c r="J299" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="K299" t="s">
+      <c r="K299" s="31" t="s">
         <v>456</v>
       </c>
       <c r="L299" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="300" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B300" s="33">
         <v>28</v>
       </c>
@@ -13160,7 +13231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="301" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B301" s="33">
         <v>25</v>
       </c>
@@ -13195,7 +13266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="302" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B302" s="33">
         <v>25</v>
       </c>
@@ -13230,7 +13301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="303" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B303" s="33">
         <v>25</v>
       </c>
@@ -13265,7 +13336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="304" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B304" s="33">
         <v>10</v>
       </c>
@@ -13300,7 +13371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="305" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B305" s="33">
         <v>7</v>
       </c>
@@ -13335,7 +13406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="306" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B306" s="33">
         <v>28</v>
       </c>
@@ -13370,7 +13441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="307" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B307" s="33">
         <v>28</v>
       </c>
@@ -13405,7 +13476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B308" s="33">
         <v>21</v>
       </c>
@@ -13440,7 +13511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="309" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B309" s="33">
         <v>25</v>
       </c>
@@ -13475,7 +13546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="310" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B310" s="33">
         <v>25</v>
       </c>
@@ -13510,7 +13581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="311" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B311" s="33">
         <v>25</v>
       </c>
@@ -13545,7 +13616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="312" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B312" s="33">
         <v>25</v>
       </c>
@@ -13580,7 +13651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B313" s="33">
         <v>28</v>
       </c>
@@ -13615,7 +13686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="314" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B314" s="33">
         <v>28</v>
       </c>
@@ -13643,14 +13714,14 @@
       <c r="J314" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K314" t="s">
-        <v>476</v>
+      <c r="K314" s="31" t="s">
+        <v>503</v>
       </c>
       <c r="L314" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="315" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B315" s="33">
         <v>28</v>
       </c>
@@ -13685,7 +13756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="316" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B316" s="33">
         <v>11</v>
       </c>
@@ -13720,7 +13791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="317" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B317" s="33">
         <v>28</v>
       </c>
@@ -13748,14 +13819,14 @@
       <c r="J317" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K317" t="s">
-        <v>475</v>
+      <c r="K317" s="31" t="s">
+        <v>504</v>
       </c>
       <c r="L317" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="318" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B318" s="33">
         <v>6</v>
       </c>
@@ -13790,7 +13861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B319" s="33">
         <v>25</v>
       </c>
@@ -13819,13 +13890,13 @@
         <v>24</v>
       </c>
       <c r="K319" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L319" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="320" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B320" s="33">
         <v>25</v>
       </c>
@@ -13860,7 +13931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B321" s="33">
         <v>28</v>
       </c>
@@ -13895,7 +13966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="322" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B322" s="33">
         <v>28</v>
       </c>
@@ -13930,7 +14001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="323" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B323" s="33">
         <v>28</v>
       </c>
@@ -13965,7 +14036,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B324" s="33">
         <v>6</v>
       </c>
@@ -14000,7 +14071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B325" s="33">
         <v>6</v>
       </c>
@@ -14029,13 +14100,13 @@
         <v>27</v>
       </c>
       <c r="K325" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L325" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="326" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B326" s="33">
         <v>25</v>
       </c>
@@ -14064,13 +14135,13 @@
         <v>27</v>
       </c>
       <c r="K326" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L326" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="327" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B327" s="33">
         <v>25</v>
       </c>
@@ -14081,7 +14152,7 @@
         <v>121</v>
       </c>
       <c r="E327" s="26" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F327" s="33" t="s">
         <v>187</v>
@@ -14099,13 +14170,13 @@
         <v>27</v>
       </c>
       <c r="K327" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L327" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="328" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B328" s="33">
         <v>26</v>
       </c>
@@ -14140,7 +14211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="329" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B329" s="33">
         <v>26</v>
       </c>
@@ -14151,7 +14222,7 @@
         <v>29</v>
       </c>
       <c r="E329" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F329" s="33" t="s">
         <v>51</v>
@@ -14169,13 +14240,13 @@
         <v>27</v>
       </c>
       <c r="K329" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L329" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="330" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B330" s="33">
         <v>7</v>
       </c>
@@ -14204,13 +14275,13 @@
         <v>18</v>
       </c>
       <c r="K330" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L330" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="331" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B331" s="33">
         <v>28</v>
       </c>
@@ -14221,7 +14292,7 @@
         <v>29</v>
       </c>
       <c r="E331" s="26" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F331" s="33" t="s">
         <v>53</v>
@@ -14245,7 +14316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B332" s="33">
         <v>28</v>
       </c>
@@ -14268,19 +14339,19 @@
         <v>16</v>
       </c>
       <c r="I332" s="26" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J332" s="33" t="s">
         <v>27</v>
       </c>
       <c r="K332" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L332" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="333" spans="2:20" s="32" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="2:20" s="32" customFormat="1" ht="131.25" customHeight="1">
       <c r="B333" s="33">
         <v>28</v>
       </c>
@@ -14288,10 +14359,10 @@
         <v>43609</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E333" s="26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F333" s="25" t="s">
         <v>199</v>
@@ -14308,16 +14379,18 @@
       <c r="J333" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K333" s="45" t="s">
-        <v>491</v>
+      <c r="K333" s="37" t="s">
+        <v>489</v>
       </c>
       <c r="L333" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="334" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="B334" s="12"/>
-      <c r="C334" s="10"/>
+      <c r="C334" s="34" t="s">
+        <v>490</v>
+      </c>
       <c r="D334"/>
       <c r="E334"/>
       <c r="F334" s="9"/>
@@ -14336,330 +14409,1454 @@
       <c r="S334" s="3"/>
       <c r="T334" s="3"/>
     </row>
-    <row r="335" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B335" s="12"/>
-      <c r="C335" s="10"/>
-      <c r="D335" s="13"/>
-      <c r="E335" s="13"/>
-      <c r="F335" s="25"/>
-      <c r="G335" s="9"/>
-      <c r="H335" s="9"/>
-      <c r="I335" s="13"/>
-      <c r="J335" s="9"/>
-      <c r="K335" s="13"/>
-      <c r="L335" s="9"/>
-      <c r="M335" s="3"/>
-      <c r="N335" s="3"/>
-      <c r="O335" s="3"/>
-      <c r="P335" s="3"/>
-      <c r="Q335" s="3"/>
-      <c r="R335" s="3"/>
-      <c r="S335" s="3"/>
-      <c r="T335" s="3"/>
-    </row>
-    <row r="336" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B336" s="12"/>
-      <c r="C336" s="10"/>
-      <c r="D336" s="13"/>
-      <c r="E336" s="13"/>
-      <c r="F336" s="25"/>
-      <c r="G336" s="9"/>
-      <c r="H336" s="9"/>
-      <c r="I336" s="13"/>
-      <c r="J336" s="9"/>
-      <c r="K336" s="13"/>
-      <c r="L336" s="9"/>
-      <c r="M336" s="3"/>
-      <c r="N336" s="3"/>
-      <c r="O336" s="3"/>
-      <c r="P336" s="3"/>
-      <c r="Q336" s="3"/>
-      <c r="R336" s="3"/>
-      <c r="S336" s="3"/>
-      <c r="T336" s="3"/>
-    </row>
-    <row r="337" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B337" s="12"/>
-      <c r="C337" s="10"/>
-      <c r="D337" s="13"/>
-      <c r="E337" s="13"/>
-      <c r="F337" s="25"/>
-      <c r="G337" s="9"/>
-      <c r="H337" s="9"/>
-      <c r="I337" s="13"/>
-      <c r="J337" s="9"/>
-      <c r="K337" s="13"/>
-      <c r="L337" s="9"/>
-      <c r="M337" s="3"/>
-      <c r="N337" s="3"/>
-      <c r="O337" s="3"/>
-      <c r="P337" s="3"/>
-      <c r="Q337" s="3"/>
-      <c r="R337" s="3"/>
-      <c r="S337" s="3"/>
-      <c r="T337" s="3"/>
-    </row>
-    <row r="338" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B338" s="40" t="s">
+    <row r="335" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B335" s="33">
+        <v>6</v>
+      </c>
+      <c r="C335" s="34">
+        <v>43609</v>
+      </c>
+      <c r="D335" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="E335" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="F335" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G335" s="33">
+        <v>1</v>
+      </c>
+      <c r="H335" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I335" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J335" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K335" t="s">
+        <v>429</v>
+      </c>
+      <c r="L335" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="336" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B336" s="33">
+        <v>7</v>
+      </c>
+      <c r="C336" s="34">
+        <v>43609</v>
+      </c>
+      <c r="D336" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E336" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F336" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G336" s="33">
+        <v>1</v>
+      </c>
+      <c r="H336" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I336" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J336" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K336" t="s">
+        <v>487</v>
+      </c>
+      <c r="L336" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="337" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B337" s="33">
+        <v>6</v>
+      </c>
+      <c r="C337" s="34">
+        <v>43610</v>
+      </c>
+      <c r="D337" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E337" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F337" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G337" s="33">
+        <v>1</v>
+      </c>
+      <c r="H337" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I337" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J337" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K337" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="L337" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="338" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B338" s="33">
+        <v>28</v>
+      </c>
+      <c r="C338" s="34">
+        <v>43610</v>
+      </c>
+      <c r="D338" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E338" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="F338" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G338" s="33">
+        <v>1</v>
+      </c>
+      <c r="H338" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I338" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J338" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K338" t="s">
+        <v>428</v>
+      </c>
+      <c r="L338" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="339" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B339" s="33">
+        <v>25</v>
+      </c>
+      <c r="C339" s="34">
+        <v>43610</v>
+      </c>
+      <c r="D339" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E339" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="F339" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G339" s="33">
+        <v>1</v>
+      </c>
+      <c r="H339" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I339" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J339" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K339" t="s">
+        <v>302</v>
+      </c>
+      <c r="L339" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="340" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B340" s="33">
+        <v>25</v>
+      </c>
+      <c r="C340" s="34">
+        <v>43610</v>
+      </c>
+      <c r="D340" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E340" t="s">
+        <v>491</v>
+      </c>
+      <c r="F340" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G340" s="33">
+        <v>1</v>
+      </c>
+      <c r="H340" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I340" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J340" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K340" t="s">
+        <v>492</v>
+      </c>
+      <c r="L340" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="341" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B341" s="33">
+        <v>25</v>
+      </c>
+      <c r="C341" s="34">
+        <v>43610</v>
+      </c>
+      <c r="D341" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E341" t="s">
+        <v>493</v>
+      </c>
+      <c r="F341" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G341" s="33">
+        <v>1</v>
+      </c>
+      <c r="H341" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I341" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J341" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K341" t="s">
+        <v>494</v>
+      </c>
+      <c r="L341" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="342" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B342" s="33">
+        <v>25</v>
+      </c>
+      <c r="C342" s="34">
+        <v>43610</v>
+      </c>
+      <c r="D342" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E342" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F342" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G342" s="33">
+        <v>1</v>
+      </c>
+      <c r="H342" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I342" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J342" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K342" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L342" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="343" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B343" s="33">
+        <v>26</v>
+      </c>
+      <c r="C343" s="34">
+        <v>43610</v>
+      </c>
+      <c r="D343" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E343" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="F343" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G343" s="33">
+        <v>1</v>
+      </c>
+      <c r="H343" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I343" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J343" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K343" t="s">
+        <v>233</v>
+      </c>
+      <c r="L343" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="344" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B344" s="33">
+        <v>25</v>
+      </c>
+      <c r="C344" s="34">
+        <v>43611</v>
+      </c>
+      <c r="D344" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E344" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F344" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G344" s="33">
+        <v>1</v>
+      </c>
+      <c r="H344" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I344" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J344" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K344" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L344" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="345" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B345" s="33">
+        <v>25</v>
+      </c>
+      <c r="C345" s="34">
+        <v>43611</v>
+      </c>
+      <c r="D345" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E345" t="s">
+        <v>495</v>
+      </c>
+      <c r="F345" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G345" s="33">
+        <v>1</v>
+      </c>
+      <c r="H345" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I345" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J345" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K345" t="s">
+        <v>496</v>
+      </c>
+      <c r="L345" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="346" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B346" s="33">
+        <v>25</v>
+      </c>
+      <c r="C346" s="34">
+        <v>43611</v>
+      </c>
+      <c r="D346" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E346" t="s">
+        <v>491</v>
+      </c>
+      <c r="F346" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G346" s="33">
+        <v>1</v>
+      </c>
+      <c r="H346" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I346" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J346" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K346" t="s">
+        <v>492</v>
+      </c>
+      <c r="L346" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="347" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B347" s="33">
+        <v>25</v>
+      </c>
+      <c r="C347" s="34">
+        <v>43612</v>
+      </c>
+      <c r="D347" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E347" t="s">
+        <v>497</v>
+      </c>
+      <c r="F347" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="G347" s="33">
+        <v>1</v>
+      </c>
+      <c r="H347" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I347" t="s">
+        <v>25</v>
+      </c>
+      <c r="J347" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K347" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="L347" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="348" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B348" s="33">
+        <v>28</v>
+      </c>
+      <c r="C348" s="34">
+        <v>43612</v>
+      </c>
+      <c r="D348" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="E348" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="F348" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G348" s="33">
+        <v>1</v>
+      </c>
+      <c r="H348" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I348" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="J348" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K348" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="L348" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="349" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B349" s="33">
+        <v>25</v>
+      </c>
+      <c r="C349" s="34">
+        <v>43612</v>
+      </c>
+      <c r="D349" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E349" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F349" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G349" s="33">
+        <v>1</v>
+      </c>
+      <c r="H349" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I349" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J349" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K349" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L349" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="350" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B350" s="33">
+        <v>25</v>
+      </c>
+      <c r="C350" s="34">
+        <v>43612</v>
+      </c>
+      <c r="D350" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="E350" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="F350" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G350" s="33">
+        <v>1</v>
+      </c>
+      <c r="H350" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I350" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J350" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K350" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="L350" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="351" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B351" s="33">
+        <v>25</v>
+      </c>
+      <c r="C351" s="34">
+        <v>43612</v>
+      </c>
+      <c r="D351" t="s">
+        <v>29</v>
+      </c>
+      <c r="E351" t="s">
+        <v>505</v>
+      </c>
+      <c r="F351" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G351" s="33">
+        <v>1</v>
+      </c>
+      <c r="H351" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I351" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J351" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K351" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="L351" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="352" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B352" s="33">
+        <v>25</v>
+      </c>
+      <c r="C352" s="34">
+        <v>43612</v>
+      </c>
+      <c r="D352" t="s">
+        <v>29</v>
+      </c>
+      <c r="E352" t="s">
+        <v>507</v>
+      </c>
+      <c r="F352" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G352" s="33">
+        <v>1</v>
+      </c>
+      <c r="H352" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I352" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J352" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K352" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="L352" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="353" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B353" s="33">
+        <v>23</v>
+      </c>
+      <c r="C353" s="34">
+        <v>43612</v>
+      </c>
+      <c r="D353" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E353" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F353" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G353" s="33">
+        <v>1</v>
+      </c>
+      <c r="H353" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I353" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J353" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K353" s="46" t="s">
+        <v>509</v>
+      </c>
+      <c r="L353" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="354" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B354" s="33">
+        <v>26</v>
+      </c>
+      <c r="C354" s="34">
+        <v>43612</v>
+      </c>
+      <c r="D354" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E354" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="F354" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G354" s="33">
+        <v>1</v>
+      </c>
+      <c r="H354" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I354" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J354" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K354" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="L354" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="355" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B355" s="33">
+        <v>26</v>
+      </c>
+      <c r="C355" s="34">
+        <v>43612</v>
+      </c>
+      <c r="D355" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E355" t="s">
+        <v>511</v>
+      </c>
+      <c r="F355" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G355" s="33">
+        <v>1</v>
+      </c>
+      <c r="H355" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I355" t="s">
+        <v>262</v>
+      </c>
+      <c r="J355" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K355" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="L355" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="356" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B356" s="12"/>
+      <c r="C356" s="34"/>
+      <c r="D356" s="35"/>
+      <c r="E356" s="35"/>
+      <c r="F356" s="33"/>
+      <c r="G356" s="33"/>
+      <c r="H356" s="33"/>
+      <c r="I356" s="35"/>
+      <c r="J356" s="33"/>
+      <c r="K356"/>
+      <c r="L356" s="33"/>
+    </row>
+    <row r="357" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B357" s="12"/>
+      <c r="C357" s="34"/>
+      <c r="D357" s="35"/>
+      <c r="E357" s="35"/>
+      <c r="F357" s="33"/>
+      <c r="G357" s="33"/>
+      <c r="H357" s="33"/>
+      <c r="I357" s="35"/>
+      <c r="J357" s="33"/>
+      <c r="K357"/>
+      <c r="L357" s="33"/>
+    </row>
+    <row r="358" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B358" s="12"/>
+      <c r="C358" s="34"/>
+      <c r="D358" s="35"/>
+      <c r="E358" s="35"/>
+      <c r="F358" s="33"/>
+      <c r="G358" s="33"/>
+      <c r="H358" s="33"/>
+      <c r="I358" s="35"/>
+      <c r="J358" s="33"/>
+      <c r="K358"/>
+      <c r="L358" s="33"/>
+    </row>
+    <row r="359" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B359" s="12"/>
+      <c r="C359" s="34"/>
+      <c r="D359"/>
+      <c r="E359"/>
+      <c r="F359" s="33"/>
+      <c r="G359" s="33"/>
+      <c r="H359" s="33"/>
+      <c r="I359"/>
+      <c r="J359" s="33"/>
+      <c r="K359" s="31"/>
+      <c r="L359" s="33"/>
+      <c r="M359" s="3"/>
+      <c r="N359" s="3"/>
+      <c r="O359" s="3"/>
+      <c r="P359" s="3"/>
+      <c r="Q359" s="3"/>
+      <c r="R359" s="3"/>
+      <c r="S359" s="3"/>
+      <c r="T359" s="3"/>
+    </row>
+    <row r="360" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B360" s="12"/>
+      <c r="C360" s="34"/>
+      <c r="D360"/>
+      <c r="E360"/>
+      <c r="F360" s="33"/>
+      <c r="G360" s="33"/>
+      <c r="H360" s="33"/>
+      <c r="I360"/>
+      <c r="J360" s="33"/>
+      <c r="K360" s="31"/>
+      <c r="L360" s="33"/>
+      <c r="M360" s="3"/>
+      <c r="N360" s="3"/>
+      <c r="O360" s="3"/>
+      <c r="P360" s="3"/>
+      <c r="Q360" s="3"/>
+      <c r="R360" s="3"/>
+      <c r="S360" s="3"/>
+      <c r="T360" s="3"/>
+    </row>
+    <row r="361" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B361" s="12"/>
+      <c r="C361" s="34"/>
+      <c r="D361"/>
+      <c r="E361"/>
+      <c r="F361" s="33"/>
+      <c r="G361" s="33"/>
+      <c r="H361" s="33"/>
+      <c r="I361"/>
+      <c r="J361" s="33"/>
+      <c r="K361" s="31"/>
+      <c r="L361" s="33"/>
+      <c r="M361" s="3"/>
+      <c r="N361" s="3"/>
+      <c r="O361" s="3"/>
+      <c r="P361" s="3"/>
+      <c r="Q361" s="3"/>
+      <c r="R361" s="3"/>
+      <c r="S361" s="3"/>
+      <c r="T361" s="3"/>
+    </row>
+    <row r="362" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B362" s="12"/>
+      <c r="C362" s="34"/>
+      <c r="D362"/>
+      <c r="E362"/>
+      <c r="F362" s="33"/>
+      <c r="G362" s="33"/>
+      <c r="H362" s="33"/>
+      <c r="I362"/>
+      <c r="J362" s="33"/>
+      <c r="K362" s="31"/>
+      <c r="L362" s="33"/>
+      <c r="M362" s="3"/>
+      <c r="N362" s="3"/>
+      <c r="O362" s="3"/>
+      <c r="P362" s="3"/>
+      <c r="Q362" s="3"/>
+      <c r="R362" s="3"/>
+      <c r="S362" s="3"/>
+      <c r="T362" s="3"/>
+    </row>
+    <row r="363" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B363" s="12"/>
+      <c r="C363" s="34"/>
+      <c r="D363"/>
+      <c r="E363"/>
+      <c r="F363" s="33"/>
+      <c r="G363" s="33"/>
+      <c r="H363" s="33"/>
+      <c r="I363"/>
+      <c r="J363" s="33"/>
+      <c r="K363" s="31"/>
+      <c r="L363" s="33"/>
+      <c r="M363" s="3"/>
+      <c r="N363" s="3"/>
+      <c r="O363" s="3"/>
+      <c r="P363" s="3"/>
+      <c r="Q363" s="3"/>
+      <c r="R363" s="3"/>
+      <c r="S363" s="3"/>
+      <c r="T363" s="3"/>
+    </row>
+    <row r="364" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B364" s="12"/>
+      <c r="C364" s="34"/>
+      <c r="D364"/>
+      <c r="E364"/>
+      <c r="F364" s="33"/>
+      <c r="G364" s="33"/>
+      <c r="H364" s="33"/>
+      <c r="I364"/>
+      <c r="J364" s="33"/>
+      <c r="K364" s="31"/>
+      <c r="L364" s="33"/>
+      <c r="M364" s="3"/>
+      <c r="N364" s="3"/>
+      <c r="O364" s="3"/>
+      <c r="P364" s="3"/>
+      <c r="Q364" s="3"/>
+      <c r="R364" s="3"/>
+      <c r="S364" s="3"/>
+      <c r="T364" s="3"/>
+    </row>
+    <row r="365" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B365" s="12"/>
+      <c r="C365" s="34"/>
+      <c r="D365"/>
+      <c r="E365"/>
+      <c r="F365" s="33"/>
+      <c r="G365" s="33"/>
+      <c r="H365" s="33"/>
+      <c r="I365"/>
+      <c r="J365" s="33"/>
+      <c r="K365" s="31"/>
+      <c r="L365" s="33"/>
+      <c r="M365" s="3"/>
+      <c r="N365" s="3"/>
+      <c r="O365" s="3"/>
+      <c r="P365" s="3"/>
+      <c r="Q365" s="3"/>
+      <c r="R365" s="3"/>
+      <c r="S365" s="3"/>
+      <c r="T365" s="3"/>
+    </row>
+    <row r="366" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B366" s="12"/>
+      <c r="C366" s="34"/>
+      <c r="D366"/>
+      <c r="E366"/>
+      <c r="F366" s="33"/>
+      <c r="G366" s="33"/>
+      <c r="H366" s="33"/>
+      <c r="I366"/>
+      <c r="J366" s="33"/>
+      <c r="K366" s="31"/>
+      <c r="L366" s="33"/>
+      <c r="M366" s="3"/>
+      <c r="N366" s="3"/>
+      <c r="O366" s="3"/>
+      <c r="P366" s="3"/>
+      <c r="Q366" s="3"/>
+      <c r="R366" s="3"/>
+      <c r="S366" s="3"/>
+      <c r="T366" s="3"/>
+    </row>
+    <row r="367" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B367" s="12"/>
+      <c r="C367" s="34"/>
+      <c r="D367"/>
+      <c r="E367"/>
+      <c r="F367" s="33"/>
+      <c r="G367" s="33"/>
+      <c r="H367" s="33"/>
+      <c r="I367"/>
+      <c r="J367" s="33"/>
+      <c r="K367" s="31"/>
+      <c r="L367" s="33"/>
+      <c r="M367" s="3"/>
+      <c r="N367" s="3"/>
+      <c r="O367" s="3"/>
+      <c r="P367" s="3"/>
+      <c r="Q367" s="3"/>
+      <c r="R367" s="3"/>
+      <c r="S367" s="3"/>
+      <c r="T367" s="3"/>
+    </row>
+    <row r="368" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B368" s="12"/>
+      <c r="C368" s="34"/>
+      <c r="D368"/>
+      <c r="E368"/>
+      <c r="F368" s="33"/>
+      <c r="G368" s="33"/>
+      <c r="H368" s="33"/>
+      <c r="I368"/>
+      <c r="J368" s="33"/>
+      <c r="K368" s="31"/>
+      <c r="L368" s="33"/>
+      <c r="M368" s="3"/>
+      <c r="N368" s="3"/>
+      <c r="O368" s="3"/>
+      <c r="P368" s="3"/>
+      <c r="Q368" s="3"/>
+      <c r="R368" s="3"/>
+      <c r="S368" s="3"/>
+      <c r="T368" s="3"/>
+    </row>
+    <row r="369" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B369" s="12"/>
+      <c r="C369" s="34"/>
+      <c r="D369"/>
+      <c r="E369"/>
+      <c r="F369" s="33"/>
+      <c r="G369" s="33"/>
+      <c r="H369" s="33"/>
+      <c r="I369"/>
+      <c r="J369" s="33"/>
+      <c r="K369" s="31"/>
+      <c r="L369" s="33"/>
+      <c r="M369" s="3"/>
+      <c r="N369" s="3"/>
+      <c r="O369" s="3"/>
+      <c r="P369" s="3"/>
+      <c r="Q369" s="3"/>
+      <c r="R369" s="3"/>
+      <c r="S369" s="3"/>
+      <c r="T369" s="3"/>
+    </row>
+    <row r="370" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B370" s="12"/>
+      <c r="C370" s="34"/>
+      <c r="D370"/>
+      <c r="E370"/>
+      <c r="F370" s="33"/>
+      <c r="G370" s="33"/>
+      <c r="H370" s="33"/>
+      <c r="I370"/>
+      <c r="J370" s="33"/>
+      <c r="K370" s="31"/>
+      <c r="L370" s="33"/>
+      <c r="M370" s="3"/>
+      <c r="N370" s="3"/>
+      <c r="O370" s="3"/>
+      <c r="P370" s="3"/>
+      <c r="Q370" s="3"/>
+      <c r="R370" s="3"/>
+      <c r="S370" s="3"/>
+      <c r="T370" s="3"/>
+    </row>
+    <row r="371" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B371" s="12"/>
+      <c r="C371" s="34"/>
+      <c r="D371"/>
+      <c r="E371"/>
+      <c r="F371" s="33"/>
+      <c r="G371" s="33"/>
+      <c r="H371" s="33"/>
+      <c r="I371"/>
+      <c r="J371" s="33"/>
+      <c r="K371" s="31"/>
+      <c r="L371" s="33"/>
+      <c r="M371" s="3"/>
+      <c r="N371" s="3"/>
+      <c r="O371" s="3"/>
+      <c r="P371" s="3"/>
+      <c r="Q371" s="3"/>
+      <c r="R371" s="3"/>
+      <c r="S371" s="3"/>
+      <c r="T371" s="3"/>
+    </row>
+    <row r="372" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B372" s="12"/>
+      <c r="C372" s="34"/>
+      <c r="D372"/>
+      <c r="E372"/>
+      <c r="F372" s="33"/>
+      <c r="G372" s="33"/>
+      <c r="H372" s="33"/>
+      <c r="I372"/>
+      <c r="J372" s="33"/>
+      <c r="K372" s="31"/>
+      <c r="L372" s="33"/>
+      <c r="M372" s="3"/>
+      <c r="N372" s="3"/>
+      <c r="O372" s="3"/>
+      <c r="P372" s="3"/>
+      <c r="Q372" s="3"/>
+      <c r="R372" s="3"/>
+      <c r="S372" s="3"/>
+      <c r="T372" s="3"/>
+    </row>
+    <row r="373" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B373" s="12"/>
+      <c r="C373" s="34"/>
+      <c r="D373"/>
+      <c r="E373"/>
+      <c r="F373" s="33"/>
+      <c r="G373" s="33"/>
+      <c r="H373" s="33"/>
+      <c r="I373"/>
+      <c r="J373" s="33"/>
+      <c r="K373" s="31"/>
+      <c r="L373" s="33"/>
+      <c r="M373" s="3"/>
+      <c r="N373" s="3"/>
+      <c r="O373" s="3"/>
+      <c r="P373" s="3"/>
+      <c r="Q373" s="3"/>
+      <c r="R373" s="3"/>
+      <c r="S373" s="3"/>
+      <c r="T373" s="3"/>
+    </row>
+    <row r="374" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B374" s="12"/>
+      <c r="C374" s="34"/>
+      <c r="D374"/>
+      <c r="E374"/>
+      <c r="F374" s="33"/>
+      <c r="G374" s="33"/>
+      <c r="H374" s="33"/>
+      <c r="I374"/>
+      <c r="J374" s="33"/>
+      <c r="K374" s="31"/>
+      <c r="L374" s="33"/>
+      <c r="M374" s="3"/>
+      <c r="N374" s="3"/>
+      <c r="O374" s="3"/>
+      <c r="P374" s="3"/>
+      <c r="Q374" s="3"/>
+      <c r="R374" s="3"/>
+      <c r="S374" s="3"/>
+      <c r="T374" s="3"/>
+    </row>
+    <row r="375" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B375" s="12"/>
+      <c r="C375" s="10"/>
+      <c r="D375" s="13"/>
+      <c r="E375" s="13"/>
+      <c r="F375" s="25"/>
+      <c r="G375" s="9"/>
+      <c r="H375" s="9"/>
+      <c r="I375" s="13"/>
+      <c r="J375" s="9"/>
+      <c r="K375" s="13"/>
+      <c r="L375" s="9"/>
+      <c r="M375" s="3"/>
+      <c r="N375" s="3"/>
+      <c r="O375" s="3"/>
+      <c r="P375" s="3"/>
+      <c r="Q375" s="3"/>
+      <c r="R375" s="3"/>
+      <c r="S375" s="3"/>
+      <c r="T375" s="3"/>
+    </row>
+    <row r="376" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B376" s="12"/>
+      <c r="C376" s="10"/>
+      <c r="D376" s="13"/>
+      <c r="E376" s="13"/>
+      <c r="F376" s="25"/>
+      <c r="G376" s="9"/>
+      <c r="H376" s="9"/>
+      <c r="I376" s="13"/>
+      <c r="J376" s="9"/>
+      <c r="K376" s="13"/>
+      <c r="L376" s="9"/>
+      <c r="M376" s="3"/>
+      <c r="N376" s="3"/>
+      <c r="O376" s="3"/>
+      <c r="P376" s="3"/>
+      <c r="Q376" s="3"/>
+      <c r="R376" s="3"/>
+      <c r="S376" s="3"/>
+      <c r="T376" s="3"/>
+    </row>
+    <row r="377" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B377" s="12"/>
+      <c r="C377" s="10"/>
+      <c r="D377" s="13"/>
+      <c r="E377" s="13"/>
+      <c r="F377" s="25"/>
+      <c r="G377" s="9"/>
+      <c r="H377" s="9"/>
+      <c r="I377" s="13"/>
+      <c r="J377" s="9"/>
+      <c r="K377" s="13"/>
+      <c r="L377" s="9"/>
+      <c r="M377" s="3"/>
+      <c r="N377" s="3"/>
+      <c r="O377" s="3"/>
+      <c r="P377" s="3"/>
+      <c r="Q377" s="3"/>
+      <c r="R377" s="3"/>
+      <c r="S377" s="3"/>
+      <c r="T377" s="3"/>
+    </row>
+    <row r="378" spans="2:20" ht="21.75" customHeight="1">
+      <c r="B378" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C338" s="41"/>
-      <c r="D338" s="14"/>
-      <c r="E338" s="14"/>
-      <c r="F338" s="15"/>
-      <c r="G338" s="15">
-        <f>SUM(G3:G337)</f>
-        <v>329</v>
-      </c>
-      <c r="H338" s="15"/>
-      <c r="I338" s="15"/>
-      <c r="J338" s="9"/>
-      <c r="K338" s="21"/>
-      <c r="L338" s="9"/>
-    </row>
-    <row r="340" spans="2:20" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B340" s="42"/>
-      <c r="C340" s="43"/>
-      <c r="D340" s="43"/>
-      <c r="E340" s="43"/>
-      <c r="F340" s="43"/>
-      <c r="G340" s="43"/>
-      <c r="H340" s="43"/>
-      <c r="I340" s="43"/>
-      <c r="J340" s="44"/>
-      <c r="K340" s="22"/>
-      <c r="L340" s="23"/>
+      <c r="C378" s="42"/>
+      <c r="D378" s="14"/>
+      <c r="E378" s="14"/>
+      <c r="F378" s="15"/>
+      <c r="G378" s="15">
+        <f>SUM(G3:G377)</f>
+        <v>350</v>
+      </c>
+      <c r="H378" s="15"/>
+      <c r="I378" s="15"/>
+      <c r="J378" s="9"/>
+      <c r="K378" s="21"/>
+      <c r="L378" s="9"/>
+    </row>
+    <row r="380" spans="2:20" ht="75" customHeight="1">
+      <c r="B380" s="43"/>
+      <c r="C380" s="44"/>
+      <c r="D380" s="44"/>
+      <c r="E380" s="44"/>
+      <c r="F380" s="44"/>
+      <c r="G380" s="44"/>
+      <c r="H380" s="44"/>
+      <c r="I380" s="44"/>
+      <c r="J380" s="45"/>
+      <c r="K380" s="22"/>
+      <c r="L380" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L338" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:L378"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B338:C338"/>
-    <mergeCell ref="B340:J340"/>
+    <mergeCell ref="B378:C378"/>
+    <mergeCell ref="B380:J380"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J338" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J378">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J56 J58:J337" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J56 J58:J377">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K37" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K38" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K42" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K43" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K48" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K49" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K55" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="K47" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="K53" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K56" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="K58" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="K59" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K60" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="K61" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K62" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K65" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K66" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K67" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="K71" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K72" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K74" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K75" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K76" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K79" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="K80" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K81" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="K82" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="K83" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="K84" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="K87" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="K88" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="K92" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="K93" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K95" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="K98" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="K96" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="K97" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="K99" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="K100" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="K102" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="K104" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K105" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K108" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="K106" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="K109" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="K111" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K112" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K107" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K113" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="K115" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="K117" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="K118" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="K119" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="K120" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="K121:K122" r:id="rId59" display="https://xhbup.com/qianfei22/" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="K121" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="K122" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="K123" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K124" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="K129" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="K132" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="K133" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="K134" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K135" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="K136" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="K139" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="K138" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="K141" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K142" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="K143" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="K145" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="K160" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="K162" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="K163" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="K166" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="K167" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="K168" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="K170" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="K172" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="K173" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="K174" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="K175" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="K177" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="K178" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="K179" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="K180" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="K181" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="K184" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="K186" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="K187" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="K192" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="K193" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="K194" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="K195" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="K196" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="K197" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="K198" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="K199" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="K200" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="K202" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="K203" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="K204" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="K205" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="K206" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="K207" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="K208" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="K209" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="K210" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="K211" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="K213" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="K215" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="K216" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="K217" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="K219" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="K220" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="K221" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="K222" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="K223" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="K224" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="K226" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="K228" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="K229" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="K233" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="K234" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="K235" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="K236" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="K237" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="K238" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="K239" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="K242" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="K244" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="K245" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="K246" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="K247" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="K251" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="K252" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="K254" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="K255" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="K256" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="K257" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="K258" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="K259" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="K260" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="K262" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="K263" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="K264" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="K265" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="K266" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="K267" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="K268" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="K269" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="K270" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="K271" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="K272" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="K273" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="K274" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="K275" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="K276" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="K277" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="K278" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="K279" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="K280" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="K281" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="K282" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="K283" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="K285" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="K286" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="K288" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="K289" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="K290" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="K291" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="K293" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="K294" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="K295" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="K296" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="K297" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="K298" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="K299" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="K301" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="K302" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="K303" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="K304" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="K307" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="K309" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="K312" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="K313" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="K314" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="K316" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="K317" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="K319" r:id="rId194" xr:uid="{A7201DC4-8130-4566-8069-5989AF5DC839}"/>
-    <hyperlink ref="K320" r:id="rId195" xr:uid="{9D4FFF64-BC5C-4A1C-BDA7-2BDBF8311D4D}"/>
-    <hyperlink ref="K321" r:id="rId196" xr:uid="{39E9D845-9961-4F22-A8A7-CB7F8C6C32E7}"/>
-    <hyperlink ref="K322" r:id="rId197" xr:uid="{9FA4C8F5-1D3B-4595-BD3A-53FE1C019C58}"/>
-    <hyperlink ref="K325" r:id="rId198" xr:uid="{383F65AF-9132-4641-BA32-890ED7D7DF35}"/>
-    <hyperlink ref="K326" r:id="rId199" xr:uid="{9EA5ACC7-E2E4-4BD7-AD2B-F1FFF1716478}"/>
-    <hyperlink ref="K327" r:id="rId200" xr:uid="{3FCE3412-04E0-41F8-ABF8-B39FE9AC4CC0}"/>
-    <hyperlink ref="K328" r:id="rId201" xr:uid="{F684C746-6809-4DB7-B34A-F3AA85238C31}"/>
-    <hyperlink ref="K329" r:id="rId202" xr:uid="{7A9994B0-B382-4761-9DD0-E1814A4AC240}"/>
-    <hyperlink ref="K330" r:id="rId203" xr:uid="{266E7F96-4BE6-46D8-8629-B910E624405D}"/>
-    <hyperlink ref="K331" r:id="rId204" xr:uid="{0956B3AA-24A0-44F0-93B0-72E0083B91E1}"/>
-    <hyperlink ref="K332" r:id="rId205" xr:uid="{FD223095-B5C4-45CA-BBD1-9FAE30348AE9}"/>
-    <hyperlink ref="K333" r:id="rId206" display="https://xhbup.com/dtdk1/" xr:uid="{4F4DC50D-0C97-4470-807A-679E35216507}"/>
+    <hyperlink ref="K3" r:id="rId1"/>
+    <hyperlink ref="K4" r:id="rId2"/>
+    <hyperlink ref="K8" r:id="rId3"/>
+    <hyperlink ref="K36" r:id="rId4"/>
+    <hyperlink ref="K37" r:id="rId5"/>
+    <hyperlink ref="K38" r:id="rId6"/>
+    <hyperlink ref="K42" r:id="rId7"/>
+    <hyperlink ref="K43" r:id="rId8"/>
+    <hyperlink ref="K48" r:id="rId9"/>
+    <hyperlink ref="K49" r:id="rId10"/>
+    <hyperlink ref="K55" r:id="rId11"/>
+    <hyperlink ref="K47" r:id="rId12"/>
+    <hyperlink ref="K53" r:id="rId13"/>
+    <hyperlink ref="K56" r:id="rId14"/>
+    <hyperlink ref="K58" r:id="rId15"/>
+    <hyperlink ref="K59" r:id="rId16"/>
+    <hyperlink ref="K60" r:id="rId17"/>
+    <hyperlink ref="K61" r:id="rId18"/>
+    <hyperlink ref="K62" r:id="rId19"/>
+    <hyperlink ref="K65" r:id="rId20"/>
+    <hyperlink ref="K66" r:id="rId21"/>
+    <hyperlink ref="K67" r:id="rId22"/>
+    <hyperlink ref="K71" r:id="rId23"/>
+    <hyperlink ref="K72" r:id="rId24"/>
+    <hyperlink ref="K74" r:id="rId25"/>
+    <hyperlink ref="K75" r:id="rId26"/>
+    <hyperlink ref="K76" r:id="rId27"/>
+    <hyperlink ref="K79" r:id="rId28"/>
+    <hyperlink ref="K80" r:id="rId29"/>
+    <hyperlink ref="K81" r:id="rId30"/>
+    <hyperlink ref="K82" r:id="rId31"/>
+    <hyperlink ref="K83" r:id="rId32"/>
+    <hyperlink ref="K84" r:id="rId33"/>
+    <hyperlink ref="K87" r:id="rId34"/>
+    <hyperlink ref="K88" r:id="rId35"/>
+    <hyperlink ref="K92" r:id="rId36"/>
+    <hyperlink ref="K93" r:id="rId37"/>
+    <hyperlink ref="K95" r:id="rId38"/>
+    <hyperlink ref="K98" r:id="rId39"/>
+    <hyperlink ref="K96" r:id="rId40"/>
+    <hyperlink ref="K97" r:id="rId41"/>
+    <hyperlink ref="K99" r:id="rId42"/>
+    <hyperlink ref="K100" r:id="rId43"/>
+    <hyperlink ref="K102" r:id="rId44"/>
+    <hyperlink ref="K104" r:id="rId45"/>
+    <hyperlink ref="K105" r:id="rId46"/>
+    <hyperlink ref="K108" r:id="rId47"/>
+    <hyperlink ref="K106" r:id="rId48"/>
+    <hyperlink ref="K109" r:id="rId49"/>
+    <hyperlink ref="K111" r:id="rId50"/>
+    <hyperlink ref="K112" r:id="rId51"/>
+    <hyperlink ref="K107" r:id="rId52"/>
+    <hyperlink ref="K113" r:id="rId53"/>
+    <hyperlink ref="K115" r:id="rId54"/>
+    <hyperlink ref="K117" r:id="rId55"/>
+    <hyperlink ref="K118" r:id="rId56"/>
+    <hyperlink ref="K119" r:id="rId57"/>
+    <hyperlink ref="K120" r:id="rId58"/>
+    <hyperlink ref="K121:K122" r:id="rId59" display="https://xhbup.com/qianfei22/"/>
+    <hyperlink ref="K121" r:id="rId60"/>
+    <hyperlink ref="K122" r:id="rId61"/>
+    <hyperlink ref="K123" r:id="rId62"/>
+    <hyperlink ref="K124" r:id="rId63"/>
+    <hyperlink ref="K129" r:id="rId64"/>
+    <hyperlink ref="K132" r:id="rId65"/>
+    <hyperlink ref="K133" r:id="rId66"/>
+    <hyperlink ref="K134" r:id="rId67"/>
+    <hyperlink ref="K135" r:id="rId68"/>
+    <hyperlink ref="K136" r:id="rId69"/>
+    <hyperlink ref="K139" r:id="rId70"/>
+    <hyperlink ref="K138" r:id="rId71"/>
+    <hyperlink ref="K141" r:id="rId72"/>
+    <hyperlink ref="K142" r:id="rId73"/>
+    <hyperlink ref="K143" r:id="rId74"/>
+    <hyperlink ref="K145" r:id="rId75"/>
+    <hyperlink ref="K160" r:id="rId76"/>
+    <hyperlink ref="K162" r:id="rId77"/>
+    <hyperlink ref="K163" r:id="rId78"/>
+    <hyperlink ref="K166" r:id="rId79"/>
+    <hyperlink ref="K167" r:id="rId80"/>
+    <hyperlink ref="K168" r:id="rId81"/>
+    <hyperlink ref="K170" r:id="rId82"/>
+    <hyperlink ref="K172" r:id="rId83"/>
+    <hyperlink ref="K173" r:id="rId84"/>
+    <hyperlink ref="K174" r:id="rId85"/>
+    <hyperlink ref="K175" r:id="rId86"/>
+    <hyperlink ref="K177" r:id="rId87"/>
+    <hyperlink ref="K178" r:id="rId88"/>
+    <hyperlink ref="K179" r:id="rId89"/>
+    <hyperlink ref="K180" r:id="rId90"/>
+    <hyperlink ref="K181" r:id="rId91"/>
+    <hyperlink ref="K184" r:id="rId92"/>
+    <hyperlink ref="K186" r:id="rId93"/>
+    <hyperlink ref="K187" r:id="rId94"/>
+    <hyperlink ref="K192" r:id="rId95"/>
+    <hyperlink ref="K193" r:id="rId96"/>
+    <hyperlink ref="K194" r:id="rId97"/>
+    <hyperlink ref="K195" r:id="rId98"/>
+    <hyperlink ref="K196" r:id="rId99"/>
+    <hyperlink ref="K197" r:id="rId100"/>
+    <hyperlink ref="K198" r:id="rId101"/>
+    <hyperlink ref="K199" r:id="rId102"/>
+    <hyperlink ref="K200" r:id="rId103"/>
+    <hyperlink ref="K202" r:id="rId104"/>
+    <hyperlink ref="K203" r:id="rId105"/>
+    <hyperlink ref="K204" r:id="rId106"/>
+    <hyperlink ref="K205" r:id="rId107"/>
+    <hyperlink ref="K206" r:id="rId108"/>
+    <hyperlink ref="K207" r:id="rId109"/>
+    <hyperlink ref="K208" r:id="rId110"/>
+    <hyperlink ref="K209" r:id="rId111"/>
+    <hyperlink ref="K210" r:id="rId112"/>
+    <hyperlink ref="K211" r:id="rId113"/>
+    <hyperlink ref="K213" r:id="rId114"/>
+    <hyperlink ref="K215" r:id="rId115"/>
+    <hyperlink ref="K216" r:id="rId116"/>
+    <hyperlink ref="K217" r:id="rId117"/>
+    <hyperlink ref="K219" r:id="rId118"/>
+    <hyperlink ref="K220" r:id="rId119"/>
+    <hyperlink ref="K221" r:id="rId120"/>
+    <hyperlink ref="K222" r:id="rId121"/>
+    <hyperlink ref="K223" r:id="rId122"/>
+    <hyperlink ref="K224" r:id="rId123"/>
+    <hyperlink ref="K226" r:id="rId124"/>
+    <hyperlink ref="K228" r:id="rId125"/>
+    <hyperlink ref="K229" r:id="rId126"/>
+    <hyperlink ref="K233" r:id="rId127"/>
+    <hyperlink ref="K234" r:id="rId128"/>
+    <hyperlink ref="K235" r:id="rId129"/>
+    <hyperlink ref="K236" r:id="rId130"/>
+    <hyperlink ref="K237" r:id="rId131"/>
+    <hyperlink ref="K238" r:id="rId132"/>
+    <hyperlink ref="K239" r:id="rId133"/>
+    <hyperlink ref="K242" r:id="rId134"/>
+    <hyperlink ref="K244" r:id="rId135"/>
+    <hyperlink ref="K245" r:id="rId136"/>
+    <hyperlink ref="K246" r:id="rId137"/>
+    <hyperlink ref="K247" r:id="rId138"/>
+    <hyperlink ref="K251" r:id="rId139"/>
+    <hyperlink ref="K252" r:id="rId140"/>
+    <hyperlink ref="K254" r:id="rId141"/>
+    <hyperlink ref="K255" r:id="rId142"/>
+    <hyperlink ref="K256" r:id="rId143"/>
+    <hyperlink ref="K257" r:id="rId144"/>
+    <hyperlink ref="K258" r:id="rId145"/>
+    <hyperlink ref="K259" r:id="rId146"/>
+    <hyperlink ref="K260" r:id="rId147"/>
+    <hyperlink ref="K262" r:id="rId148"/>
+    <hyperlink ref="K263" r:id="rId149"/>
+    <hyperlink ref="K264" r:id="rId150"/>
+    <hyperlink ref="K265" r:id="rId151"/>
+    <hyperlink ref="K266" r:id="rId152"/>
+    <hyperlink ref="K267" r:id="rId153"/>
+    <hyperlink ref="K268" r:id="rId154"/>
+    <hyperlink ref="K269" r:id="rId155"/>
+    <hyperlink ref="K270" r:id="rId156"/>
+    <hyperlink ref="K271" r:id="rId157"/>
+    <hyperlink ref="K272" r:id="rId158"/>
+    <hyperlink ref="K273" r:id="rId159"/>
+    <hyperlink ref="K274" r:id="rId160"/>
+    <hyperlink ref="K275" r:id="rId161"/>
+    <hyperlink ref="K276" r:id="rId162"/>
+    <hyperlink ref="K277" r:id="rId163"/>
+    <hyperlink ref="K278" r:id="rId164"/>
+    <hyperlink ref="K279" r:id="rId165"/>
+    <hyperlink ref="K280" r:id="rId166"/>
+    <hyperlink ref="K281" r:id="rId167"/>
+    <hyperlink ref="K282" r:id="rId168"/>
+    <hyperlink ref="K283" r:id="rId169"/>
+    <hyperlink ref="K285" r:id="rId170"/>
+    <hyperlink ref="K286" r:id="rId171"/>
+    <hyperlink ref="K288" r:id="rId172"/>
+    <hyperlink ref="K289" r:id="rId173"/>
+    <hyperlink ref="K290" r:id="rId174"/>
+    <hyperlink ref="K291" r:id="rId175"/>
+    <hyperlink ref="K293" r:id="rId176"/>
+    <hyperlink ref="K294" r:id="rId177"/>
+    <hyperlink ref="K295" r:id="rId178"/>
+    <hyperlink ref="K296" r:id="rId179"/>
+    <hyperlink ref="K297" r:id="rId180"/>
+    <hyperlink ref="K298" r:id="rId181"/>
+    <hyperlink ref="K299" r:id="rId182"/>
+    <hyperlink ref="K301" r:id="rId183"/>
+    <hyperlink ref="K302" r:id="rId184"/>
+    <hyperlink ref="K303" r:id="rId185"/>
+    <hyperlink ref="K304" r:id="rId186"/>
+    <hyperlink ref="K307" r:id="rId187"/>
+    <hyperlink ref="K309" r:id="rId188"/>
+    <hyperlink ref="K312" r:id="rId189"/>
+    <hyperlink ref="K313" r:id="rId190"/>
+    <hyperlink ref="K314" r:id="rId191"/>
+    <hyperlink ref="K316" r:id="rId192"/>
+    <hyperlink ref="K317" r:id="rId193"/>
+    <hyperlink ref="K319" r:id="rId194"/>
+    <hyperlink ref="K320" r:id="rId195"/>
+    <hyperlink ref="K321" r:id="rId196"/>
+    <hyperlink ref="K322" r:id="rId197"/>
+    <hyperlink ref="K325" r:id="rId198"/>
+    <hyperlink ref="K326" r:id="rId199"/>
+    <hyperlink ref="K327" r:id="rId200"/>
+    <hyperlink ref="K328" r:id="rId201"/>
+    <hyperlink ref="K329" r:id="rId202"/>
+    <hyperlink ref="K330" r:id="rId203"/>
+    <hyperlink ref="K331" r:id="rId204"/>
+    <hyperlink ref="K332" r:id="rId205"/>
+    <hyperlink ref="K333" r:id="rId206" display="https://xhbup.com/dtdk1/"/>
+    <hyperlink ref="K335" r:id="rId207"/>
+    <hyperlink ref="K336" r:id="rId208"/>
+    <hyperlink ref="K338" r:id="rId209"/>
+    <hyperlink ref="K339" r:id="rId210"/>
+    <hyperlink ref="K343" r:id="rId211"/>
+    <hyperlink ref="K348" r:id="rId212"/>
+    <hyperlink ref="K350" r:id="rId213"/>
+    <hyperlink ref="K347" r:id="rId214"/>
+    <hyperlink ref="K337" r:id="rId215"/>
+    <hyperlink ref="K351" r:id="rId216"/>
+    <hyperlink ref="K352" r:id="rId217"/>
+    <hyperlink ref="K353" r:id="rId218"/>
+    <hyperlink ref="K354" r:id="rId219"/>
+    <hyperlink ref="K355" r:id="rId220"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId207"/>
-  <drawing r:id="rId208"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId221"/>
+  <drawing r:id="rId222"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$378</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$431</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3291" uniqueCount="601">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -1622,54 +1622,136 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>珠海市金枝玉液化妆品有限公司</t>
+  </si>
+  <si>
+    <t>杨鑫 </t>
+  </si>
+  <si>
+    <t> https://xhbup.com/jzyy/</t>
+  </si>
+  <si>
+    <t>生发</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>肇庆市华满丰商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/huamanf/</t>
+  </si>
+  <si>
+    <t>汇通宝支付有限责任公司</t>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/huitongb/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ka</t>
+  </si>
+  <si>
+    <t>广东万丈金数信息技术股份有限公司（出行无忧</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/wzjs</t>
+  </si>
+  <si>
+    <t>5月份业务线数量汇总</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海绿健化妆品有限公司</t>
+  </si>
+  <si>
+    <t>韶关市益世达贸易有限公司</t>
+  </si>
+  <si>
+    <t>和合情感咨询（广州）有限公司</t>
+  </si>
+  <si>
+    <t>毓宁</t>
+  </si>
+  <si>
+    <t>陈总</t>
+  </si>
+  <si>
+    <t>广州地铁小额贷款有限公司</t>
+  </si>
+  <si>
+    <t>第四周</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞市会心日化贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/hxrh</t>
+  </si>
+  <si>
+    <t>江门市蓬江区卓斌美容有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/zbmr</t>
+  </si>
+  <si>
+    <t>佛山市恩泊化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/sibo/</t>
+  </si>
+  <si>
+    <t>肇庆玉都天光墟网络文化传播</t>
+  </si>
+  <si>
+    <t>翡翠</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞市天资堂化妆品有限公司</t>
+  </si>
+  <si>
+    <t>珠海市晨梦晨贸易有限公司</t>
+  </si>
+  <si>
+    <t>广州市天盈化妆品有限公司</t>
+  </si>
+  <si>
+    <t>广州丘比食品有限公司</t>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/sihet2/</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/yueguangq1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.xhbup.com/yichens/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>珠海市金枝玉液化妆品有限公司</t>
-  </si>
-  <si>
-    <t>杨鑫 </t>
-  </si>
-  <si>
-    <t> https://xhbup.com/jzyy/</t>
-  </si>
-  <si>
-    <t>生发</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>肇庆市华满丰商贸有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/huamanf/</t>
-  </si>
-  <si>
-    <t>汇通宝支付有限责任公司</t>
-  </si>
-  <si>
-    <t>支付</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/huitongb/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>https://xhbup.com/chaofa3/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>ka</t>
-  </si>
-  <si>
-    <t>广东万丈金数信息技术股份有限公司（出行无忧</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/wzjs</t>
-  </si>
-  <si>
-    <t>5月份业务线数量汇总</t>
+    <t>https://xhbup.com/sihet1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/sihet2</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1763,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1698,7 +1779,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1715,31 +1795,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>6/</t>
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>珠海绿健化妆品有限公司</t>
-  </si>
-  <si>
-    <t>韶关市益世达贸易有限公司</t>
-  </si>
-  <si>
-    <t>和合情感咨询（广州）有限公司</t>
-  </si>
-  <si>
-    <t>毓宁</t>
-  </si>
-  <si>
-    <t>陈总</t>
-  </si>
-  <si>
-    <t>广州地铁小额贷款有限公司</t>
   </si>
   <si>
     <r>
@@ -1750,7 +1811,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1767,7 +1827,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1784,7 +1843,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1801,7 +1859,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1809,106 +1866,350 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">https://xhbup.com/dtdk1/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://xhbup.com/dtdk2/
+    <t>https://xhbup.com/baolij/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhimei/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/tgx</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/wzjs</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/ylzf7/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/jdyy1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/yishida1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/tianying/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/qiubi/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/hhqgzx/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/hegu1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/dtdk1/
+https://xhbup.com/dtdk2/
 https://xhbup.com/dtdk3/
 https://xhbup.com/dtdk4/
 https://xhbup.com/dtdk5/</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四周</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>东莞市会心日化贸易有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/hxrh</t>
-  </si>
-  <si>
-    <t>江门市蓬江区卓斌美容有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/zbmr</t>
-  </si>
-  <si>
-    <t>佛山市恩泊化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/sibo/</t>
-  </si>
-  <si>
-    <t>肇庆玉都天光墟网络文化传播</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/wzjs</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/ylzf7/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/tgx</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>翡翠</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/zhimei/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/sihet1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/sihet2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>东莞市天资堂化妆品有限公司</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州悠闲乐旅游发展有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/yxl/</t>
+  </si>
+  <si>
+    <t>旅游</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州柏升食品贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/bsspmy/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂蜜</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州聚乐居旅游发展有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/jljly/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/tgx1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌市金羊化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/jinyang/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州宝乾小额贷款有限公司</t>
+  </si>
+  <si>
+    <t>贷款</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/bqdk/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州合利宝支付科技有限公司（POS机）</t>
+  </si>
+  <si>
+    <t>POS机</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/hlbzf1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>江门市蓬江区张砾美容服务有限公司</t>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zsmr1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>汕头市澄海区莉露化妆品有限公司</t>
+  </si>
+  <si>
+    <t>脱发</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/lilu/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWISSQUOTE   ASIA  LIMITED</t>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/sal4/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/hhqgzx1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州宝乾小额贷款有限公司1</t>
+  </si>
+  <si>
+    <t>广州宝乾小额贷款有限公司2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州宝乾小额贷款有限公司3</t>
+  </si>
+  <si>
+    <t>广州宝乾小额贷款有限公司4</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/bqdk1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/bqdk2/</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/bqdk3/</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/bqdk4/</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/hhqgzx/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海市一一贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/yymy1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州优品护肤品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/yphfp/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市禅城区泳蜂蜂蜜店</t>
+  </si>
+  <si>
+    <t>蜂蜜</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/yffm/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/yxsm1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>https://xhbup.com/tzt/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>珠海市晨梦晨贸易有限公司</t>
-  </si>
-  <si>
     <t>https://xhbup.com/cmc/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.xhbup.com/jdyy1/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xhbup.com/yishida1/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市天盈化妆品有限公司</t>
-  </si>
-  <si>
-    <t>https://xhbup.com/tianying/</t>
+    <t>https://xhbup.com/jy/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/meishis1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>张立</t>
+  </si>
+  <si>
+    <t>惠州市美雨彤心贸易有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/mltx/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/tgx2/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州荣程旅游发展有限公司</t>
+  </si>
+  <si>
+    <t>旅游</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/rcly/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/zhenyu1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jinyang/</t>
+  </si>
+  <si>
+    <t>东莞市慕荣护肤品商贸有限公司</t>
+  </si>
+  <si>
+    <t>生发</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/mrhfp/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jinyang2/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市森果素化妆品有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/sgs/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/swksn1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/hhqgzx2/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市白云区美莲葆化妆品厂</t>
+  </si>
+  <si>
+    <t>祛斑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/mlb/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/hxrh1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/baolij1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/yujian1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/aijifu1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞市喜马拉雅电子商务有限公司</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/xmly</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉联支付有限公司广州分公司</t>
+  </si>
+  <si>
+    <t>pos机</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/jlzf4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/mingzhuang2/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩平市闪光商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/sgmy/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2249,7 +2550,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2361,7 +2662,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2386,9 +2687,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2423,13 +2721,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>379</xdr:row>
+      <xdr:row>432</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>380</xdr:row>
+      <xdr:row>433</xdr:row>
       <xdr:rowOff>1574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2759,13 +3057,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:T380"/>
+  <dimension ref="B1:T433"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F347" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F399" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L353" sqref="L353"/>
+      <selection pane="bottomRight" activeCell="K415" sqref="K415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2803,7 +3101,7 @@
       <c r="K1" s="16"/>
       <c r="L1" s="7"/>
       <c r="N1" s="39" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O1" s="40"/>
       <c r="P1" s="40"/>
@@ -12813,19 +13111,19 @@
     </row>
     <row r="289" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B289" s="33">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C289" s="34">
         <v>43607</v>
       </c>
       <c r="D289" s="35" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="E289" s="35" t="s">
-        <v>412</v>
+        <v>169</v>
       </c>
       <c r="F289" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G289" s="33">
         <v>1</v>
@@ -12834,13 +13132,13 @@
         <v>16</v>
       </c>
       <c r="I289" s="35" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J289" s="33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K289" t="s">
-        <v>449</v>
+        <v>233</v>
       </c>
       <c r="L289" s="33" t="s">
         <v>19</v>
@@ -12854,13 +13152,13 @@
         <v>43607</v>
       </c>
       <c r="D290" s="35" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="E290" s="35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F290" s="33" t="s">
-        <v>414</v>
+        <v>53</v>
       </c>
       <c r="G290" s="33">
         <v>1</v>
@@ -12869,13 +13167,13 @@
         <v>16</v>
       </c>
       <c r="I290" s="35" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="J290" s="33" t="s">
         <v>27</v>
       </c>
       <c r="K290" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="L290" s="33" t="s">
         <v>19</v>
@@ -12892,7 +13190,7 @@
         <v>38</v>
       </c>
       <c r="E291" s="35" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F291" s="33" t="s">
         <v>414</v>
@@ -12910,7 +13208,7 @@
         <v>27</v>
       </c>
       <c r="K291" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L291" s="33" t="s">
         <v>19</v>
@@ -12918,19 +13216,19 @@
     </row>
     <row r="292" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B292" s="33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C292" s="34">
         <v>43607</v>
       </c>
       <c r="D292" s="35" t="s">
-        <v>329</v>
+        <v>38</v>
       </c>
       <c r="E292" s="35" t="s">
-        <v>330</v>
+        <v>415</v>
       </c>
       <c r="F292" s="33" t="s">
-        <v>51</v>
+        <v>414</v>
       </c>
       <c r="G292" s="33">
         <v>1</v>
@@ -12939,13 +13237,13 @@
         <v>16</v>
       </c>
       <c r="I292" s="35" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="J292" s="33" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K292" t="s">
-        <v>331</v>
+        <v>441</v>
       </c>
       <c r="L292" s="33" t="s">
         <v>19</v>
@@ -12953,19 +13251,19 @@
     </row>
     <row r="293" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B293" s="33">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C293" s="34">
         <v>43607</v>
       </c>
       <c r="D293" s="35" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="E293" s="35" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="F293" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G293" s="33">
         <v>1</v>
@@ -12974,13 +13272,13 @@
         <v>16</v>
       </c>
       <c r="I293" s="35" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="J293" s="33" t="s">
-        <v>442</v>
+        <v>18</v>
       </c>
       <c r="K293" t="s">
-        <v>443</v>
+        <v>331</v>
       </c>
       <c r="L293" s="33" t="s">
         <v>19</v>
@@ -12994,13 +13292,13 @@
         <v>43607</v>
       </c>
       <c r="D294" s="35" t="s">
-        <v>444</v>
+        <v>29</v>
       </c>
       <c r="E294" s="35" t="s">
-        <v>445</v>
+        <v>295</v>
       </c>
       <c r="F294" s="33" t="s">
-        <v>414</v>
+        <v>53</v>
       </c>
       <c r="G294" s="33">
         <v>1</v>
@@ -13009,13 +13307,13 @@
         <v>16</v>
       </c>
       <c r="I294" s="35" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="J294" s="33" t="s">
         <v>442</v>
       </c>
       <c r="K294" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L294" s="33" t="s">
         <v>19</v>
@@ -13029,13 +13327,13 @@
         <v>43607</v>
       </c>
       <c r="D295" s="35" t="s">
-        <v>29</v>
+        <v>444</v>
       </c>
       <c r="E295" s="35" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F295" s="33" t="s">
-        <v>53</v>
+        <v>414</v>
       </c>
       <c r="G295" s="33">
         <v>1</v>
@@ -13044,13 +13342,13 @@
         <v>16</v>
       </c>
       <c r="I295" s="35" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="J295" s="33" t="s">
         <v>442</v>
       </c>
       <c r="K295" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L295" s="33" t="s">
         <v>19</v>
@@ -13064,10 +13362,10 @@
         <v>43607</v>
       </c>
       <c r="D296" s="35" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="E296" s="35" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="F296" s="33" t="s">
         <v>53</v>
@@ -13079,13 +13377,13 @@
         <v>16</v>
       </c>
       <c r="I296" s="35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J296" s="33" t="s">
         <v>442</v>
       </c>
       <c r="K296" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L296" s="33" t="s">
         <v>19</v>
@@ -13099,13 +13397,13 @@
         <v>43607</v>
       </c>
       <c r="D297" s="35" t="s">
-        <v>451</v>
+        <v>121</v>
       </c>
       <c r="E297" s="35" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="F297" s="33" t="s">
-        <v>452</v>
+        <v>53</v>
       </c>
       <c r="G297" s="33">
         <v>1</v>
@@ -13114,13 +13412,13 @@
         <v>16</v>
       </c>
       <c r="I297" s="35" t="s">
-        <v>362</v>
+        <v>26</v>
       </c>
       <c r="J297" s="33" t="s">
         <v>442</v>
       </c>
       <c r="K297" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L297" s="33" t="s">
         <v>19</v>
@@ -13155,7 +13453,7 @@
         <v>442</v>
       </c>
       <c r="K298" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L298" s="33" t="s">
         <v>19</v>
@@ -13169,13 +13467,13 @@
         <v>43607</v>
       </c>
       <c r="D299" s="35" t="s">
-        <v>29</v>
+        <v>451</v>
       </c>
       <c r="E299" s="35" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F299" s="33" t="s">
-        <v>53</v>
+        <v>452</v>
       </c>
       <c r="G299" s="33">
         <v>1</v>
@@ -13184,13 +13482,13 @@
         <v>16</v>
       </c>
       <c r="I299" s="35" t="s">
-        <v>28</v>
+        <v>362</v>
       </c>
       <c r="J299" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="K299" s="31" t="s">
-        <v>456</v>
+      <c r="K299" t="s">
+        <v>454</v>
       </c>
       <c r="L299" s="33" t="s">
         <v>19</v>
@@ -13204,10 +13502,10 @@
         <v>43607</v>
       </c>
       <c r="D300" s="35" t="s">
-        <v>336</v>
+        <v>29</v>
       </c>
       <c r="E300" s="35" t="s">
-        <v>336</v>
+        <v>455</v>
       </c>
       <c r="F300" s="33" t="s">
         <v>53</v>
@@ -13218,14 +13516,14 @@
       <c r="H300" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I300" s="26" t="s">
-        <v>17</v>
+      <c r="I300" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="J300" s="33" t="s">
-        <v>24</v>
+        <v>442</v>
       </c>
       <c r="K300" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L300" s="33" t="s">
         <v>19</v>
@@ -13233,16 +13531,16 @@
     </row>
     <row r="301" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B301" s="33">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C301" s="34">
         <v>43607</v>
       </c>
       <c r="D301" s="35" t="s">
-        <v>33</v>
+        <v>336</v>
       </c>
       <c r="E301" s="35" t="s">
-        <v>34</v>
+        <v>336</v>
       </c>
       <c r="F301" s="33" t="s">
         <v>53</v>
@@ -13253,14 +13551,14 @@
       <c r="H301" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I301" s="35" t="s">
-        <v>28</v>
+      <c r="I301" s="26" t="s">
+        <v>17</v>
       </c>
       <c r="J301" s="33" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K301" t="s">
-        <v>141</v>
+        <v>457</v>
       </c>
       <c r="L301" s="33" t="s">
         <v>19</v>
@@ -13271,13 +13569,13 @@
         <v>25</v>
       </c>
       <c r="C302" s="34">
-        <v>43608</v>
+        <v>43607</v>
       </c>
       <c r="D302" s="35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E302" s="35" t="s">
-        <v>396</v>
+        <v>34</v>
       </c>
       <c r="F302" s="33" t="s">
         <v>53</v>
@@ -13292,10 +13590,10 @@
         <v>28</v>
       </c>
       <c r="J302" s="33" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K302" t="s">
-        <v>458</v>
+        <v>141</v>
       </c>
       <c r="L302" s="33" t="s">
         <v>19</v>
@@ -13338,19 +13636,19 @@
     </row>
     <row r="304" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B304" s="33">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C304" s="34">
         <v>43608</v>
       </c>
-      <c r="D304" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="E304" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="F304" s="25" t="s">
-        <v>265</v>
+      <c r="D304" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E304" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="F304" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="G304" s="33">
         <v>1</v>
@@ -13358,14 +13656,14 @@
       <c r="H304" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I304" s="26" t="s">
-        <v>22</v>
+      <c r="I304" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="J304" s="33" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K304" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="L304" s="33" t="s">
         <v>19</v>
@@ -13373,19 +13671,19 @@
     </row>
     <row r="305" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B305" s="33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C305" s="34">
         <v>43608</v>
       </c>
-      <c r="D305" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E305" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F305" s="33" t="s">
-        <v>53</v>
+      <c r="D305" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="E305" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="F305" s="25" t="s">
+        <v>265</v>
       </c>
       <c r="G305" s="33">
         <v>1</v>
@@ -13393,14 +13691,14 @@
       <c r="H305" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I305" s="35" t="s">
+      <c r="I305" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J305" s="33" t="s">
         <v>18</v>
       </c>
       <c r="K305" t="s">
-        <v>55</v>
+        <v>496</v>
       </c>
       <c r="L305" s="33" t="s">
         <v>19</v>
@@ -13408,19 +13706,19 @@
     </row>
     <row r="306" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B306" s="33">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C306" s="34">
         <v>43608</v>
       </c>
       <c r="D306" s="35" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E306" s="35" t="s">
-        <v>270</v>
+        <v>54</v>
       </c>
       <c r="F306" s="33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G306" s="33">
         <v>1</v>
@@ -13435,7 +13733,7 @@
         <v>18</v>
       </c>
       <c r="K306" t="s">
-        <v>271</v>
+        <v>55</v>
       </c>
       <c r="L306" s="33" t="s">
         <v>19</v>
@@ -13452,10 +13750,10 @@
         <v>29</v>
       </c>
       <c r="E307" s="35" t="s">
-        <v>459</v>
+        <v>270</v>
       </c>
       <c r="F307" s="33" t="s">
-        <v>460</v>
+        <v>51</v>
       </c>
       <c r="G307" s="33">
         <v>1</v>
@@ -13464,13 +13762,13 @@
         <v>16</v>
       </c>
       <c r="I307" s="35" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J307" s="33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K307" t="s">
-        <v>461</v>
+        <v>271</v>
       </c>
       <c r="L307" s="33" t="s">
         <v>19</v>
@@ -13478,19 +13776,19 @@
     </row>
     <row r="308" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B308" s="33">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C308" s="34">
         <v>43608</v>
       </c>
       <c r="D308" s="35" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E308" s="35" t="s">
-        <v>42</v>
+        <v>459</v>
       </c>
       <c r="F308" s="33" t="s">
-        <v>51</v>
+        <v>460</v>
       </c>
       <c r="G308" s="33">
         <v>1</v>
@@ -13499,13 +13797,13 @@
         <v>16</v>
       </c>
       <c r="I308" s="35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J308" s="33" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K308" t="s">
-        <v>71</v>
+        <v>497</v>
       </c>
       <c r="L308" s="33" t="s">
         <v>19</v>
@@ -13513,19 +13811,19 @@
     </row>
     <row r="309" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B309" s="33">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C309" s="34">
         <v>43608</v>
       </c>
       <c r="D309" s="35" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E309" s="35" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F309" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G309" s="33">
         <v>1</v>
@@ -13534,13 +13832,13 @@
         <v>16</v>
       </c>
       <c r="I309" s="35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J309" s="33" t="s">
         <v>18</v>
       </c>
       <c r="K309" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="L309" s="33" t="s">
         <v>19</v>
@@ -13554,13 +13852,13 @@
         <v>43608</v>
       </c>
       <c r="D310" s="35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E310" s="35" t="s">
-        <v>462</v>
+        <v>34</v>
       </c>
       <c r="F310" s="33" t="s">
-        <v>465</v>
+        <v>53</v>
       </c>
       <c r="G310" s="33">
         <v>1</v>
@@ -13569,13 +13867,13 @@
         <v>16</v>
       </c>
       <c r="I310" s="35" t="s">
-        <v>463</v>
+        <v>28</v>
       </c>
       <c r="J310" s="33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K310" t="s">
-        <v>464</v>
+        <v>141</v>
       </c>
       <c r="L310" s="33" t="s">
         <v>19</v>
@@ -13592,10 +13890,10 @@
         <v>38</v>
       </c>
       <c r="E311" s="35" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F311" s="33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G311" s="33">
         <v>1</v>
@@ -13604,13 +13902,13 @@
         <v>16</v>
       </c>
       <c r="I311" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J311" s="33" t="s">
         <v>27</v>
       </c>
       <c r="K311" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L311" s="33" t="s">
         <v>19</v>
@@ -13624,13 +13922,13 @@
         <v>43608</v>
       </c>
       <c r="D312" s="35" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E312" s="35" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F312" s="33" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G312" s="33">
         <v>1</v>
@@ -13639,13 +13937,13 @@
         <v>16</v>
       </c>
       <c r="I312" s="35" t="s">
-        <v>26</v>
+        <v>462</v>
       </c>
       <c r="J312" s="33" t="s">
         <v>27</v>
       </c>
       <c r="K312" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L312" s="33" t="s">
         <v>19</v>
@@ -13653,7 +13951,7 @@
     </row>
     <row r="313" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B313" s="33">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C313" s="34">
         <v>43608</v>
@@ -13662,10 +13960,10 @@
         <v>29</v>
       </c>
       <c r="E313" s="35" t="s">
-        <v>295</v>
+        <v>467</v>
       </c>
       <c r="F313" s="33" t="s">
-        <v>53</v>
+        <v>468</v>
       </c>
       <c r="G313" s="33">
         <v>1</v>
@@ -13674,13 +13972,13 @@
         <v>16</v>
       </c>
       <c r="I313" s="35" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="J313" s="33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K313" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L313" s="33" t="s">
         <v>19</v>
@@ -13697,7 +13995,7 @@
         <v>29</v>
       </c>
       <c r="E314" s="35" t="s">
-        <v>455</v>
+        <v>295</v>
       </c>
       <c r="F314" s="33" t="s">
         <v>53</v>
@@ -13709,13 +14007,13 @@
         <v>16</v>
       </c>
       <c r="I314" s="35" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="J314" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K314" s="31" t="s">
-        <v>503</v>
+      <c r="K314" t="s">
+        <v>498</v>
       </c>
       <c r="L314" s="33" t="s">
         <v>19</v>
@@ -13729,10 +14027,10 @@
         <v>43608</v>
       </c>
       <c r="D315" s="35" t="s">
-        <v>472</v>
+        <v>29</v>
       </c>
       <c r="E315" s="35" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="F315" s="33" t="s">
         <v>53</v>
@@ -13744,13 +14042,13 @@
         <v>16</v>
       </c>
       <c r="I315" s="35" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="J315" s="33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K315" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="L315" s="33" t="s">
         <v>19</v>
@@ -13758,19 +14056,19 @@
     </row>
     <row r="316" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B316" s="33">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C316" s="34">
         <v>43608</v>
       </c>
       <c r="D316" s="35" t="s">
-        <v>110</v>
+        <v>470</v>
       </c>
       <c r="E316" s="35" t="s">
-        <v>110</v>
+        <v>471</v>
       </c>
       <c r="F316" s="33" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G316" s="33">
         <v>1</v>
@@ -13779,13 +14077,13 @@
         <v>16</v>
       </c>
       <c r="I316" s="35" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="J316" s="33" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K316" t="s">
-        <v>220</v>
+        <v>472</v>
       </c>
       <c r="L316" s="33" t="s">
         <v>19</v>
@@ -13793,19 +14091,19 @@
     </row>
     <row r="317" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B317" s="33">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C317" s="34">
         <v>43608</v>
       </c>
       <c r="D317" s="35" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="E317" s="35" t="s">
-        <v>455</v>
+        <v>110</v>
       </c>
       <c r="F317" s="33" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G317" s="33">
         <v>1</v>
@@ -13814,13 +14112,13 @@
         <v>16</v>
       </c>
       <c r="I317" s="35" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J317" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K317" s="31" t="s">
-        <v>504</v>
+        <v>18</v>
+      </c>
+      <c r="K317" t="s">
+        <v>220</v>
       </c>
       <c r="L317" s="33" t="s">
         <v>19</v>
@@ -13828,16 +14126,16 @@
     </row>
     <row r="318" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B318" s="33">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C318" s="34">
         <v>43608</v>
       </c>
-      <c r="D318" s="26" t="s">
-        <v>121</v>
+      <c r="D318" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="E318" s="35" t="s">
-        <v>31</v>
+        <v>455</v>
       </c>
       <c r="F318" s="33" t="s">
         <v>53</v>
@@ -13849,13 +14147,13 @@
         <v>16</v>
       </c>
       <c r="I318" s="35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J318" s="33" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K318" t="s">
-        <v>39</v>
+        <v>500</v>
       </c>
       <c r="L318" s="33" t="s">
         <v>19</v>
@@ -13863,19 +14161,19 @@
     </row>
     <row r="319" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B319" s="33">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C319" s="34">
         <v>43608</v>
       </c>
-      <c r="D319" s="35" t="s">
-        <v>29</v>
+      <c r="D319" s="26" t="s">
+        <v>121</v>
       </c>
       <c r="E319" s="35" t="s">
-        <v>382</v>
+        <v>31</v>
       </c>
       <c r="F319" s="33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G319" s="33">
         <v>1</v>
@@ -13884,13 +14182,13 @@
         <v>16</v>
       </c>
       <c r="I319" s="35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J319" s="33" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K319" t="s">
-        <v>476</v>
+        <v>39</v>
       </c>
       <c r="L319" s="33" t="s">
         <v>19</v>
@@ -13904,13 +14202,13 @@
         <v>43608</v>
       </c>
       <c r="D320" s="35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E320" s="35" t="s">
-        <v>34</v>
+        <v>382</v>
       </c>
       <c r="F320" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G320" s="33">
         <v>1</v>
@@ -13919,13 +14217,13 @@
         <v>16</v>
       </c>
       <c r="I320" s="35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J320" s="33" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K320" t="s">
-        <v>141</v>
+        <v>501</v>
       </c>
       <c r="L320" s="33" t="s">
         <v>19</v>
@@ -13933,34 +14231,34 @@
     </row>
     <row r="321" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B321" s="33">
+        <v>25</v>
+      </c>
+      <c r="C321" s="34">
+        <v>43608</v>
+      </c>
+      <c r="D321" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E321" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F321" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G321" s="33">
+        <v>1</v>
+      </c>
+      <c r="H321" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I321" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C321" s="34">
-        <v>43609</v>
-      </c>
-      <c r="D321" s="35" t="s">
-        <v>451</v>
-      </c>
-      <c r="E321" s="35" t="s">
-        <v>451</v>
-      </c>
-      <c r="F321" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="G321" s="33">
-        <v>1</v>
-      </c>
-      <c r="H321" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I321" s="35" t="s">
-        <v>362</v>
-      </c>
       <c r="J321" s="33" t="s">
         <v>18</v>
       </c>
       <c r="K321" t="s">
-        <v>453</v>
+        <v>141</v>
       </c>
       <c r="L321" s="33" t="s">
         <v>19</v>
@@ -13995,7 +14293,7 @@
         <v>18</v>
       </c>
       <c r="K322" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L322" s="33" t="s">
         <v>19</v>
@@ -14009,13 +14307,13 @@
         <v>43609</v>
       </c>
       <c r="D323" s="35" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="E323" s="35" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="F323" s="33" t="s">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="G323" s="33">
         <v>1</v>
@@ -14024,13 +14322,13 @@
         <v>16</v>
       </c>
       <c r="I323" s="35" t="s">
-        <v>97</v>
+        <v>362</v>
       </c>
       <c r="J323" s="33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K323" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="L323" s="33" t="s">
         <v>19</v>
@@ -14038,16 +14336,16 @@
     </row>
     <row r="324" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B324" s="33">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C324" s="34">
         <v>43609</v>
       </c>
-      <c r="D324" s="26" t="s">
-        <v>121</v>
+      <c r="D324" s="35" t="s">
+        <v>470</v>
       </c>
       <c r="E324" s="35" t="s">
-        <v>31</v>
+        <v>471</v>
       </c>
       <c r="F324" s="33" t="s">
         <v>53</v>
@@ -14059,13 +14357,13 @@
         <v>16</v>
       </c>
       <c r="I324" s="35" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="J324" s="33" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K324" t="s">
-        <v>39</v>
+        <v>472</v>
       </c>
       <c r="L324" s="33" t="s">
         <v>19</v>
@@ -14097,10 +14395,10 @@
         <v>26</v>
       </c>
       <c r="J325" s="33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K325" t="s">
-        <v>477</v>
+        <v>39</v>
       </c>
       <c r="L325" s="33" t="s">
         <v>19</v>
@@ -14108,19 +14406,19 @@
     </row>
     <row r="326" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B326" s="33">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C326" s="34">
         <v>43609</v>
       </c>
-      <c r="D326" s="35" t="s">
-        <v>356</v>
+      <c r="D326" s="26" t="s">
+        <v>121</v>
       </c>
       <c r="E326" s="35" t="s">
-        <v>357</v>
+        <v>31</v>
       </c>
       <c r="F326" s="33" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="G326" s="33">
         <v>1</v>
@@ -14129,13 +14427,13 @@
         <v>16</v>
       </c>
       <c r="I326" s="35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J326" s="33" t="s">
         <v>27</v>
       </c>
       <c r="K326" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="L326" s="33" t="s">
         <v>19</v>
@@ -14148,11 +14446,11 @@
       <c r="C327" s="34">
         <v>43609</v>
       </c>
-      <c r="D327" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E327" s="26" t="s">
-        <v>479</v>
+      <c r="D327" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="E327" s="35" t="s">
+        <v>357</v>
       </c>
       <c r="F327" s="33" t="s">
         <v>187</v>
@@ -14164,13 +14462,13 @@
         <v>16</v>
       </c>
       <c r="I327" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J327" s="33" t="s">
         <v>27</v>
       </c>
       <c r="K327" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="L327" s="33" t="s">
         <v>19</v>
@@ -14178,19 +14476,19 @@
     </row>
     <row r="328" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B328" s="33">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C328" s="34">
         <v>43609</v>
       </c>
-      <c r="D328" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E328" s="35" t="s">
-        <v>169</v>
+      <c r="D328" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E328" s="26" t="s">
+        <v>474</v>
       </c>
       <c r="F328" s="33" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="G328" s="33">
         <v>1</v>
@@ -14199,13 +14497,13 @@
         <v>16</v>
       </c>
       <c r="I328" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J328" s="33" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K328" t="s">
-        <v>233</v>
+        <v>504</v>
       </c>
       <c r="L328" s="33" t="s">
         <v>19</v>
@@ -14218,11 +14516,11 @@
       <c r="C329" s="34">
         <v>43609</v>
       </c>
-      <c r="D329" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E329" s="26" t="s">
-        <v>480</v>
+      <c r="D329" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E329" s="35" t="s">
+        <v>169</v>
       </c>
       <c r="F329" s="33" t="s">
         <v>51</v>
@@ -14234,13 +14532,13 @@
         <v>16</v>
       </c>
       <c r="I329" s="35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J329" s="33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K329" t="s">
-        <v>486</v>
+        <v>233</v>
       </c>
       <c r="L329" s="33" t="s">
         <v>19</v>
@@ -14248,19 +14546,19 @@
     </row>
     <row r="330" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B330" s="33">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C330" s="34">
         <v>43609</v>
       </c>
-      <c r="D330" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E330" s="35" t="s">
-        <v>54</v>
+      <c r="D330" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E330" s="26" t="s">
+        <v>475</v>
       </c>
       <c r="F330" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G330" s="33">
         <v>1</v>
@@ -14269,13 +14567,13 @@
         <v>16</v>
       </c>
       <c r="I330" s="35" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J330" s="33" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K330" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="L330" s="33" t="s">
         <v>19</v>
@@ -14283,16 +14581,16 @@
     </row>
     <row r="331" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B331" s="33">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C331" s="34">
         <v>43609</v>
       </c>
       <c r="D331" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E331" s="26" t="s">
-        <v>481</v>
+        <v>36</v>
+      </c>
+      <c r="E331" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="F331" s="33" t="s">
         <v>53</v>
@@ -14304,13 +14602,13 @@
         <v>16</v>
       </c>
       <c r="I331" s="35" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="J331" s="33" t="s">
         <v>18</v>
       </c>
       <c r="K331" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="L331" s="33" t="s">
         <v>19</v>
@@ -14327,7 +14625,7 @@
         <v>29</v>
       </c>
       <c r="E332" s="26" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="F332" s="33" t="s">
         <v>53</v>
@@ -14338,127 +14636,127 @@
       <c r="H332" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I332" s="26" t="s">
-        <v>482</v>
+      <c r="I332" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="J332" s="33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K332" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="L332" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="333" spans="2:20" s="32" customFormat="1" ht="131.25" customHeight="1">
+    <row r="333" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B333" s="33">
         <v>28</v>
       </c>
       <c r="C333" s="34">
         <v>43609</v>
       </c>
-      <c r="D333" s="26" t="s">
-        <v>483</v>
+      <c r="D333" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="E333" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="F333" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="F333" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G333" s="33">
+        <v>1</v>
+      </c>
+      <c r="H333" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I333" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="J333" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K333" t="s">
+        <v>507</v>
+      </c>
+      <c r="L333" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="334" spans="2:20" s="32" customFormat="1" ht="131.25" customHeight="1">
+      <c r="B334" s="33">
+        <v>28</v>
+      </c>
+      <c r="C334" s="34">
+        <v>43609</v>
+      </c>
+      <c r="D334" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="E334" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="F334" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="G333" s="33">
-        <v>1</v>
-      </c>
-      <c r="H333" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I333" s="35" t="s">
+      <c r="G334" s="33">
+        <v>1</v>
+      </c>
+      <c r="H334" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I334" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="J333" s="33" t="s">
+      <c r="J334" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K333" s="37" t="s">
-        <v>489</v>
-      </c>
-      <c r="L333" s="33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="334" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B334" s="12"/>
-      <c r="C334" s="34" t="s">
-        <v>490</v>
-      </c>
-      <c r="D334"/>
-      <c r="E334"/>
-      <c r="F334" s="9"/>
-      <c r="G334" s="9"/>
-      <c r="H334" s="9"/>
-      <c r="I334"/>
-      <c r="J334" s="9"/>
-      <c r="K334" s="31"/>
-      <c r="L334" s="9"/>
-      <c r="M334" s="3"/>
-      <c r="N334" s="3"/>
-      <c r="O334" s="3"/>
-      <c r="P334" s="3"/>
-      <c r="Q334" s="3"/>
-      <c r="R334" s="3"/>
-      <c r="S334" s="3"/>
-      <c r="T334" s="3"/>
-    </row>
-    <row r="335" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B335" s="33">
-        <v>6</v>
-      </c>
-      <c r="C335" s="34">
-        <v>43609</v>
-      </c>
-      <c r="D335" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="E335" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="F335" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G335" s="33">
-        <v>1</v>
-      </c>
-      <c r="H335" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I335" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J335" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="K335" t="s">
-        <v>429</v>
-      </c>
-      <c r="L335" s="33" t="s">
-        <v>19</v>
-      </c>
+      <c r="K334" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="L334" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="335" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B335" s="12"/>
+      <c r="C335" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="D335"/>
+      <c r="E335"/>
+      <c r="F335" s="9"/>
+      <c r="G335" s="9"/>
+      <c r="H335" s="9"/>
+      <c r="I335"/>
+      <c r="J335" s="9"/>
+      <c r="K335"/>
+      <c r="L335" s="9"/>
+      <c r="M335" s="3"/>
+      <c r="N335" s="3"/>
+      <c r="O335" s="3"/>
+      <c r="P335" s="3"/>
+      <c r="Q335" s="3"/>
+      <c r="R335" s="3"/>
+      <c r="S335" s="3"/>
+      <c r="T335" s="3"/>
     </row>
     <row r="336" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B336" s="33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C336" s="34">
         <v>43609</v>
       </c>
       <c r="D336" s="35" t="s">
-        <v>36</v>
+        <v>368</v>
       </c>
       <c r="E336" s="35" t="s">
-        <v>54</v>
+        <v>369</v>
       </c>
       <c r="F336" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G336" s="33">
         <v>1</v>
@@ -14473,7 +14771,7 @@
         <v>18</v>
       </c>
       <c r="K336" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="L336" s="33" t="s">
         <v>19</v>
@@ -14481,16 +14779,16 @@
     </row>
     <row r="337" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B337" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C337" s="34">
-        <v>43610</v>
+        <v>43609</v>
       </c>
       <c r="D337" s="35" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E337" s="35" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F337" s="33" t="s">
         <v>53</v>
@@ -14502,13 +14800,13 @@
         <v>16</v>
       </c>
       <c r="I337" s="35" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J337" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="K337" s="31" t="s">
-        <v>502</v>
+      <c r="K337" t="s">
+        <v>506</v>
       </c>
       <c r="L337" s="33" t="s">
         <v>19</v>
@@ -14516,16 +14814,16 @@
     </row>
     <row r="338" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B338" s="33">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C338" s="34">
         <v>43610</v>
       </c>
       <c r="D338" s="35" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="E338" s="35" t="s">
-        <v>360</v>
+        <v>31</v>
       </c>
       <c r="F338" s="33" t="s">
         <v>53</v>
@@ -14537,13 +14835,13 @@
         <v>16</v>
       </c>
       <c r="I338" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J338" s="33" t="s">
         <v>18</v>
       </c>
       <c r="K338" t="s">
-        <v>428</v>
+        <v>509</v>
       </c>
       <c r="L338" s="33" t="s">
         <v>19</v>
@@ -14551,7 +14849,7 @@
     </row>
     <row r="339" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B339" s="33">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C339" s="34">
         <v>43610</v>
@@ -14560,10 +14858,10 @@
         <v>29</v>
       </c>
       <c r="E339" s="35" t="s">
-        <v>301</v>
+        <v>360</v>
       </c>
       <c r="F339" s="33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G339" s="33">
         <v>1</v>
@@ -14572,13 +14870,13 @@
         <v>16</v>
       </c>
       <c r="I339" s="35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J339" s="33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K339" t="s">
-        <v>302</v>
+        <v>428</v>
       </c>
       <c r="L339" s="33" t="s">
         <v>19</v>
@@ -14594,8 +14892,8 @@
       <c r="D340" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E340" t="s">
-        <v>491</v>
+      <c r="E340" s="35" t="s">
+        <v>301</v>
       </c>
       <c r="F340" s="33" t="s">
         <v>51</v>
@@ -14610,10 +14908,10 @@
         <v>26</v>
       </c>
       <c r="J340" s="33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K340" t="s">
-        <v>492</v>
+        <v>302</v>
       </c>
       <c r="L340" s="33" t="s">
         <v>19</v>
@@ -14630,10 +14928,10 @@
         <v>29</v>
       </c>
       <c r="E341" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F341" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G341" s="33">
         <v>1</v>
@@ -14648,7 +14946,7 @@
         <v>24</v>
       </c>
       <c r="K341" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="L341" s="33" t="s">
         <v>19</v>
@@ -14662,10 +14960,10 @@
         <v>43610</v>
       </c>
       <c r="D342" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E342" s="35" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="E342" t="s">
+        <v>483</v>
       </c>
       <c r="F342" s="33" t="s">
         <v>53</v>
@@ -14677,13 +14975,13 @@
         <v>16</v>
       </c>
       <c r="I342" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J342" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="K342" s="29" t="s">
-        <v>50</v>
+        <v>24</v>
+      </c>
+      <c r="K342" t="s">
+        <v>484</v>
       </c>
       <c r="L342" s="33" t="s">
         <v>19</v>
@@ -14691,19 +14989,19 @@
     </row>
     <row r="343" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B343" s="33">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C343" s="34">
         <v>43610</v>
       </c>
       <c r="D343" s="35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E343" s="35" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="F343" s="33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G343" s="33">
         <v>1</v>
@@ -14718,7 +15016,7 @@
         <v>18</v>
       </c>
       <c r="K343" t="s">
-        <v>233</v>
+        <v>50</v>
       </c>
       <c r="L343" s="33" t="s">
         <v>19</v>
@@ -14726,19 +15024,19 @@
     </row>
     <row r="344" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B344" s="33">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C344" s="34">
-        <v>43611</v>
+        <v>43610</v>
       </c>
       <c r="D344" s="35" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E344" s="35" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="F344" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G344" s="33">
         <v>1</v>
@@ -14752,8 +15050,8 @@
       <c r="J344" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="K344" s="29" t="s">
-        <v>50</v>
+      <c r="K344" t="s">
+        <v>233</v>
       </c>
       <c r="L344" s="33" t="s">
         <v>19</v>
@@ -14767,10 +15065,10 @@
         <v>43611</v>
       </c>
       <c r="D345" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E345" t="s">
-        <v>495</v>
+        <v>33</v>
+      </c>
+      <c r="E345" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="F345" s="33" t="s">
         <v>53</v>
@@ -14782,13 +15080,13 @@
         <v>16</v>
       </c>
       <c r="I345" s="35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J345" s="33" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K345" t="s">
-        <v>496</v>
+        <v>50</v>
       </c>
       <c r="L345" s="33" t="s">
         <v>19</v>
@@ -14805,10 +15103,10 @@
         <v>29</v>
       </c>
       <c r="E346" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F346" s="33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G346" s="33">
         <v>1</v>
@@ -14820,10 +15118,10 @@
         <v>26</v>
       </c>
       <c r="J346" s="33" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K346" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="L346" s="33" t="s">
         <v>19</v>
@@ -14834,16 +15132,16 @@
         <v>25</v>
       </c>
       <c r="C347" s="34">
-        <v>43612</v>
+        <v>43611</v>
       </c>
       <c r="D347" s="35" t="s">
         <v>29</v>
       </c>
       <c r="E347" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="F347" s="33" t="s">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="G347" s="33">
         <v>1</v>
@@ -14851,14 +15149,14 @@
       <c r="H347" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I347" t="s">
-        <v>25</v>
+      <c r="I347" s="35" t="s">
+        <v>26</v>
       </c>
       <c r="J347" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K347" s="31" t="s">
-        <v>500</v>
+        <v>18</v>
+      </c>
+      <c r="K347" t="s">
+        <v>482</v>
       </c>
       <c r="L347" s="33" t="s">
         <v>19</v>
@@ -14866,19 +15164,19 @@
     </row>
     <row r="348" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B348" s="33">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C348" s="34">
         <v>43612</v>
       </c>
       <c r="D348" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="E348" s="35" t="s">
-        <v>473</v>
+        <v>29</v>
+      </c>
+      <c r="E348" t="s">
+        <v>487</v>
       </c>
       <c r="F348" s="33" t="s">
-        <v>53</v>
+        <v>488</v>
       </c>
       <c r="G348" s="33">
         <v>1</v>
@@ -14886,14 +15184,14 @@
       <c r="H348" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I348" s="35" t="s">
-        <v>97</v>
+      <c r="I348" t="s">
+        <v>25</v>
       </c>
       <c r="J348" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="K348" s="31" t="s">
-        <v>498</v>
+        <v>24</v>
+      </c>
+      <c r="K348" t="s">
+        <v>510</v>
       </c>
       <c r="L348" s="33" t="s">
         <v>19</v>
@@ -14901,16 +15199,16 @@
     </row>
     <row r="349" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B349" s="33">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C349" s="34">
         <v>43612</v>
       </c>
       <c r="D349" s="35" t="s">
-        <v>33</v>
+        <v>470</v>
       </c>
       <c r="E349" s="35" t="s">
-        <v>34</v>
+        <v>471</v>
       </c>
       <c r="F349" s="33" t="s">
         <v>53</v>
@@ -14922,13 +15220,13 @@
         <v>16</v>
       </c>
       <c r="I349" s="35" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="J349" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="K349" s="29" t="s">
-        <v>50</v>
+      <c r="K349" t="s">
+        <v>511</v>
       </c>
       <c r="L349" s="33" t="s">
         <v>19</v>
@@ -14942,13 +15240,13 @@
         <v>43612</v>
       </c>
       <c r="D350" s="35" t="s">
-        <v>356</v>
+        <v>33</v>
       </c>
       <c r="E350" s="35" t="s">
-        <v>357</v>
+        <v>34</v>
       </c>
       <c r="F350" s="33" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="G350" s="33">
         <v>1</v>
@@ -14957,13 +15255,13 @@
         <v>16</v>
       </c>
       <c r="I350" s="35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J350" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="K350" s="31" t="s">
-        <v>499</v>
+        <v>18</v>
+      </c>
+      <c r="K350" t="s">
+        <v>50</v>
       </c>
       <c r="L350" s="33" t="s">
         <v>19</v>
@@ -14976,14 +15274,14 @@
       <c r="C351" s="34">
         <v>43612</v>
       </c>
-      <c r="D351" t="s">
-        <v>29</v>
-      </c>
-      <c r="E351" t="s">
-        <v>505</v>
+      <c r="D351" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="E351" s="35" t="s">
+        <v>357</v>
       </c>
       <c r="F351" s="33" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="G351" s="33">
         <v>1</v>
@@ -14992,13 +15290,13 @@
         <v>16</v>
       </c>
       <c r="I351" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J351" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="K351" s="31" t="s">
-        <v>506</v>
+      <c r="K351" t="s">
+        <v>512</v>
       </c>
       <c r="L351" s="33" t="s">
         <v>19</v>
@@ -15015,7 +15313,7 @@
         <v>29</v>
       </c>
       <c r="E352" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="F352" s="33" t="s">
         <v>53</v>
@@ -15032,25 +15330,25 @@
       <c r="J352" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="K352" s="31" t="s">
-        <v>508</v>
+      <c r="K352" t="s">
+        <v>565</v>
       </c>
       <c r="L352" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="353" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+    <row r="353" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B353" s="33">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C353" s="34">
         <v>43612</v>
       </c>
-      <c r="D353" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E353" s="35" t="s">
-        <v>162</v>
+      <c r="D353" t="s">
+        <v>29</v>
+      </c>
+      <c r="E353" t="s">
+        <v>490</v>
       </c>
       <c r="F353" s="33" t="s">
         <v>53</v>
@@ -15062,33 +15360,33 @@
         <v>16</v>
       </c>
       <c r="I353" s="35" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J353" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K353" s="46" t="s">
-        <v>509</v>
+        <v>27</v>
+      </c>
+      <c r="K353" t="s">
+        <v>566</v>
       </c>
       <c r="L353" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="354" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+    <row r="354" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B354" s="33">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C354" s="34">
         <v>43612</v>
       </c>
-      <c r="D354" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E354" s="26" t="s">
-        <v>480</v>
+      <c r="D354" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E354" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="F354" s="33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G354" s="33">
         <v>1</v>
@@ -15097,19 +15395,19 @@
         <v>16</v>
       </c>
       <c r="I354" s="35" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J354" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="K354" s="31" t="s">
-        <v>510</v>
+        <v>24</v>
+      </c>
+      <c r="K354" t="s">
+        <v>513</v>
       </c>
       <c r="L354" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="355" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+    <row r="355" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B355" s="33">
         <v>26</v>
       </c>
@@ -15119,8 +15417,8 @@
       <c r="D355" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E355" t="s">
-        <v>511</v>
+      <c r="E355" s="26" t="s">
+        <v>475</v>
       </c>
       <c r="F355" s="33" t="s">
         <v>51</v>
@@ -15131,505 +15429,2394 @@
       <c r="H355" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I355" t="s">
-        <v>262</v>
+      <c r="I355" s="35" t="s">
+        <v>26</v>
       </c>
       <c r="J355" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="K355" s="31" t="s">
-        <v>512</v>
+      <c r="K355" t="s">
+        <v>514</v>
       </c>
       <c r="L355" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="356" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B356" s="12"/>
-      <c r="C356" s="34"/>
-      <c r="D356" s="35"/>
-      <c r="E356" s="35"/>
-      <c r="F356" s="33"/>
-      <c r="G356" s="33"/>
-      <c r="H356" s="33"/>
-      <c r="I356" s="35"/>
-      <c r="J356" s="33"/>
-      <c r="K356"/>
-      <c r="L356" s="33"/>
-    </row>
-    <row r="357" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B357" s="12"/>
-      <c r="C357" s="34"/>
-      <c r="D357" s="35"/>
-      <c r="E357" s="35"/>
-      <c r="F357" s="33"/>
-      <c r="G357" s="33"/>
-      <c r="H357" s="33"/>
-      <c r="I357" s="35"/>
-      <c r="J357" s="33"/>
-      <c r="K357"/>
-      <c r="L357" s="33"/>
-    </row>
-    <row r="358" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B358" s="12"/>
-      <c r="C358" s="34"/>
-      <c r="D358" s="35"/>
-      <c r="E358" s="35"/>
-      <c r="F358" s="33"/>
-      <c r="G358" s="33"/>
-      <c r="H358" s="33"/>
-      <c r="I358" s="35"/>
-      <c r="J358" s="33"/>
-      <c r="K358"/>
-      <c r="L358" s="33"/>
-    </row>
-    <row r="359" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B359" s="12"/>
-      <c r="C359" s="34"/>
-      <c r="D359"/>
-      <c r="E359"/>
-      <c r="F359" s="33"/>
-      <c r="G359" s="33"/>
-      <c r="H359" s="33"/>
-      <c r="I359"/>
-      <c r="J359" s="33"/>
-      <c r="K359" s="31"/>
-      <c r="L359" s="33"/>
-      <c r="M359" s="3"/>
-      <c r="N359" s="3"/>
-      <c r="O359" s="3"/>
-      <c r="P359" s="3"/>
-      <c r="Q359" s="3"/>
-      <c r="R359" s="3"/>
-      <c r="S359" s="3"/>
-      <c r="T359" s="3"/>
-    </row>
-    <row r="360" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B360" s="12"/>
-      <c r="C360" s="34"/>
-      <c r="D360"/>
-      <c r="E360"/>
-      <c r="F360" s="33"/>
-      <c r="G360" s="33"/>
-      <c r="H360" s="33"/>
-      <c r="I360"/>
-      <c r="J360" s="33"/>
-      <c r="K360" s="31"/>
-      <c r="L360" s="33"/>
-      <c r="M360" s="3"/>
-      <c r="N360" s="3"/>
-      <c r="O360" s="3"/>
-      <c r="P360" s="3"/>
-      <c r="Q360" s="3"/>
-      <c r="R360" s="3"/>
-      <c r="S360" s="3"/>
-      <c r="T360" s="3"/>
-    </row>
-    <row r="361" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B361" s="12"/>
-      <c r="C361" s="34"/>
-      <c r="D361"/>
-      <c r="E361"/>
-      <c r="F361" s="33"/>
-      <c r="G361" s="33"/>
-      <c r="H361" s="33"/>
-      <c r="I361"/>
-      <c r="J361" s="33"/>
-      <c r="K361" s="31"/>
-      <c r="L361" s="33"/>
-      <c r="M361" s="3"/>
-      <c r="N361" s="3"/>
-      <c r="O361" s="3"/>
-      <c r="P361" s="3"/>
-      <c r="Q361" s="3"/>
-      <c r="R361" s="3"/>
-      <c r="S361" s="3"/>
-      <c r="T361" s="3"/>
-    </row>
-    <row r="362" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B362" s="12"/>
-      <c r="C362" s="34"/>
-      <c r="D362"/>
-      <c r="E362"/>
-      <c r="F362" s="33"/>
-      <c r="G362" s="33"/>
-      <c r="H362" s="33"/>
-      <c r="I362"/>
-      <c r="J362" s="33"/>
-      <c r="K362" s="31"/>
-      <c r="L362" s="33"/>
-      <c r="M362" s="3"/>
-      <c r="N362" s="3"/>
-      <c r="O362" s="3"/>
-      <c r="P362" s="3"/>
-      <c r="Q362" s="3"/>
-      <c r="R362" s="3"/>
-      <c r="S362" s="3"/>
-      <c r="T362" s="3"/>
-    </row>
-    <row r="363" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B363" s="12"/>
-      <c r="C363" s="34"/>
-      <c r="D363"/>
-      <c r="E363"/>
-      <c r="F363" s="33"/>
-      <c r="G363" s="33"/>
-      <c r="H363" s="33"/>
-      <c r="I363"/>
-      <c r="J363" s="33"/>
-      <c r="K363" s="31"/>
-      <c r="L363" s="33"/>
-      <c r="M363" s="3"/>
-      <c r="N363" s="3"/>
-      <c r="O363" s="3"/>
-      <c r="P363" s="3"/>
-      <c r="Q363" s="3"/>
-      <c r="R363" s="3"/>
-      <c r="S363" s="3"/>
-      <c r="T363" s="3"/>
-    </row>
-    <row r="364" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B364" s="12"/>
-      <c r="C364" s="34"/>
-      <c r="D364"/>
-      <c r="E364"/>
-      <c r="F364" s="33"/>
-      <c r="G364" s="33"/>
-      <c r="H364" s="33"/>
-      <c r="I364"/>
-      <c r="J364" s="33"/>
-      <c r="K364" s="31"/>
-      <c r="L364" s="33"/>
-      <c r="M364" s="3"/>
-      <c r="N364" s="3"/>
-      <c r="O364" s="3"/>
-      <c r="P364" s="3"/>
-      <c r="Q364" s="3"/>
-      <c r="R364" s="3"/>
-      <c r="S364" s="3"/>
-      <c r="T364" s="3"/>
-    </row>
-    <row r="365" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B365" s="12"/>
-      <c r="C365" s="34"/>
-      <c r="D365"/>
-      <c r="E365"/>
-      <c r="F365" s="33"/>
-      <c r="G365" s="33"/>
-      <c r="H365" s="33"/>
-      <c r="I365"/>
-      <c r="J365" s="33"/>
-      <c r="K365" s="31"/>
-      <c r="L365" s="33"/>
-      <c r="M365" s="3"/>
-      <c r="N365" s="3"/>
-      <c r="O365" s="3"/>
-      <c r="P365" s="3"/>
-      <c r="Q365" s="3"/>
-      <c r="R365" s="3"/>
-      <c r="S365" s="3"/>
-      <c r="T365" s="3"/>
-    </row>
-    <row r="366" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B366" s="12"/>
-      <c r="C366" s="34"/>
-      <c r="D366"/>
-      <c r="E366"/>
-      <c r="F366" s="33"/>
-      <c r="G366" s="33"/>
-      <c r="H366" s="33"/>
-      <c r="I366"/>
-      <c r="J366" s="33"/>
-      <c r="K366" s="31"/>
-      <c r="L366" s="33"/>
-      <c r="M366" s="3"/>
-      <c r="N366" s="3"/>
-      <c r="O366" s="3"/>
-      <c r="P366" s="3"/>
-      <c r="Q366" s="3"/>
-      <c r="R366" s="3"/>
-      <c r="S366" s="3"/>
-      <c r="T366" s="3"/>
-    </row>
-    <row r="367" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B367" s="12"/>
-      <c r="C367" s="34"/>
-      <c r="D367"/>
-      <c r="E367"/>
-      <c r="F367" s="33"/>
-      <c r="G367" s="33"/>
-      <c r="H367" s="33"/>
-      <c r="I367"/>
-      <c r="J367" s="33"/>
-      <c r="K367" s="31"/>
-      <c r="L367" s="33"/>
-      <c r="M367" s="3"/>
-      <c r="N367" s="3"/>
-      <c r="O367" s="3"/>
-      <c r="P367" s="3"/>
-      <c r="Q367" s="3"/>
-      <c r="R367" s="3"/>
-      <c r="S367" s="3"/>
-      <c r="T367" s="3"/>
-    </row>
-    <row r="368" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B368" s="12"/>
-      <c r="C368" s="34"/>
-      <c r="D368"/>
-      <c r="E368"/>
-      <c r="F368" s="33"/>
-      <c r="G368" s="33"/>
-      <c r="H368" s="33"/>
-      <c r="I368"/>
-      <c r="J368" s="33"/>
-      <c r="K368" s="31"/>
-      <c r="L368" s="33"/>
-      <c r="M368" s="3"/>
-      <c r="N368" s="3"/>
-      <c r="O368" s="3"/>
-      <c r="P368" s="3"/>
-      <c r="Q368" s="3"/>
-      <c r="R368" s="3"/>
-      <c r="S368" s="3"/>
-      <c r="T368" s="3"/>
-    </row>
-    <row r="369" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B369" s="12"/>
-      <c r="C369" s="34"/>
-      <c r="D369"/>
-      <c r="E369"/>
-      <c r="F369" s="33"/>
-      <c r="G369" s="33"/>
-      <c r="H369" s="33"/>
-      <c r="I369"/>
-      <c r="J369" s="33"/>
-      <c r="K369" s="31"/>
-      <c r="L369" s="33"/>
-      <c r="M369" s="3"/>
-      <c r="N369" s="3"/>
-      <c r="O369" s="3"/>
-      <c r="P369" s="3"/>
-      <c r="Q369" s="3"/>
-      <c r="R369" s="3"/>
-      <c r="S369" s="3"/>
-      <c r="T369" s="3"/>
-    </row>
-    <row r="370" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B370" s="12"/>
-      <c r="C370" s="34"/>
-      <c r="D370"/>
-      <c r="E370"/>
-      <c r="F370" s="33"/>
-      <c r="G370" s="33"/>
-      <c r="H370" s="33"/>
-      <c r="I370"/>
-      <c r="J370" s="33"/>
-      <c r="K370" s="31"/>
-      <c r="L370" s="33"/>
-      <c r="M370" s="3"/>
-      <c r="N370" s="3"/>
-      <c r="O370" s="3"/>
-      <c r="P370" s="3"/>
-      <c r="Q370" s="3"/>
-      <c r="R370" s="3"/>
-      <c r="S370" s="3"/>
-      <c r="T370" s="3"/>
-    </row>
-    <row r="371" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B371" s="12"/>
-      <c r="C371" s="34"/>
-      <c r="D371"/>
-      <c r="E371"/>
-      <c r="F371" s="33"/>
-      <c r="G371" s="33"/>
-      <c r="H371" s="33"/>
-      <c r="I371"/>
-      <c r="J371" s="33"/>
-      <c r="K371" s="31"/>
-      <c r="L371" s="33"/>
-      <c r="M371" s="3"/>
-      <c r="N371" s="3"/>
-      <c r="O371" s="3"/>
-      <c r="P371" s="3"/>
-      <c r="Q371" s="3"/>
-      <c r="R371" s="3"/>
-      <c r="S371" s="3"/>
-      <c r="T371" s="3"/>
-    </row>
-    <row r="372" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B372" s="12"/>
-      <c r="C372" s="34"/>
-      <c r="D372"/>
-      <c r="E372"/>
-      <c r="F372" s="33"/>
-      <c r="G372" s="33"/>
-      <c r="H372" s="33"/>
-      <c r="I372"/>
-      <c r="J372" s="33"/>
-      <c r="K372" s="31"/>
-      <c r="L372" s="33"/>
-      <c r="M372" s="3"/>
-      <c r="N372" s="3"/>
-      <c r="O372" s="3"/>
-      <c r="P372" s="3"/>
-      <c r="Q372" s="3"/>
-      <c r="R372" s="3"/>
-      <c r="S372" s="3"/>
-      <c r="T372" s="3"/>
-    </row>
-    <row r="373" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B373" s="12"/>
-      <c r="C373" s="34"/>
-      <c r="D373"/>
-      <c r="E373"/>
-      <c r="F373" s="33"/>
-      <c r="G373" s="33"/>
-      <c r="H373" s="33"/>
-      <c r="I373"/>
-      <c r="J373" s="33"/>
-      <c r="K373" s="31"/>
-      <c r="L373" s="33"/>
-      <c r="M373" s="3"/>
-      <c r="N373" s="3"/>
-      <c r="O373" s="3"/>
-      <c r="P373" s="3"/>
-      <c r="Q373" s="3"/>
-      <c r="R373" s="3"/>
-      <c r="S373" s="3"/>
-      <c r="T373" s="3"/>
-    </row>
-    <row r="374" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B374" s="12"/>
-      <c r="C374" s="34"/>
-      <c r="D374"/>
-      <c r="E374"/>
-      <c r="F374" s="33"/>
-      <c r="G374" s="33"/>
-      <c r="H374" s="33"/>
-      <c r="I374"/>
-      <c r="J374" s="33"/>
-      <c r="K374" s="31"/>
-      <c r="L374" s="33"/>
-      <c r="M374" s="3"/>
-      <c r="N374" s="3"/>
-      <c r="O374" s="3"/>
-      <c r="P374" s="3"/>
-      <c r="Q374" s="3"/>
-      <c r="R374" s="3"/>
-      <c r="S374" s="3"/>
-      <c r="T374" s="3"/>
-    </row>
-    <row r="375" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B375" s="12"/>
-      <c r="C375" s="10"/>
-      <c r="D375" s="13"/>
-      <c r="E375" s="13"/>
-      <c r="F375" s="25"/>
-      <c r="G375" s="9"/>
-      <c r="H375" s="9"/>
-      <c r="I375" s="13"/>
-      <c r="J375" s="9"/>
-      <c r="K375" s="13"/>
-      <c r="L375" s="9"/>
-      <c r="M375" s="3"/>
-      <c r="N375" s="3"/>
-      <c r="O375" s="3"/>
-      <c r="P375" s="3"/>
-      <c r="Q375" s="3"/>
-      <c r="R375" s="3"/>
-      <c r="S375" s="3"/>
-      <c r="T375" s="3"/>
-    </row>
-    <row r="376" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B376" s="12"/>
-      <c r="C376" s="10"/>
-      <c r="D376" s="13"/>
-      <c r="E376" s="13"/>
-      <c r="F376" s="25"/>
-      <c r="G376" s="9"/>
-      <c r="H376" s="9"/>
-      <c r="I376" s="13"/>
-      <c r="J376" s="9"/>
-      <c r="K376" s="13"/>
-      <c r="L376" s="9"/>
-      <c r="M376" s="3"/>
-      <c r="N376" s="3"/>
-      <c r="O376" s="3"/>
-      <c r="P376" s="3"/>
-      <c r="Q376" s="3"/>
-      <c r="R376" s="3"/>
-      <c r="S376" s="3"/>
-      <c r="T376" s="3"/>
-    </row>
-    <row r="377" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B377" s="12"/>
-      <c r="C377" s="10"/>
-      <c r="D377" s="13"/>
-      <c r="E377" s="13"/>
-      <c r="F377" s="25"/>
-      <c r="G377" s="9"/>
-      <c r="H377" s="9"/>
-      <c r="I377" s="13"/>
-      <c r="J377" s="9"/>
-      <c r="K377" s="13"/>
-      <c r="L377" s="9"/>
-      <c r="M377" s="3"/>
-      <c r="N377" s="3"/>
-      <c r="O377" s="3"/>
-      <c r="P377" s="3"/>
-      <c r="Q377" s="3"/>
-      <c r="R377" s="3"/>
-      <c r="S377" s="3"/>
-      <c r="T377" s="3"/>
-    </row>
-    <row r="378" spans="2:20" ht="21.75" customHeight="1">
-      <c r="B378" s="41" t="s">
+    <row r="356" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B356" s="33">
+        <v>26</v>
+      </c>
+      <c r="C356" s="34">
+        <v>43612</v>
+      </c>
+      <c r="D356" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E356" t="s">
+        <v>491</v>
+      </c>
+      <c r="F356" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G356" s="33">
+        <v>1</v>
+      </c>
+      <c r="H356" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I356" t="s">
+        <v>262</v>
+      </c>
+      <c r="J356" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K356" t="s">
+        <v>515</v>
+      </c>
+      <c r="L356" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="357" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B357" s="33">
+        <v>26</v>
+      </c>
+      <c r="C357" s="34">
+        <v>43612</v>
+      </c>
+      <c r="D357" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E357" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="F357" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G357" s="33">
+        <v>1</v>
+      </c>
+      <c r="H357" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I357" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J357" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K357" t="s">
+        <v>266</v>
+      </c>
+      <c r="L357" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="358" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B358" s="33">
+        <v>26</v>
+      </c>
+      <c r="C358" s="34">
+        <v>43612</v>
+      </c>
+      <c r="D358" t="s">
+        <v>492</v>
+      </c>
+      <c r="E358" t="s">
+        <v>492</v>
+      </c>
+      <c r="F358" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="G358" s="33">
+        <v>1</v>
+      </c>
+      <c r="H358" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I358" t="s">
+        <v>362</v>
+      </c>
+      <c r="J358" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K358" t="s">
+        <v>516</v>
+      </c>
+      <c r="L358" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="359" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B359" s="33">
+        <v>26</v>
+      </c>
+      <c r="C359" s="34">
+        <v>43612</v>
+      </c>
+      <c r="D359" t="s">
+        <v>29</v>
+      </c>
+      <c r="E359" t="s">
+        <v>476</v>
+      </c>
+      <c r="F359" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="G359" s="33">
+        <v>1</v>
+      </c>
+      <c r="H359" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I359" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="J359" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K359" t="s">
+        <v>517</v>
+      </c>
+      <c r="L359" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="360" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B360" s="33">
+        <v>25</v>
+      </c>
+      <c r="C360" s="34">
+        <v>43612</v>
+      </c>
+      <c r="D360" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E360" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F360" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G360" s="33">
+        <v>1</v>
+      </c>
+      <c r="H360" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I360" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J360" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K360" t="s">
+        <v>50</v>
+      </c>
+      <c r="L360" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="361" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B361" s="33">
+        <v>25</v>
+      </c>
+      <c r="C361" s="34">
+        <v>43612</v>
+      </c>
+      <c r="D361" t="s">
+        <v>29</v>
+      </c>
+      <c r="E361" t="s">
+        <v>455</v>
+      </c>
+      <c r="F361" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G361" s="33">
+        <v>1</v>
+      </c>
+      <c r="H361" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I361" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J361" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K361" t="s">
+        <v>495</v>
+      </c>
+      <c r="L361" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="362" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B362" s="33">
+        <v>25</v>
+      </c>
+      <c r="C362" s="34">
+        <v>43613</v>
+      </c>
+      <c r="D362" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E362" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="F362" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G362" s="33">
+        <v>1</v>
+      </c>
+      <c r="H362" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I362" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="J362" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K362" t="s">
+        <v>518</v>
+      </c>
+      <c r="L362" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="363" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B363" s="33">
+        <v>25</v>
+      </c>
+      <c r="C363" s="34">
+        <v>43613</v>
+      </c>
+      <c r="D363" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E363" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F363" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G363" s="33">
+        <v>1</v>
+      </c>
+      <c r="H363" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I363" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J363" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K363" t="s">
+        <v>50</v>
+      </c>
+      <c r="L363" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="364" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B364" s="33">
+        <v>25</v>
+      </c>
+      <c r="C364" s="34">
+        <v>43613</v>
+      </c>
+      <c r="D364" t="s">
+        <v>29</v>
+      </c>
+      <c r="E364" t="s">
+        <v>520</v>
+      </c>
+      <c r="F364" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="G364" s="33">
+        <v>1</v>
+      </c>
+      <c r="H364" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I364" t="s">
+        <v>477</v>
+      </c>
+      <c r="J364" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K364" t="s">
+        <v>521</v>
+      </c>
+      <c r="L364" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="365" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B365" s="33">
+        <v>25</v>
+      </c>
+      <c r="C365" s="34">
+        <v>43613</v>
+      </c>
+      <c r="D365" t="s">
+        <v>523</v>
+      </c>
+      <c r="E365" t="s">
+        <v>523</v>
+      </c>
+      <c r="F365" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="G365" s="33">
+        <v>1</v>
+      </c>
+      <c r="H365" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I365" t="s">
+        <v>17</v>
+      </c>
+      <c r="J365" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K365" t="s">
+        <v>524</v>
+      </c>
+      <c r="L365" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="366" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B366" s="33">
+        <v>25</v>
+      </c>
+      <c r="C366" s="34">
+        <v>43613</v>
+      </c>
+      <c r="D366" t="s">
+        <v>526</v>
+      </c>
+      <c r="E366" t="s">
+        <v>526</v>
+      </c>
+      <c r="F366" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="G366" s="33">
+        <v>1</v>
+      </c>
+      <c r="H366" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I366" t="s">
+        <v>17</v>
+      </c>
+      <c r="J366" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K366" t="s">
+        <v>527</v>
+      </c>
+      <c r="L366" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="367" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B367" s="33">
+        <v>25</v>
+      </c>
+      <c r="C367" s="34">
+        <v>43613</v>
+      </c>
+      <c r="D367" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E367" t="s">
+        <v>487</v>
+      </c>
+      <c r="F367" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="G367" s="33">
+        <v>1</v>
+      </c>
+      <c r="H367" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I367" t="s">
+        <v>25</v>
+      </c>
+      <c r="J367" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K367" t="s">
+        <v>529</v>
+      </c>
+      <c r="L367" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="368" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B368" s="33">
+        <v>25</v>
+      </c>
+      <c r="C368" s="34">
+        <v>43613</v>
+      </c>
+      <c r="D368" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E368" t="s">
+        <v>530</v>
+      </c>
+      <c r="F368" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G368" s="33">
+        <v>1</v>
+      </c>
+      <c r="H368" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I368" t="s">
+        <v>25</v>
+      </c>
+      <c r="J368" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K368" t="s">
+        <v>531</v>
+      </c>
+      <c r="L368" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="369" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B369" s="33">
+        <v>25</v>
+      </c>
+      <c r="C369" s="34">
+        <v>43613</v>
+      </c>
+      <c r="D369" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E369" t="s">
+        <v>530</v>
+      </c>
+      <c r="F369" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G369" s="33">
+        <v>1</v>
+      </c>
+      <c r="H369" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I369" t="s">
+        <v>25</v>
+      </c>
+      <c r="J369" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K369" t="s">
+        <v>531</v>
+      </c>
+      <c r="L369" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="370" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B370" s="33">
+        <v>26</v>
+      </c>
+      <c r="C370" s="34">
+        <v>43614</v>
+      </c>
+      <c r="D370" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E370" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F370" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G370" s="33">
+        <v>1</v>
+      </c>
+      <c r="H370" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I370" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J370" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K370" t="s">
+        <v>49</v>
+      </c>
+      <c r="L370" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="371" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B371" s="33">
+        <v>26</v>
+      </c>
+      <c r="C371" s="34">
+        <v>43614</v>
+      </c>
+      <c r="D371" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E371" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="F371" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G371" s="33">
+        <v>1</v>
+      </c>
+      <c r="H371" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I371" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J371" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K371" t="s">
+        <v>567</v>
+      </c>
+      <c r="L371" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="372" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B372" s="33">
+        <v>26</v>
+      </c>
+      <c r="C372" s="34">
+        <v>43614</v>
+      </c>
+      <c r="D372" t="s">
+        <v>532</v>
+      </c>
+      <c r="E372" t="s">
+        <v>532</v>
+      </c>
+      <c r="F372" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="G372" s="33">
+        <v>1</v>
+      </c>
+      <c r="H372" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I372" t="s">
+        <v>17</v>
+      </c>
+      <c r="J372" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K372" t="s">
+        <v>534</v>
+      </c>
+      <c r="L372" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="373" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B373" s="33">
+        <v>26</v>
+      </c>
+      <c r="C373" s="34">
+        <v>43614</v>
+      </c>
+      <c r="D373" t="s">
+        <v>535</v>
+      </c>
+      <c r="E373" t="s">
+        <v>535</v>
+      </c>
+      <c r="F373" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="G373" s="33">
+        <v>1</v>
+      </c>
+      <c r="H373" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I373" t="s">
+        <v>17</v>
+      </c>
+      <c r="J373" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K373" t="s">
+        <v>537</v>
+      </c>
+      <c r="L373" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="374" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B374" s="33">
+        <v>26</v>
+      </c>
+      <c r="C374" s="34">
+        <v>43614</v>
+      </c>
+      <c r="D374" t="s">
+        <v>38</v>
+      </c>
+      <c r="E374" t="s">
+        <v>538</v>
+      </c>
+      <c r="F374" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="G374" s="33">
+        <v>1</v>
+      </c>
+      <c r="H374" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I374" t="s">
+        <v>86</v>
+      </c>
+      <c r="J374" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K374" t="s">
+        <v>540</v>
+      </c>
+      <c r="L374" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="375" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B375" s="33">
+        <v>26</v>
+      </c>
+      <c r="C375" s="34">
+        <v>43614</v>
+      </c>
+      <c r="D375" t="s">
+        <v>29</v>
+      </c>
+      <c r="E375" t="s">
+        <v>541</v>
+      </c>
+      <c r="F375" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="G375" s="33">
+        <v>1</v>
+      </c>
+      <c r="H375" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I375" t="s">
+        <v>86</v>
+      </c>
+      <c r="J375" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K375" t="s">
+        <v>543</v>
+      </c>
+      <c r="L375" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="376" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B376" s="33">
+        <v>26</v>
+      </c>
+      <c r="C376" s="34">
+        <v>43614</v>
+      </c>
+      <c r="D376" t="s">
+        <v>544</v>
+      </c>
+      <c r="E376" t="s">
+        <v>544</v>
+      </c>
+      <c r="F376" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="G376" s="33">
+        <v>1</v>
+      </c>
+      <c r="H376" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I376" t="s">
+        <v>23</v>
+      </c>
+      <c r="J376" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K376" t="s">
+        <v>546</v>
+      </c>
+      <c r="L376" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="377" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B377" s="33">
+        <v>25</v>
+      </c>
+      <c r="C377" s="34">
+        <v>43614</v>
+      </c>
+      <c r="D377" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E377" t="s">
+        <v>530</v>
+      </c>
+      <c r="F377" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G377" s="33">
+        <v>1</v>
+      </c>
+      <c r="H377" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I377" t="s">
+        <v>25</v>
+      </c>
+      <c r="J377" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K377" t="s">
+        <v>531</v>
+      </c>
+      <c r="L377" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="378" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B378" s="33">
+        <v>28</v>
+      </c>
+      <c r="C378" s="34">
+        <v>43614</v>
+      </c>
+      <c r="D378" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E378" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="F378" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G378" s="33">
+        <v>1</v>
+      </c>
+      <c r="H378" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I378" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="J378" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K378" t="s">
+        <v>547</v>
+      </c>
+      <c r="L378" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="379" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B379" s="33">
+        <v>25</v>
+      </c>
+      <c r="C379" s="34">
+        <v>43614</v>
+      </c>
+      <c r="D379" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E379" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F379" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G379" s="33">
+        <v>1</v>
+      </c>
+      <c r="H379" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I379" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J379" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K379" t="s">
+        <v>50</v>
+      </c>
+      <c r="L379" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="380" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B380" s="33">
+        <v>26</v>
+      </c>
+      <c r="C380" s="34">
+        <v>43614</v>
+      </c>
+      <c r="D380" t="s">
+        <v>548</v>
+      </c>
+      <c r="E380" t="s">
+        <v>532</v>
+      </c>
+      <c r="F380" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="G380" s="33">
+        <v>1</v>
+      </c>
+      <c r="H380" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I380" t="s">
+        <v>17</v>
+      </c>
+      <c r="J380" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K380" t="s">
+        <v>552</v>
+      </c>
+      <c r="L380" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="381" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B381" s="33">
+        <v>26</v>
+      </c>
+      <c r="C381" s="34">
+        <v>43614</v>
+      </c>
+      <c r="D381" t="s">
+        <v>549</v>
+      </c>
+      <c r="E381" t="s">
+        <v>532</v>
+      </c>
+      <c r="F381" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="G381" s="33">
+        <v>1</v>
+      </c>
+      <c r="H381" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I381" t="s">
+        <v>17</v>
+      </c>
+      <c r="J381" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K381" t="s">
+        <v>553</v>
+      </c>
+      <c r="L381" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="382" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B382" s="33">
+        <v>26</v>
+      </c>
+      <c r="C382" s="34">
+        <v>43614</v>
+      </c>
+      <c r="D382" t="s">
+        <v>550</v>
+      </c>
+      <c r="E382" t="s">
+        <v>532</v>
+      </c>
+      <c r="F382" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="G382" s="33">
+        <v>1</v>
+      </c>
+      <c r="H382" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I382" t="s">
+        <v>17</v>
+      </c>
+      <c r="J382" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K382" t="s">
+        <v>554</v>
+      </c>
+      <c r="L382" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="383" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B383" s="33">
+        <v>26</v>
+      </c>
+      <c r="C383" s="34">
+        <v>43614</v>
+      </c>
+      <c r="D383" t="s">
+        <v>551</v>
+      </c>
+      <c r="E383" t="s">
+        <v>532</v>
+      </c>
+      <c r="F383" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="G383" s="33">
+        <v>1</v>
+      </c>
+      <c r="H383" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I383" t="s">
+        <v>17</v>
+      </c>
+      <c r="J383" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K383" t="s">
+        <v>555</v>
+      </c>
+      <c r="L383" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="384" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B384" s="33">
+        <v>28</v>
+      </c>
+      <c r="C384" s="34">
+        <v>43615</v>
+      </c>
+      <c r="D384" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E384" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="F384" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G384" s="33">
+        <v>1</v>
+      </c>
+      <c r="H384" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I384" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="J384" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K384" t="s">
+        <v>556</v>
+      </c>
+      <c r="L384" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="385" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B385" s="33">
+        <v>28</v>
+      </c>
+      <c r="C385" s="34">
+        <v>43615</v>
+      </c>
+      <c r="D385" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E385" t="s">
+        <v>557</v>
+      </c>
+      <c r="F385" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G385" s="33">
+        <v>1</v>
+      </c>
+      <c r="H385" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I385" t="s">
+        <v>86</v>
+      </c>
+      <c r="J385" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K385" t="s">
+        <v>558</v>
+      </c>
+      <c r="L385" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="386" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B386" s="33">
+        <v>28</v>
+      </c>
+      <c r="C386" s="34">
+        <v>43615</v>
+      </c>
+      <c r="D386" t="s">
+        <v>30</v>
+      </c>
+      <c r="E386" t="s">
+        <v>559</v>
+      </c>
+      <c r="F386" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G386" s="33">
+        <v>1</v>
+      </c>
+      <c r="H386" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I386" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J386" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K386" t="s">
+        <v>560</v>
+      </c>
+      <c r="L386" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="387" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B387" s="33">
+        <v>28</v>
+      </c>
+      <c r="C387" s="34">
+        <v>43615</v>
+      </c>
+      <c r="D387" t="s">
+        <v>561</v>
+      </c>
+      <c r="E387" t="s">
+        <v>561</v>
+      </c>
+      <c r="F387" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="G387" s="33">
+        <v>1</v>
+      </c>
+      <c r="H387" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I387" t="s">
+        <v>362</v>
+      </c>
+      <c r="J387" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K387" t="s">
+        <v>563</v>
+      </c>
+      <c r="L387" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="388" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B388" s="33">
+        <v>27</v>
+      </c>
+      <c r="C388" s="34">
+        <v>43615</v>
+      </c>
+      <c r="D388" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="E388" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="F388" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G388" s="33">
+        <v>1</v>
+      </c>
+      <c r="H388" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I388" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J388" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K388" t="s">
+        <v>337</v>
+      </c>
+      <c r="L388" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="389" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B389" s="33">
+        <v>25</v>
+      </c>
+      <c r="C389" s="34">
+        <v>43615</v>
+      </c>
+      <c r="D389" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E389" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F389" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G389" s="33">
+        <v>1</v>
+      </c>
+      <c r="H389" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I389" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J389" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K389" t="s">
+        <v>50</v>
+      </c>
+      <c r="L389" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="390" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B390" s="33">
+        <v>28</v>
+      </c>
+      <c r="C390" s="34">
+        <v>43615</v>
+      </c>
+      <c r="D390" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E390" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="F390" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G390" s="33">
+        <v>1</v>
+      </c>
+      <c r="H390" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I390" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J390" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K390" t="s">
+        <v>568</v>
+      </c>
+      <c r="L390" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="391" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B391" s="33">
+        <v>10</v>
+      </c>
+      <c r="C391" s="34">
+        <v>43615</v>
+      </c>
+      <c r="D391" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E391" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="F391" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G391" s="33">
+        <v>1</v>
+      </c>
+      <c r="H391" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I391" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J391" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K391" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="L391" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="392" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B392" s="33">
+        <v>10</v>
+      </c>
+      <c r="C392" s="34">
+        <v>43615</v>
+      </c>
+      <c r="D392" t="s">
+        <v>569</v>
+      </c>
+      <c r="E392" t="s">
+        <v>570</v>
+      </c>
+      <c r="F392" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G392" s="33">
+        <v>1</v>
+      </c>
+      <c r="H392" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I392" t="s">
+        <v>25</v>
+      </c>
+      <c r="J392" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K392" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="L392" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="393" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B393" s="33">
+        <v>25</v>
+      </c>
+      <c r="C393" s="34">
+        <v>43615</v>
+      </c>
+      <c r="D393" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E393" t="s">
+        <v>487</v>
+      </c>
+      <c r="F393" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="G393" s="33">
+        <v>1</v>
+      </c>
+      <c r="H393" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I393" t="s">
+        <v>25</v>
+      </c>
+      <c r="J393" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K393" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="L393" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="394" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B394" s="33">
+        <v>25</v>
+      </c>
+      <c r="C394" s="34">
+        <v>43615</v>
+      </c>
+      <c r="D394" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E394" t="s">
+        <v>573</v>
+      </c>
+      <c r="F394" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="G394" s="33">
+        <v>1</v>
+      </c>
+      <c r="H394" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I394" t="s">
+        <v>86</v>
+      </c>
+      <c r="J394" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K394" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="L394" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="395" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B395" s="33">
+        <v>27</v>
+      </c>
+      <c r="C395" s="34">
+        <v>43615</v>
+      </c>
+      <c r="D395" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E395" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="F395" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G395" s="33">
+        <v>1</v>
+      </c>
+      <c r="H395" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I395" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J395" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K395" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="L395" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="396" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B396" s="33">
+        <v>10</v>
+      </c>
+      <c r="C396" s="34">
+        <v>43615</v>
+      </c>
+      <c r="D396" t="s">
+        <v>569</v>
+      </c>
+      <c r="E396" t="s">
+        <v>570</v>
+      </c>
+      <c r="F396" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G396" s="33">
+        <v>1</v>
+      </c>
+      <c r="H396" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I396" t="s">
+        <v>25</v>
+      </c>
+      <c r="J396" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K396" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="L396" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="397" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B397" s="33">
+        <v>25</v>
+      </c>
+      <c r="C397" s="34">
+        <v>43615</v>
+      </c>
+      <c r="D397" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E397" t="s">
+        <v>530</v>
+      </c>
+      <c r="F397" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G397" s="33">
+        <v>1</v>
+      </c>
+      <c r="H397" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I397" t="s">
+        <v>25</v>
+      </c>
+      <c r="J397" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K397" t="s">
+        <v>577</v>
+      </c>
+      <c r="L397" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="398" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B398" s="33">
+        <v>25</v>
+      </c>
+      <c r="C398" s="34">
+        <v>43615</v>
+      </c>
+      <c r="D398" t="s">
+        <v>38</v>
+      </c>
+      <c r="E398" t="s">
+        <v>578</v>
+      </c>
+      <c r="F398" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="G398" s="33">
+        <v>1</v>
+      </c>
+      <c r="H398" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I398" t="s">
+        <v>86</v>
+      </c>
+      <c r="J398" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K398" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="L398" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="399" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B399" s="33">
+        <v>27</v>
+      </c>
+      <c r="C399" s="34">
+        <v>43615</v>
+      </c>
+      <c r="D399" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="E399" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="F399" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G399" s="33">
+        <v>1</v>
+      </c>
+      <c r="H399" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I399" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J399" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K399" t="s">
+        <v>337</v>
+      </c>
+      <c r="L399" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="400" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B400" s="33">
+        <v>25</v>
+      </c>
+      <c r="C400" s="34">
+        <v>43615</v>
+      </c>
+      <c r="D400" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E400" t="s">
+        <v>530</v>
+      </c>
+      <c r="F400" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G400" s="33">
+        <v>1</v>
+      </c>
+      <c r="H400" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I400" t="s">
+        <v>25</v>
+      </c>
+      <c r="J400" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K400" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="L400" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="401" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B401" s="33">
+        <v>25</v>
+      </c>
+      <c r="C401" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D401" t="s">
+        <v>29</v>
+      </c>
+      <c r="E401" t="s">
+        <v>582</v>
+      </c>
+      <c r="F401" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G401" s="33">
+        <v>1</v>
+      </c>
+      <c r="H401" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I401" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J401" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K401" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="L401" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="402" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B402" s="33">
+        <v>25</v>
+      </c>
+      <c r="C402" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D402" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E402" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F402" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G402" s="33">
+        <v>1</v>
+      </c>
+      <c r="H402" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I402" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J402" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K402" s="31" t="s">
+        <v>584</v>
+      </c>
+      <c r="L402" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="403" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B403" s="33">
+        <v>28</v>
+      </c>
+      <c r="C403" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D403" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E403" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="F403" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G403" s="33">
+        <v>1</v>
+      </c>
+      <c r="H403" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I403" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="J403" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K403" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="L403" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="404" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B404" s="33">
+        <v>28</v>
+      </c>
+      <c r="C404" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D404" t="s">
+        <v>29</v>
+      </c>
+      <c r="E404" t="s">
+        <v>586</v>
+      </c>
+      <c r="F404" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="G404" s="33">
+        <v>1</v>
+      </c>
+      <c r="H404" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I404" t="s">
+        <v>175</v>
+      </c>
+      <c r="J404" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K404" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="L404" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="405" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B405" s="33">
+        <v>25</v>
+      </c>
+      <c r="C405" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D405" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E405" t="s">
+        <v>481</v>
+      </c>
+      <c r="F405" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G405" s="33">
+        <v>1</v>
+      </c>
+      <c r="H405" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I405" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J405" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K405" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="L405" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="406" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B406" s="33">
+        <v>6</v>
+      </c>
+      <c r="C406" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D406" t="s">
+        <v>29</v>
+      </c>
+      <c r="E406" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="F406" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G406" s="33">
+        <v>1</v>
+      </c>
+      <c r="H406" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I406" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J406" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K406" s="31" t="s">
+        <v>590</v>
+      </c>
+      <c r="L406" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="407" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B407" s="33">
+        <v>6</v>
+      </c>
+      <c r="C407" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D407" t="s">
+        <v>29</v>
+      </c>
+      <c r="E407" t="s">
+        <v>330</v>
+      </c>
+      <c r="F407" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G407" s="33">
+        <v>1</v>
+      </c>
+      <c r="H407" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I407" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J407" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K407" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="L407" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="408" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B408" s="33">
         <v>14</v>
       </c>
-      <c r="C378" s="42"/>
-      <c r="D378" s="14"/>
-      <c r="E378" s="14"/>
-      <c r="F378" s="15"/>
-      <c r="G378" s="15">
-        <f>SUM(G3:G377)</f>
-        <v>350</v>
-      </c>
-      <c r="H378" s="15"/>
-      <c r="I378" s="15"/>
-      <c r="J378" s="9"/>
-      <c r="K378" s="21"/>
-      <c r="L378" s="9"/>
-    </row>
-    <row r="380" spans="2:20" ht="75" customHeight="1">
-      <c r="B380" s="43"/>
-      <c r="C380" s="44"/>
-      <c r="D380" s="44"/>
-      <c r="E380" s="44"/>
-      <c r="F380" s="44"/>
-      <c r="G380" s="44"/>
-      <c r="H380" s="44"/>
-      <c r="I380" s="44"/>
-      <c r="J380" s="45"/>
-      <c r="K380" s="22"/>
-      <c r="L380" s="23"/>
+      <c r="C408" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D408" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E408" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="F408" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G408" s="33">
+        <v>1</v>
+      </c>
+      <c r="H408" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I408" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J408" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K408" s="31" t="s">
+        <v>592</v>
+      </c>
+      <c r="L408" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="409" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B409" s="33">
+        <v>25</v>
+      </c>
+      <c r="C409" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D409" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E409" t="s">
+        <v>530</v>
+      </c>
+      <c r="F409" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G409" s="33">
+        <v>1</v>
+      </c>
+      <c r="H409" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I409" t="s">
+        <v>25</v>
+      </c>
+      <c r="J409" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K409" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="L409" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="410" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B410" s="33">
+        <v>25</v>
+      </c>
+      <c r="C410" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D410" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E410" t="s">
+        <v>593</v>
+      </c>
+      <c r="F410" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G410" s="33">
+        <v>1</v>
+      </c>
+      <c r="H410" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I410" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J410" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K410" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="L410" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="411" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B411" s="33">
+        <v>25</v>
+      </c>
+      <c r="C411" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D411" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E411" t="s">
+        <v>595</v>
+      </c>
+      <c r="F411" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="G411" s="33">
+        <v>1</v>
+      </c>
+      <c r="H411" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I411" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J411" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K411" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="L411" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="412" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B412" s="33">
+        <v>25</v>
+      </c>
+      <c r="C412" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D412" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E412" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="F412" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G412" s="33">
+        <v>1</v>
+      </c>
+      <c r="H412" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I412" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J412" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K412" s="31" t="s">
+        <v>598</v>
+      </c>
+      <c r="L412" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="413" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B413" s="33">
+        <v>27</v>
+      </c>
+      <c r="C413" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D413" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="E413" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="F413" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G413" s="33">
+        <v>1</v>
+      </c>
+      <c r="H413" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I413" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J413" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K413" t="s">
+        <v>337</v>
+      </c>
+      <c r="L413" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="414" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B414" s="33">
+        <v>26</v>
+      </c>
+      <c r="C414" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D414" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E414" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F414" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G414" s="33">
+        <v>1</v>
+      </c>
+      <c r="H414" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I414" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J414" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K414" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L414" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="415" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B415" s="33">
+        <v>26</v>
+      </c>
+      <c r="C415" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D415" t="s">
+        <v>70</v>
+      </c>
+      <c r="E415" t="s">
+        <v>599</v>
+      </c>
+      <c r="F415" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G415" s="33">
+        <v>1</v>
+      </c>
+      <c r="H415" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I415" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J415" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K415" s="31" t="s">
+        <v>600</v>
+      </c>
+      <c r="L415" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="416" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B416" s="12"/>
+      <c r="C416" s="34"/>
+      <c r="D416" s="35"/>
+      <c r="E416" s="35"/>
+      <c r="F416" s="33"/>
+      <c r="G416" s="33"/>
+      <c r="H416" s="33"/>
+      <c r="I416" s="35"/>
+      <c r="J416" s="33"/>
+      <c r="K416" s="31"/>
+      <c r="L416" s="33"/>
+    </row>
+    <row r="417" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B417" s="12"/>
+      <c r="C417" s="34"/>
+      <c r="D417" s="35"/>
+      <c r="E417" s="35"/>
+      <c r="F417" s="33"/>
+      <c r="G417" s="33"/>
+      <c r="H417" s="33"/>
+      <c r="I417" s="35"/>
+      <c r="J417" s="33"/>
+      <c r="K417" s="31"/>
+      <c r="L417" s="33"/>
+    </row>
+    <row r="418" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B418" s="12"/>
+      <c r="C418" s="34"/>
+      <c r="D418" s="35"/>
+      <c r="E418" s="35"/>
+      <c r="F418" s="33"/>
+      <c r="G418" s="33"/>
+      <c r="H418" s="33"/>
+      <c r="I418" s="35"/>
+      <c r="J418" s="33"/>
+      <c r="K418" s="31"/>
+      <c r="L418" s="33"/>
+    </row>
+    <row r="419" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B419" s="12"/>
+      <c r="C419" s="34"/>
+      <c r="D419" s="35"/>
+      <c r="E419" s="35"/>
+      <c r="F419" s="33"/>
+      <c r="G419" s="33"/>
+      <c r="H419" s="33"/>
+      <c r="I419" s="35"/>
+      <c r="J419" s="33"/>
+      <c r="K419" s="31"/>
+      <c r="L419" s="33"/>
+    </row>
+    <row r="420" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B420" s="12"/>
+      <c r="C420" s="34"/>
+      <c r="D420" s="35"/>
+      <c r="E420" s="26"/>
+      <c r="F420" s="33"/>
+      <c r="G420" s="33"/>
+      <c r="H420" s="33"/>
+      <c r="I420" s="35"/>
+      <c r="J420" s="33"/>
+      <c r="K420"/>
+      <c r="L420" s="33"/>
+    </row>
+    <row r="421" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B421" s="12"/>
+      <c r="C421" s="34"/>
+      <c r="D421" s="35"/>
+      <c r="E421" s="26"/>
+      <c r="F421" s="33"/>
+      <c r="G421" s="33"/>
+      <c r="H421" s="33"/>
+      <c r="I421" s="35"/>
+      <c r="J421" s="33"/>
+      <c r="K421"/>
+      <c r="L421" s="33"/>
+    </row>
+    <row r="422" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B422" s="12"/>
+      <c r="C422" s="34"/>
+      <c r="D422" s="35"/>
+      <c r="E422" s="26"/>
+      <c r="F422" s="33"/>
+      <c r="G422" s="33"/>
+      <c r="H422" s="33"/>
+      <c r="I422" s="35"/>
+      <c r="J422" s="33"/>
+      <c r="K422"/>
+      <c r="L422" s="33"/>
+    </row>
+    <row r="423" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B423" s="12"/>
+      <c r="C423" s="34"/>
+      <c r="D423" s="35"/>
+      <c r="E423" s="26"/>
+      <c r="F423" s="33"/>
+      <c r="G423" s="33"/>
+      <c r="H423" s="33"/>
+      <c r="I423" s="35"/>
+      <c r="J423" s="33"/>
+      <c r="K423"/>
+      <c r="L423" s="33"/>
+    </row>
+    <row r="424" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B424" s="12"/>
+      <c r="C424" s="34"/>
+      <c r="D424" s="35"/>
+      <c r="E424" s="26"/>
+      <c r="F424" s="33"/>
+      <c r="G424" s="33"/>
+      <c r="H424" s="33"/>
+      <c r="I424" s="35"/>
+      <c r="J424" s="33"/>
+      <c r="K424"/>
+      <c r="L424" s="33"/>
+    </row>
+    <row r="425" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B425" s="12"/>
+      <c r="C425" s="34"/>
+      <c r="D425" s="35"/>
+      <c r="E425" s="26"/>
+      <c r="F425" s="33"/>
+      <c r="G425" s="33"/>
+      <c r="H425" s="33"/>
+      <c r="I425" s="35"/>
+      <c r="J425" s="33"/>
+      <c r="K425"/>
+      <c r="L425" s="33"/>
+    </row>
+    <row r="426" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B426" s="12"/>
+      <c r="C426" s="34"/>
+      <c r="D426" s="35"/>
+      <c r="E426" s="26"/>
+      <c r="F426" s="33"/>
+      <c r="G426" s="33"/>
+      <c r="H426" s="33"/>
+      <c r="I426" s="35"/>
+      <c r="J426" s="33"/>
+      <c r="K426"/>
+      <c r="L426" s="33"/>
+    </row>
+    <row r="427" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B427" s="12"/>
+      <c r="C427" s="34"/>
+      <c r="D427"/>
+      <c r="E427"/>
+      <c r="F427" s="33"/>
+      <c r="G427" s="33"/>
+      <c r="H427" s="33"/>
+      <c r="I427"/>
+      <c r="J427" s="33"/>
+      <c r="K427" s="31"/>
+      <c r="L427" s="33"/>
+      <c r="M427" s="3"/>
+      <c r="N427" s="3"/>
+      <c r="O427" s="3"/>
+      <c r="P427" s="3"/>
+      <c r="Q427" s="3"/>
+      <c r="R427" s="3"/>
+      <c r="S427" s="3"/>
+      <c r="T427" s="3"/>
+    </row>
+    <row r="428" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B428" s="12"/>
+      <c r="C428" s="10"/>
+      <c r="D428" s="13"/>
+      <c r="E428" s="13"/>
+      <c r="F428" s="25"/>
+      <c r="G428" s="9"/>
+      <c r="H428" s="9"/>
+      <c r="I428" s="13"/>
+      <c r="J428" s="9"/>
+      <c r="K428" s="13"/>
+      <c r="L428" s="9"/>
+      <c r="M428" s="3"/>
+      <c r="N428" s="3"/>
+      <c r="O428" s="3"/>
+      <c r="P428" s="3"/>
+      <c r="Q428" s="3"/>
+      <c r="R428" s="3"/>
+      <c r="S428" s="3"/>
+      <c r="T428" s="3"/>
+    </row>
+    <row r="429" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B429" s="12"/>
+      <c r="C429" s="10"/>
+      <c r="D429" s="13"/>
+      <c r="E429" s="13"/>
+      <c r="F429" s="25"/>
+      <c r="G429" s="9"/>
+      <c r="H429" s="9"/>
+      <c r="I429" s="13"/>
+      <c r="J429" s="9"/>
+      <c r="K429" s="13"/>
+      <c r="L429" s="9"/>
+      <c r="M429" s="3"/>
+      <c r="N429" s="3"/>
+      <c r="O429" s="3"/>
+      <c r="P429" s="3"/>
+      <c r="Q429" s="3"/>
+      <c r="R429" s="3"/>
+      <c r="S429" s="3"/>
+      <c r="T429" s="3"/>
+    </row>
+    <row r="430" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B430" s="12"/>
+      <c r="C430" s="10"/>
+      <c r="D430" s="13"/>
+      <c r="E430" s="13"/>
+      <c r="F430" s="25"/>
+      <c r="G430" s="9"/>
+      <c r="H430" s="9"/>
+      <c r="I430" s="13"/>
+      <c r="J430" s="9"/>
+      <c r="K430" s="13"/>
+      <c r="L430" s="9"/>
+      <c r="M430" s="3"/>
+      <c r="N430" s="3"/>
+      <c r="O430" s="3"/>
+      <c r="P430" s="3"/>
+      <c r="Q430" s="3"/>
+      <c r="R430" s="3"/>
+      <c r="S430" s="3"/>
+      <c r="T430" s="3"/>
+    </row>
+    <row r="431" spans="2:20" ht="21.75" customHeight="1">
+      <c r="B431" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C431" s="42"/>
+      <c r="D431" s="14"/>
+      <c r="E431" s="14"/>
+      <c r="F431" s="15"/>
+      <c r="G431" s="15">
+        <f>SUM(G3:G430)</f>
+        <v>410</v>
+      </c>
+      <c r="H431" s="15"/>
+      <c r="I431" s="15"/>
+      <c r="J431" s="9"/>
+      <c r="K431" s="21"/>
+      <c r="L431" s="9"/>
+    </row>
+    <row r="433" spans="2:12" ht="75" customHeight="1">
+      <c r="B433" s="43"/>
+      <c r="C433" s="44"/>
+      <c r="D433" s="44"/>
+      <c r="E433" s="44"/>
+      <c r="F433" s="44"/>
+      <c r="G433" s="44"/>
+      <c r="H433" s="44"/>
+      <c r="I433" s="44"/>
+      <c r="J433" s="45"/>
+      <c r="K433" s="22"/>
+      <c r="L433" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L378"/>
+  <autoFilter ref="C2:L431"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B378:C378"/>
-    <mergeCell ref="B380:J380"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="B433:J433"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J378">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J431">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J56 J58:J377">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J56 J58:J430">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15806,57 +17993,106 @@
     <hyperlink ref="K285" r:id="rId170"/>
     <hyperlink ref="K286" r:id="rId171"/>
     <hyperlink ref="K288" r:id="rId172"/>
-    <hyperlink ref="K289" r:id="rId173"/>
-    <hyperlink ref="K290" r:id="rId174"/>
-    <hyperlink ref="K291" r:id="rId175"/>
-    <hyperlink ref="K293" r:id="rId176"/>
-    <hyperlink ref="K294" r:id="rId177"/>
-    <hyperlink ref="K295" r:id="rId178"/>
-    <hyperlink ref="K296" r:id="rId179"/>
-    <hyperlink ref="K297" r:id="rId180"/>
-    <hyperlink ref="K298" r:id="rId181"/>
-    <hyperlink ref="K299" r:id="rId182"/>
-    <hyperlink ref="K301" r:id="rId183"/>
-    <hyperlink ref="K302" r:id="rId184"/>
-    <hyperlink ref="K303" r:id="rId185"/>
-    <hyperlink ref="K304" r:id="rId186"/>
-    <hyperlink ref="K307" r:id="rId187"/>
-    <hyperlink ref="K309" r:id="rId188"/>
-    <hyperlink ref="K312" r:id="rId189"/>
-    <hyperlink ref="K313" r:id="rId190"/>
-    <hyperlink ref="K314" r:id="rId191"/>
-    <hyperlink ref="K316" r:id="rId192"/>
-    <hyperlink ref="K317" r:id="rId193"/>
-    <hyperlink ref="K319" r:id="rId194"/>
-    <hyperlink ref="K320" r:id="rId195"/>
-    <hyperlink ref="K321" r:id="rId196"/>
-    <hyperlink ref="K322" r:id="rId197"/>
-    <hyperlink ref="K325" r:id="rId198"/>
-    <hyperlink ref="K326" r:id="rId199"/>
-    <hyperlink ref="K327" r:id="rId200"/>
-    <hyperlink ref="K328" r:id="rId201"/>
-    <hyperlink ref="K329" r:id="rId202"/>
-    <hyperlink ref="K330" r:id="rId203"/>
-    <hyperlink ref="K331" r:id="rId204"/>
-    <hyperlink ref="K332" r:id="rId205"/>
-    <hyperlink ref="K333" r:id="rId206" display="https://xhbup.com/dtdk1/"/>
-    <hyperlink ref="K335" r:id="rId207"/>
-    <hyperlink ref="K336" r:id="rId208"/>
-    <hyperlink ref="K338" r:id="rId209"/>
-    <hyperlink ref="K339" r:id="rId210"/>
-    <hyperlink ref="K343" r:id="rId211"/>
-    <hyperlink ref="K348" r:id="rId212"/>
-    <hyperlink ref="K350" r:id="rId213"/>
-    <hyperlink ref="K347" r:id="rId214"/>
-    <hyperlink ref="K337" r:id="rId215"/>
-    <hyperlink ref="K351" r:id="rId216"/>
-    <hyperlink ref="K352" r:id="rId217"/>
-    <hyperlink ref="K353" r:id="rId218"/>
-    <hyperlink ref="K354" r:id="rId219"/>
-    <hyperlink ref="K355" r:id="rId220"/>
+    <hyperlink ref="K290" r:id="rId173"/>
+    <hyperlink ref="K291" r:id="rId174"/>
+    <hyperlink ref="K292" r:id="rId175"/>
+    <hyperlink ref="K294" r:id="rId176"/>
+    <hyperlink ref="K295" r:id="rId177"/>
+    <hyperlink ref="K296" r:id="rId178"/>
+    <hyperlink ref="K297" r:id="rId179"/>
+    <hyperlink ref="K298" r:id="rId180"/>
+    <hyperlink ref="K299" r:id="rId181"/>
+    <hyperlink ref="K300" r:id="rId182"/>
+    <hyperlink ref="K302" r:id="rId183"/>
+    <hyperlink ref="K303" r:id="rId184"/>
+    <hyperlink ref="K304" r:id="rId185"/>
+    <hyperlink ref="K305" r:id="rId186"/>
+    <hyperlink ref="K308" r:id="rId187"/>
+    <hyperlink ref="K310" r:id="rId188"/>
+    <hyperlink ref="K313" r:id="rId189"/>
+    <hyperlink ref="K314" r:id="rId190"/>
+    <hyperlink ref="K315" r:id="rId191"/>
+    <hyperlink ref="K317" r:id="rId192"/>
+    <hyperlink ref="K318" r:id="rId193"/>
+    <hyperlink ref="K320" r:id="rId194"/>
+    <hyperlink ref="K321" r:id="rId195"/>
+    <hyperlink ref="K322" r:id="rId196"/>
+    <hyperlink ref="K323" r:id="rId197"/>
+    <hyperlink ref="K326" r:id="rId198"/>
+    <hyperlink ref="K327" r:id="rId199"/>
+    <hyperlink ref="K328" r:id="rId200"/>
+    <hyperlink ref="K329" r:id="rId201"/>
+    <hyperlink ref="K330" r:id="rId202"/>
+    <hyperlink ref="K331" r:id="rId203"/>
+    <hyperlink ref="K332" r:id="rId204"/>
+    <hyperlink ref="K333" r:id="rId205"/>
+    <hyperlink ref="K334" r:id="rId206" display="https://xhbup.com/dtdk1/"/>
+    <hyperlink ref="K336" r:id="rId207"/>
+    <hyperlink ref="K337" r:id="rId208"/>
+    <hyperlink ref="K339" r:id="rId209"/>
+    <hyperlink ref="K340" r:id="rId210"/>
+    <hyperlink ref="K344" r:id="rId211"/>
+    <hyperlink ref="K349" r:id="rId212"/>
+    <hyperlink ref="K351" r:id="rId213"/>
+    <hyperlink ref="K348" r:id="rId214"/>
+    <hyperlink ref="K338" r:id="rId215"/>
+    <hyperlink ref="K352" r:id="rId216"/>
+    <hyperlink ref="K353" r:id="rId217"/>
+    <hyperlink ref="K354" r:id="rId218"/>
+    <hyperlink ref="K355" r:id="rId219"/>
+    <hyperlink ref="K356" r:id="rId220"/>
+    <hyperlink ref="K357" r:id="rId221"/>
+    <hyperlink ref="K358" r:id="rId222"/>
+    <hyperlink ref="K359" r:id="rId223"/>
+    <hyperlink ref="K362" r:id="rId224"/>
+    <hyperlink ref="K289" r:id="rId225"/>
+    <hyperlink ref="K365" r:id="rId226"/>
+    <hyperlink ref="K366" r:id="rId227"/>
+    <hyperlink ref="K367" r:id="rId228"/>
+    <hyperlink ref="K368" r:id="rId229"/>
+    <hyperlink ref="K369" r:id="rId230"/>
+    <hyperlink ref="K371" r:id="rId231"/>
+    <hyperlink ref="K372" r:id="rId232"/>
+    <hyperlink ref="K373" r:id="rId233"/>
+    <hyperlink ref="K374" r:id="rId234"/>
+    <hyperlink ref="K375" r:id="rId235"/>
+    <hyperlink ref="K376" r:id="rId236"/>
+    <hyperlink ref="K377" r:id="rId237"/>
+    <hyperlink ref="K378" r:id="rId238"/>
+    <hyperlink ref="K380" r:id="rId239"/>
+    <hyperlink ref="K381:K383" r:id="rId240" display="https://xhbup.com/bqdk1/"/>
+    <hyperlink ref="K384" r:id="rId241"/>
+    <hyperlink ref="K385" r:id="rId242"/>
+    <hyperlink ref="K386" r:id="rId243"/>
+    <hyperlink ref="K387" r:id="rId244"/>
+    <hyperlink ref="K388" r:id="rId245"/>
+    <hyperlink ref="K390" r:id="rId246"/>
+    <hyperlink ref="K391" r:id="rId247"/>
+    <hyperlink ref="K392" r:id="rId248"/>
+    <hyperlink ref="K393" r:id="rId249"/>
+    <hyperlink ref="K394" r:id="rId250"/>
+    <hyperlink ref="K395" r:id="rId251"/>
+    <hyperlink ref="K396" r:id="rId252"/>
+    <hyperlink ref="K398" r:id="rId253"/>
+    <hyperlink ref="K399" r:id="rId254"/>
+    <hyperlink ref="K400" r:id="rId255"/>
+    <hyperlink ref="K401" r:id="rId256"/>
+    <hyperlink ref="K402" r:id="rId257"/>
+    <hyperlink ref="K403" r:id="rId258"/>
+    <hyperlink ref="K404" r:id="rId259"/>
+    <hyperlink ref="K405" r:id="rId260"/>
+    <hyperlink ref="K406" r:id="rId261"/>
+    <hyperlink ref="K407" r:id="rId262"/>
+    <hyperlink ref="K408" r:id="rId263"/>
+    <hyperlink ref="K409" r:id="rId264"/>
+    <hyperlink ref="K410" r:id="rId265"/>
+    <hyperlink ref="K411" r:id="rId266"/>
+    <hyperlink ref="K412" r:id="rId267"/>
+    <hyperlink ref="K413" r:id="rId268"/>
+    <hyperlink ref="K415" r:id="rId269"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId221"/>
-  <drawing r:id="rId222"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId270"/>
+  <drawing r:id="rId271"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3291" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3315" uniqueCount="602">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -2210,6 +2210,10 @@
   </si>
   <si>
     <t>https://www.xhbup.com/sgmy/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/hhqgzx3/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2735,7 +2739,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2751,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3060,10 +3064,10 @@
   <dimension ref="B1:T433"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F399" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F412" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K415" sqref="K415"/>
+      <selection pane="bottomRight" activeCell="C418" sqref="C418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -17543,43 +17547,109 @@
       </c>
     </row>
     <row r="416" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B416" s="12"/>
-      <c r="C416" s="34"/>
-      <c r="D416" s="35"/>
-      <c r="E416" s="35"/>
-      <c r="F416" s="33"/>
-      <c r="G416" s="33"/>
-      <c r="H416" s="33"/>
-      <c r="I416" s="35"/>
-      <c r="J416" s="33"/>
-      <c r="K416" s="31"/>
-      <c r="L416" s="33"/>
+      <c r="B416" s="33">
+        <v>28</v>
+      </c>
+      <c r="C416" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D416" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E416" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="F416" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G416" s="33">
+        <v>1</v>
+      </c>
+      <c r="H416" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I416" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="J416" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K416" s="31" t="s">
+        <v>601</v>
+      </c>
+      <c r="L416" s="33" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="417" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B417" s="12"/>
-      <c r="C417" s="34"/>
-      <c r="D417" s="35"/>
-      <c r="E417" s="35"/>
-      <c r="F417" s="33"/>
-      <c r="G417" s="33"/>
-      <c r="H417" s="33"/>
-      <c r="I417" s="35"/>
-      <c r="J417" s="33"/>
-      <c r="K417" s="31"/>
-      <c r="L417" s="33"/>
+      <c r="B417" s="33">
+        <v>28</v>
+      </c>
+      <c r="C417" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D417" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E417" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="F417" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G417" s="33">
+        <v>1</v>
+      </c>
+      <c r="H417" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I417" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="J417" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K417" s="31" t="s">
+        <v>601</v>
+      </c>
+      <c r="L417" s="33" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="418" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B418" s="12"/>
-      <c r="C418" s="34"/>
-      <c r="D418" s="35"/>
-      <c r="E418" s="35"/>
-      <c r="F418" s="33"/>
-      <c r="G418" s="33"/>
-      <c r="H418" s="33"/>
-      <c r="I418" s="35"/>
-      <c r="J418" s="33"/>
-      <c r="K418" s="31"/>
-      <c r="L418" s="33"/>
+      <c r="B418" s="33">
+        <v>6</v>
+      </c>
+      <c r="C418" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D418" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E418" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F418" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G418" s="33">
+        <v>1</v>
+      </c>
+      <c r="H418" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I418" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J418" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K418" t="s">
+        <v>39</v>
+      </c>
+      <c r="L418" s="33" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="419" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B419" s="12"/>
@@ -17779,7 +17849,7 @@
       <c r="F431" s="15"/>
       <c r="G431" s="15">
         <f>SUM(G3:G430)</f>
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H431" s="15"/>
       <c r="I431" s="15"/>
@@ -18090,9 +18160,11 @@
     <hyperlink ref="K412" r:id="rId267"/>
     <hyperlink ref="K413" r:id="rId268"/>
     <hyperlink ref="K415" r:id="rId269"/>
+    <hyperlink ref="K416" r:id="rId270"/>
+    <hyperlink ref="K417" r:id="rId271"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId270"/>
-  <drawing r:id="rId271"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId272"/>
+  <drawing r:id="rId273"/>
 </worksheet>
 </file>
--- a/业务线技术支持登记表格式-5月.xlsx
+++ b/业务线技术支持登记表格式-5月.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$431</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$L$429</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3315" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="609">
   <si>
     <t>业务线支持登记表</t>
   </si>
@@ -2214,6 +2214,30 @@
   </si>
   <si>
     <t>https://xhbup.com/hhqgzx3/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/symy2/</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/jymy/</t>
+  </si>
+  <si>
+    <t>中山市汇亿旅游咨询服务有限公司</t>
+  </si>
+  <si>
+    <t>旅游</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xhbup.com/hyly/</t>
+  </si>
+  <si>
+    <t>https://xhbup.com/yayanh1/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xhbup.com/jimi22/</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2554,7 +2578,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2669,6 +2693,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2725,13 +2752,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>432</xdr:row>
+      <xdr:row>430</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>433</xdr:row>
+      <xdr:row>431</xdr:row>
       <xdr:rowOff>1574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2739,7 +2766,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2751,7 +2778,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3061,13 +3088,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:T433"/>
+  <dimension ref="B1:T431"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F412" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F254" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C418" sqref="C418"/>
+      <selection pane="bottomRight" activeCell="C266" sqref="A266:XFD266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3092,24 +3119,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
       <c r="K1" s="16"/>
       <c r="L1" s="7"/>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
     </row>
     <row r="2" spans="2:17" ht="21.75" customHeight="1">
       <c r="B2" s="8" t="s">
@@ -3196,14 +3223,14 @@
         <v>16</v>
       </c>
       <c r="O3" s="19">
-        <v>144</v>
+        <v>423</v>
       </c>
       <c r="P3" s="19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="24">
         <f>O3+P3</f>
-        <v>152</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
@@ -3245,15 +3272,15 @@
       </c>
       <c r="O4" s="20">
         <f>SUM(O3:O3)</f>
-        <v>144</v>
+        <v>423</v>
       </c>
       <c r="P4" s="20">
         <f>SUM(P3:P3)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="20">
         <f>SUM(Q3:Q3)</f>
-        <v>152</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="2:17" s="2" customFormat="1" ht="21.75" customHeight="1">
@@ -17581,7 +17608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="417" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+    <row r="417" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B417" s="33">
         <v>28</v>
       </c>
@@ -17616,7 +17643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="418" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
+    <row r="418" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
       <c r="B418" s="33">
         <v>6</v>
       </c>
@@ -17651,242 +17678,404 @@
         <v>19</v>
       </c>
     </row>
-    <row r="419" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B419" s="12"/>
-      <c r="C419" s="34"/>
-      <c r="D419" s="35"/>
-      <c r="E419" s="35"/>
-      <c r="F419" s="33"/>
-      <c r="G419" s="33"/>
-      <c r="H419" s="33"/>
-      <c r="I419" s="35"/>
-      <c r="J419" s="33"/>
-      <c r="K419" s="31"/>
-      <c r="L419" s="33"/>
-    </row>
-    <row r="420" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B420" s="12"/>
-      <c r="C420" s="34"/>
-      <c r="D420" s="35"/>
-      <c r="E420" s="26"/>
-      <c r="F420" s="33"/>
-      <c r="G420" s="33"/>
-      <c r="H420" s="33"/>
-      <c r="I420" s="35"/>
-      <c r="J420" s="33"/>
-      <c r="K420"/>
-      <c r="L420" s="33"/>
-    </row>
-    <row r="421" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B421" s="12"/>
-      <c r="C421" s="34"/>
-      <c r="D421" s="35"/>
-      <c r="E421" s="26"/>
-      <c r="F421" s="33"/>
-      <c r="G421" s="33"/>
-      <c r="H421" s="33"/>
-      <c r="I421" s="35"/>
-      <c r="J421" s="33"/>
-      <c r="K421"/>
-      <c r="L421" s="33"/>
-    </row>
-    <row r="422" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B422" s="12"/>
-      <c r="C422" s="34"/>
-      <c r="D422" s="35"/>
-      <c r="E422" s="26"/>
-      <c r="F422" s="33"/>
-      <c r="G422" s="33"/>
-      <c r="H422" s="33"/>
-      <c r="I422" s="35"/>
-      <c r="J422" s="33"/>
-      <c r="K422"/>
-      <c r="L422" s="33"/>
-    </row>
-    <row r="423" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B423" s="12"/>
-      <c r="C423" s="34"/>
-      <c r="D423" s="35"/>
-      <c r="E423" s="26"/>
-      <c r="F423" s="33"/>
-      <c r="G423" s="33"/>
-      <c r="H423" s="33"/>
-      <c r="I423" s="35"/>
-      <c r="J423" s="33"/>
-      <c r="K423"/>
-      <c r="L423" s="33"/>
-    </row>
-    <row r="424" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B424" s="12"/>
-      <c r="C424" s="34"/>
-      <c r="D424" s="35"/>
-      <c r="E424" s="26"/>
-      <c r="F424" s="33"/>
-      <c r="G424" s="33"/>
-      <c r="H424" s="33"/>
-      <c r="I424" s="35"/>
-      <c r="J424" s="33"/>
-      <c r="K424"/>
-      <c r="L424" s="33"/>
-    </row>
-    <row r="425" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B425" s="12"/>
-      <c r="C425" s="34"/>
-      <c r="D425" s="35"/>
-      <c r="E425" s="26"/>
-      <c r="F425" s="33"/>
-      <c r="G425" s="33"/>
-      <c r="H425" s="33"/>
-      <c r="I425" s="35"/>
-      <c r="J425" s="33"/>
-      <c r="K425"/>
-      <c r="L425" s="33"/>
-    </row>
-    <row r="426" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B426" s="12"/>
-      <c r="C426" s="34"/>
-      <c r="D426" s="35"/>
-      <c r="E426" s="26"/>
-      <c r="F426" s="33"/>
-      <c r="G426" s="33"/>
-      <c r="H426" s="33"/>
-      <c r="I426" s="35"/>
-      <c r="J426" s="33"/>
-      <c r="K426"/>
-      <c r="L426" s="33"/>
-    </row>
-    <row r="427" spans="2:20" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B427" s="12"/>
-      <c r="C427" s="34"/>
-      <c r="D427"/>
-      <c r="E427"/>
-      <c r="F427" s="33"/>
-      <c r="G427" s="33"/>
-      <c r="H427" s="33"/>
-      <c r="I427"/>
-      <c r="J427" s="33"/>
-      <c r="K427" s="31"/>
-      <c r="L427" s="33"/>
-      <c r="M427" s="3"/>
-      <c r="N427" s="3"/>
-      <c r="O427" s="3"/>
-      <c r="P427" s="3"/>
-      <c r="Q427" s="3"/>
-      <c r="R427" s="3"/>
-      <c r="S427" s="3"/>
-      <c r="T427" s="3"/>
-    </row>
-    <row r="428" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B428" s="12"/>
-      <c r="C428" s="10"/>
-      <c r="D428" s="13"/>
-      <c r="E428" s="13"/>
-      <c r="F428" s="25"/>
-      <c r="G428" s="9"/>
-      <c r="H428" s="9"/>
-      <c r="I428" s="13"/>
-      <c r="J428" s="9"/>
-      <c r="K428" s="13"/>
-      <c r="L428" s="9"/>
-      <c r="M428" s="3"/>
-      <c r="N428" s="3"/>
-      <c r="O428" s="3"/>
-      <c r="P428" s="3"/>
-      <c r="Q428" s="3"/>
-      <c r="R428" s="3"/>
-      <c r="S428" s="3"/>
-      <c r="T428" s="3"/>
-    </row>
-    <row r="429" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B429" s="12"/>
-      <c r="C429" s="10"/>
-      <c r="D429" s="13"/>
-      <c r="E429" s="13"/>
-      <c r="F429" s="25"/>
-      <c r="G429" s="9"/>
-      <c r="H429" s="9"/>
-      <c r="I429" s="13"/>
+    <row r="419" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B419" s="33">
+        <v>27</v>
+      </c>
+      <c r="C419" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D419" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="E419" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="F419" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G419" s="33">
+        <v>1</v>
+      </c>
+      <c r="H419" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I419" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J419" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K419" t="s">
+        <v>337</v>
+      </c>
+      <c r="L419" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="420" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B420" s="33">
+        <v>25</v>
+      </c>
+      <c r="C420" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D420" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="E420" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="F420" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G420" s="33">
+        <v>1</v>
+      </c>
+      <c r="H420" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I420" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J420" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K420" t="s">
+        <v>503</v>
+      </c>
+      <c r="L420" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="421" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B421" s="33">
+        <v>27</v>
+      </c>
+      <c r="C421" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D421" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="E421" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="F421" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G421" s="33">
+        <v>1</v>
+      </c>
+      <c r="H421" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I421" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J421" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K421" t="s">
+        <v>337</v>
+      </c>
+      <c r="L421" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="422" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B422" s="33">
+        <v>25</v>
+      </c>
+      <c r="C422" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D422" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E422" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="F422" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G422" s="33">
+        <v>1</v>
+      </c>
+      <c r="H422" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I422" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J422" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K422" t="s">
+        <v>602</v>
+      </c>
+      <c r="L422" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="423" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B423" s="33">
+        <v>26</v>
+      </c>
+      <c r="C423" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D423" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="E423" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="F423" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G423" s="33">
+        <v>1</v>
+      </c>
+      <c r="H423" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I423" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J423" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K423" t="s">
+        <v>603</v>
+      </c>
+      <c r="L423" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="424" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B424" s="33">
+        <v>28</v>
+      </c>
+      <c r="C424" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D424" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E424" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="F424" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G424" s="33">
+        <v>1</v>
+      </c>
+      <c r="H424" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I424" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="J424" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K424" s="31" t="s">
+        <v>601</v>
+      </c>
+      <c r="L424" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="425" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B425" s="33">
+        <v>28</v>
+      </c>
+      <c r="C425" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D425" t="s">
+        <v>604</v>
+      </c>
+      <c r="E425" t="s">
+        <v>604</v>
+      </c>
+      <c r="F425" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="G425" s="33">
+        <v>1</v>
+      </c>
+      <c r="H425" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I425" t="s">
+        <v>362</v>
+      </c>
+      <c r="J425" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K425" t="s">
+        <v>606</v>
+      </c>
+      <c r="L425" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="426" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B426" s="33">
+        <v>10</v>
+      </c>
+      <c r="C426" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D426" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E426" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F426" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G426" s="33">
+        <v>1</v>
+      </c>
+      <c r="H426" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I426" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J426" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K426" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="L426" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="427" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B427" s="33">
+        <v>27</v>
+      </c>
+      <c r="C427" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D427" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="E427" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="F427" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G427" s="33">
+        <v>1</v>
+      </c>
+      <c r="H427" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I427" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J427" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K427" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="L427" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="428" spans="2:12" s="32" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B428" s="33">
+        <v>26</v>
+      </c>
+      <c r="C428" s="34">
+        <v>43616</v>
+      </c>
+      <c r="D428" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E428" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="F428" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G428" s="33">
+        <v>1</v>
+      </c>
+      <c r="H428" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I428" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J428" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K428" s="38" t="s">
+        <v>608</v>
+      </c>
+      <c r="L428" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="429" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B429" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C429" s="43"/>
+      <c r="D429" s="14"/>
+      <c r="E429" s="14"/>
+      <c r="F429" s="15"/>
+      <c r="G429" s="15">
+        <f>SUM(G3:G428)</f>
+        <v>423</v>
+      </c>
+      <c r="H429" s="15"/>
+      <c r="I429" s="15"/>
       <c r="J429" s="9"/>
-      <c r="K429" s="13"/>
+      <c r="K429" s="21"/>
       <c r="L429" s="9"/>
-      <c r="M429" s="3"/>
-      <c r="N429" s="3"/>
-      <c r="O429" s="3"/>
-      <c r="P429" s="3"/>
-      <c r="Q429" s="3"/>
-      <c r="R429" s="3"/>
-      <c r="S429" s="3"/>
-      <c r="T429" s="3"/>
-    </row>
-    <row r="430" spans="2:20" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B430" s="12"/>
-      <c r="C430" s="10"/>
-      <c r="D430" s="13"/>
-      <c r="E430" s="13"/>
-      <c r="F430" s="25"/>
-      <c r="G430" s="9"/>
-      <c r="H430" s="9"/>
-      <c r="I430" s="13"/>
-      <c r="J430" s="9"/>
-      <c r="K430" s="13"/>
-      <c r="L430" s="9"/>
-      <c r="M430" s="3"/>
-      <c r="N430" s="3"/>
-      <c r="O430" s="3"/>
-      <c r="P430" s="3"/>
-      <c r="Q430" s="3"/>
-      <c r="R430" s="3"/>
-      <c r="S430" s="3"/>
-      <c r="T430" s="3"/>
-    </row>
-    <row r="431" spans="2:20" ht="21.75" customHeight="1">
-      <c r="B431" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C431" s="42"/>
-      <c r="D431" s="14"/>
-      <c r="E431" s="14"/>
-      <c r="F431" s="15"/>
-      <c r="G431" s="15">
-        <f>SUM(G3:G430)</f>
-        <v>413</v>
-      </c>
-      <c r="H431" s="15"/>
-      <c r="I431" s="15"/>
-      <c r="J431" s="9"/>
-      <c r="K431" s="21"/>
-      <c r="L431" s="9"/>
-    </row>
-    <row r="433" spans="2:12" ht="75" customHeight="1">
-      <c r="B433" s="43"/>
-      <c r="C433" s="44"/>
-      <c r="D433" s="44"/>
-      <c r="E433" s="44"/>
-      <c r="F433" s="44"/>
-      <c r="G433" s="44"/>
-      <c r="H433" s="44"/>
-      <c r="I433" s="44"/>
-      <c r="J433" s="45"/>
-      <c r="K433" s="22"/>
-      <c r="L433" s="23"/>
+    </row>
+    <row r="431" spans="2:12" ht="75" customHeight="1">
+      <c r="B431" s="44"/>
+      <c r="C431" s="45"/>
+      <c r="D431" s="45"/>
+      <c r="E431" s="45"/>
+      <c r="F431" s="45"/>
+      <c r="G431" s="45"/>
+      <c r="H431" s="45"/>
+      <c r="I431" s="45"/>
+      <c r="J431" s="46"/>
+      <c r="K431" s="22"/>
+      <c r="L431" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:L431"/>
+  <autoFilter ref="C2:L429"/>
   <sortState ref="B3:I41">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="B433:J433"/>
+    <mergeCell ref="B429:C429"/>
+    <mergeCell ref="B431:J431"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J431">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J429">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J56 J58:J430">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J56 J58:J428">
       <formula1>"H5页面制作,页面跳转修改,页面修改,H5整站制作,PC制作&amp;折成3个H5页面,跳转设置,摘包"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18162,9 +18351,15 @@
     <hyperlink ref="K415" r:id="rId269"/>
     <hyperlink ref="K416" r:id="rId270"/>
     <hyperlink ref="K417" r:id="rId271"/>
+    <hyperlink ref="K419" r:id="rId272"/>
+    <hyperlink ref="K420" r:id="rId273"/>
+    <hyperlink ref="K421" r:id="rId274"/>
+    <hyperlink ref="K424" r:id="rId275"/>
+    <hyperlink ref="K427" r:id="rId276"/>
+    <hyperlink ref="K428" r:id="rId277"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId272"/>
-  <drawing r:id="rId273"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId278"/>
+  <drawing r:id="rId279"/>
 </worksheet>
 </file>